--- a/mappings/wikipathways_reactome.xlsx
+++ b/mappings/wikipathways_reactome.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danieldomingo/PycharmProjects/compath_curation/curation/mappings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danieldomingo/PycharmProjects/curation/mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -336,30 +336,6 @@
     <t>Cannabinoid receptor signaling* isPartOf Signal Transduction</t>
   </si>
   <si>
-    <t>Canonical and Non-canonical Notch signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canonical and Non-canonical Notch signaling equivalentTo Signaling by NOTCH </t>
-  </si>
-  <si>
-    <t>Signaling by NOTCH3 isPartOf Canonical and Non-canonical Notch signaling*
-NOTCH2 Activation and Transmission of Signal to the Nucleus isPartOf Canonical and Non-canonical Notch signaling*
-Signaling by NOTCH4 isPartOf Canonical and Non-canonical Notch signaling*
-Notch-HLH transcription pathway isPartOf Canonical and Non-canonical Notch signaling*
-Canonical and Non-canonical Notch signaling* isPartOf Signal Transduction
-Signaling by NOTCH1 isPartOf Canonical and Non-canonical Notch signaling*
-Signaling by NOTCH1 t(7;9)(NOTCH1:M1580_K2555) Translocation Mutant isPartOf Canonical and Non-canonical Notch signaling*
-Activated NOTCH1 Transmits Signal to the Nucleus isPartOf Canonical and Non-canonical Notch signaling*
-Signaling by NOTCH isPartOf Canonical and Non-canonical Notch signaling*
-NOTCH3 Intracellular Domain Regulates Transcription isPartOf Canonical and Non-canonical Notch signaling*
-Signaling by NOTCH2 isPartOf Canonical and Non-canonical Notch signaling*
-Pre-NOTCH Processing in the Endoplasmic Reticulum isPartOf Canonical and Non-canonical Notch signaling*
-Defective LFNG causes SCDO3 isPartOf Canonical and Non-canonical Notch signaling*
-RUNX3 regulates NOTCH signaling isPartOf Canonical and Non-canonical Notch signaling*
-Constitutive Signaling by NOTCH1 t(7;9)(NOTCH1:M1580_K2555) Translocation Mutant isPartOf Canonical and Non-canonical Notch signaling*
-NOTCH3 Activation and Transmission of Signal to the Nucleus isPartOf Canonical and Non-canonical Notch signaling*</t>
-  </si>
-  <si>
     <t>Canonical and Non-Canonical TGF-B signaling</t>
   </si>
   <si>
@@ -2445,6 +2421,30 @@
   </si>
   <si>
     <t xml:space="preserve">p38 MAPK Signaling Pathway equivalentTo p38MAPK events </t>
+  </si>
+  <si>
+    <t>Canonical and  Non-canonical Notch signaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canonical  and Non-canonical Notch signaling equivalentTo Signaling by NOTCH </t>
+  </si>
+  <si>
+    <t>Signaling by NOTCH3 isPartOf Canonical  and Non-canonical Notch signaling*
+NOTCH2 Activation and Transmission of Signal to the Nucleus isPartOf Canonical  and Non-canonical Notch signaling*
+Signaling by NOTCH4 isPartOf Canonical  and Non-canonical Notch signaling*
+Notch-HLH transcription pathway isPartOf Canonical  and Non-canonical Notch signaling*
+Canonical  and Non-canonical Notch signaling* isPartOf Signal Transduction
+Signaling by NOTCH1 isPartOf Canonical  and Non-canonical Notch signaling*
+Signaling by NOTCH1 t(7;9)(NOTCH1:M1580_K2555) Translocation Mutant isPartOf Canonical  and Non-canonical Notch signaling*
+Activated NOTCH1 Transmits Signal to the Nucleus isPartOf Canonical  and Non-canonical Notch signaling*
+Signaling by NOTCH isPartOf Canonical  and Non-canonical Notch signaling*
+NOTCH3 Intracellular Domain Regulates Transcription isPartOf Canonical  and Non-canonical Notch signaling*
+Signaling by NOTCH2 isPartOf Canonical  and Non-canonical Notch signaling*
+Pre-NOTCH Processing in the Endoplasmic Reticulum isPartOf Canonical  and Non-canonical Notch signaling*
+Defective LFNG causes SCDO3 isPartOf Canonical  and Non-canonical Notch signaling*
+RUNX3 regulates NOTCH signaling isPartOf Canonical  and Non-canonical Notch signaling*
+Constitutive Signaling by NOTCH1 t(7;9)(NOTCH1:M1580_K2555) Translocation Mutant isPartOf Canonical  and Non-canonical Notch signaling*
+NOTCH3 Activation and Transmission of Signal to the Nucleus isPartOf Canonical  and Non-canonical Notch signaling*</t>
   </si>
 </sst>
 </file>
@@ -2811,8 +2811,8 @@
   </sheetPr>
   <dimension ref="A1:Y999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="60" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3740,7 +3740,7 @@
         <v>50</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="2"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -4135,7 +4135,7 @@
         <v>72</v>
       </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="2"/>
+      <c r="D44" s="4"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -4342,13 +4342,13 @@
     </row>
     <row r="51" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>83</v>
+        <v>669</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>84</v>
+        <v>670</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>85</v>
+        <v>671</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -4375,13 +4375,13 @@
     </row>
     <row r="52" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -4408,7 +4408,7 @@
     </row>
     <row r="53" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="54" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="55" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -4495,10 +4495,10 @@
     </row>
     <row r="56" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="2"/>
@@ -4526,7 +4526,7 @@
     </row>
     <row r="57" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -4555,7 +4555,7 @@
     </row>
     <row r="58" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="59" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -4613,11 +4613,11 @@
     </row>
     <row r="60" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -4644,13 +4644,13 @@
     </row>
     <row r="61" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -4677,11 +4677,11 @@
     </row>
     <row r="62" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -4708,7 +4708,7 @@
     </row>
     <row r="63" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -4737,11 +4737,11 @@
     </row>
     <row r="64" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -4768,11 +4768,11 @@
     </row>
     <row r="65" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -4799,11 +4799,11 @@
     </row>
     <row r="66" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="67" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -4859,13 +4859,13 @@
     </row>
     <row r="68" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -4892,11 +4892,11 @@
     </row>
     <row r="69" spans="1:25" ht="338" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -4923,11 +4923,11 @@
     </row>
     <row r="70" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -4954,7 +4954,7 @@
     </row>
     <row r="71" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -4983,11 +4983,11 @@
     </row>
     <row r="72" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -5014,11 +5014,11 @@
     </row>
     <row r="73" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -5045,11 +5045,11 @@
     </row>
     <row r="74" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -5076,13 +5076,13 @@
     </row>
     <row r="75" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -5109,7 +5109,7 @@
     </row>
     <row r="76" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -5138,11 +5138,11 @@
     </row>
     <row r="77" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -5169,7 +5169,7 @@
     </row>
     <row r="78" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -5198,11 +5198,11 @@
     </row>
     <row r="79" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -5229,11 +5229,11 @@
     </row>
     <row r="80" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -5260,11 +5260,11 @@
     </row>
     <row r="81" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -5291,11 +5291,11 @@
     </row>
     <row r="82" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -5322,10 +5322,10 @@
     </row>
     <row r="83" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="2"/>
@@ -5353,11 +5353,11 @@
     </row>
     <row r="84" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -5384,7 +5384,7 @@
     </row>
     <row r="85" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -5413,7 +5413,7 @@
     </row>
     <row r="86" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -5442,11 +5442,11 @@
     </row>
     <row r="87" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -5473,11 +5473,11 @@
     </row>
     <row r="88" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -5504,7 +5504,7 @@
     </row>
     <row r="89" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -5533,11 +5533,11 @@
     </row>
     <row r="90" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -5564,11 +5564,11 @@
     </row>
     <row r="91" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -5595,7 +5595,7 @@
     </row>
     <row r="92" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -5624,7 +5624,7 @@
     </row>
     <row r="93" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -5653,11 +5653,11 @@
     </row>
     <row r="94" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="95" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -5713,7 +5713,7 @@
     </row>
     <row r="96" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -5742,11 +5742,11 @@
     </row>
     <row r="97" spans="1:25" ht="221" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -5773,7 +5773,7 @@
     </row>
     <row r="98" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -5802,7 +5802,7 @@
     </row>
     <row r="99" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -5831,7 +5831,7 @@
     </row>
     <row r="100" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -5860,7 +5860,7 @@
     </row>
     <row r="101" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -5889,7 +5889,7 @@
     </row>
     <row r="102" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -5918,11 +5918,11 @@
     </row>
     <row r="103" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -5949,11 +5949,11 @@
     </row>
     <row r="104" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -5980,10 +5980,10 @@
     </row>
     <row r="105" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="2"/>
@@ -6011,11 +6011,11 @@
     </row>
     <row r="106" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -6042,7 +6042,7 @@
     </row>
     <row r="107" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -6071,7 +6071,7 @@
     </row>
     <row r="108" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -6100,7 +6100,7 @@
     </row>
     <row r="109" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -6129,11 +6129,11 @@
     </row>
     <row r="110" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B110" s="4"/>
       <c r="C110" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -6160,11 +6160,11 @@
     </row>
     <row r="111" spans="1:25" ht="325" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -6191,7 +6191,7 @@
     </row>
     <row r="112" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -6220,11 +6220,11 @@
     </row>
     <row r="113" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B113" s="4"/>
       <c r="C113" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -6251,7 +6251,7 @@
     </row>
     <row r="114" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -6280,7 +6280,7 @@
     </row>
     <row r="115" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -6309,10 +6309,10 @@
     </row>
     <row r="116" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="2"/>
@@ -6340,7 +6340,7 @@
     </row>
     <row r="117" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -6369,7 +6369,7 @@
     </row>
     <row r="118" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -6398,7 +6398,7 @@
     </row>
     <row r="119" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -6427,7 +6427,7 @@
     </row>
     <row r="120" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -6456,7 +6456,7 @@
     </row>
     <row r="121" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -6485,7 +6485,7 @@
     </row>
     <row r="122" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -6514,11 +6514,11 @@
     </row>
     <row r="123" spans="1:25" ht="182" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B123" s="4"/>
       <c r="C123" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -6545,13 +6545,13 @@
     </row>
     <row r="124" spans="1:25" ht="299" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -6578,11 +6578,11 @@
     </row>
     <row r="125" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B125" s="4"/>
       <c r="C125" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -6609,11 +6609,11 @@
     </row>
     <row r="126" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B126" s="4"/>
       <c r="C126" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -6640,11 +6640,11 @@
     </row>
     <row r="127" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B127" s="4"/>
       <c r="C127" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -6671,11 +6671,11 @@
     </row>
     <row r="128" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B128" s="4"/>
       <c r="C128" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -6702,11 +6702,11 @@
     </row>
     <row r="129" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B129" s="4"/>
       <c r="C129" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -6733,11 +6733,11 @@
     </row>
     <row r="130" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B130" s="4"/>
       <c r="C130" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -6764,7 +6764,7 @@
     </row>
     <row r="131" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -6793,11 +6793,11 @@
     </row>
     <row r="132" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B132" s="4"/>
       <c r="C132" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -6824,7 +6824,7 @@
     </row>
     <row r="133" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -6853,7 +6853,7 @@
     </row>
     <row r="134" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -6882,7 +6882,7 @@
     </row>
     <row r="135" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -6911,11 +6911,11 @@
     </row>
     <row r="136" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B136" s="4"/>
       <c r="C136" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -6942,11 +6942,11 @@
     </row>
     <row r="137" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B137" s="4"/>
       <c r="C137" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -6973,13 +6973,13 @@
     </row>
     <row r="138" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -7006,10 +7006,10 @@
     </row>
     <row r="139" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="2"/>
@@ -7037,10 +7037,10 @@
     </row>
     <row r="140" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="2"/>
@@ -7068,10 +7068,10 @@
     </row>
     <row r="141" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="2"/>
@@ -7099,11 +7099,11 @@
     </row>
     <row r="142" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B142" s="4"/>
       <c r="C142" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -7130,10 +7130,10 @@
     </row>
     <row r="143" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="2"/>
@@ -7161,11 +7161,11 @@
     </row>
     <row r="144" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B144" s="4"/>
       <c r="C144" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -7192,7 +7192,7 @@
     </row>
     <row r="145" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -7221,7 +7221,7 @@
     </row>
     <row r="146" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -7250,7 +7250,7 @@
     </row>
     <row r="147" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -7279,7 +7279,7 @@
     </row>
     <row r="148" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -7308,11 +7308,11 @@
     </row>
     <row r="149" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B149" s="4"/>
       <c r="C149" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -7339,11 +7339,11 @@
     </row>
     <row r="150" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B150" s="4"/>
       <c r="C150" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -7370,11 +7370,11 @@
     </row>
     <row r="151" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B151" s="4"/>
       <c r="C151" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -7401,11 +7401,11 @@
     </row>
     <row r="152" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B152" s="4"/>
       <c r="C152" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -7432,10 +7432,10 @@
     </row>
     <row r="153" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="2"/>
@@ -7463,11 +7463,11 @@
     </row>
     <row r="154" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B154" s="4"/>
       <c r="C154" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -7494,10 +7494,10 @@
     </row>
     <row r="155" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="2"/>
@@ -7525,10 +7525,10 @@
     </row>
     <row r="156" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="2"/>
@@ -7556,11 +7556,11 @@
     </row>
     <row r="157" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B157" s="4"/>
       <c r="C157" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -7587,11 +7587,11 @@
     </row>
     <row r="158" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B158" s="4"/>
       <c r="C158" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -7618,7 +7618,7 @@
     </row>
     <row r="159" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -7647,11 +7647,11 @@
     </row>
     <row r="160" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B160" s="4"/>
       <c r="C160" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -7678,7 +7678,7 @@
     </row>
     <row r="161" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -7707,10 +7707,10 @@
     </row>
     <row r="162" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="2"/>
@@ -7738,7 +7738,7 @@
     </row>
     <row r="163" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -7767,7 +7767,7 @@
     </row>
     <row r="164" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -7796,10 +7796,10 @@
     </row>
     <row r="165" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="2"/>
@@ -7827,7 +7827,7 @@
     </row>
     <row r="166" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -7856,7 +7856,7 @@
     </row>
     <row r="167" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -7885,11 +7885,11 @@
     </row>
     <row r="168" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B168" s="4"/>
       <c r="C168" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -7916,7 +7916,7 @@
     </row>
     <row r="169" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -7945,11 +7945,11 @@
     </row>
     <row r="170" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B170" s="4"/>
       <c r="C170" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -7976,10 +7976,10 @@
     </row>
     <row r="171" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="2"/>
@@ -8007,7 +8007,7 @@
     </row>
     <row r="172" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -8036,7 +8036,7 @@
     </row>
     <row r="173" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -8065,7 +8065,7 @@
     </row>
     <row r="174" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -8094,7 +8094,7 @@
     </row>
     <row r="175" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -8123,7 +8123,7 @@
     </row>
     <row r="176" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -8152,7 +8152,7 @@
     </row>
     <row r="177" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -8181,7 +8181,7 @@
     </row>
     <row r="178" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -8210,10 +8210,10 @@
     </row>
     <row r="179" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="2"/>
@@ -8241,10 +8241,10 @@
     </row>
     <row r="180" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="2"/>
@@ -8272,11 +8272,11 @@
     </row>
     <row r="181" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A181" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B181" s="4"/>
       <c r="C181" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -8303,11 +8303,11 @@
     </row>
     <row r="182" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A182" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B182" s="4"/>
       <c r="C182" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -8334,11 +8334,11 @@
     </row>
     <row r="183" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A183" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B183" s="4"/>
       <c r="C183" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -8365,10 +8365,10 @@
     </row>
     <row r="184" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="2"/>
@@ -8396,10 +8396,10 @@
     </row>
     <row r="185" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="2"/>
@@ -8427,10 +8427,10 @@
     </row>
     <row r="186" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="2"/>
@@ -8458,11 +8458,11 @@
     </row>
     <row r="187" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B187" s="4"/>
       <c r="C187" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -8489,10 +8489,10 @@
     </row>
     <row r="188" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="2"/>
@@ -8520,7 +8520,7 @@
     </row>
     <row r="189" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -8549,11 +8549,11 @@
     </row>
     <row r="190" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A190" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B190" s="4"/>
       <c r="C190" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -8580,11 +8580,11 @@
     </row>
     <row r="191" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B191" s="4"/>
       <c r="C191" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -8611,7 +8611,7 @@
     </row>
     <row r="192" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -8640,7 +8640,7 @@
     </row>
     <row r="193" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -8669,11 +8669,11 @@
     </row>
     <row r="194" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A194" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B194" s="4"/>
       <c r="C194" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -8700,11 +8700,11 @@
     </row>
     <row r="195" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A195" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B195" s="4"/>
       <c r="C195" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -8731,7 +8731,7 @@
     </row>
     <row r="196" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -8760,11 +8760,11 @@
     </row>
     <row r="197" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A197" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B197" s="4"/>
       <c r="C197" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -8791,11 +8791,11 @@
     </row>
     <row r="198" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A198" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B198" s="4"/>
       <c r="C198" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -8822,7 +8822,7 @@
     </row>
     <row r="199" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -8851,11 +8851,11 @@
     </row>
     <row r="200" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A200" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B200" s="4"/>
       <c r="C200" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -8882,11 +8882,11 @@
     </row>
     <row r="201" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A201" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B201" s="4"/>
       <c r="C201" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -8913,11 +8913,11 @@
     </row>
     <row r="202" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A202" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B202" s="4"/>
       <c r="C202" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
@@ -8944,7 +8944,7 @@
     </row>
     <row r="203" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -8973,11 +8973,11 @@
     </row>
     <row r="204" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B204" s="4"/>
       <c r="C204" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -9004,11 +9004,11 @@
     </row>
     <row r="205" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A205" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B205" s="4"/>
       <c r="C205" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -9035,11 +9035,11 @@
     </row>
     <row r="206" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B206" s="4"/>
       <c r="C206" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -9066,11 +9066,11 @@
     </row>
     <row r="207" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B207" s="4"/>
       <c r="C207" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -9097,11 +9097,11 @@
     </row>
     <row r="208" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B208" s="4"/>
       <c r="C208" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -9128,10 +9128,10 @@
     </row>
     <row r="209" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="2"/>
@@ -9159,11 +9159,11 @@
     </row>
     <row r="210" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A210" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B210" s="4"/>
       <c r="C210" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -9190,10 +9190,10 @@
     </row>
     <row r="211" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="2"/>
@@ -9221,11 +9221,11 @@
     </row>
     <row r="212" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A212" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B212" s="4"/>
       <c r="C212" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -9252,7 +9252,7 @@
     </row>
     <row r="213" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -9281,7 +9281,7 @@
     </row>
     <row r="214" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -9310,7 +9310,7 @@
     </row>
     <row r="215" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -9339,10 +9339,10 @@
     </row>
     <row r="216" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="2"/>
@@ -9370,10 +9370,10 @@
     </row>
     <row r="217" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="2"/>
@@ -9401,7 +9401,7 @@
     </row>
     <row r="218" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -9430,7 +9430,7 @@
     </row>
     <row r="219" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -9459,11 +9459,11 @@
     </row>
     <row r="220" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A220" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B220" s="4"/>
       <c r="C220" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -9490,11 +9490,11 @@
     </row>
     <row r="221" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A221" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B221" s="4"/>
       <c r="C221" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -9521,7 +9521,7 @@
     </row>
     <row r="222" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -9550,7 +9550,7 @@
     </row>
     <row r="223" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -9579,11 +9579,11 @@
     </row>
     <row r="224" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A224" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B224" s="4"/>
       <c r="C224" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -9610,11 +9610,11 @@
     </row>
     <row r="225" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A225" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B225" s="4"/>
       <c r="C225" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -9641,7 +9641,7 @@
     </row>
     <row r="226" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -9670,7 +9670,7 @@
     </row>
     <row r="227" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -9699,13 +9699,13 @@
     </row>
     <row r="228" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A228" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -9732,10 +9732,10 @@
     </row>
     <row r="229" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="2"/>
@@ -9763,7 +9763,7 @@
     </row>
     <row r="230" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -9792,11 +9792,11 @@
     </row>
     <row r="231" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A231" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B231" s="4"/>
       <c r="C231" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -9823,10 +9823,10 @@
     </row>
     <row r="232" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="2"/>
@@ -9854,11 +9854,11 @@
     </row>
     <row r="233" spans="1:25" ht="221" x14ac:dyDescent="0.15">
       <c r="A233" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B233" s="4"/>
       <c r="C233" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -9885,11 +9885,11 @@
     </row>
     <row r="234" spans="1:25" ht="273" x14ac:dyDescent="0.15">
       <c r="A234" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B234" s="4"/>
       <c r="C234" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -9916,11 +9916,11 @@
     </row>
     <row r="235" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A235" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B235" s="4"/>
       <c r="C235" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -9947,11 +9947,11 @@
     </row>
     <row r="236" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A236" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B236" s="4"/>
       <c r="C236" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -9978,7 +9978,7 @@
     </row>
     <row r="237" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -10007,11 +10007,11 @@
     </row>
     <row r="238" spans="1:25" ht="169" x14ac:dyDescent="0.15">
       <c r="A238" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B238" s="4"/>
       <c r="C238" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -10038,7 +10038,7 @@
     </row>
     <row r="239" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -10067,11 +10067,11 @@
     </row>
     <row r="240" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A240" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B240" s="4"/>
       <c r="C240" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -10098,11 +10098,11 @@
     </row>
     <row r="241" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A241" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B241" s="4"/>
       <c r="C241" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -10129,11 +10129,11 @@
     </row>
     <row r="242" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A242" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B242" s="4"/>
       <c r="C242" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -10160,7 +10160,7 @@
     </row>
     <row r="243" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -10189,7 +10189,7 @@
     </row>
     <row r="244" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -10218,7 +10218,7 @@
     </row>
     <row r="245" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -10247,11 +10247,11 @@
     </row>
     <row r="246" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A246" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B246" s="4"/>
       <c r="C246" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -10278,7 +10278,7 @@
     </row>
     <row r="247" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -10307,11 +10307,11 @@
     </row>
     <row r="248" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B248" s="4"/>
       <c r="C248" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -10338,7 +10338,7 @@
     </row>
     <row r="249" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -10367,7 +10367,7 @@
     </row>
     <row r="250" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -10396,11 +10396,11 @@
     </row>
     <row r="251" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A251" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B251" s="4"/>
       <c r="C251" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -10427,7 +10427,7 @@
     </row>
     <row r="252" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" s="4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -10456,11 +10456,11 @@
     </row>
     <row r="253" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A253" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B253" s="4"/>
       <c r="C253" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -10487,11 +10487,11 @@
     </row>
     <row r="254" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="4" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B254" s="4"/>
       <c r="C254" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -10518,10 +10518,10 @@
     </row>
     <row r="255" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A255" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="2"/>
@@ -10549,10 +10549,10 @@
     </row>
     <row r="256" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="2"/>
@@ -10580,11 +10580,11 @@
     </row>
     <row r="257" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A257" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B257" s="4"/>
       <c r="C257" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -10611,11 +10611,11 @@
     </row>
     <row r="258" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A258" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B258" s="4"/>
       <c r="C258" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -10642,7 +10642,7 @@
     </row>
     <row r="259" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="4" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -10671,10 +10671,10 @@
     </row>
     <row r="260" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="4" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="2"/>
@@ -10702,7 +10702,7 @@
     </row>
     <row r="261" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -10731,7 +10731,7 @@
     </row>
     <row r="262" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -10760,11 +10760,11 @@
     </row>
     <row r="263" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B263" s="4"/>
       <c r="C263" s="4" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -10791,11 +10791,11 @@
     </row>
     <row r="264" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B264" s="4"/>
       <c r="C264" s="4" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -10822,11 +10822,11 @@
     </row>
     <row r="265" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" s="4" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B265" s="4"/>
       <c r="C265" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -10853,7 +10853,7 @@
     </row>
     <row r="266" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A266" s="4" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -10882,7 +10882,7 @@
     </row>
     <row r="267" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" s="4" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -10911,7 +10911,7 @@
     </row>
     <row r="268" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A268" s="4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -10940,7 +10940,7 @@
     </row>
     <row r="269" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" s="4" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -10969,7 +10969,7 @@
     </row>
     <row r="270" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A270" s="4" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -10998,11 +10998,11 @@
     </row>
     <row r="271" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A271" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B271" s="4"/>
       <c r="C271" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -11029,11 +11029,11 @@
     </row>
     <row r="272" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A272" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B272" s="4"/>
       <c r="C272" s="4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -11060,11 +11060,11 @@
     </row>
     <row r="273" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A273" s="4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B273" s="4"/>
       <c r="C273" s="4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -11091,10 +11091,10 @@
     </row>
     <row r="274" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A274" s="4" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="2"/>
@@ -11122,7 +11122,7 @@
     </row>
     <row r="275" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A275" s="4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -11151,11 +11151,11 @@
     </row>
     <row r="276" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A276" s="4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B276" s="4"/>
       <c r="C276" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -11182,7 +11182,7 @@
     </row>
     <row r="277" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A277" s="4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -11211,11 +11211,11 @@
     </row>
     <row r="278" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A278" s="4" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B278" s="4"/>
       <c r="C278" s="4" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -11242,10 +11242,10 @@
     </row>
     <row r="279" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A279" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C279" s="4"/>
       <c r="D279" s="2"/>
@@ -11273,7 +11273,7 @@
     </row>
     <row r="280" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A280" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -11302,11 +11302,11 @@
     </row>
     <row r="281" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A281" s="4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B281" s="4"/>
       <c r="C281" s="4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
@@ -11333,11 +11333,11 @@
     </row>
     <row r="282" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A282" s="4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B282" s="4"/>
       <c r="C282" s="4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -11364,7 +11364,7 @@
     </row>
     <row r="283" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A283" s="4" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -11393,7 +11393,7 @@
     </row>
     <row r="284" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A284" s="4" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -11422,11 +11422,11 @@
     </row>
     <row r="285" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A285" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B285" s="4"/>
       <c r="C285" s="4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -11453,11 +11453,11 @@
     </row>
     <row r="286" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A286" s="4" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B286" s="4"/>
       <c r="C286" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -11484,7 +11484,7 @@
     </row>
     <row r="287" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A287" s="4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -11513,10 +11513,10 @@
     </row>
     <row r="288" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A288" s="4" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C288" s="4"/>
       <c r="D288" s="2"/>
@@ -11544,11 +11544,11 @@
     </row>
     <row r="289" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A289" s="4" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B289" s="4"/>
       <c r="C289" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -11575,11 +11575,11 @@
     </row>
     <row r="290" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A290" s="4" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B290" s="4"/>
       <c r="C290" s="4" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -11606,11 +11606,11 @@
     </row>
     <row r="291" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A291" s="4" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B291" s="4"/>
       <c r="C291" s="4" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -11637,7 +11637,7 @@
     </row>
     <row r="292" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A292" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -11666,7 +11666,7 @@
     </row>
     <row r="293" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A293" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -11695,7 +11695,7 @@
     </row>
     <row r="294" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A294" s="4" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -11724,7 +11724,7 @@
     </row>
     <row r="295" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A295" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -11753,7 +11753,7 @@
     </row>
     <row r="296" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A296" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -11782,7 +11782,7 @@
     </row>
     <row r="297" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A297" s="4" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -11811,11 +11811,11 @@
     </row>
     <row r="298" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A298" s="4" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B298" s="4"/>
       <c r="C298" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -11842,7 +11842,7 @@
     </row>
     <row r="299" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A299" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -11871,7 +11871,7 @@
     </row>
     <row r="300" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A300" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -11900,7 +11900,7 @@
     </row>
     <row r="301" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A301" s="4" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -11929,7 +11929,7 @@
     </row>
     <row r="302" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A302" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -11958,7 +11958,7 @@
     </row>
     <row r="303" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A303" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -11987,10 +11987,10 @@
     </row>
     <row r="304" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A304" s="4" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C304" s="4"/>
       <c r="D304" s="2"/>
@@ -12018,7 +12018,7 @@
     </row>
     <row r="305" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A305" s="4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -12047,11 +12047,11 @@
     </row>
     <row r="306" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A306" s="4" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B306" s="4"/>
       <c r="C306" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -12078,11 +12078,11 @@
     </row>
     <row r="307" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A307" s="4" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B307" s="4"/>
       <c r="C307" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -12109,11 +12109,11 @@
     </row>
     <row r="308" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A308" s="4" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B308" s="4"/>
       <c r="C308" s="4" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -12140,7 +12140,7 @@
     </row>
     <row r="309" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A309" s="4" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -12169,11 +12169,11 @@
     </row>
     <row r="310" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A310" s="4" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B310" s="4"/>
       <c r="C310" s="4" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -12200,7 +12200,7 @@
     </row>
     <row r="311" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A311" s="4" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -12229,11 +12229,11 @@
     </row>
     <row r="312" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A312" s="4" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B312" s="4"/>
       <c r="C312" s="4" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -12260,7 +12260,7 @@
     </row>
     <row r="313" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A313" s="4" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -12289,7 +12289,7 @@
     </row>
     <row r="314" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A314" s="4" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -12318,11 +12318,11 @@
     </row>
     <row r="315" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A315" s="4" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B315" s="4"/>
       <c r="C315" s="4" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -12349,7 +12349,7 @@
     </row>
     <row r="316" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A316" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -12378,11 +12378,11 @@
     </row>
     <row r="317" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A317" s="4" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B317" s="4"/>
       <c r="C317" s="4" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -12409,11 +12409,11 @@
     </row>
     <row r="318" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A318" s="4" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B318" s="4"/>
       <c r="C318" s="4" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -12440,7 +12440,7 @@
     </row>
     <row r="319" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A319" s="4" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -12469,11 +12469,11 @@
     </row>
     <row r="320" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A320" s="4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B320" s="4"/>
       <c r="C320" s="4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -12500,7 +12500,7 @@
     </row>
     <row r="321" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A321" s="4" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -12529,7 +12529,7 @@
     </row>
     <row r="322" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A322" s="4" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -12558,11 +12558,11 @@
     </row>
     <row r="323" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A323" s="4" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B323" s="4"/>
       <c r="C323" s="4" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -12589,7 +12589,7 @@
     </row>
     <row r="324" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A324" s="4" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -12618,7 +12618,7 @@
     </row>
     <row r="325" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A325" s="4" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -12647,11 +12647,11 @@
     </row>
     <row r="326" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A326" s="4" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B326" s="4"/>
       <c r="C326" s="4" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -12678,11 +12678,11 @@
     </row>
     <row r="327" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A327" s="4" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B327" s="4"/>
       <c r="C327" s="4" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -12709,7 +12709,7 @@
     </row>
     <row r="328" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A328" s="4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -12738,11 +12738,11 @@
     </row>
     <row r="329" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A329" s="4" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B329" s="4"/>
       <c r="C329" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -12769,7 +12769,7 @@
     </row>
     <row r="330" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A330" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B330" s="4"/>
       <c r="D330" s="2"/>
@@ -12797,11 +12797,11 @@
     </row>
     <row r="331" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A331" s="4" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B331" s="4"/>
       <c r="C331" s="4" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -12828,11 +12828,11 @@
     </row>
     <row r="332" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A332" s="4" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B332" s="4"/>
       <c r="C332" s="4" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -12859,7 +12859,7 @@
     </row>
     <row r="333" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A333" s="4" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -12888,7 +12888,7 @@
     </row>
     <row r="334" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A334" s="4" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -12917,11 +12917,11 @@
     </row>
     <row r="335" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A335" s="4" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B335" s="4"/>
       <c r="C335" s="4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -12948,7 +12948,7 @@
     </row>
     <row r="336" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A336" s="4" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -12977,7 +12977,7 @@
     </row>
     <row r="337" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A337" s="4" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -13006,11 +13006,11 @@
     </row>
     <row r="338" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A338" s="4" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B338" s="4"/>
       <c r="C338" s="4" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -13037,7 +13037,7 @@
     </row>
     <row r="339" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A339" s="4" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -13066,11 +13066,11 @@
     </row>
     <row r="340" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A340" s="4" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B340" s="4"/>
       <c r="C340" s="4" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -13097,7 +13097,7 @@
     </row>
     <row r="341" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A341" s="4" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -13126,10 +13126,10 @@
     </row>
     <row r="342" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A342" s="4" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C342" s="4"/>
       <c r="D342" s="2"/>
@@ -13157,7 +13157,7 @@
     </row>
     <row r="343" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A343" s="4" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -13186,7 +13186,7 @@
     </row>
     <row r="344" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A344" s="4" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -13215,7 +13215,7 @@
     </row>
     <row r="345" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A345" s="4" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -13244,11 +13244,11 @@
     </row>
     <row r="346" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A346" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B346" s="4"/>
       <c r="C346" s="4" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -13275,11 +13275,11 @@
     </row>
     <row r="347" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A347" s="4" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B347" s="4"/>
       <c r="C347" s="4" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -13306,10 +13306,10 @@
     </row>
     <row r="348" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A348" s="4" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C348" s="4"/>
       <c r="D348" s="2"/>
@@ -13337,11 +13337,11 @@
     </row>
     <row r="349" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A349" s="4" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B349" s="4"/>
       <c r="C349" s="4" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -13368,7 +13368,7 @@
     </row>
     <row r="350" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A350" s="4" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -13397,11 +13397,11 @@
     </row>
     <row r="351" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A351" s="4" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B351" s="4"/>
       <c r="C351" s="4" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -13428,7 +13428,7 @@
     </row>
     <row r="352" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A352" s="4" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -13457,11 +13457,11 @@
     </row>
     <row r="353" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A353" s="4" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B353" s="4"/>
       <c r="C353" s="4" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -13488,10 +13488,10 @@
     </row>
     <row r="354" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A354" s="4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C354" s="4"/>
       <c r="D354" s="2"/>
@@ -13519,11 +13519,11 @@
     </row>
     <row r="355" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A355" s="4" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B355" s="4"/>
       <c r="C355" s="4" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -13550,11 +13550,11 @@
     </row>
     <row r="356" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A356" s="4" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B356" s="4"/>
       <c r="C356" s="4" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -13581,7 +13581,7 @@
     </row>
     <row r="357" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A357" s="4" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -13610,10 +13610,10 @@
     </row>
     <row r="358" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A358" s="4" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C358" s="4"/>
       <c r="D358" s="2"/>
@@ -13641,7 +13641,7 @@
     </row>
     <row r="359" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A359" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -13670,7 +13670,7 @@
     </row>
     <row r="360" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A360" s="4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -13699,7 +13699,7 @@
     </row>
     <row r="361" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A361" s="4" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -13728,10 +13728,10 @@
     </row>
     <row r="362" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A362" s="4" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C362" s="4"/>
       <c r="D362" s="2"/>
@@ -13759,10 +13759,10 @@
     </row>
     <row r="363" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A363" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C363" s="4"/>
       <c r="D363" s="2"/>
@@ -13790,10 +13790,10 @@
     </row>
     <row r="364" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A364" s="4" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C364" s="4"/>
       <c r="D364" s="2"/>
@@ -13821,11 +13821,11 @@
     </row>
     <row r="365" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A365" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B365" s="4"/>
       <c r="C365" s="4" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -13852,7 +13852,7 @@
     </row>
     <row r="366" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A366" s="4" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -13881,7 +13881,7 @@
     </row>
     <row r="367" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A367" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -13910,7 +13910,7 @@
     </row>
     <row r="368" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A368" s="4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -13939,7 +13939,7 @@
     </row>
     <row r="369" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A369" s="4" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -13968,11 +13968,11 @@
     </row>
     <row r="370" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A370" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B370" s="4"/>
       <c r="C370" s="4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -13999,7 +13999,7 @@
     </row>
     <row r="371" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A371" s="4" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -14028,10 +14028,10 @@
     </row>
     <row r="372" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A372" s="4" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C372" s="4"/>
       <c r="D372" s="2"/>
@@ -14059,7 +14059,7 @@
     </row>
     <row r="373" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A373" s="4" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -14088,7 +14088,7 @@
     </row>
     <row r="374" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A374" s="4" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -14117,7 +14117,7 @@
     </row>
     <row r="375" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A375" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -14146,10 +14146,10 @@
     </row>
     <row r="376" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A376" s="4" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C376" s="4"/>
       <c r="D376" s="2"/>
@@ -14177,10 +14177,10 @@
     </row>
     <row r="377" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A377" s="4" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C377" s="4"/>
       <c r="D377" s="2"/>
@@ -14208,10 +14208,10 @@
     </row>
     <row r="378" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A378" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C378" s="4"/>
       <c r="D378" s="2"/>
@@ -14239,11 +14239,11 @@
     </row>
     <row r="379" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A379" s="4" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B379" s="4"/>
       <c r="C379" s="4" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
@@ -14270,13 +14270,13 @@
     </row>
     <row r="380" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A380" s="4" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -14303,11 +14303,11 @@
     </row>
     <row r="381" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A381" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B381" s="4"/>
       <c r="C381" s="4" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -14334,7 +14334,7 @@
     </row>
     <row r="382" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A382" s="4" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -14363,11 +14363,11 @@
     </row>
     <row r="383" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A383" s="4" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B383" s="4"/>
       <c r="C383" s="4" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -14394,11 +14394,11 @@
     </row>
     <row r="384" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A384" s="4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B384" s="4"/>
       <c r="C384" s="4" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -14425,10 +14425,10 @@
     </row>
     <row r="385" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A385" s="4" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C385" s="4"/>
       <c r="D385" s="2"/>
@@ -14456,11 +14456,11 @@
     </row>
     <row r="386" spans="1:25" ht="195" x14ac:dyDescent="0.15">
       <c r="A386" s="4" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B386" s="4"/>
       <c r="C386" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -14487,11 +14487,11 @@
     </row>
     <row r="387" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A387" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B387" s="4"/>
       <c r="C387" s="4" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -14518,7 +14518,7 @@
     </row>
     <row r="388" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A388" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -14547,7 +14547,7 @@
     </row>
     <row r="389" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A389" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -14576,7 +14576,7 @@
     </row>
     <row r="390" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A390" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -14605,10 +14605,10 @@
     </row>
     <row r="391" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A391" s="4" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C391" s="4"/>
       <c r="D391" s="2"/>
@@ -14636,11 +14636,11 @@
     </row>
     <row r="392" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A392" s="4" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B392" s="4"/>
       <c r="C392" s="4" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
@@ -14667,11 +14667,11 @@
     </row>
     <row r="393" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A393" s="4" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B393" s="4"/>
       <c r="C393" s="4" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -14698,10 +14698,10 @@
     </row>
     <row r="394" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A394" s="4" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C394" s="4"/>
       <c r="D394" s="2"/>
@@ -14729,11 +14729,11 @@
     </row>
     <row r="395" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A395" s="4" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B395" s="4"/>
       <c r="C395" s="4" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -14760,11 +14760,11 @@
     </row>
     <row r="396" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A396" s="4" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B396" s="4"/>
       <c r="C396" s="4" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -14791,11 +14791,11 @@
     </row>
     <row r="397" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A397" s="4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B397" s="4"/>
       <c r="C397" s="4" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -14822,10 +14822,10 @@
     </row>
     <row r="398" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A398" s="4" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C398" s="4"/>
       <c r="D398" s="2"/>
@@ -14853,7 +14853,7 @@
     </row>
     <row r="399" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A399" s="4" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -14882,11 +14882,11 @@
     </row>
     <row r="400" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A400" s="4" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B400" s="4"/>
       <c r="C400" s="4" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -14913,10 +14913,10 @@
     </row>
     <row r="401" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A401" s="4" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C401" s="4"/>
       <c r="D401" s="2"/>
@@ -14944,11 +14944,11 @@
     </row>
     <row r="402" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A402" s="4" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B402" s="4"/>
       <c r="C402" s="4" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
@@ -14975,7 +14975,7 @@
     </row>
     <row r="403" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A403" s="4" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -15004,7 +15004,7 @@
     </row>
     <row r="404" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A404" s="4" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -15033,11 +15033,11 @@
     </row>
     <row r="405" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A405" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B405" s="4"/>
       <c r="C405" s="4" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
@@ -15064,7 +15064,7 @@
     </row>
     <row r="406" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A406" s="4" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -15093,11 +15093,11 @@
     </row>
     <row r="407" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A407" s="4" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B407" s="4"/>
       <c r="C407" s="4" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
@@ -15124,7 +15124,7 @@
     </row>
     <row r="408" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A408" s="4" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -15153,7 +15153,7 @@
     </row>
     <row r="409" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A409" s="4" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -15182,7 +15182,7 @@
     </row>
     <row r="410" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A410" s="4" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -15211,7 +15211,7 @@
     </row>
     <row r="411" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A411" s="4" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -15240,10 +15240,10 @@
     </row>
     <row r="412" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A412" s="4" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C412" s="4"/>
       <c r="D412" s="2"/>
@@ -15271,11 +15271,11 @@
     </row>
     <row r="413" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A413" s="4" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B413" s="4"/>
       <c r="C413" s="4" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D413" s="2"/>
       <c r="E413" s="2"/>
@@ -15302,7 +15302,7 @@
     </row>
     <row r="414" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A414" s="4" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -15331,7 +15331,7 @@
     </row>
     <row r="415" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A415" s="4" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -15360,7 +15360,7 @@
     </row>
     <row r="416" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A416" s="4" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -15389,7 +15389,7 @@
     </row>
     <row r="417" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A417" s="4" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -15418,7 +15418,7 @@
     </row>
     <row r="418" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A418" s="4" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B418" s="4"/>
       <c r="C418" s="2"/>
@@ -15447,7 +15447,7 @@
     </row>
     <row r="419" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A419" s="4" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B419" s="4"/>
       <c r="C419" s="2"/>
@@ -15476,7 +15476,7 @@
     </row>
     <row r="420" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A420" s="4" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B420" s="4"/>
       <c r="C420" s="2"/>
@@ -15505,10 +15505,10 @@
     </row>
     <row r="421" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A421" s="4" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>

--- a/mappings/wikipathways_reactome.xlsx
+++ b/mappings/wikipathways_reactome.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="25580" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="669">
   <si>
     <t>WikiPathways References</t>
   </si>
@@ -32,10 +32,6 @@
     <t>equivalentTo Mappings</t>
   </si>
   <si>
-    <t xml:space="preserve">isPartOf Mappings
-</t>
-  </si>
-  <si>
     <t>4-hydroxytamoxifen, Dexamethasone, and Retinoic Acids Regulation of p27 Expression</t>
   </si>
   <si>
@@ -58,9 +54,6 @@
   </si>
   <si>
     <t>ATR Signaling</t>
-  </si>
-  <si>
-    <t>ATR Signaling* isPartOf Activation of ATR response to replication stress</t>
   </si>
   <si>
     <t>Acetylcholine Synthesis</t>
@@ -147,27 +140,6 @@
   </si>
   <si>
     <t>Apoptosis equivalentTo Apoptosis</t>
-  </si>
-  <si>
-    <t>FasL/ CD95L signaling isPartOf Apoptosis*
-Fas Ligand (FasL) pathway and Stress induction of Heat Shock Proteins (HSP) regulation isPartOf Apoptosis*
-Formation of apoptosome isPartOf Apoptosis*
-Regulation of Apoptosis by Parathyroid Hormone-related Protein isPartOf Apoptosis*
-Activation, translocation and oligomerization of BAX isPartOf Apoptosis*
-Dimerization of procaspase-8 isPartOf Apoptosis*
-Apoptosis Modulation by HSP70 isPartOf Apoptosis*
-CASP8 activity is inhibited isPartOf Apoptosis*
-TP53 Regulates Transcription of Caspase Activators and Caspases isPartOf Apoptosis*
-Nanomaterial induced apoptosis isPartOf Apoptosis*
-Activation and oligomerization of BAK protein isPartOf Apoptosis*
-Apoptotic factor-mediated response isPartOf Apoptosis*
-Cytochrome c-mediated apoptotic response isPartOf Apoptosis*
-Release of apoptotic factors from the mitochondria isPartOf Apoptosis*
-Nanoparticle triggered regulated necrosis isPartOf Apoptosis*
-Activation of caspases through apoptosome-mediated cleavage isPartOf Apoptosis*
-Apoptosis Modulation and Signaling isPartOf Apoptosis*
-SMAC-mediated apoptotic response isPartOf Apoptosis*
-Intrinsic Pathway for Apoptosis isPartOf Apoptosis*</t>
   </si>
   <si>
     <t>Apoptosis Modulation and Signaling</t>
@@ -726,9 +698,6 @@
     <t>Eukaryotic Transcription Initiation</t>
   </si>
   <si>
-    <t>Eukaryotic Translation Initiation equivalentTo Eukaryotic Transcription Initiation</t>
-  </si>
-  <si>
     <t>Evolocumab Mechanism</t>
   </si>
   <si>
@@ -890,9 +859,6 @@
     <t>GPCRs, Class C Metabotropic glutamate, pheromone</t>
   </si>
   <si>
-    <t xml:space="preserve">GPCRs, Class C Metabotropic glutamate, pheromone Class C/3 equivalentTo (Metabotropic glutamate/pheromone receptors) </t>
-  </si>
-  <si>
     <t>GPCRs, Other</t>
   </si>
   <si>
@@ -1089,9 +1055,6 @@
   </si>
   <si>
     <t>IL-2 Signaling Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interleukin-2 signaling equivalentTo IL-2 Signaling Pathway </t>
   </si>
   <si>
     <t>IL-3 Signaling Pathway</t>
@@ -2075,13 +2038,6 @@
 T-Cell Receptor and Co-stimulatory Signaling* isPartOf Immune System</t>
   </si>
   <si>
-    <t>T-Cell antigen Receptor (TCR) Signaling Pathway</t>
-  </si>
-  <si>
-    <t>T-Cell antigen Receptor (TCR) Signaling Pathway* isPartOf Immune System
-T-Cell antigen Receptor (TCR) Signaling Pathway* isPartOf Adaptive Immune System</t>
-  </si>
-  <si>
     <t>T-Cell antigen Receptor (TCR) pathway during Staphylococcus aureus infection</t>
   </si>
   <si>
@@ -2390,10 +2346,6 @@
   </si>
   <si>
     <t>miRNA Regulation of DNA Damage Response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miRNA Regulation of DNA Damage Response* isPartOf Regulation of DNA replication
-</t>
   </si>
   <si>
     <t>miRNA regulation of p53 pathway in prostate cancer</t>
@@ -2445,6 +2397,25 @@
 RUNX3 regulates NOTCH signaling isPartOf Canonical  and Non-canonical Notch signaling*
 Constitutive Signaling by NOTCH1 t(7;9)(NOTCH1:M1580_K2555) Translocation Mutant isPartOf Canonical  and Non-canonical Notch signaling*
 NOTCH3 Activation and Transmission of Signal to the Nucleus isPartOf Canonical  and Non-canonical Notch signaling*</t>
+  </si>
+  <si>
+    <t>GPCRs, Class C Metabotropic glutamate, pheromone equivalentTo Class C/3 (Metabotropic glutamate/pheromone receptors)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL-2 Signaling Pathway equivalentTo Interleukin-2 signaling </t>
+  </si>
+  <si>
+    <t>isPartOf Mappings</t>
+  </si>
+  <si>
+    <t>Activation of ATR in response to replication stress isPartOf ATR Signaling*</t>
+  </si>
+  <si>
+    <t>T-Cell antigen Receptor (TCR)  Signaling Pathway</t>
+  </si>
+  <si>
+    <t>T-Cell antigen Receptor (TCR)  Signaling Pathway* isPartOf Immune System
+T-Cell antigen Receptor (TCR)  Signaling Pathway* isPartOf Adaptive Immune System</t>
   </si>
 </sst>
 </file>
@@ -2811,8 +2782,8 @@
   </sheetPr>
   <dimension ref="A1:Y999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="60" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A399" zoomScale="60" workbookViewId="0">
+      <selection activeCell="C413" sqref="C413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2832,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>665</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -2859,7 +2830,7 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2888,7 +2859,7 @@
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2917,7 +2888,7 @@
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2946,11 +2917,11 @@
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2977,7 +2948,7 @@
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -3006,7 +2977,7 @@
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -3035,11 +3006,11 @@
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
+      <c r="C8" t="s">
+        <v>666</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3066,11 +3037,11 @@
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3097,7 +3068,7 @@
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -3126,11 +3097,11 @@
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -3157,11 +3128,11 @@
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -3188,11 +3159,11 @@
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -3219,11 +3190,11 @@
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -3250,7 +3221,7 @@
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -3279,13 +3250,13 @@
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -3312,11 +3283,11 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -3343,11 +3314,11 @@
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -3374,7 +3345,7 @@
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -3403,7 +3374,7 @@
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3432,7 +3403,7 @@
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -3461,7 +3432,7 @@
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3490,7 +3461,7 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3519,14 +3490,12 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -3552,11 +3521,11 @@
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -3583,11 +3552,11 @@
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -3614,7 +3583,7 @@
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -3643,11 +3612,11 @@
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -3674,7 +3643,7 @@
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -3703,10 +3672,10 @@
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="2"/>
@@ -3734,10 +3703,10 @@
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -3765,11 +3734,11 @@
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -3796,7 +3765,7 @@
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3825,11 +3794,11 @@
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -3856,11 +3825,11 @@
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -3887,7 +3856,7 @@
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3916,7 +3885,7 @@
     </row>
     <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -3945,11 +3914,11 @@
     </row>
     <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -3976,11 +3945,11 @@
     </row>
     <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -4007,11 +3976,11 @@
     </row>
     <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -4038,11 +4007,11 @@
     </row>
     <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -4069,7 +4038,7 @@
     </row>
     <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -4098,11 +4067,11 @@
     </row>
     <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -4129,10 +4098,10 @@
     </row>
     <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -4160,7 +4129,7 @@
     </row>
     <row r="45" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -4189,11 +4158,11 @@
     </row>
     <row r="46" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -4220,11 +4189,11 @@
     </row>
     <row r="47" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -4251,11 +4220,11 @@
     </row>
     <row r="48" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -4282,7 +4251,7 @@
     </row>
     <row r="49" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -4311,11 +4280,11 @@
     </row>
     <row r="50" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -4342,13 +4311,13 @@
     </row>
     <row r="51" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -4375,13 +4344,13 @@
     </row>
     <row r="52" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -4408,7 +4377,7 @@
     </row>
     <row r="53" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -4437,7 +4406,7 @@
     </row>
     <row r="54" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -4466,7 +4435,7 @@
     </row>
     <row r="55" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -4495,10 +4464,10 @@
     </row>
     <row r="56" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="2"/>
@@ -4526,7 +4495,7 @@
     </row>
     <row r="57" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -4555,7 +4524,7 @@
     </row>
     <row r="58" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -4584,7 +4553,7 @@
     </row>
     <row r="59" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -4613,11 +4582,11 @@
     </row>
     <row r="60" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -4644,13 +4613,13 @@
     </row>
     <row r="61" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -4677,11 +4646,11 @@
     </row>
     <row r="62" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -4708,7 +4677,7 @@
     </row>
     <row r="63" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -4737,11 +4706,11 @@
     </row>
     <row r="64" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -4768,11 +4737,11 @@
     </row>
     <row r="65" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -4799,11 +4768,11 @@
     </row>
     <row r="66" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -4830,7 +4799,7 @@
     </row>
     <row r="67" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -4859,13 +4828,13 @@
     </row>
     <row r="68" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -4892,11 +4861,11 @@
     </row>
     <row r="69" spans="1:25" ht="338" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -4923,11 +4892,11 @@
     </row>
     <row r="70" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -4954,7 +4923,7 @@
     </row>
     <row r="71" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -4983,11 +4952,11 @@
     </row>
     <row r="72" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -5014,11 +4983,11 @@
     </row>
     <row r="73" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -5045,11 +5014,11 @@
     </row>
     <row r="74" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -5076,13 +5045,13 @@
     </row>
     <row r="75" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -5109,7 +5078,7 @@
     </row>
     <row r="76" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -5138,11 +5107,11 @@
     </row>
     <row r="77" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -5169,7 +5138,7 @@
     </row>
     <row r="78" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -5198,11 +5167,11 @@
     </row>
     <row r="79" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -5229,11 +5198,11 @@
     </row>
     <row r="80" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -5260,11 +5229,11 @@
     </row>
     <row r="81" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -5291,11 +5260,11 @@
     </row>
     <row r="82" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -5322,10 +5291,10 @@
     </row>
     <row r="83" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="2"/>
@@ -5353,11 +5322,11 @@
     </row>
     <row r="84" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -5384,7 +5353,7 @@
     </row>
     <row r="85" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -5413,7 +5382,7 @@
     </row>
     <row r="86" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -5442,11 +5411,11 @@
     </row>
     <row r="87" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -5473,11 +5442,11 @@
     </row>
     <row r="88" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -5504,7 +5473,7 @@
     </row>
     <row r="89" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -5533,11 +5502,11 @@
     </row>
     <row r="90" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -5564,11 +5533,11 @@
     </row>
     <row r="91" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -5595,7 +5564,7 @@
     </row>
     <row r="92" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -5624,7 +5593,7 @@
     </row>
     <row r="93" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -5653,11 +5622,11 @@
     </row>
     <row r="94" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -5684,7 +5653,7 @@
     </row>
     <row r="95" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -5713,7 +5682,7 @@
     </row>
     <row r="96" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -5742,11 +5711,11 @@
     </row>
     <row r="97" spans="1:25" ht="221" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -5773,7 +5742,7 @@
     </row>
     <row r="98" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -5802,7 +5771,7 @@
     </row>
     <row r="99" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -5831,7 +5800,7 @@
     </row>
     <row r="100" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -5860,7 +5829,7 @@
     </row>
     <row r="101" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -5889,7 +5858,7 @@
     </row>
     <row r="102" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -5918,11 +5887,11 @@
     </row>
     <row r="103" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -5949,11 +5918,11 @@
     </row>
     <row r="104" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -5980,10 +5949,10 @@
     </row>
     <row r="105" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="2"/>
@@ -6011,11 +5980,11 @@
     </row>
     <row r="106" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -6042,7 +6011,7 @@
     </row>
     <row r="107" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -6071,7 +6040,7 @@
     </row>
     <row r="108" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -6100,7 +6069,7 @@
     </row>
     <row r="109" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -6129,11 +6098,11 @@
     </row>
     <row r="110" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B110" s="4"/>
       <c r="C110" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -6160,11 +6129,11 @@
     </row>
     <row r="111" spans="1:25" ht="325" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -6191,7 +6160,7 @@
     </row>
     <row r="112" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -6220,11 +6189,11 @@
     </row>
     <row r="113" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B113" s="4"/>
       <c r="C113" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -6251,7 +6220,7 @@
     </row>
     <row r="114" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -6280,7 +6249,7 @@
     </row>
     <row r="115" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -6307,13 +6276,11 @@
       <c r="X115" s="2"/>
       <c r="Y115" s="2"/>
     </row>
-    <row r="116" spans="1:25" ht="26" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>187</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -6340,7 +6307,7 @@
     </row>
     <row r="117" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -6369,7 +6336,7 @@
     </row>
     <row r="118" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -6398,7 +6365,7 @@
     </row>
     <row r="119" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -6427,7 +6394,7 @@
     </row>
     <row r="120" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -6456,7 +6423,7 @@
     </row>
     <row r="121" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -6485,7 +6452,7 @@
     </row>
     <row r="122" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -6514,11 +6481,11 @@
     </row>
     <row r="123" spans="1:25" ht="182" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B123" s="4"/>
       <c r="C123" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -6545,13 +6512,13 @@
     </row>
     <row r="124" spans="1:25" ht="299" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -6578,11 +6545,11 @@
     </row>
     <row r="125" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B125" s="4"/>
       <c r="C125" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -6609,11 +6576,11 @@
     </row>
     <row r="126" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B126" s="4"/>
       <c r="C126" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -6640,11 +6607,11 @@
     </row>
     <row r="127" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B127" s="4"/>
       <c r="C127" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -6671,11 +6638,11 @@
     </row>
     <row r="128" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B128" s="4"/>
       <c r="C128" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -6702,11 +6669,11 @@
     </row>
     <row r="129" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B129" s="4"/>
       <c r="C129" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -6733,11 +6700,11 @@
     </row>
     <row r="130" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B130" s="4"/>
       <c r="C130" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -6764,7 +6731,7 @@
     </row>
     <row r="131" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -6793,11 +6760,11 @@
     </row>
     <row r="132" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B132" s="4"/>
       <c r="C132" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -6824,7 +6791,7 @@
     </row>
     <row r="133" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -6853,7 +6820,7 @@
     </row>
     <row r="134" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -6882,7 +6849,7 @@
     </row>
     <row r="135" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -6911,11 +6878,11 @@
     </row>
     <row r="136" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B136" s="4"/>
       <c r="C136" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -6942,11 +6909,11 @@
     </row>
     <row r="137" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B137" s="4"/>
       <c r="C137" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -6973,13 +6940,13 @@
     </row>
     <row r="138" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -7006,10 +6973,10 @@
     </row>
     <row r="139" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="2"/>
@@ -7037,10 +7004,10 @@
     </row>
     <row r="140" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="2"/>
@@ -7068,10 +7035,10 @@
     </row>
     <row r="141" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>229</v>
+        <v>663</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="2"/>
@@ -7099,11 +7066,11 @@
     </row>
     <row r="142" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B142" s="4"/>
       <c r="C142" s="4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -7130,10 +7097,10 @@
     </row>
     <row r="143" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="2"/>
@@ -7161,11 +7128,11 @@
     </row>
     <row r="144" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B144" s="4"/>
       <c r="C144" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -7192,7 +7159,7 @@
     </row>
     <row r="145" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -7221,7 +7188,7 @@
     </row>
     <row r="146" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -7250,7 +7217,7 @@
     </row>
     <row r="147" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -7279,7 +7246,7 @@
     </row>
     <row r="148" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -7308,11 +7275,11 @@
     </row>
     <row r="149" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B149" s="4"/>
       <c r="C149" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -7339,11 +7306,11 @@
     </row>
     <row r="150" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B150" s="4"/>
       <c r="C150" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -7370,11 +7337,11 @@
     </row>
     <row r="151" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B151" s="4"/>
       <c r="C151" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -7401,11 +7368,11 @@
     </row>
     <row r="152" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B152" s="4"/>
       <c r="C152" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -7432,10 +7399,10 @@
     </row>
     <row r="153" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="2"/>
@@ -7463,11 +7430,11 @@
     </row>
     <row r="154" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B154" s="4"/>
       <c r="C154" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -7494,10 +7461,10 @@
     </row>
     <row r="155" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="2"/>
@@ -7525,10 +7492,10 @@
     </row>
     <row r="156" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="2"/>
@@ -7556,11 +7523,11 @@
     </row>
     <row r="157" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B157" s="4"/>
       <c r="C157" s="4" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -7587,11 +7554,11 @@
     </row>
     <row r="158" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B158" s="4"/>
       <c r="C158" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -7618,7 +7585,7 @@
     </row>
     <row r="159" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -7647,11 +7614,11 @@
     </row>
     <row r="160" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B160" s="4"/>
       <c r="C160" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -7678,7 +7645,7 @@
     </row>
     <row r="161" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -7707,10 +7674,10 @@
     </row>
     <row r="162" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="2"/>
@@ -7738,7 +7705,7 @@
     </row>
     <row r="163" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -7767,7 +7734,7 @@
     </row>
     <row r="164" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -7796,10 +7763,10 @@
     </row>
     <row r="165" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="2"/>
@@ -7827,7 +7794,7 @@
     </row>
     <row r="166" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -7856,7 +7823,7 @@
     </row>
     <row r="167" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -7885,11 +7852,11 @@
     </row>
     <row r="168" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B168" s="4"/>
       <c r="C168" s="4" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -7916,7 +7883,7 @@
     </row>
     <row r="169" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -7945,11 +7912,11 @@
     </row>
     <row r="170" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B170" s="4"/>
       <c r="C170" s="4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -7976,10 +7943,10 @@
     </row>
     <row r="171" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="2"/>
@@ -8007,7 +7974,7 @@
     </row>
     <row r="172" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="4" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -8036,7 +8003,7 @@
     </row>
     <row r="173" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -8065,7 +8032,7 @@
     </row>
     <row r="174" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -8094,7 +8061,7 @@
     </row>
     <row r="175" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="4" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -8123,7 +8090,7 @@
     </row>
     <row r="176" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -8152,7 +8119,7 @@
     </row>
     <row r="177" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -8181,7 +8148,7 @@
     </row>
     <row r="178" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -8210,10 +8177,10 @@
     </row>
     <row r="179" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="2"/>
@@ -8241,10 +8208,10 @@
     </row>
     <row r="180" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>289</v>
+        <v>664</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="2"/>
@@ -8272,11 +8239,11 @@
     </row>
     <row r="181" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A181" s="4" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B181" s="4"/>
       <c r="C181" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -8303,11 +8270,11 @@
     </row>
     <row r="182" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A182" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B182" s="4"/>
       <c r="C182" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -8334,11 +8301,11 @@
     </row>
     <row r="183" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A183" s="4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B183" s="4"/>
       <c r="C183" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -8365,10 +8332,10 @@
     </row>
     <row r="184" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="2"/>
@@ -8396,10 +8363,10 @@
     </row>
     <row r="185" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="2"/>
@@ -8427,10 +8394,10 @@
     </row>
     <row r="186" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="4" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="2"/>
@@ -8458,11 +8425,11 @@
     </row>
     <row r="187" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B187" s="4"/>
       <c r="C187" s="4" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -8489,10 +8456,10 @@
     </row>
     <row r="188" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="4" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="2"/>
@@ -8520,7 +8487,7 @@
     </row>
     <row r="189" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="4" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -8549,11 +8516,11 @@
     </row>
     <row r="190" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A190" s="4" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B190" s="4"/>
       <c r="C190" s="4" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -8580,11 +8547,11 @@
     </row>
     <row r="191" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B191" s="4"/>
       <c r="C191" s="4" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -8611,7 +8578,7 @@
     </row>
     <row r="192" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="4" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -8640,7 +8607,7 @@
     </row>
     <row r="193" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="4" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -8669,11 +8636,11 @@
     </row>
     <row r="194" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A194" s="4" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B194" s="4"/>
       <c r="C194" s="4" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -8700,11 +8667,11 @@
     </row>
     <row r="195" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A195" s="4" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B195" s="4"/>
       <c r="C195" s="4" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -8731,7 +8698,7 @@
     </row>
     <row r="196" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="4" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -8760,11 +8727,11 @@
     </row>
     <row r="197" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A197" s="4" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B197" s="4"/>
       <c r="C197" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -8791,11 +8758,11 @@
     </row>
     <row r="198" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A198" s="4" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B198" s="4"/>
       <c r="C198" s="4" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -8822,7 +8789,7 @@
     </row>
     <row r="199" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="4" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -8851,11 +8818,11 @@
     </row>
     <row r="200" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A200" s="4" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B200" s="4"/>
       <c r="C200" s="4" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -8882,11 +8849,11 @@
     </row>
     <row r="201" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A201" s="4" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B201" s="4"/>
       <c r="C201" s="4" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -8913,11 +8880,11 @@
     </row>
     <row r="202" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A202" s="4" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B202" s="4"/>
       <c r="C202" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
@@ -8944,7 +8911,7 @@
     </row>
     <row r="203" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="4" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -8973,11 +8940,11 @@
     </row>
     <row r="204" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="4" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B204" s="4"/>
       <c r="C204" s="4" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -9004,11 +8971,11 @@
     </row>
     <row r="205" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A205" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B205" s="4"/>
       <c r="C205" s="4" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -9035,11 +9002,11 @@
     </row>
     <row r="206" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="4" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B206" s="4"/>
       <c r="C206" s="4" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -9066,11 +9033,11 @@
     </row>
     <row r="207" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="4" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B207" s="4"/>
       <c r="C207" s="4" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -9097,11 +9064,11 @@
     </row>
     <row r="208" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="4" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B208" s="4"/>
       <c r="C208" s="4" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -9128,10 +9095,10 @@
     </row>
     <row r="209" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="4" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="2"/>
@@ -9159,11 +9126,11 @@
     </row>
     <row r="210" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A210" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B210" s="4"/>
       <c r="C210" s="4" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -9190,10 +9157,10 @@
     </row>
     <row r="211" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="4" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="2"/>
@@ -9221,11 +9188,11 @@
     </row>
     <row r="212" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A212" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B212" s="4"/>
       <c r="C212" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -9252,7 +9219,7 @@
     </row>
     <row r="213" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="4" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -9281,7 +9248,7 @@
     </row>
     <row r="214" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -9310,7 +9277,7 @@
     </row>
     <row r="215" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="4" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -9339,10 +9306,10 @@
     </row>
     <row r="216" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="4" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="2"/>
@@ -9370,10 +9337,10 @@
     </row>
     <row r="217" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="2"/>
@@ -9401,7 +9368,7 @@
     </row>
     <row r="218" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="4" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -9430,7 +9397,7 @@
     </row>
     <row r="219" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="4" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -9459,11 +9426,11 @@
     </row>
     <row r="220" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A220" s="4" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B220" s="4"/>
       <c r="C220" s="4" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -9490,11 +9457,11 @@
     </row>
     <row r="221" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A221" s="4" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B221" s="4"/>
       <c r="C221" s="4" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -9521,7 +9488,7 @@
     </row>
     <row r="222" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="4" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -9550,7 +9517,7 @@
     </row>
     <row r="223" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="4" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -9579,11 +9546,11 @@
     </row>
     <row r="224" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A224" s="4" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B224" s="4"/>
       <c r="C224" s="4" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -9610,11 +9577,11 @@
     </row>
     <row r="225" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A225" s="4" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B225" s="4"/>
       <c r="C225" s="4" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -9641,7 +9608,7 @@
     </row>
     <row r="226" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="4" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -9670,7 +9637,7 @@
     </row>
     <row r="227" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="4" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -9699,13 +9666,13 @@
     </row>
     <row r="228" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A228" s="4" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -9732,10 +9699,10 @@
     </row>
     <row r="229" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="4" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="2"/>
@@ -9763,7 +9730,7 @@
     </row>
     <row r="230" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="4" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -9792,11 +9759,11 @@
     </row>
     <row r="231" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A231" s="4" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B231" s="4"/>
       <c r="C231" s="4" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -9823,10 +9790,10 @@
     </row>
     <row r="232" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="2"/>
@@ -9854,11 +9821,11 @@
     </row>
     <row r="233" spans="1:25" ht="221" x14ac:dyDescent="0.15">
       <c r="A233" s="4" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B233" s="4"/>
       <c r="C233" s="4" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -9885,11 +9852,11 @@
     </row>
     <row r="234" spans="1:25" ht="273" x14ac:dyDescent="0.15">
       <c r="A234" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B234" s="4"/>
       <c r="C234" s="4" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -9916,11 +9883,11 @@
     </row>
     <row r="235" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A235" s="4" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B235" s="4"/>
       <c r="C235" s="4" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -9947,11 +9914,11 @@
     </row>
     <row r="236" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A236" s="4" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B236" s="4"/>
       <c r="C236" s="4" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -9978,7 +9945,7 @@
     </row>
     <row r="237" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -10007,11 +9974,11 @@
     </row>
     <row r="238" spans="1:25" ht="169" x14ac:dyDescent="0.15">
       <c r="A238" s="4" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B238" s="4"/>
       <c r="C238" s="4" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -10038,7 +10005,7 @@
     </row>
     <row r="239" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="4" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -10067,11 +10034,11 @@
     </row>
     <row r="240" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A240" s="4" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B240" s="4"/>
       <c r="C240" s="4" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -10098,11 +10065,11 @@
     </row>
     <row r="241" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A241" s="4" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B241" s="4"/>
       <c r="C241" s="4" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -10129,11 +10096,11 @@
     </row>
     <row r="242" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A242" s="4" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B242" s="4"/>
       <c r="C242" s="4" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -10160,7 +10127,7 @@
     </row>
     <row r="243" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="4" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -10189,7 +10156,7 @@
     </row>
     <row r="244" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="4" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -10218,7 +10185,7 @@
     </row>
     <row r="245" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="4" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -10247,11 +10214,11 @@
     </row>
     <row r="246" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A246" s="4" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B246" s="4"/>
       <c r="C246" s="4" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -10278,7 +10245,7 @@
     </row>
     <row r="247" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="4" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -10307,11 +10274,11 @@
     </row>
     <row r="248" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="4" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B248" s="4"/>
       <c r="C248" s="4" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -10338,7 +10305,7 @@
     </row>
     <row r="249" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="4" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -10367,7 +10334,7 @@
     </row>
     <row r="250" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" s="4" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -10396,11 +10363,11 @@
     </row>
     <row r="251" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A251" s="4" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B251" s="4"/>
       <c r="C251" s="4" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -10427,7 +10394,7 @@
     </row>
     <row r="252" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" s="4" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -10456,11 +10423,11 @@
     </row>
     <row r="253" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A253" s="4" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B253" s="4"/>
       <c r="C253" s="4" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -10487,11 +10454,11 @@
     </row>
     <row r="254" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="4" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B254" s="4"/>
       <c r="C254" s="4" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -10518,10 +10485,10 @@
     </row>
     <row r="255" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A255" s="4" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="2"/>
@@ -10549,10 +10516,10 @@
     </row>
     <row r="256" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="4" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="2"/>
@@ -10580,11 +10547,11 @@
     </row>
     <row r="257" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A257" s="4" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B257" s="4"/>
       <c r="C257" s="4" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -10611,11 +10578,11 @@
     </row>
     <row r="258" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A258" s="4" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B258" s="4"/>
       <c r="C258" s="4" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -10642,7 +10609,7 @@
     </row>
     <row r="259" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="4" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -10671,10 +10638,10 @@
     </row>
     <row r="260" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="4" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="2"/>
@@ -10702,7 +10669,7 @@
     </row>
     <row r="261" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="4" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -10731,7 +10698,7 @@
     </row>
     <row r="262" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" s="4" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -10760,11 +10727,11 @@
     </row>
     <row r="263" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" s="4" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B263" s="4"/>
       <c r="C263" s="4" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -10791,11 +10758,11 @@
     </row>
     <row r="264" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" s="4" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B264" s="4"/>
       <c r="C264" s="4" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -10822,11 +10789,11 @@
     </row>
     <row r="265" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" s="4" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B265" s="4"/>
       <c r="C265" s="4" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -10853,7 +10820,7 @@
     </row>
     <row r="266" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A266" s="4" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -10882,7 +10849,7 @@
     </row>
     <row r="267" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" s="4" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -10911,7 +10878,7 @@
     </row>
     <row r="268" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A268" s="4" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -10940,7 +10907,7 @@
     </row>
     <row r="269" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -10969,7 +10936,7 @@
     </row>
     <row r="270" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A270" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -10998,11 +10965,11 @@
     </row>
     <row r="271" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A271" s="4" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B271" s="4"/>
       <c r="C271" s="4" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -11029,11 +10996,11 @@
     </row>
     <row r="272" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A272" s="4" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B272" s="4"/>
       <c r="C272" s="4" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -11060,11 +11027,11 @@
     </row>
     <row r="273" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A273" s="4" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B273" s="4"/>
       <c r="C273" s="4" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -11091,10 +11058,10 @@
     </row>
     <row r="274" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A274" s="4" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="2"/>
@@ -11122,7 +11089,7 @@
     </row>
     <row r="275" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A275" s="4" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -11151,11 +11118,11 @@
     </row>
     <row r="276" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A276" s="4" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B276" s="4"/>
       <c r="C276" s="4" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -11182,7 +11149,7 @@
     </row>
     <row r="277" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A277" s="4" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -11211,11 +11178,11 @@
     </row>
     <row r="278" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A278" s="4" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B278" s="4"/>
       <c r="C278" s="4" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -11242,10 +11209,10 @@
     </row>
     <row r="279" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A279" s="4" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C279" s="4"/>
       <c r="D279" s="2"/>
@@ -11273,7 +11240,7 @@
     </row>
     <row r="280" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A280" s="4" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -11302,11 +11269,11 @@
     </row>
     <row r="281" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A281" s="4" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B281" s="4"/>
       <c r="C281" s="4" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
@@ -11333,11 +11300,11 @@
     </row>
     <row r="282" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A282" s="4" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B282" s="4"/>
       <c r="C282" s="4" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -11364,7 +11331,7 @@
     </row>
     <row r="283" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A283" s="4" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -11393,7 +11360,7 @@
     </row>
     <row r="284" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A284" s="4" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -11422,11 +11389,11 @@
     </row>
     <row r="285" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A285" s="4" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B285" s="4"/>
       <c r="C285" s="4" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -11453,11 +11420,11 @@
     </row>
     <row r="286" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A286" s="4" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B286" s="4"/>
       <c r="C286" s="4" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -11484,7 +11451,7 @@
     </row>
     <row r="287" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A287" s="4" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -11513,10 +11480,10 @@
     </row>
     <row r="288" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A288" s="4" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C288" s="4"/>
       <c r="D288" s="2"/>
@@ -11544,11 +11511,11 @@
     </row>
     <row r="289" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A289" s="4" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B289" s="4"/>
       <c r="C289" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -11575,11 +11542,11 @@
     </row>
     <row r="290" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A290" s="4" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B290" s="4"/>
       <c r="C290" s="4" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -11606,11 +11573,11 @@
     </row>
     <row r="291" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A291" s="4" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B291" s="4"/>
       <c r="C291" s="4" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -11637,7 +11604,7 @@
     </row>
     <row r="292" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A292" s="4" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -11666,7 +11633,7 @@
     </row>
     <row r="293" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A293" s="4" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -11695,7 +11662,7 @@
     </row>
     <row r="294" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A294" s="4" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -11724,7 +11691,7 @@
     </row>
     <row r="295" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A295" s="4" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -11753,7 +11720,7 @@
     </row>
     <row r="296" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A296" s="4" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -11782,7 +11749,7 @@
     </row>
     <row r="297" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A297" s="4" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -11811,11 +11778,11 @@
     </row>
     <row r="298" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A298" s="4" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B298" s="4"/>
       <c r="C298" s="4" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -11842,7 +11809,7 @@
     </row>
     <row r="299" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A299" s="4" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -11871,7 +11838,7 @@
     </row>
     <row r="300" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A300" s="4" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -11900,7 +11867,7 @@
     </row>
     <row r="301" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A301" s="4" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -11929,7 +11896,7 @@
     </row>
     <row r="302" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A302" s="4" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -11958,7 +11925,7 @@
     </row>
     <row r="303" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A303" s="4" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -11987,10 +11954,10 @@
     </row>
     <row r="304" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A304" s="4" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C304" s="4"/>
       <c r="D304" s="2"/>
@@ -12018,7 +11985,7 @@
     </row>
     <row r="305" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A305" s="4" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -12047,11 +12014,11 @@
     </row>
     <row r="306" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A306" s="4" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B306" s="4"/>
       <c r="C306" s="4" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -12078,11 +12045,11 @@
     </row>
     <row r="307" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A307" s="4" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B307" s="4"/>
       <c r="C307" s="4" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -12109,11 +12076,11 @@
     </row>
     <row r="308" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A308" s="4" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B308" s="4"/>
       <c r="C308" s="4" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -12140,7 +12107,7 @@
     </row>
     <row r="309" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A309" s="4" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -12169,11 +12136,11 @@
     </row>
     <row r="310" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A310" s="4" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B310" s="4"/>
       <c r="C310" s="4" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -12200,7 +12167,7 @@
     </row>
     <row r="311" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A311" s="4" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -12229,11 +12196,11 @@
     </row>
     <row r="312" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A312" s="4" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B312" s="4"/>
       <c r="C312" s="4" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -12260,7 +12227,7 @@
     </row>
     <row r="313" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A313" s="4" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -12289,7 +12256,7 @@
     </row>
     <row r="314" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A314" s="4" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -12318,11 +12285,11 @@
     </row>
     <row r="315" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A315" s="4" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B315" s="4"/>
       <c r="C315" s="4" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -12349,7 +12316,7 @@
     </row>
     <row r="316" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A316" s="4" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -12378,11 +12345,11 @@
     </row>
     <row r="317" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A317" s="4" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B317" s="4"/>
       <c r="C317" s="4" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -12409,11 +12376,11 @@
     </row>
     <row r="318" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A318" s="4" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B318" s="4"/>
       <c r="C318" s="4" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -12440,7 +12407,7 @@
     </row>
     <row r="319" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A319" s="4" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -12469,11 +12436,11 @@
     </row>
     <row r="320" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A320" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B320" s="4"/>
       <c r="C320" s="4" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -12500,7 +12467,7 @@
     </row>
     <row r="321" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A321" s="4" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -12529,7 +12496,7 @@
     </row>
     <row r="322" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A322" s="4" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -12558,11 +12525,11 @@
     </row>
     <row r="323" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A323" s="4" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B323" s="4"/>
       <c r="C323" s="4" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -12589,7 +12556,7 @@
     </row>
     <row r="324" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A324" s="4" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -12618,7 +12585,7 @@
     </row>
     <row r="325" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A325" s="4" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -12647,11 +12614,11 @@
     </row>
     <row r="326" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A326" s="4" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B326" s="4"/>
       <c r="C326" s="4" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -12678,11 +12645,11 @@
     </row>
     <row r="327" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A327" s="4" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B327" s="4"/>
       <c r="C327" s="4" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -12709,7 +12676,7 @@
     </row>
     <row r="328" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A328" s="4" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -12738,11 +12705,11 @@
     </row>
     <row r="329" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A329" s="4" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B329" s="4"/>
       <c r="C329" s="4" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -12769,7 +12736,7 @@
     </row>
     <row r="330" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A330" s="4" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B330" s="4"/>
       <c r="D330" s="2"/>
@@ -12797,11 +12764,11 @@
     </row>
     <row r="331" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A331" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B331" s="4"/>
       <c r="C331" s="4" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -12828,11 +12795,11 @@
     </row>
     <row r="332" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A332" s="4" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B332" s="4"/>
       <c r="C332" s="4" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -12859,7 +12826,7 @@
     </row>
     <row r="333" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A333" s="4" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -12888,7 +12855,7 @@
     </row>
     <row r="334" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A334" s="4" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -12917,11 +12884,11 @@
     </row>
     <row r="335" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A335" s="4" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B335" s="4"/>
       <c r="C335" s="4" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -12948,7 +12915,7 @@
     </row>
     <row r="336" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A336" s="4" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -12977,7 +12944,7 @@
     </row>
     <row r="337" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A337" s="4" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -13006,11 +12973,11 @@
     </row>
     <row r="338" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A338" s="4" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B338" s="4"/>
       <c r="C338" s="4" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -13037,7 +13004,7 @@
     </row>
     <row r="339" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A339" s="4" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -13066,11 +13033,11 @@
     </row>
     <row r="340" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A340" s="4" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B340" s="4"/>
       <c r="C340" s="4" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -13097,7 +13064,7 @@
     </row>
     <row r="341" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A341" s="4" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -13126,10 +13093,10 @@
     </row>
     <row r="342" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A342" s="4" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C342" s="4"/>
       <c r="D342" s="2"/>
@@ -13157,7 +13124,7 @@
     </row>
     <row r="343" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A343" s="4" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -13186,7 +13153,7 @@
     </row>
     <row r="344" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A344" s="4" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -13215,7 +13182,7 @@
     </row>
     <row r="345" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A345" s="4" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -13244,11 +13211,11 @@
     </row>
     <row r="346" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A346" s="4" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B346" s="4"/>
       <c r="C346" s="4" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -13275,11 +13242,11 @@
     </row>
     <row r="347" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A347" s="4" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B347" s="4"/>
       <c r="C347" s="4" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -13306,10 +13273,10 @@
     </row>
     <row r="348" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A348" s="4" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C348" s="4"/>
       <c r="D348" s="2"/>
@@ -13337,11 +13304,11 @@
     </row>
     <row r="349" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A349" s="4" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B349" s="4"/>
       <c r="C349" s="4" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -13368,7 +13335,7 @@
     </row>
     <row r="350" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A350" s="4" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -13397,11 +13364,11 @@
     </row>
     <row r="351" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A351" s="4" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B351" s="4"/>
       <c r="C351" s="4" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -13428,7 +13395,7 @@
     </row>
     <row r="352" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A352" s="4" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -13457,11 +13424,11 @@
     </row>
     <row r="353" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A353" s="4" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B353" s="4"/>
       <c r="C353" s="4" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -13488,10 +13455,10 @@
     </row>
     <row r="354" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A354" s="4" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C354" s="4"/>
       <c r="D354" s="2"/>
@@ -13519,11 +13486,11 @@
     </row>
     <row r="355" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A355" s="4" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B355" s="4"/>
       <c r="C355" s="4" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -13550,11 +13517,11 @@
     </row>
     <row r="356" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A356" s="4" t="s">
-        <v>567</v>
+        <v>667</v>
       </c>
       <c r="B356" s="4"/>
       <c r="C356" s="4" t="s">
-        <v>568</v>
+        <v>668</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -13581,7 +13548,7 @@
     </row>
     <row r="357" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A357" s="4" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -13610,10 +13577,10 @@
     </row>
     <row r="358" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A358" s="4" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="C358" s="4"/>
       <c r="D358" s="2"/>
@@ -13641,7 +13608,7 @@
     </row>
     <row r="359" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A359" s="4" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -13670,7 +13637,7 @@
     </row>
     <row r="360" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A360" s="4" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -13699,7 +13666,7 @@
     </row>
     <row r="361" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A361" s="4" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -13728,10 +13695,10 @@
     </row>
     <row r="362" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A362" s="4" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="C362" s="4"/>
       <c r="D362" s="2"/>
@@ -13759,10 +13726,10 @@
     </row>
     <row r="363" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A363" s="4" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="C363" s="4"/>
       <c r="D363" s="2"/>
@@ -13790,10 +13757,10 @@
     </row>
     <row r="364" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A364" s="4" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C364" s="4"/>
       <c r="D364" s="2"/>
@@ -13821,11 +13788,11 @@
     </row>
     <row r="365" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A365" s="4" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="B365" s="4"/>
       <c r="C365" s="4" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -13852,7 +13819,7 @@
     </row>
     <row r="366" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A366" s="4" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -13881,7 +13848,7 @@
     </row>
     <row r="367" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A367" s="4" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -13910,7 +13877,7 @@
     </row>
     <row r="368" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A368" s="4" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -13939,7 +13906,7 @@
     </row>
     <row r="369" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A369" s="4" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -13968,11 +13935,11 @@
     </row>
     <row r="370" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A370" s="4" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="B370" s="4"/>
       <c r="C370" s="4" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -13999,7 +13966,7 @@
     </row>
     <row r="371" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A371" s="4" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -14028,10 +13995,10 @@
     </row>
     <row r="372" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A372" s="4" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="C372" s="4"/>
       <c r="D372" s="2"/>
@@ -14059,7 +14026,7 @@
     </row>
     <row r="373" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A373" s="4" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -14088,7 +14055,7 @@
     </row>
     <row r="374" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A374" s="4" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -14117,7 +14084,7 @@
     </row>
     <row r="375" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A375" s="4" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -14146,10 +14113,10 @@
     </row>
     <row r="376" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A376" s="4" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="C376" s="4"/>
       <c r="D376" s="2"/>
@@ -14177,10 +14144,10 @@
     </row>
     <row r="377" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A377" s="4" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="C377" s="4"/>
       <c r="D377" s="2"/>
@@ -14208,10 +14175,10 @@
     </row>
     <row r="378" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A378" s="4" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="C378" s="4"/>
       <c r="D378" s="2"/>
@@ -14239,11 +14206,11 @@
     </row>
     <row r="379" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A379" s="4" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="B379" s="4"/>
       <c r="C379" s="4" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
@@ -14270,13 +14237,13 @@
     </row>
     <row r="380" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A380" s="4" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -14303,11 +14270,11 @@
     </row>
     <row r="381" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A381" s="4" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="B381" s="4"/>
       <c r="C381" s="4" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -14334,7 +14301,7 @@
     </row>
     <row r="382" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A382" s="4" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -14363,11 +14330,11 @@
     </row>
     <row r="383" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A383" s="4" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="B383" s="4"/>
       <c r="C383" s="4" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -14394,11 +14361,11 @@
     </row>
     <row r="384" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A384" s="4" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="B384" s="4"/>
       <c r="C384" s="4" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -14425,10 +14392,10 @@
     </row>
     <row r="385" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A385" s="4" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="C385" s="4"/>
       <c r="D385" s="2"/>
@@ -14456,11 +14423,11 @@
     </row>
     <row r="386" spans="1:25" ht="195" x14ac:dyDescent="0.15">
       <c r="A386" s="4" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="B386" s="4"/>
       <c r="C386" s="4" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -14487,11 +14454,11 @@
     </row>
     <row r="387" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A387" s="4" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="B387" s="4"/>
       <c r="C387" s="4" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -14518,7 +14485,7 @@
     </row>
     <row r="388" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A388" s="4" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -14547,7 +14514,7 @@
     </row>
     <row r="389" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A389" s="4" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -14576,7 +14543,7 @@
     </row>
     <row r="390" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A390" s="4" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -14605,10 +14572,10 @@
     </row>
     <row r="391" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A391" s="4" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="C391" s="4"/>
       <c r="D391" s="2"/>
@@ -14636,11 +14603,11 @@
     </row>
     <row r="392" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A392" s="4" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="B392" s="4"/>
       <c r="C392" s="4" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
@@ -14667,11 +14634,11 @@
     </row>
     <row r="393" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A393" s="4" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="B393" s="4"/>
       <c r="C393" s="4" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -14698,10 +14665,10 @@
     </row>
     <row r="394" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A394" s="4" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="C394" s="4"/>
       <c r="D394" s="2"/>
@@ -14729,11 +14696,11 @@
     </row>
     <row r="395" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A395" s="4" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="B395" s="4"/>
       <c r="C395" s="4" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -14760,11 +14727,11 @@
     </row>
     <row r="396" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A396" s="4" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="B396" s="4"/>
       <c r="C396" s="4" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -14791,11 +14758,11 @@
     </row>
     <row r="397" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A397" s="4" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="B397" s="4"/>
       <c r="C397" s="4" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -14822,10 +14789,10 @@
     </row>
     <row r="398" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A398" s="4" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="C398" s="4"/>
       <c r="D398" s="2"/>
@@ -14853,7 +14820,7 @@
     </row>
     <row r="399" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A399" s="4" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -14882,11 +14849,11 @@
     </row>
     <row r="400" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A400" s="4" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="B400" s="4"/>
       <c r="C400" s="4" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -14913,10 +14880,10 @@
     </row>
     <row r="401" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A401" s="4" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="C401" s="4"/>
       <c r="D401" s="2"/>
@@ -14944,11 +14911,11 @@
     </row>
     <row r="402" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A402" s="4" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="B402" s="4"/>
       <c r="C402" s="4" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
@@ -14975,7 +14942,7 @@
     </row>
     <row r="403" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A403" s="4" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -15004,7 +14971,7 @@
     </row>
     <row r="404" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A404" s="4" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -15033,11 +15000,11 @@
     </row>
     <row r="405" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A405" s="4" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="B405" s="4"/>
       <c r="C405" s="4" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
@@ -15064,7 +15031,7 @@
     </row>
     <row r="406" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A406" s="4" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -15093,11 +15060,11 @@
     </row>
     <row r="407" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A407" s="4" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="B407" s="4"/>
       <c r="C407" s="4" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
@@ -15124,7 +15091,7 @@
     </row>
     <row r="408" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A408" s="4" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -15153,7 +15120,7 @@
     </row>
     <row r="409" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A409" s="4" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -15182,7 +15149,7 @@
     </row>
     <row r="410" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A410" s="4" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -15211,7 +15178,7 @@
     </row>
     <row r="411" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A411" s="4" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -15240,10 +15207,10 @@
     </row>
     <row r="412" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A412" s="4" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="C412" s="4"/>
       <c r="D412" s="2"/>
@@ -15269,14 +15236,12 @@
       <c r="X412" s="2"/>
       <c r="Y412" s="2"/>
     </row>
-    <row r="413" spans="1:25" ht="39" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A413" s="4" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="B413" s="4"/>
-      <c r="C413" s="4" t="s">
-        <v>659</v>
-      </c>
+      <c r="C413" s="4"/>
       <c r="D413" s="2"/>
       <c r="E413" s="2"/>
       <c r="F413" s="2"/>
@@ -15302,7 +15267,7 @@
     </row>
     <row r="414" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A414" s="4" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -15331,7 +15296,7 @@
     </row>
     <row r="415" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A415" s="4" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -15360,7 +15325,7 @@
     </row>
     <row r="416" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A416" s="4" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -15389,7 +15354,7 @@
     </row>
     <row r="417" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A417" s="4" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -15418,7 +15383,7 @@
     </row>
     <row r="418" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A418" s="4" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="B418" s="4"/>
       <c r="C418" s="2"/>
@@ -15447,7 +15412,7 @@
     </row>
     <row r="419" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A419" s="4" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="B419" s="4"/>
       <c r="C419" s="2"/>
@@ -15476,7 +15441,7 @@
     </row>
     <row r="420" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A420" s="4" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="B420" s="4"/>
       <c r="C420" s="2"/>
@@ -15505,10 +15470,10 @@
     </row>
     <row r="421" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A421" s="4" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>

--- a/mappings/wikipathways_reactome.xlsx
+++ b/mappings/wikipathways_reactome.xlsx
@@ -713,9 +713,6 @@
     <t>Factors and pathways affecting insulin-like growth factor (IGF1)-Akt signaling</t>
   </si>
   <si>
-    <t>Farnesoid X Receptor Pathway</t>
-  </si>
-  <si>
     <t>Fas Ligand (FasL) pathway and Stress induction of Heat Shock Proteins (HSP) regulation</t>
   </si>
   <si>
@@ -2416,6 +2413,9 @@
   <si>
     <t>T-Cell antigen Receptor (TCR)  Signaling Pathway* isPartOf Immune System
 T-Cell antigen Receptor (TCR)  Signaling Pathway* isPartOf Adaptive Immune System</t>
+  </si>
+  <si>
+    <t>Farnesoid X Receptor  Pathway</t>
   </si>
 </sst>
 </file>
@@ -2782,8 +2782,8 @@
   </sheetPr>
   <dimension ref="A1:Y999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A399" zoomScale="60" workbookViewId="0">
-      <selection activeCell="C413" sqref="C413"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="60" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2803,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -4311,13 +4311,13 @@
     </row>
     <row r="51" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>661</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>662</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -6452,7 +6452,7 @@
     </row>
     <row r="122" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
-        <v>189</v>
+        <v>668</v>
       </c>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -6481,11 +6481,11 @@
     </row>
     <row r="123" spans="1:25" ht="182" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B123" s="4"/>
       <c r="C123" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -6512,13 +6512,13 @@
     </row>
     <row r="124" spans="1:25" ht="299" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B124" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="C124" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -6545,11 +6545,11 @@
     </row>
     <row r="125" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B125" s="4"/>
       <c r="C125" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -6576,11 +6576,11 @@
     </row>
     <row r="126" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B126" s="4"/>
       <c r="C126" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -6607,11 +6607,11 @@
     </row>
     <row r="127" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B127" s="4"/>
       <c r="C127" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -6638,11 +6638,11 @@
     </row>
     <row r="128" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B128" s="4"/>
       <c r="C128" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -6669,11 +6669,11 @@
     </row>
     <row r="129" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B129" s="4"/>
       <c r="C129" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -6700,11 +6700,11 @@
     </row>
     <row r="130" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B130" s="4"/>
       <c r="C130" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -6731,7 +6731,7 @@
     </row>
     <row r="131" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -6760,11 +6760,11 @@
     </row>
     <row r="132" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B132" s="4"/>
       <c r="C132" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -6791,7 +6791,7 @@
     </row>
     <row r="133" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -6820,7 +6820,7 @@
     </row>
     <row r="134" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -6849,7 +6849,7 @@
     </row>
     <row r="135" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -6878,11 +6878,11 @@
     </row>
     <row r="136" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B136" s="4"/>
       <c r="C136" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -6909,11 +6909,11 @@
     </row>
     <row r="137" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B137" s="4"/>
       <c r="C137" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -6940,13 +6940,13 @@
     </row>
     <row r="138" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="C138" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -6973,10 +6973,10 @@
     </row>
     <row r="139" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B139" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="2"/>
@@ -7004,10 +7004,10 @@
     </row>
     <row r="140" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="2"/>
@@ -7035,10 +7035,10 @@
     </row>
     <row r="141" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="2"/>
@@ -7066,11 +7066,11 @@
     </row>
     <row r="142" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B142" s="4"/>
       <c r="C142" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -7097,10 +7097,10 @@
     </row>
     <row r="143" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="2"/>
@@ -7128,11 +7128,11 @@
     </row>
     <row r="144" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B144" s="4"/>
       <c r="C144" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -7159,7 +7159,7 @@
     </row>
     <row r="145" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -7188,7 +7188,7 @@
     </row>
     <row r="146" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -7217,7 +7217,7 @@
     </row>
     <row r="147" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -7246,7 +7246,7 @@
     </row>
     <row r="148" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -7275,11 +7275,11 @@
     </row>
     <row r="149" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B149" s="4"/>
       <c r="C149" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -7306,11 +7306,11 @@
     </row>
     <row r="150" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B150" s="4"/>
       <c r="C150" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -7337,11 +7337,11 @@
     </row>
     <row r="151" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B151" s="4"/>
       <c r="C151" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -7368,11 +7368,11 @@
     </row>
     <row r="152" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B152" s="4"/>
       <c r="C152" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -7399,10 +7399,10 @@
     </row>
     <row r="153" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>244</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="2"/>
@@ -7430,11 +7430,11 @@
     </row>
     <row r="154" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B154" s="4"/>
       <c r="C154" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -7461,10 +7461,10 @@
     </row>
     <row r="155" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B155" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>248</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="2"/>
@@ -7492,10 +7492,10 @@
     </row>
     <row r="156" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B156" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="2"/>
@@ -7523,11 +7523,11 @@
     </row>
     <row r="157" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B157" s="4"/>
       <c r="C157" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -7554,11 +7554,11 @@
     </row>
     <row r="158" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B158" s="4"/>
       <c r="C158" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -7585,7 +7585,7 @@
     </row>
     <row r="159" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -7614,11 +7614,11 @@
     </row>
     <row r="160" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B160" s="4"/>
       <c r="C160" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -7645,7 +7645,7 @@
     </row>
     <row r="161" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -7674,10 +7674,10 @@
     </row>
     <row r="162" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B162" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="2"/>
@@ -7705,7 +7705,7 @@
     </row>
     <row r="163" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -7734,7 +7734,7 @@
     </row>
     <row r="164" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -7763,10 +7763,10 @@
     </row>
     <row r="165" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="2"/>
@@ -7794,7 +7794,7 @@
     </row>
     <row r="166" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -7823,7 +7823,7 @@
     </row>
     <row r="167" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -7852,11 +7852,11 @@
     </row>
     <row r="168" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B168" s="4"/>
       <c r="C168" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -7883,7 +7883,7 @@
     </row>
     <row r="169" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -7912,11 +7912,11 @@
     </row>
     <row r="170" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B170" s="4"/>
       <c r="C170" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -7943,10 +7943,10 @@
     </row>
     <row r="171" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B171" s="4" t="s">
         <v>272</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>273</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="2"/>
@@ -7974,7 +7974,7 @@
     </row>
     <row r="172" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -8003,7 +8003,7 @@
     </row>
     <row r="173" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -8032,7 +8032,7 @@
     </row>
     <row r="174" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -8061,7 +8061,7 @@
     </row>
     <row r="175" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -8090,7 +8090,7 @@
     </row>
     <row r="176" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -8119,7 +8119,7 @@
     </row>
     <row r="177" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -8148,7 +8148,7 @@
     </row>
     <row r="178" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -8177,10 +8177,10 @@
     </row>
     <row r="179" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B179" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="2"/>
@@ -8208,10 +8208,10 @@
     </row>
     <row r="180" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="2"/>
@@ -8239,11 +8239,11 @@
     </row>
     <row r="181" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A181" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B181" s="4"/>
       <c r="C181" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -8270,11 +8270,11 @@
     </row>
     <row r="182" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A182" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B182" s="4"/>
       <c r="C182" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -8301,11 +8301,11 @@
     </row>
     <row r="183" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A183" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B183" s="4"/>
       <c r="C183" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -8332,10 +8332,10 @@
     </row>
     <row r="184" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B184" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>291</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="2"/>
@@ -8363,10 +8363,10 @@
     </row>
     <row r="185" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B185" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>293</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="2"/>
@@ -8394,10 +8394,10 @@
     </row>
     <row r="186" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B186" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="2"/>
@@ -8425,11 +8425,11 @@
     </row>
     <row r="187" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B187" s="4"/>
       <c r="C187" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -8456,10 +8456,10 @@
     </row>
     <row r="188" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B188" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>299</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="2"/>
@@ -8487,7 +8487,7 @@
     </row>
     <row r="189" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -8516,11 +8516,11 @@
     </row>
     <row r="190" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A190" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B190" s="4"/>
       <c r="C190" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -8547,11 +8547,11 @@
     </row>
     <row r="191" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B191" s="4"/>
       <c r="C191" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -8578,7 +8578,7 @@
     </row>
     <row r="192" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -8607,7 +8607,7 @@
     </row>
     <row r="193" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -8636,11 +8636,11 @@
     </row>
     <row r="194" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A194" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B194" s="4"/>
       <c r="C194" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -8667,11 +8667,11 @@
     </row>
     <row r="195" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A195" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B195" s="4"/>
       <c r="C195" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -8698,7 +8698,7 @@
     </row>
     <row r="196" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -8727,11 +8727,11 @@
     </row>
     <row r="197" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A197" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B197" s="4"/>
       <c r="C197" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -8758,11 +8758,11 @@
     </row>
     <row r="198" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A198" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B198" s="4"/>
       <c r="C198" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -8789,7 +8789,7 @@
     </row>
     <row r="199" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -8818,11 +8818,11 @@
     </row>
     <row r="200" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A200" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B200" s="4"/>
       <c r="C200" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -8849,11 +8849,11 @@
     </row>
     <row r="201" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A201" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B201" s="4"/>
       <c r="C201" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -8880,11 +8880,11 @@
     </row>
     <row r="202" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A202" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B202" s="4"/>
       <c r="C202" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
@@ -8911,7 +8911,7 @@
     </row>
     <row r="203" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -8940,11 +8940,11 @@
     </row>
     <row r="204" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B204" s="4"/>
       <c r="C204" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -8971,11 +8971,11 @@
     </row>
     <row r="205" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A205" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B205" s="4"/>
       <c r="C205" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -9002,11 +9002,11 @@
     </row>
     <row r="206" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B206" s="4"/>
       <c r="C206" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -9033,11 +9033,11 @@
     </row>
     <row r="207" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B207" s="4"/>
       <c r="C207" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -9064,11 +9064,11 @@
     </row>
     <row r="208" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B208" s="4"/>
       <c r="C208" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -9095,10 +9095,10 @@
     </row>
     <row r="209" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B209" s="4" t="s">
         <v>334</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>335</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="2"/>
@@ -9126,11 +9126,11 @@
     </row>
     <row r="210" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A210" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B210" s="4"/>
       <c r="C210" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -9157,10 +9157,10 @@
     </row>
     <row r="211" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B211" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="2"/>
@@ -9188,11 +9188,11 @@
     </row>
     <row r="212" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A212" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B212" s="4"/>
       <c r="C212" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -9219,7 +9219,7 @@
     </row>
     <row r="213" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -9248,7 +9248,7 @@
     </row>
     <row r="214" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -9277,7 +9277,7 @@
     </row>
     <row r="215" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -9306,10 +9306,10 @@
     </row>
     <row r="216" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B216" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>346</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="2"/>
@@ -9337,10 +9337,10 @@
     </row>
     <row r="217" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B217" s="4" t="s">
         <v>347</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>348</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="2"/>
@@ -9368,7 +9368,7 @@
     </row>
     <row r="218" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -9397,7 +9397,7 @@
     </row>
     <row r="219" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -9426,11 +9426,11 @@
     </row>
     <row r="220" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A220" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B220" s="4"/>
       <c r="C220" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -9457,11 +9457,11 @@
     </row>
     <row r="221" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A221" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B221" s="4"/>
       <c r="C221" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -9488,7 +9488,7 @@
     </row>
     <row r="222" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -9517,7 +9517,7 @@
     </row>
     <row r="223" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -9546,11 +9546,11 @@
     </row>
     <row r="224" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A224" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B224" s="4"/>
       <c r="C224" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -9577,11 +9577,11 @@
     </row>
     <row r="225" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A225" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B225" s="4"/>
       <c r="C225" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -9608,7 +9608,7 @@
     </row>
     <row r="226" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -9637,7 +9637,7 @@
     </row>
     <row r="227" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -9666,13 +9666,13 @@
     </row>
     <row r="228" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A228" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B228" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="B228" s="4" t="s">
+      <c r="C228" s="4" t="s">
         <v>364</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>365</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -9699,10 +9699,10 @@
     </row>
     <row r="229" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B229" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="B229" s="4" t="s">
-        <v>367</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="2"/>
@@ -9730,7 +9730,7 @@
     </row>
     <row r="230" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -9759,11 +9759,11 @@
     </row>
     <row r="231" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A231" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B231" s="4"/>
       <c r="C231" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -9790,10 +9790,10 @@
     </row>
     <row r="232" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B232" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="2"/>
@@ -9821,11 +9821,11 @@
     </row>
     <row r="233" spans="1:25" ht="221" x14ac:dyDescent="0.15">
       <c r="A233" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B233" s="4"/>
       <c r="C233" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -9852,11 +9852,11 @@
     </row>
     <row r="234" spans="1:25" ht="273" x14ac:dyDescent="0.15">
       <c r="A234" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B234" s="4"/>
       <c r="C234" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -9883,11 +9883,11 @@
     </row>
     <row r="235" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A235" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B235" s="4"/>
       <c r="C235" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -9914,11 +9914,11 @@
     </row>
     <row r="236" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A236" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B236" s="4"/>
       <c r="C236" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -9945,7 +9945,7 @@
     </row>
     <row r="237" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -9974,11 +9974,11 @@
     </row>
     <row r="238" spans="1:25" ht="169" x14ac:dyDescent="0.15">
       <c r="A238" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B238" s="4"/>
       <c r="C238" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -10005,7 +10005,7 @@
     </row>
     <row r="239" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -10034,11 +10034,11 @@
     </row>
     <row r="240" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A240" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B240" s="4"/>
       <c r="C240" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -10065,11 +10065,11 @@
     </row>
     <row r="241" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A241" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B241" s="4"/>
       <c r="C241" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -10096,11 +10096,11 @@
     </row>
     <row r="242" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A242" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B242" s="4"/>
       <c r="C242" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -10127,7 +10127,7 @@
     </row>
     <row r="243" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -10156,7 +10156,7 @@
     </row>
     <row r="244" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -10185,7 +10185,7 @@
     </row>
     <row r="245" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -10214,11 +10214,11 @@
     </row>
     <row r="246" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A246" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B246" s="4"/>
       <c r="C246" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -10245,7 +10245,7 @@
     </row>
     <row r="247" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -10274,11 +10274,11 @@
     </row>
     <row r="248" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B248" s="4"/>
       <c r="C248" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -10305,7 +10305,7 @@
     </row>
     <row r="249" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -10334,7 +10334,7 @@
     </row>
     <row r="250" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -10363,11 +10363,11 @@
     </row>
     <row r="251" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A251" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B251" s="4"/>
       <c r="C251" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -10394,7 +10394,7 @@
     </row>
     <row r="252" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -10423,11 +10423,11 @@
     </row>
     <row r="253" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A253" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B253" s="4"/>
       <c r="C253" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -10454,11 +10454,11 @@
     </row>
     <row r="254" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B254" s="4"/>
       <c r="C254" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -10485,10 +10485,10 @@
     </row>
     <row r="255" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A255" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B255" s="4" t="s">
         <v>408</v>
-      </c>
-      <c r="B255" s="4" t="s">
-        <v>409</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="2"/>
@@ -10516,10 +10516,10 @@
     </row>
     <row r="256" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B256" s="4" t="s">
         <v>410</v>
-      </c>
-      <c r="B256" s="4" t="s">
-        <v>411</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="2"/>
@@ -10547,11 +10547,11 @@
     </row>
     <row r="257" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A257" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B257" s="4"/>
       <c r="C257" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -10578,11 +10578,11 @@
     </row>
     <row r="258" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A258" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B258" s="4"/>
       <c r="C258" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -10609,7 +10609,7 @@
     </row>
     <row r="259" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -10638,10 +10638,10 @@
     </row>
     <row r="260" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B260" s="4" t="s">
         <v>417</v>
-      </c>
-      <c r="B260" s="4" t="s">
-        <v>418</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="2"/>
@@ -10669,7 +10669,7 @@
     </row>
     <row r="261" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -10698,7 +10698,7 @@
     </row>
     <row r="262" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -10727,11 +10727,11 @@
     </row>
     <row r="263" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B263" s="4"/>
       <c r="C263" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -10758,11 +10758,11 @@
     </row>
     <row r="264" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B264" s="4"/>
       <c r="C264" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -10789,11 +10789,11 @@
     </row>
     <row r="265" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B265" s="4"/>
       <c r="C265" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -10820,7 +10820,7 @@
     </row>
     <row r="266" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A266" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -10849,7 +10849,7 @@
     </row>
     <row r="267" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -10878,7 +10878,7 @@
     </row>
     <row r="268" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A268" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -10907,7 +10907,7 @@
     </row>
     <row r="269" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -10936,7 +10936,7 @@
     </row>
     <row r="270" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A270" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -10965,11 +10965,11 @@
     </row>
     <row r="271" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A271" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B271" s="4"/>
       <c r="C271" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -10996,11 +10996,11 @@
     </row>
     <row r="272" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A272" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B272" s="4"/>
       <c r="C272" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -11027,11 +11027,11 @@
     </row>
     <row r="273" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A273" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B273" s="4"/>
       <c r="C273" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -11058,10 +11058,10 @@
     </row>
     <row r="274" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A274" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B274" s="4" t="s">
         <v>438</v>
-      </c>
-      <c r="B274" s="4" t="s">
-        <v>439</v>
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="2"/>
@@ -11089,7 +11089,7 @@
     </row>
     <row r="275" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A275" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -11118,11 +11118,11 @@
     </row>
     <row r="276" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A276" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B276" s="4"/>
       <c r="C276" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -11149,7 +11149,7 @@
     </row>
     <row r="277" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A277" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -11178,11 +11178,11 @@
     </row>
     <row r="278" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A278" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B278" s="4"/>
       <c r="C278" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -11209,10 +11209,10 @@
     </row>
     <row r="279" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A279" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B279" s="4" t="s">
         <v>446</v>
-      </c>
-      <c r="B279" s="4" t="s">
-        <v>447</v>
       </c>
       <c r="C279" s="4"/>
       <c r="D279" s="2"/>
@@ -11240,7 +11240,7 @@
     </row>
     <row r="280" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A280" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -11269,11 +11269,11 @@
     </row>
     <row r="281" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A281" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B281" s="4"/>
       <c r="C281" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
@@ -11300,11 +11300,11 @@
     </row>
     <row r="282" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A282" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B282" s="4"/>
       <c r="C282" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -11331,7 +11331,7 @@
     </row>
     <row r="283" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A283" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -11360,7 +11360,7 @@
     </row>
     <row r="284" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A284" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -11389,11 +11389,11 @@
     </row>
     <row r="285" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A285" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B285" s="4"/>
       <c r="C285" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -11420,11 +11420,11 @@
     </row>
     <row r="286" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A286" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B286" s="4"/>
       <c r="C286" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -11451,7 +11451,7 @@
     </row>
     <row r="287" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A287" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -11480,10 +11480,10 @@
     </row>
     <row r="288" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A288" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="B288" s="4" t="s">
         <v>460</v>
-      </c>
-      <c r="B288" s="4" t="s">
-        <v>461</v>
       </c>
       <c r="C288" s="4"/>
       <c r="D288" s="2"/>
@@ -11511,11 +11511,11 @@
     </row>
     <row r="289" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A289" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B289" s="4"/>
       <c r="C289" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -11542,11 +11542,11 @@
     </row>
     <row r="290" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A290" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B290" s="4"/>
       <c r="C290" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -11573,11 +11573,11 @@
     </row>
     <row r="291" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A291" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B291" s="4"/>
       <c r="C291" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -11604,7 +11604,7 @@
     </row>
     <row r="292" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A292" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -11633,7 +11633,7 @@
     </row>
     <row r="293" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A293" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -11662,7 +11662,7 @@
     </row>
     <row r="294" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A294" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -11691,7 +11691,7 @@
     </row>
     <row r="295" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A295" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -11720,7 +11720,7 @@
     </row>
     <row r="296" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A296" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -11749,7 +11749,7 @@
     </row>
     <row r="297" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A297" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -11778,11 +11778,11 @@
     </row>
     <row r="298" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A298" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B298" s="4"/>
       <c r="C298" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -11809,7 +11809,7 @@
     </row>
     <row r="299" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A299" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -11838,7 +11838,7 @@
     </row>
     <row r="300" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A300" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -11867,7 +11867,7 @@
     </row>
     <row r="301" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A301" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -11896,7 +11896,7 @@
     </row>
     <row r="302" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A302" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -11925,7 +11925,7 @@
     </row>
     <row r="303" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A303" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -11954,10 +11954,10 @@
     </row>
     <row r="304" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A304" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B304" s="4" t="s">
         <v>481</v>
-      </c>
-      <c r="B304" s="4" t="s">
-        <v>482</v>
       </c>
       <c r="C304" s="4"/>
       <c r="D304" s="2"/>
@@ -11985,7 +11985,7 @@
     </row>
     <row r="305" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A305" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -12014,11 +12014,11 @@
     </row>
     <row r="306" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A306" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B306" s="4"/>
       <c r="C306" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -12045,11 +12045,11 @@
     </row>
     <row r="307" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A307" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B307" s="4"/>
       <c r="C307" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -12076,11 +12076,11 @@
     </row>
     <row r="308" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A308" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B308" s="4"/>
       <c r="C308" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -12107,7 +12107,7 @@
     </row>
     <row r="309" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A309" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -12136,11 +12136,11 @@
     </row>
     <row r="310" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A310" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B310" s="4"/>
       <c r="C310" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -12167,7 +12167,7 @@
     </row>
     <row r="311" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A311" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -12196,11 +12196,11 @@
     </row>
     <row r="312" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A312" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B312" s="4"/>
       <c r="C312" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -12227,7 +12227,7 @@
     </row>
     <row r="313" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A313" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -12256,7 +12256,7 @@
     </row>
     <row r="314" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A314" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -12285,11 +12285,11 @@
     </row>
     <row r="315" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A315" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B315" s="4"/>
       <c r="C315" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -12316,7 +12316,7 @@
     </row>
     <row r="316" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A316" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -12345,11 +12345,11 @@
     </row>
     <row r="317" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A317" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B317" s="4"/>
       <c r="C317" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -12376,11 +12376,11 @@
     </row>
     <row r="318" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A318" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B318" s="4"/>
       <c r="C318" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -12407,7 +12407,7 @@
     </row>
     <row r="319" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A319" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -12436,11 +12436,11 @@
     </row>
     <row r="320" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A320" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B320" s="4"/>
       <c r="C320" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -12467,7 +12467,7 @@
     </row>
     <row r="321" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A321" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -12496,7 +12496,7 @@
     </row>
     <row r="322" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A322" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -12525,11 +12525,11 @@
     </row>
     <row r="323" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A323" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B323" s="4"/>
       <c r="C323" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -12556,7 +12556,7 @@
     </row>
     <row r="324" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A324" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -12585,7 +12585,7 @@
     </row>
     <row r="325" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A325" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -12614,11 +12614,11 @@
     </row>
     <row r="326" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A326" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B326" s="4"/>
       <c r="C326" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -12645,11 +12645,11 @@
     </row>
     <row r="327" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A327" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B327" s="4"/>
       <c r="C327" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -12676,7 +12676,7 @@
     </row>
     <row r="328" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A328" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -12705,11 +12705,11 @@
     </row>
     <row r="329" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A329" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B329" s="4"/>
       <c r="C329" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -12736,7 +12736,7 @@
     </row>
     <row r="330" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A330" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B330" s="4"/>
       <c r="D330" s="2"/>
@@ -12764,11 +12764,11 @@
     </row>
     <row r="331" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A331" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B331" s="4"/>
       <c r="C331" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -12795,11 +12795,11 @@
     </row>
     <row r="332" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A332" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B332" s="4"/>
       <c r="C332" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -12826,7 +12826,7 @@
     </row>
     <row r="333" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A333" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -12855,7 +12855,7 @@
     </row>
     <row r="334" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A334" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -12884,11 +12884,11 @@
     </row>
     <row r="335" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A335" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B335" s="4"/>
       <c r="C335" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -12915,7 +12915,7 @@
     </row>
     <row r="336" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A336" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -12944,7 +12944,7 @@
     </row>
     <row r="337" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A337" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -12973,11 +12973,11 @@
     </row>
     <row r="338" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A338" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B338" s="4"/>
       <c r="C338" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -13004,7 +13004,7 @@
     </row>
     <row r="339" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A339" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -13033,11 +13033,11 @@
     </row>
     <row r="340" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A340" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B340" s="4"/>
       <c r="C340" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -13064,7 +13064,7 @@
     </row>
     <row r="341" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A341" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -13093,10 +13093,10 @@
     </row>
     <row r="342" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A342" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B342" s="4" t="s">
         <v>538</v>
-      </c>
-      <c r="B342" s="4" t="s">
-        <v>539</v>
       </c>
       <c r="C342" s="4"/>
       <c r="D342" s="2"/>
@@ -13124,7 +13124,7 @@
     </row>
     <row r="343" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A343" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -13153,7 +13153,7 @@
     </row>
     <row r="344" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A344" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -13182,7 +13182,7 @@
     </row>
     <row r="345" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A345" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -13211,11 +13211,11 @@
     </row>
     <row r="346" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A346" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B346" s="4"/>
       <c r="C346" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -13242,11 +13242,11 @@
     </row>
     <row r="347" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A347" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B347" s="4"/>
       <c r="C347" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -13273,10 +13273,10 @@
     </row>
     <row r="348" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A348" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="B348" s="4" t="s">
         <v>547</v>
-      </c>
-      <c r="B348" s="4" t="s">
-        <v>548</v>
       </c>
       <c r="C348" s="4"/>
       <c r="D348" s="2"/>
@@ -13304,11 +13304,11 @@
     </row>
     <row r="349" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A349" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B349" s="4"/>
       <c r="C349" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -13335,7 +13335,7 @@
     </row>
     <row r="350" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A350" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -13364,11 +13364,11 @@
     </row>
     <row r="351" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A351" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B351" s="4"/>
       <c r="C351" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -13395,7 +13395,7 @@
     </row>
     <row r="352" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A352" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -13424,11 +13424,11 @@
     </row>
     <row r="353" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A353" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B353" s="4"/>
       <c r="C353" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -13455,10 +13455,10 @@
     </row>
     <row r="354" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A354" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B354" s="4" t="s">
         <v>557</v>
-      </c>
-      <c r="B354" s="4" t="s">
-        <v>558</v>
       </c>
       <c r="C354" s="4"/>
       <c r="D354" s="2"/>
@@ -13486,11 +13486,11 @@
     </row>
     <row r="355" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A355" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B355" s="4"/>
       <c r="C355" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -13517,11 +13517,11 @@
     </row>
     <row r="356" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A356" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B356" s="4"/>
       <c r="C356" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -13548,7 +13548,7 @@
     </row>
     <row r="357" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A357" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -13577,10 +13577,10 @@
     </row>
     <row r="358" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A358" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B358" s="4" t="s">
         <v>562</v>
-      </c>
-      <c r="B358" s="4" t="s">
-        <v>563</v>
       </c>
       <c r="C358" s="4"/>
       <c r="D358" s="2"/>
@@ -13608,7 +13608,7 @@
     </row>
     <row r="359" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A359" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -13637,7 +13637,7 @@
     </row>
     <row r="360" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A360" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -13666,7 +13666,7 @@
     </row>
     <row r="361" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A361" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -13695,10 +13695,10 @@
     </row>
     <row r="362" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A362" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B362" s="4" t="s">
         <v>567</v>
-      </c>
-      <c r="B362" s="4" t="s">
-        <v>568</v>
       </c>
       <c r="C362" s="4"/>
       <c r="D362" s="2"/>
@@ -13726,10 +13726,10 @@
     </row>
     <row r="363" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A363" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="B363" s="4" t="s">
         <v>569</v>
-      </c>
-      <c r="B363" s="4" t="s">
-        <v>570</v>
       </c>
       <c r="C363" s="4"/>
       <c r="D363" s="2"/>
@@ -13757,10 +13757,10 @@
     </row>
     <row r="364" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A364" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="B364" s="4" t="s">
         <v>571</v>
-      </c>
-      <c r="B364" s="4" t="s">
-        <v>572</v>
       </c>
       <c r="C364" s="4"/>
       <c r="D364" s="2"/>
@@ -13788,11 +13788,11 @@
     </row>
     <row r="365" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A365" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B365" s="4"/>
       <c r="C365" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -13819,7 +13819,7 @@
     </row>
     <row r="366" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A366" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -13848,7 +13848,7 @@
     </row>
     <row r="367" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A367" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -13877,7 +13877,7 @@
     </row>
     <row r="368" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A368" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -13906,7 +13906,7 @@
     </row>
     <row r="369" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A369" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -13935,11 +13935,11 @@
     </row>
     <row r="370" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A370" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B370" s="4"/>
       <c r="C370" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -13966,7 +13966,7 @@
     </row>
     <row r="371" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A371" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -13995,10 +13995,10 @@
     </row>
     <row r="372" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A372" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="B372" s="4" t="s">
         <v>582</v>
-      </c>
-      <c r="B372" s="4" t="s">
-        <v>583</v>
       </c>
       <c r="C372" s="4"/>
       <c r="D372" s="2"/>
@@ -14026,7 +14026,7 @@
     </row>
     <row r="373" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A373" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -14055,7 +14055,7 @@
     </row>
     <row r="374" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A374" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -14084,7 +14084,7 @@
     </row>
     <row r="375" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A375" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -14113,10 +14113,10 @@
     </row>
     <row r="376" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A376" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B376" s="4" t="s">
         <v>587</v>
-      </c>
-      <c r="B376" s="4" t="s">
-        <v>588</v>
       </c>
       <c r="C376" s="4"/>
       <c r="D376" s="2"/>
@@ -14144,10 +14144,10 @@
     </row>
     <row r="377" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A377" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="B377" s="4" t="s">
         <v>589</v>
-      </c>
-      <c r="B377" s="4" t="s">
-        <v>590</v>
       </c>
       <c r="C377" s="4"/>
       <c r="D377" s="2"/>
@@ -14175,10 +14175,10 @@
     </row>
     <row r="378" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A378" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B378" s="4" t="s">
         <v>591</v>
-      </c>
-      <c r="B378" s="4" t="s">
-        <v>592</v>
       </c>
       <c r="C378" s="4"/>
       <c r="D378" s="2"/>
@@ -14206,11 +14206,11 @@
     </row>
     <row r="379" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A379" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B379" s="4"/>
       <c r="C379" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
@@ -14237,13 +14237,13 @@
     </row>
     <row r="380" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A380" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="B380" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="B380" s="4" t="s">
+      <c r="C380" s="4" t="s">
         <v>596</v>
-      </c>
-      <c r="C380" s="4" t="s">
-        <v>597</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -14270,11 +14270,11 @@
     </row>
     <row r="381" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A381" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B381" s="4"/>
       <c r="C381" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -14301,7 +14301,7 @@
     </row>
     <row r="382" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A382" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -14330,11 +14330,11 @@
     </row>
     <row r="383" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A383" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B383" s="4"/>
       <c r="C383" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -14361,11 +14361,11 @@
     </row>
     <row r="384" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A384" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B384" s="4"/>
       <c r="C384" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -14392,10 +14392,10 @@
     </row>
     <row r="385" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A385" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B385" s="4" t="s">
         <v>605</v>
-      </c>
-      <c r="B385" s="4" t="s">
-        <v>606</v>
       </c>
       <c r="C385" s="4"/>
       <c r="D385" s="2"/>
@@ -14423,11 +14423,11 @@
     </row>
     <row r="386" spans="1:25" ht="195" x14ac:dyDescent="0.15">
       <c r="A386" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B386" s="4"/>
       <c r="C386" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -14454,11 +14454,11 @@
     </row>
     <row r="387" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A387" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B387" s="4"/>
       <c r="C387" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -14485,7 +14485,7 @@
     </row>
     <row r="388" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A388" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -14514,7 +14514,7 @@
     </row>
     <row r="389" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A389" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -14543,7 +14543,7 @@
     </row>
     <row r="390" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A390" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -14572,10 +14572,10 @@
     </row>
     <row r="391" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A391" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B391" s="4" t="s">
         <v>614</v>
-      </c>
-      <c r="B391" s="4" t="s">
-        <v>615</v>
       </c>
       <c r="C391" s="4"/>
       <c r="D391" s="2"/>
@@ -14603,11 +14603,11 @@
     </row>
     <row r="392" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A392" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B392" s="4"/>
       <c r="C392" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
@@ -14634,11 +14634,11 @@
     </row>
     <row r="393" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A393" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B393" s="4"/>
       <c r="C393" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -14665,10 +14665,10 @@
     </row>
     <row r="394" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A394" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="B394" s="4" t="s">
         <v>620</v>
-      </c>
-      <c r="B394" s="4" t="s">
-        <v>621</v>
       </c>
       <c r="C394" s="4"/>
       <c r="D394" s="2"/>
@@ -14696,11 +14696,11 @@
     </row>
     <row r="395" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A395" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B395" s="4"/>
       <c r="C395" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -14727,11 +14727,11 @@
     </row>
     <row r="396" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A396" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B396" s="4"/>
       <c r="C396" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -14758,11 +14758,11 @@
     </row>
     <row r="397" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A397" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B397" s="4"/>
       <c r="C397" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -14789,10 +14789,10 @@
     </row>
     <row r="398" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A398" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="B398" s="4" t="s">
         <v>628</v>
-      </c>
-      <c r="B398" s="4" t="s">
-        <v>629</v>
       </c>
       <c r="C398" s="4"/>
       <c r="D398" s="2"/>
@@ -14820,7 +14820,7 @@
     </row>
     <row r="399" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A399" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -14849,11 +14849,11 @@
     </row>
     <row r="400" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A400" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B400" s="4"/>
       <c r="C400" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -14880,10 +14880,10 @@
     </row>
     <row r="401" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A401" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="B401" s="4" t="s">
         <v>633</v>
-      </c>
-      <c r="B401" s="4" t="s">
-        <v>634</v>
       </c>
       <c r="C401" s="4"/>
       <c r="D401" s="2"/>
@@ -14911,11 +14911,11 @@
     </row>
     <row r="402" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A402" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B402" s="4"/>
       <c r="C402" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
@@ -14942,7 +14942,7 @@
     </row>
     <row r="403" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A403" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -14971,7 +14971,7 @@
     </row>
     <row r="404" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A404" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -15000,11 +15000,11 @@
     </row>
     <row r="405" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A405" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B405" s="4"/>
       <c r="C405" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
@@ -15031,7 +15031,7 @@
     </row>
     <row r="406" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A406" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -15060,11 +15060,11 @@
     </row>
     <row r="407" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A407" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B407" s="4"/>
       <c r="C407" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
@@ -15091,7 +15091,7 @@
     </row>
     <row r="408" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A408" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -15120,7 +15120,7 @@
     </row>
     <row r="409" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A409" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -15149,7 +15149,7 @@
     </row>
     <row r="410" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A410" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -15178,7 +15178,7 @@
     </row>
     <row r="411" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A411" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -15207,10 +15207,10 @@
     </row>
     <row r="412" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A412" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="B412" s="4" t="s">
         <v>648</v>
-      </c>
-      <c r="B412" s="4" t="s">
-        <v>649</v>
       </c>
       <c r="C412" s="4"/>
       <c r="D412" s="2"/>
@@ -15238,7 +15238,7 @@
     </row>
     <row r="413" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A413" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -15267,7 +15267,7 @@
     </row>
     <row r="414" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A414" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -15296,7 +15296,7 @@
     </row>
     <row r="415" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A415" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -15325,7 +15325,7 @@
     </row>
     <row r="416" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A416" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -15354,7 +15354,7 @@
     </row>
     <row r="417" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A417" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -15383,7 +15383,7 @@
     </row>
     <row r="418" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A418" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B418" s="4"/>
       <c r="C418" s="2"/>
@@ -15412,7 +15412,7 @@
     </row>
     <row r="419" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A419" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B419" s="4"/>
       <c r="C419" s="2"/>
@@ -15441,7 +15441,7 @@
     </row>
     <row r="420" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A420" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B420" s="4"/>
       <c r="C420" s="2"/>
@@ -15470,10 +15470,10 @@
     </row>
     <row r="421" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A421" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="B421" s="4" t="s">
         <v>658</v>
-      </c>
-      <c r="B421" s="4" t="s">
-        <v>659</v>
       </c>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>

--- a/mappings/wikipathways_reactome.xlsx
+++ b/mappings/wikipathways_reactome.xlsx
@@ -2372,9 +2372,6 @@
     <t xml:space="preserve">p38 MAPK Signaling Pathway equivalentTo p38MAPK events </t>
   </si>
   <si>
-    <t>Canonical and  Non-canonical Notch signaling</t>
-  </si>
-  <si>
     <t xml:space="preserve">Canonical  and Non-canonical Notch signaling equivalentTo Signaling by NOTCH </t>
   </si>
   <si>
@@ -2416,6 +2413,9 @@
   </si>
   <si>
     <t>Farnesoid X Receptor  Pathway</t>
+  </si>
+  <si>
+    <t>Canonical  and Non-canonical Notch signaling</t>
   </si>
 </sst>
 </file>
@@ -2782,8 +2782,8 @@
   </sheetPr>
   <dimension ref="A1:Y999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="60" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="60" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2803,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -4311,13 +4311,13 @@
     </row>
     <row r="51" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>660</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>661</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -6452,7 +6452,7 @@
     </row>
     <row r="122" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -7038,7 +7038,7 @@
         <v>223</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="2"/>
@@ -8211,7 +8211,7 @@
         <v>282</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="2"/>
@@ -13517,11 +13517,11 @@
     </row>
     <row r="356" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A356" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B356" s="4"/>
       <c r="C356" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>

--- a/mappings/wikipathways_reactome.xlsx
+++ b/mappings/wikipathways_reactome.xlsx
@@ -963,9 +963,6 @@
 Gut-Liver Indole Metabolism* isPartOf Metabolism</t>
   </si>
   <si>
-    <t>H19 action Rb-E2F1 signaling and CDK-��-catenin activity</t>
-  </si>
-  <si>
     <t>HIF1A and PPARG regulation of glycolysis</t>
   </si>
   <si>
@@ -2416,6 +2413,9 @@
   </si>
   <si>
     <t>Canonical  and Non-canonical Notch signaling</t>
+  </si>
+  <si>
+    <t>H19 action Rb-E2F1 signaling and CDK-β-catenin activity</t>
   </si>
 </sst>
 </file>
@@ -2782,8 +2782,8 @@
   </sheetPr>
   <dimension ref="A1:Y999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="60" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="60" workbookViewId="0">
+      <selection activeCell="A159" sqref="A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2803,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -4311,13 +4311,13 @@
     </row>
     <row r="51" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>659</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>660</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -6452,7 +6452,7 @@
     </row>
     <row r="122" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -7038,7 +7038,7 @@
         <v>223</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="2"/>
@@ -7585,7 +7585,7 @@
     </row>
     <row r="159" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
-        <v>254</v>
+        <v>668</v>
       </c>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -7614,11 +7614,11 @@
     </row>
     <row r="160" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B160" s="4"/>
       <c r="C160" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -7645,7 +7645,7 @@
     </row>
     <row r="161" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -7674,10 +7674,10 @@
     </row>
     <row r="162" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B162" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="2"/>
@@ -7705,7 +7705,7 @@
     </row>
     <row r="163" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -7734,7 +7734,7 @@
     </row>
     <row r="164" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -7763,10 +7763,10 @@
     </row>
     <row r="165" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>263</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="2"/>
@@ -7794,7 +7794,7 @@
     </row>
     <row r="166" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -7823,7 +7823,7 @@
     </row>
     <row r="167" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -7852,11 +7852,11 @@
     </row>
     <row r="168" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B168" s="4"/>
       <c r="C168" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -7883,7 +7883,7 @@
     </row>
     <row r="169" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -7912,11 +7912,11 @@
     </row>
     <row r="170" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B170" s="4"/>
       <c r="C170" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -7943,10 +7943,10 @@
     </row>
     <row r="171" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B171" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="2"/>
@@ -7974,7 +7974,7 @@
     </row>
     <row r="172" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -8003,7 +8003,7 @@
     </row>
     <row r="173" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -8032,7 +8032,7 @@
     </row>
     <row r="174" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -8061,7 +8061,7 @@
     </row>
     <row r="175" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -8090,7 +8090,7 @@
     </row>
     <row r="176" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -8119,7 +8119,7 @@
     </row>
     <row r="177" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -8148,7 +8148,7 @@
     </row>
     <row r="178" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -8177,10 +8177,10 @@
     </row>
     <row r="179" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B179" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="2"/>
@@ -8208,10 +8208,10 @@
     </row>
     <row r="180" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="2"/>
@@ -8239,11 +8239,11 @@
     </row>
     <row r="181" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A181" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B181" s="4"/>
       <c r="C181" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -8270,11 +8270,11 @@
     </row>
     <row r="182" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A182" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B182" s="4"/>
       <c r="C182" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -8301,11 +8301,11 @@
     </row>
     <row r="183" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A183" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B183" s="4"/>
       <c r="C183" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -8332,10 +8332,10 @@
     </row>
     <row r="184" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B184" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>290</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="2"/>
@@ -8363,10 +8363,10 @@
     </row>
     <row r="185" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B185" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="2"/>
@@ -8394,10 +8394,10 @@
     </row>
     <row r="186" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B186" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>294</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="2"/>
@@ -8425,11 +8425,11 @@
     </row>
     <row r="187" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B187" s="4"/>
       <c r="C187" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -8456,10 +8456,10 @@
     </row>
     <row r="188" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B188" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>298</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="2"/>
@@ -8487,7 +8487,7 @@
     </row>
     <row r="189" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -8516,11 +8516,11 @@
     </row>
     <row r="190" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A190" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B190" s="4"/>
       <c r="C190" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -8547,11 +8547,11 @@
     </row>
     <row r="191" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B191" s="4"/>
       <c r="C191" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -8578,7 +8578,7 @@
     </row>
     <row r="192" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -8607,7 +8607,7 @@
     </row>
     <row r="193" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -8636,11 +8636,11 @@
     </row>
     <row r="194" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A194" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B194" s="4"/>
       <c r="C194" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -8667,11 +8667,11 @@
     </row>
     <row r="195" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A195" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B195" s="4"/>
       <c r="C195" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -8698,7 +8698,7 @@
     </row>
     <row r="196" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -8727,11 +8727,11 @@
     </row>
     <row r="197" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A197" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B197" s="4"/>
       <c r="C197" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -8758,11 +8758,11 @@
     </row>
     <row r="198" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A198" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B198" s="4"/>
       <c r="C198" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -8789,7 +8789,7 @@
     </row>
     <row r="199" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -8818,11 +8818,11 @@
     </row>
     <row r="200" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A200" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B200" s="4"/>
       <c r="C200" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -8849,11 +8849,11 @@
     </row>
     <row r="201" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A201" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B201" s="4"/>
       <c r="C201" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -8880,11 +8880,11 @@
     </row>
     <row r="202" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A202" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B202" s="4"/>
       <c r="C202" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
@@ -8911,7 +8911,7 @@
     </row>
     <row r="203" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -8940,11 +8940,11 @@
     </row>
     <row r="204" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B204" s="4"/>
       <c r="C204" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -8971,11 +8971,11 @@
     </row>
     <row r="205" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A205" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B205" s="4"/>
       <c r="C205" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -9002,11 +9002,11 @@
     </row>
     <row r="206" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B206" s="4"/>
       <c r="C206" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -9033,11 +9033,11 @@
     </row>
     <row r="207" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B207" s="4"/>
       <c r="C207" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -9064,11 +9064,11 @@
     </row>
     <row r="208" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B208" s="4"/>
       <c r="C208" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -9095,10 +9095,10 @@
     </row>
     <row r="209" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B209" s="4" t="s">
         <v>333</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>334</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="2"/>
@@ -9126,11 +9126,11 @@
     </row>
     <row r="210" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A210" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B210" s="4"/>
       <c r="C210" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -9157,10 +9157,10 @@
     </row>
     <row r="211" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B211" s="4" t="s">
         <v>337</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>338</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="2"/>
@@ -9188,11 +9188,11 @@
     </row>
     <row r="212" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A212" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B212" s="4"/>
       <c r="C212" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -9219,7 +9219,7 @@
     </row>
     <row r="213" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -9248,7 +9248,7 @@
     </row>
     <row r="214" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -9277,7 +9277,7 @@
     </row>
     <row r="215" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -9306,10 +9306,10 @@
     </row>
     <row r="216" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B216" s="4" t="s">
         <v>344</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>345</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="2"/>
@@ -9337,10 +9337,10 @@
     </row>
     <row r="217" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B217" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>347</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="2"/>
@@ -9368,7 +9368,7 @@
     </row>
     <row r="218" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -9397,7 +9397,7 @@
     </row>
     <row r="219" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -9426,11 +9426,11 @@
     </row>
     <row r="220" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A220" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B220" s="4"/>
       <c r="C220" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -9457,11 +9457,11 @@
     </row>
     <row r="221" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A221" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B221" s="4"/>
       <c r="C221" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -9488,7 +9488,7 @@
     </row>
     <row r="222" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -9517,7 +9517,7 @@
     </row>
     <row r="223" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -9546,11 +9546,11 @@
     </row>
     <row r="224" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A224" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B224" s="4"/>
       <c r="C224" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -9577,11 +9577,11 @@
     </row>
     <row r="225" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A225" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B225" s="4"/>
       <c r="C225" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -9608,7 +9608,7 @@
     </row>
     <row r="226" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -9637,7 +9637,7 @@
     </row>
     <row r="227" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -9666,13 +9666,13 @@
     </row>
     <row r="228" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A228" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B228" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B228" s="4" t="s">
+      <c r="C228" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>364</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -9699,10 +9699,10 @@
     </row>
     <row r="229" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B229" s="4" t="s">
         <v>365</v>
-      </c>
-      <c r="B229" s="4" t="s">
-        <v>366</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="2"/>
@@ -9730,7 +9730,7 @@
     </row>
     <row r="230" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -9759,11 +9759,11 @@
     </row>
     <row r="231" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A231" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B231" s="4"/>
       <c r="C231" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -9790,10 +9790,10 @@
     </row>
     <row r="232" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B232" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>371</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="2"/>
@@ -9821,11 +9821,11 @@
     </row>
     <row r="233" spans="1:25" ht="221" x14ac:dyDescent="0.15">
       <c r="A233" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B233" s="4"/>
       <c r="C233" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -9852,11 +9852,11 @@
     </row>
     <row r="234" spans="1:25" ht="273" x14ac:dyDescent="0.15">
       <c r="A234" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B234" s="4"/>
       <c r="C234" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -9883,11 +9883,11 @@
     </row>
     <row r="235" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A235" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B235" s="4"/>
       <c r="C235" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -9914,11 +9914,11 @@
     </row>
     <row r="236" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A236" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B236" s="4"/>
       <c r="C236" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -9945,7 +9945,7 @@
     </row>
     <row r="237" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -9974,11 +9974,11 @@
     </row>
     <row r="238" spans="1:25" ht="169" x14ac:dyDescent="0.15">
       <c r="A238" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B238" s="4"/>
       <c r="C238" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -10005,7 +10005,7 @@
     </row>
     <row r="239" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -10034,11 +10034,11 @@
     </row>
     <row r="240" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A240" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B240" s="4"/>
       <c r="C240" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -10065,11 +10065,11 @@
     </row>
     <row r="241" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A241" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B241" s="4"/>
       <c r="C241" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -10096,11 +10096,11 @@
     </row>
     <row r="242" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A242" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B242" s="4"/>
       <c r="C242" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -10127,7 +10127,7 @@
     </row>
     <row r="243" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -10156,7 +10156,7 @@
     </row>
     <row r="244" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -10185,7 +10185,7 @@
     </row>
     <row r="245" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -10214,11 +10214,11 @@
     </row>
     <row r="246" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A246" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B246" s="4"/>
       <c r="C246" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -10245,7 +10245,7 @@
     </row>
     <row r="247" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -10274,11 +10274,11 @@
     </row>
     <row r="248" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B248" s="4"/>
       <c r="C248" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -10305,7 +10305,7 @@
     </row>
     <row r="249" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -10334,7 +10334,7 @@
     </row>
     <row r="250" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -10363,11 +10363,11 @@
     </row>
     <row r="251" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A251" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B251" s="4"/>
       <c r="C251" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -10394,7 +10394,7 @@
     </row>
     <row r="252" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -10423,11 +10423,11 @@
     </row>
     <row r="253" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A253" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B253" s="4"/>
       <c r="C253" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -10454,11 +10454,11 @@
     </row>
     <row r="254" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B254" s="4"/>
       <c r="C254" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -10485,10 +10485,10 @@
     </row>
     <row r="255" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A255" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B255" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="B255" s="4" t="s">
-        <v>408</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="2"/>
@@ -10516,10 +10516,10 @@
     </row>
     <row r="256" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B256" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="B256" s="4" t="s">
-        <v>410</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="2"/>
@@ -10547,11 +10547,11 @@
     </row>
     <row r="257" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A257" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B257" s="4"/>
       <c r="C257" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -10578,11 +10578,11 @@
     </row>
     <row r="258" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A258" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B258" s="4"/>
       <c r="C258" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -10609,7 +10609,7 @@
     </row>
     <row r="259" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -10638,10 +10638,10 @@
     </row>
     <row r="260" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B260" s="4" t="s">
         <v>416</v>
-      </c>
-      <c r="B260" s="4" t="s">
-        <v>417</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="2"/>
@@ -10669,7 +10669,7 @@
     </row>
     <row r="261" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -10698,7 +10698,7 @@
     </row>
     <row r="262" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -10727,11 +10727,11 @@
     </row>
     <row r="263" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B263" s="4"/>
       <c r="C263" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -10758,11 +10758,11 @@
     </row>
     <row r="264" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B264" s="4"/>
       <c r="C264" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -10789,11 +10789,11 @@
     </row>
     <row r="265" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B265" s="4"/>
       <c r="C265" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -10820,7 +10820,7 @@
     </row>
     <row r="266" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A266" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -10849,7 +10849,7 @@
     </row>
     <row r="267" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -10878,7 +10878,7 @@
     </row>
     <row r="268" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A268" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -10907,7 +10907,7 @@
     </row>
     <row r="269" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -10936,7 +10936,7 @@
     </row>
     <row r="270" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A270" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -10965,11 +10965,11 @@
     </row>
     <row r="271" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A271" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B271" s="4"/>
       <c r="C271" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -10996,11 +10996,11 @@
     </row>
     <row r="272" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A272" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B272" s="4"/>
       <c r="C272" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -11027,11 +11027,11 @@
     </row>
     <row r="273" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A273" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B273" s="4"/>
       <c r="C273" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -11058,10 +11058,10 @@
     </row>
     <row r="274" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A274" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B274" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="B274" s="4" t="s">
-        <v>438</v>
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="2"/>
@@ -11089,7 +11089,7 @@
     </row>
     <row r="275" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A275" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -11118,11 +11118,11 @@
     </row>
     <row r="276" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A276" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B276" s="4"/>
       <c r="C276" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -11149,7 +11149,7 @@
     </row>
     <row r="277" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A277" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -11178,11 +11178,11 @@
     </row>
     <row r="278" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A278" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B278" s="4"/>
       <c r="C278" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -11209,10 +11209,10 @@
     </row>
     <row r="279" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A279" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B279" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="B279" s="4" t="s">
-        <v>446</v>
       </c>
       <c r="C279" s="4"/>
       <c r="D279" s="2"/>
@@ -11240,7 +11240,7 @@
     </row>
     <row r="280" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A280" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -11269,11 +11269,11 @@
     </row>
     <row r="281" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A281" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B281" s="4"/>
       <c r="C281" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
@@ -11300,11 +11300,11 @@
     </row>
     <row r="282" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A282" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B282" s="4"/>
       <c r="C282" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -11331,7 +11331,7 @@
     </row>
     <row r="283" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A283" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -11360,7 +11360,7 @@
     </row>
     <row r="284" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A284" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -11389,11 +11389,11 @@
     </row>
     <row r="285" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A285" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B285" s="4"/>
       <c r="C285" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -11420,11 +11420,11 @@
     </row>
     <row r="286" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A286" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B286" s="4"/>
       <c r="C286" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -11451,7 +11451,7 @@
     </row>
     <row r="287" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A287" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -11480,10 +11480,10 @@
     </row>
     <row r="288" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A288" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B288" s="4" t="s">
         <v>459</v>
-      </c>
-      <c r="B288" s="4" t="s">
-        <v>460</v>
       </c>
       <c r="C288" s="4"/>
       <c r="D288" s="2"/>
@@ -11511,11 +11511,11 @@
     </row>
     <row r="289" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A289" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B289" s="4"/>
       <c r="C289" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -11542,11 +11542,11 @@
     </row>
     <row r="290" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A290" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B290" s="4"/>
       <c r="C290" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -11573,11 +11573,11 @@
     </row>
     <row r="291" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A291" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B291" s="4"/>
       <c r="C291" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -11604,7 +11604,7 @@
     </row>
     <row r="292" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A292" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -11633,7 +11633,7 @@
     </row>
     <row r="293" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A293" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -11662,7 +11662,7 @@
     </row>
     <row r="294" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A294" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -11691,7 +11691,7 @@
     </row>
     <row r="295" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A295" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -11720,7 +11720,7 @@
     </row>
     <row r="296" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A296" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -11749,7 +11749,7 @@
     </row>
     <row r="297" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A297" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -11778,11 +11778,11 @@
     </row>
     <row r="298" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A298" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B298" s="4"/>
       <c r="C298" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -11809,7 +11809,7 @@
     </row>
     <row r="299" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A299" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -11838,7 +11838,7 @@
     </row>
     <row r="300" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A300" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -11867,7 +11867,7 @@
     </row>
     <row r="301" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A301" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -11896,7 +11896,7 @@
     </row>
     <row r="302" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A302" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -11925,7 +11925,7 @@
     </row>
     <row r="303" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A303" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -11954,10 +11954,10 @@
     </row>
     <row r="304" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A304" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B304" s="4" t="s">
         <v>480</v>
-      </c>
-      <c r="B304" s="4" t="s">
-        <v>481</v>
       </c>
       <c r="C304" s="4"/>
       <c r="D304" s="2"/>
@@ -11985,7 +11985,7 @@
     </row>
     <row r="305" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A305" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -12014,11 +12014,11 @@
     </row>
     <row r="306" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A306" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B306" s="4"/>
       <c r="C306" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -12045,11 +12045,11 @@
     </row>
     <row r="307" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A307" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B307" s="4"/>
       <c r="C307" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -12076,11 +12076,11 @@
     </row>
     <row r="308" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A308" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B308" s="4"/>
       <c r="C308" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -12107,7 +12107,7 @@
     </row>
     <row r="309" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A309" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -12136,11 +12136,11 @@
     </row>
     <row r="310" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A310" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B310" s="4"/>
       <c r="C310" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -12167,7 +12167,7 @@
     </row>
     <row r="311" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A311" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -12196,11 +12196,11 @@
     </row>
     <row r="312" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A312" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B312" s="4"/>
       <c r="C312" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -12227,7 +12227,7 @@
     </row>
     <row r="313" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A313" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -12256,7 +12256,7 @@
     </row>
     <row r="314" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A314" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -12285,11 +12285,11 @@
     </row>
     <row r="315" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A315" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B315" s="4"/>
       <c r="C315" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -12316,7 +12316,7 @@
     </row>
     <row r="316" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A316" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -12345,11 +12345,11 @@
     </row>
     <row r="317" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A317" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B317" s="4"/>
       <c r="C317" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -12376,11 +12376,11 @@
     </row>
     <row r="318" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A318" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B318" s="4"/>
       <c r="C318" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -12407,7 +12407,7 @@
     </row>
     <row r="319" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A319" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -12436,11 +12436,11 @@
     </row>
     <row r="320" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A320" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B320" s="4"/>
       <c r="C320" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -12467,7 +12467,7 @@
     </row>
     <row r="321" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A321" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -12496,7 +12496,7 @@
     </row>
     <row r="322" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A322" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -12525,11 +12525,11 @@
     </row>
     <row r="323" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A323" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B323" s="4"/>
       <c r="C323" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -12556,7 +12556,7 @@
     </row>
     <row r="324" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A324" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -12585,7 +12585,7 @@
     </row>
     <row r="325" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A325" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -12614,11 +12614,11 @@
     </row>
     <row r="326" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A326" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B326" s="4"/>
       <c r="C326" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -12645,11 +12645,11 @@
     </row>
     <row r="327" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A327" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B327" s="4"/>
       <c r="C327" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -12676,7 +12676,7 @@
     </row>
     <row r="328" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A328" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -12705,11 +12705,11 @@
     </row>
     <row r="329" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A329" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B329" s="4"/>
       <c r="C329" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -12736,7 +12736,7 @@
     </row>
     <row r="330" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A330" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B330" s="4"/>
       <c r="D330" s="2"/>
@@ -12764,11 +12764,11 @@
     </row>
     <row r="331" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A331" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B331" s="4"/>
       <c r="C331" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -12795,11 +12795,11 @@
     </row>
     <row r="332" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A332" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B332" s="4"/>
       <c r="C332" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -12826,7 +12826,7 @@
     </row>
     <row r="333" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A333" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -12855,7 +12855,7 @@
     </row>
     <row r="334" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A334" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -12884,11 +12884,11 @@
     </row>
     <row r="335" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A335" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B335" s="4"/>
       <c r="C335" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -12915,7 +12915,7 @@
     </row>
     <row r="336" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A336" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -12944,7 +12944,7 @@
     </row>
     <row r="337" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A337" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -12973,11 +12973,11 @@
     </row>
     <row r="338" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A338" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B338" s="4"/>
       <c r="C338" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -13004,7 +13004,7 @@
     </row>
     <row r="339" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A339" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -13033,11 +13033,11 @@
     </row>
     <row r="340" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A340" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B340" s="4"/>
       <c r="C340" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -13064,7 +13064,7 @@
     </row>
     <row r="341" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A341" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -13093,10 +13093,10 @@
     </row>
     <row r="342" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A342" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B342" s="4" t="s">
         <v>537</v>
-      </c>
-      <c r="B342" s="4" t="s">
-        <v>538</v>
       </c>
       <c r="C342" s="4"/>
       <c r="D342" s="2"/>
@@ -13124,7 +13124,7 @@
     </row>
     <row r="343" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A343" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -13153,7 +13153,7 @@
     </row>
     <row r="344" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A344" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -13182,7 +13182,7 @@
     </row>
     <row r="345" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A345" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -13211,11 +13211,11 @@
     </row>
     <row r="346" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A346" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B346" s="4"/>
       <c r="C346" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -13242,11 +13242,11 @@
     </row>
     <row r="347" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A347" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B347" s="4"/>
       <c r="C347" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -13273,10 +13273,10 @@
     </row>
     <row r="348" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A348" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B348" s="4" t="s">
         <v>546</v>
-      </c>
-      <c r="B348" s="4" t="s">
-        <v>547</v>
       </c>
       <c r="C348" s="4"/>
       <c r="D348" s="2"/>
@@ -13304,11 +13304,11 @@
     </row>
     <row r="349" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A349" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B349" s="4"/>
       <c r="C349" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -13335,7 +13335,7 @@
     </row>
     <row r="350" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A350" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -13364,11 +13364,11 @@
     </row>
     <row r="351" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A351" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B351" s="4"/>
       <c r="C351" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -13395,7 +13395,7 @@
     </row>
     <row r="352" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A352" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -13424,11 +13424,11 @@
     </row>
     <row r="353" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A353" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B353" s="4"/>
       <c r="C353" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -13455,10 +13455,10 @@
     </row>
     <row r="354" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A354" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B354" s="4" t="s">
         <v>556</v>
-      </c>
-      <c r="B354" s="4" t="s">
-        <v>557</v>
       </c>
       <c r="C354" s="4"/>
       <c r="D354" s="2"/>
@@ -13486,11 +13486,11 @@
     </row>
     <row r="355" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A355" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B355" s="4"/>
       <c r="C355" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -13517,11 +13517,11 @@
     </row>
     <row r="356" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A356" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B356" s="4"/>
       <c r="C356" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -13548,7 +13548,7 @@
     </row>
     <row r="357" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A357" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -13577,10 +13577,10 @@
     </row>
     <row r="358" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A358" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B358" s="4" t="s">
         <v>561</v>
-      </c>
-      <c r="B358" s="4" t="s">
-        <v>562</v>
       </c>
       <c r="C358" s="4"/>
       <c r="D358" s="2"/>
@@ -13608,7 +13608,7 @@
     </row>
     <row r="359" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A359" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -13637,7 +13637,7 @@
     </row>
     <row r="360" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A360" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -13666,7 +13666,7 @@
     </row>
     <row r="361" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A361" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -13695,10 +13695,10 @@
     </row>
     <row r="362" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A362" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B362" s="4" t="s">
         <v>566</v>
-      </c>
-      <c r="B362" s="4" t="s">
-        <v>567</v>
       </c>
       <c r="C362" s="4"/>
       <c r="D362" s="2"/>
@@ -13726,10 +13726,10 @@
     </row>
     <row r="363" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A363" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B363" s="4" t="s">
         <v>568</v>
-      </c>
-      <c r="B363" s="4" t="s">
-        <v>569</v>
       </c>
       <c r="C363" s="4"/>
       <c r="D363" s="2"/>
@@ -13757,10 +13757,10 @@
     </row>
     <row r="364" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A364" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B364" s="4" t="s">
         <v>570</v>
-      </c>
-      <c r="B364" s="4" t="s">
-        <v>571</v>
       </c>
       <c r="C364" s="4"/>
       <c r="D364" s="2"/>
@@ -13788,11 +13788,11 @@
     </row>
     <row r="365" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A365" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B365" s="4"/>
       <c r="C365" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -13819,7 +13819,7 @@
     </row>
     <row r="366" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A366" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -13848,7 +13848,7 @@
     </row>
     <row r="367" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A367" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -13877,7 +13877,7 @@
     </row>
     <row r="368" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A368" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -13906,7 +13906,7 @@
     </row>
     <row r="369" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A369" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -13935,11 +13935,11 @@
     </row>
     <row r="370" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A370" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B370" s="4"/>
       <c r="C370" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -13966,7 +13966,7 @@
     </row>
     <row r="371" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A371" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -13995,10 +13995,10 @@
     </row>
     <row r="372" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A372" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B372" s="4" t="s">
         <v>581</v>
-      </c>
-      <c r="B372" s="4" t="s">
-        <v>582</v>
       </c>
       <c r="C372" s="4"/>
       <c r="D372" s="2"/>
@@ -14026,7 +14026,7 @@
     </row>
     <row r="373" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A373" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -14055,7 +14055,7 @@
     </row>
     <row r="374" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A374" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -14084,7 +14084,7 @@
     </row>
     <row r="375" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A375" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -14113,10 +14113,10 @@
     </row>
     <row r="376" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A376" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B376" s="4" t="s">
         <v>586</v>
-      </c>
-      <c r="B376" s="4" t="s">
-        <v>587</v>
       </c>
       <c r="C376" s="4"/>
       <c r="D376" s="2"/>
@@ -14144,10 +14144,10 @@
     </row>
     <row r="377" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A377" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="B377" s="4" t="s">
         <v>588</v>
-      </c>
-      <c r="B377" s="4" t="s">
-        <v>589</v>
       </c>
       <c r="C377" s="4"/>
       <c r="D377" s="2"/>
@@ -14175,10 +14175,10 @@
     </row>
     <row r="378" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A378" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B378" s="4" t="s">
         <v>590</v>
-      </c>
-      <c r="B378" s="4" t="s">
-        <v>591</v>
       </c>
       <c r="C378" s="4"/>
       <c r="D378" s="2"/>
@@ -14206,11 +14206,11 @@
     </row>
     <row r="379" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A379" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B379" s="4"/>
       <c r="C379" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
@@ -14237,13 +14237,13 @@
     </row>
     <row r="380" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A380" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B380" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="B380" s="4" t="s">
+      <c r="C380" s="4" t="s">
         <v>595</v>
-      </c>
-      <c r="C380" s="4" t="s">
-        <v>596</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -14270,11 +14270,11 @@
     </row>
     <row r="381" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A381" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B381" s="4"/>
       <c r="C381" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -14301,7 +14301,7 @@
     </row>
     <row r="382" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A382" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -14330,11 +14330,11 @@
     </row>
     <row r="383" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A383" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B383" s="4"/>
       <c r="C383" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -14361,11 +14361,11 @@
     </row>
     <row r="384" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A384" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B384" s="4"/>
       <c r="C384" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -14392,10 +14392,10 @@
     </row>
     <row r="385" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A385" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="B385" s="4" t="s">
         <v>604</v>
-      </c>
-      <c r="B385" s="4" t="s">
-        <v>605</v>
       </c>
       <c r="C385" s="4"/>
       <c r="D385" s="2"/>
@@ -14423,11 +14423,11 @@
     </row>
     <row r="386" spans="1:25" ht="195" x14ac:dyDescent="0.15">
       <c r="A386" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B386" s="4"/>
       <c r="C386" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -14454,11 +14454,11 @@
     </row>
     <row r="387" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A387" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B387" s="4"/>
       <c r="C387" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -14485,7 +14485,7 @@
     </row>
     <row r="388" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A388" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -14514,7 +14514,7 @@
     </row>
     <row r="389" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A389" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -14543,7 +14543,7 @@
     </row>
     <row r="390" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A390" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -14572,10 +14572,10 @@
     </row>
     <row r="391" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A391" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="B391" s="4" t="s">
         <v>613</v>
-      </c>
-      <c r="B391" s="4" t="s">
-        <v>614</v>
       </c>
       <c r="C391" s="4"/>
       <c r="D391" s="2"/>
@@ -14603,11 +14603,11 @@
     </row>
     <row r="392" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A392" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B392" s="4"/>
       <c r="C392" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
@@ -14634,11 +14634,11 @@
     </row>
     <row r="393" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A393" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B393" s="4"/>
       <c r="C393" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -14665,10 +14665,10 @@
     </row>
     <row r="394" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A394" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="B394" s="4" t="s">
         <v>619</v>
-      </c>
-      <c r="B394" s="4" t="s">
-        <v>620</v>
       </c>
       <c r="C394" s="4"/>
       <c r="D394" s="2"/>
@@ -14696,11 +14696,11 @@
     </row>
     <row r="395" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A395" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B395" s="4"/>
       <c r="C395" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -14727,11 +14727,11 @@
     </row>
     <row r="396" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A396" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B396" s="4"/>
       <c r="C396" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -14758,11 +14758,11 @@
     </row>
     <row r="397" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A397" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B397" s="4"/>
       <c r="C397" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -14789,10 +14789,10 @@
     </row>
     <row r="398" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A398" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="B398" s="4" t="s">
         <v>627</v>
-      </c>
-      <c r="B398" s="4" t="s">
-        <v>628</v>
       </c>
       <c r="C398" s="4"/>
       <c r="D398" s="2"/>
@@ -14820,7 +14820,7 @@
     </row>
     <row r="399" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A399" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -14849,11 +14849,11 @@
     </row>
     <row r="400" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A400" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B400" s="4"/>
       <c r="C400" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -14880,10 +14880,10 @@
     </row>
     <row r="401" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A401" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="B401" s="4" t="s">
         <v>632</v>
-      </c>
-      <c r="B401" s="4" t="s">
-        <v>633</v>
       </c>
       <c r="C401" s="4"/>
       <c r="D401" s="2"/>
@@ -14911,11 +14911,11 @@
     </row>
     <row r="402" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A402" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B402" s="4"/>
       <c r="C402" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
@@ -14942,7 +14942,7 @@
     </row>
     <row r="403" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A403" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -14971,7 +14971,7 @@
     </row>
     <row r="404" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A404" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -15000,11 +15000,11 @@
     </row>
     <row r="405" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A405" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B405" s="4"/>
       <c r="C405" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
@@ -15031,7 +15031,7 @@
     </row>
     <row r="406" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A406" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -15060,11 +15060,11 @@
     </row>
     <row r="407" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A407" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B407" s="4"/>
       <c r="C407" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
@@ -15091,7 +15091,7 @@
     </row>
     <row r="408" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A408" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -15120,7 +15120,7 @@
     </row>
     <row r="409" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A409" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -15149,7 +15149,7 @@
     </row>
     <row r="410" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A410" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -15178,7 +15178,7 @@
     </row>
     <row r="411" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A411" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -15207,10 +15207,10 @@
     </row>
     <row r="412" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A412" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="B412" s="4" t="s">
         <v>647</v>
-      </c>
-      <c r="B412" s="4" t="s">
-        <v>648</v>
       </c>
       <c r="C412" s="4"/>
       <c r="D412" s="2"/>
@@ -15238,7 +15238,7 @@
     </row>
     <row r="413" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A413" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -15267,7 +15267,7 @@
     </row>
     <row r="414" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A414" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -15296,7 +15296,7 @@
     </row>
     <row r="415" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A415" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -15325,7 +15325,7 @@
     </row>
     <row r="416" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A416" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -15354,7 +15354,7 @@
     </row>
     <row r="417" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A417" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -15383,7 +15383,7 @@
     </row>
     <row r="418" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A418" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B418" s="4"/>
       <c r="C418" s="2"/>
@@ -15412,7 +15412,7 @@
     </row>
     <row r="419" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A419" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B419" s="4"/>
       <c r="C419" s="2"/>
@@ -15441,7 +15441,7 @@
     </row>
     <row r="420" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A420" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B420" s="4"/>
       <c r="C420" s="2"/>
@@ -15470,10 +15470,10 @@
     </row>
     <row r="421" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A421" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B421" s="4" t="s">
         <v>657</v>
-      </c>
-      <c r="B421" s="4" t="s">
-        <v>658</v>
       </c>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>

--- a/mappings/wikipathways_reactome.xlsx
+++ b/mappings/wikipathways_reactome.xlsx
@@ -1263,9 +1263,6 @@
     <t>Lung fibrosis</t>
   </si>
   <si>
-    <t>MAPK and NFkB Signalling Pathways Inhibited by Yersinia YopJ</t>
-  </si>
-  <si>
     <t>MAPK Cascade</t>
   </si>
   <si>
@@ -2416,6 +2413,9 @@
   </si>
   <si>
     <t>H19 action Rb-E2F1 signaling and CDK-β-catenin activity</t>
+  </si>
+  <si>
+    <t>MAPK  and NFkB Signalling Pathways Inhibited by Yersinia YopJ</t>
   </si>
 </sst>
 </file>
@@ -2782,8 +2782,8 @@
   </sheetPr>
   <dimension ref="A1:Y999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="60" workbookViewId="0">
-      <selection activeCell="A159" sqref="A159"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="60" workbookViewId="0">
+      <selection activeCell="A216" sqref="A216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2803,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -4311,13 +4311,13 @@
     </row>
     <row r="51" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>658</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>659</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -6452,7 +6452,7 @@
     </row>
     <row r="122" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -7038,7 +7038,7 @@
         <v>223</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="2"/>
@@ -7585,7 +7585,7 @@
     </row>
     <row r="159" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -8211,7 +8211,7 @@
         <v>281</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="2"/>
@@ -9277,7 +9277,7 @@
     </row>
     <row r="215" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="4" t="s">
-        <v>342</v>
+        <v>668</v>
       </c>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -9306,10 +9306,10 @@
     </row>
     <row r="216" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B216" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>344</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="2"/>
@@ -9337,10 +9337,10 @@
     </row>
     <row r="217" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B217" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>346</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="2"/>
@@ -9368,7 +9368,7 @@
     </row>
     <row r="218" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -9397,7 +9397,7 @@
     </row>
     <row r="219" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -9426,11 +9426,11 @@
     </row>
     <row r="220" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A220" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B220" s="4"/>
       <c r="C220" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -9457,11 +9457,11 @@
     </row>
     <row r="221" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A221" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B221" s="4"/>
       <c r="C221" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -9488,7 +9488,7 @@
     </row>
     <row r="222" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -9517,7 +9517,7 @@
     </row>
     <row r="223" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -9546,11 +9546,11 @@
     </row>
     <row r="224" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A224" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B224" s="4"/>
       <c r="C224" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -9577,11 +9577,11 @@
     </row>
     <row r="225" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A225" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B225" s="4"/>
       <c r="C225" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -9608,7 +9608,7 @@
     </row>
     <row r="226" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -9637,7 +9637,7 @@
     </row>
     <row r="227" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -9666,13 +9666,13 @@
     </row>
     <row r="228" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A228" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B228" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="B228" s="4" t="s">
+      <c r="C228" s="4" t="s">
         <v>362</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>363</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -9699,10 +9699,10 @@
     </row>
     <row r="229" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B229" s="4" t="s">
         <v>364</v>
-      </c>
-      <c r="B229" s="4" t="s">
-        <v>365</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="2"/>
@@ -9730,7 +9730,7 @@
     </row>
     <row r="230" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -9759,11 +9759,11 @@
     </row>
     <row r="231" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A231" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B231" s="4"/>
       <c r="C231" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -9790,10 +9790,10 @@
     </row>
     <row r="232" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B232" s="4" t="s">
         <v>369</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>370</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="2"/>
@@ -9821,11 +9821,11 @@
     </row>
     <row r="233" spans="1:25" ht="221" x14ac:dyDescent="0.15">
       <c r="A233" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B233" s="4"/>
       <c r="C233" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -9852,11 +9852,11 @@
     </row>
     <row r="234" spans="1:25" ht="273" x14ac:dyDescent="0.15">
       <c r="A234" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B234" s="4"/>
       <c r="C234" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -9883,11 +9883,11 @@
     </row>
     <row r="235" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A235" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B235" s="4"/>
       <c r="C235" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -9914,11 +9914,11 @@
     </row>
     <row r="236" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A236" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B236" s="4"/>
       <c r="C236" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -9945,7 +9945,7 @@
     </row>
     <row r="237" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -9974,11 +9974,11 @@
     </row>
     <row r="238" spans="1:25" ht="169" x14ac:dyDescent="0.15">
       <c r="A238" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B238" s="4"/>
       <c r="C238" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -10005,7 +10005,7 @@
     </row>
     <row r="239" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -10034,11 +10034,11 @@
     </row>
     <row r="240" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A240" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B240" s="4"/>
       <c r="C240" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -10065,11 +10065,11 @@
     </row>
     <row r="241" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A241" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B241" s="4"/>
       <c r="C241" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -10096,11 +10096,11 @@
     </row>
     <row r="242" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A242" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B242" s="4"/>
       <c r="C242" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -10127,7 +10127,7 @@
     </row>
     <row r="243" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -10156,7 +10156,7 @@
     </row>
     <row r="244" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -10185,7 +10185,7 @@
     </row>
     <row r="245" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -10214,11 +10214,11 @@
     </row>
     <row r="246" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A246" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B246" s="4"/>
       <c r="C246" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -10245,7 +10245,7 @@
     </row>
     <row r="247" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -10274,11 +10274,11 @@
     </row>
     <row r="248" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B248" s="4"/>
       <c r="C248" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -10305,7 +10305,7 @@
     </row>
     <row r="249" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -10334,7 +10334,7 @@
     </row>
     <row r="250" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -10363,11 +10363,11 @@
     </row>
     <row r="251" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A251" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B251" s="4"/>
       <c r="C251" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -10394,7 +10394,7 @@
     </row>
     <row r="252" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -10423,11 +10423,11 @@
     </row>
     <row r="253" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A253" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B253" s="4"/>
       <c r="C253" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -10454,11 +10454,11 @@
     </row>
     <row r="254" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B254" s="4"/>
       <c r="C254" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -10485,10 +10485,10 @@
     </row>
     <row r="255" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A255" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B255" s="4" t="s">
         <v>406</v>
-      </c>
-      <c r="B255" s="4" t="s">
-        <v>407</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="2"/>
@@ -10516,10 +10516,10 @@
     </row>
     <row r="256" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B256" s="4" t="s">
         <v>408</v>
-      </c>
-      <c r="B256" s="4" t="s">
-        <v>409</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="2"/>
@@ -10547,11 +10547,11 @@
     </row>
     <row r="257" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A257" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B257" s="4"/>
       <c r="C257" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -10578,11 +10578,11 @@
     </row>
     <row r="258" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A258" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B258" s="4"/>
       <c r="C258" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -10609,7 +10609,7 @@
     </row>
     <row r="259" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -10638,10 +10638,10 @@
     </row>
     <row r="260" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B260" s="4" t="s">
         <v>415</v>
-      </c>
-      <c r="B260" s="4" t="s">
-        <v>416</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="2"/>
@@ -10669,7 +10669,7 @@
     </row>
     <row r="261" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -10698,7 +10698,7 @@
     </row>
     <row r="262" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -10727,11 +10727,11 @@
     </row>
     <row r="263" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B263" s="4"/>
       <c r="C263" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -10758,11 +10758,11 @@
     </row>
     <row r="264" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B264" s="4"/>
       <c r="C264" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -10789,11 +10789,11 @@
     </row>
     <row r="265" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B265" s="4"/>
       <c r="C265" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -10820,7 +10820,7 @@
     </row>
     <row r="266" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A266" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -10849,7 +10849,7 @@
     </row>
     <row r="267" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -10878,7 +10878,7 @@
     </row>
     <row r="268" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A268" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -10907,7 +10907,7 @@
     </row>
     <row r="269" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -10936,7 +10936,7 @@
     </row>
     <row r="270" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A270" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -10965,11 +10965,11 @@
     </row>
     <row r="271" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A271" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B271" s="4"/>
       <c r="C271" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -10996,11 +10996,11 @@
     </row>
     <row r="272" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A272" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B272" s="4"/>
       <c r="C272" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -11027,11 +11027,11 @@
     </row>
     <row r="273" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A273" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B273" s="4"/>
       <c r="C273" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -11058,10 +11058,10 @@
     </row>
     <row r="274" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A274" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B274" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="B274" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="2"/>
@@ -11089,7 +11089,7 @@
     </row>
     <row r="275" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A275" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -11118,11 +11118,11 @@
     </row>
     <row r="276" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A276" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B276" s="4"/>
       <c r="C276" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -11149,7 +11149,7 @@
     </row>
     <row r="277" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A277" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -11178,11 +11178,11 @@
     </row>
     <row r="278" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A278" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B278" s="4"/>
       <c r="C278" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -11209,10 +11209,10 @@
     </row>
     <row r="279" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A279" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B279" s="4" t="s">
         <v>444</v>
-      </c>
-      <c r="B279" s="4" t="s">
-        <v>445</v>
       </c>
       <c r="C279" s="4"/>
       <c r="D279" s="2"/>
@@ -11240,7 +11240,7 @@
     </row>
     <row r="280" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A280" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -11269,11 +11269,11 @@
     </row>
     <row r="281" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A281" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B281" s="4"/>
       <c r="C281" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
@@ -11300,11 +11300,11 @@
     </row>
     <row r="282" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A282" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B282" s="4"/>
       <c r="C282" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -11331,7 +11331,7 @@
     </row>
     <row r="283" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A283" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -11360,7 +11360,7 @@
     </row>
     <row r="284" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A284" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -11389,11 +11389,11 @@
     </row>
     <row r="285" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A285" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B285" s="4"/>
       <c r="C285" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -11420,11 +11420,11 @@
     </row>
     <row r="286" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A286" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B286" s="4"/>
       <c r="C286" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -11451,7 +11451,7 @@
     </row>
     <row r="287" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A287" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -11480,10 +11480,10 @@
     </row>
     <row r="288" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A288" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B288" s="4" t="s">
         <v>458</v>
-      </c>
-      <c r="B288" s="4" t="s">
-        <v>459</v>
       </c>
       <c r="C288" s="4"/>
       <c r="D288" s="2"/>
@@ -11511,11 +11511,11 @@
     </row>
     <row r="289" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A289" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B289" s="4"/>
       <c r="C289" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -11542,11 +11542,11 @@
     </row>
     <row r="290" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A290" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B290" s="4"/>
       <c r="C290" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -11573,11 +11573,11 @@
     </row>
     <row r="291" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A291" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B291" s="4"/>
       <c r="C291" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -11604,7 +11604,7 @@
     </row>
     <row r="292" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A292" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -11633,7 +11633,7 @@
     </row>
     <row r="293" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A293" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -11662,7 +11662,7 @@
     </row>
     <row r="294" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A294" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -11691,7 +11691,7 @@
     </row>
     <row r="295" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A295" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -11720,7 +11720,7 @@
     </row>
     <row r="296" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A296" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -11749,7 +11749,7 @@
     </row>
     <row r="297" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A297" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -11778,11 +11778,11 @@
     </row>
     <row r="298" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A298" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B298" s="4"/>
       <c r="C298" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -11809,7 +11809,7 @@
     </row>
     <row r="299" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A299" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -11838,7 +11838,7 @@
     </row>
     <row r="300" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A300" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -11867,7 +11867,7 @@
     </row>
     <row r="301" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A301" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -11896,7 +11896,7 @@
     </row>
     <row r="302" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A302" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -11925,7 +11925,7 @@
     </row>
     <row r="303" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A303" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -11954,10 +11954,10 @@
     </row>
     <row r="304" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A304" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B304" s="4" t="s">
         <v>479</v>
-      </c>
-      <c r="B304" s="4" t="s">
-        <v>480</v>
       </c>
       <c r="C304" s="4"/>
       <c r="D304" s="2"/>
@@ -11985,7 +11985,7 @@
     </row>
     <row r="305" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A305" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -12014,11 +12014,11 @@
     </row>
     <row r="306" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A306" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B306" s="4"/>
       <c r="C306" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -12045,11 +12045,11 @@
     </row>
     <row r="307" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A307" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B307" s="4"/>
       <c r="C307" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -12076,11 +12076,11 @@
     </row>
     <row r="308" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A308" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B308" s="4"/>
       <c r="C308" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -12107,7 +12107,7 @@
     </row>
     <row r="309" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A309" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -12136,11 +12136,11 @@
     </row>
     <row r="310" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A310" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B310" s="4"/>
       <c r="C310" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -12167,7 +12167,7 @@
     </row>
     <row r="311" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A311" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -12196,11 +12196,11 @@
     </row>
     <row r="312" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A312" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B312" s="4"/>
       <c r="C312" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -12227,7 +12227,7 @@
     </row>
     <row r="313" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A313" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -12256,7 +12256,7 @@
     </row>
     <row r="314" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A314" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -12285,11 +12285,11 @@
     </row>
     <row r="315" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A315" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B315" s="4"/>
       <c r="C315" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -12316,7 +12316,7 @@
     </row>
     <row r="316" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A316" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -12345,11 +12345,11 @@
     </row>
     <row r="317" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A317" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B317" s="4"/>
       <c r="C317" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -12376,11 +12376,11 @@
     </row>
     <row r="318" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A318" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B318" s="4"/>
       <c r="C318" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -12407,7 +12407,7 @@
     </row>
     <row r="319" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A319" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -12436,11 +12436,11 @@
     </row>
     <row r="320" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A320" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B320" s="4"/>
       <c r="C320" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -12467,7 +12467,7 @@
     </row>
     <row r="321" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A321" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -12496,7 +12496,7 @@
     </row>
     <row r="322" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A322" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -12525,11 +12525,11 @@
     </row>
     <row r="323" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A323" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B323" s="4"/>
       <c r="C323" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -12556,7 +12556,7 @@
     </row>
     <row r="324" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A324" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -12585,7 +12585,7 @@
     </row>
     <row r="325" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A325" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -12614,11 +12614,11 @@
     </row>
     <row r="326" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A326" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B326" s="4"/>
       <c r="C326" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -12645,11 +12645,11 @@
     </row>
     <row r="327" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A327" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B327" s="4"/>
       <c r="C327" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -12676,7 +12676,7 @@
     </row>
     <row r="328" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A328" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -12705,11 +12705,11 @@
     </row>
     <row r="329" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A329" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B329" s="4"/>
       <c r="C329" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -12736,7 +12736,7 @@
     </row>
     <row r="330" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A330" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B330" s="4"/>
       <c r="D330" s="2"/>
@@ -12764,11 +12764,11 @@
     </row>
     <row r="331" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A331" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B331" s="4"/>
       <c r="C331" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -12795,11 +12795,11 @@
     </row>
     <row r="332" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A332" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B332" s="4"/>
       <c r="C332" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -12826,7 +12826,7 @@
     </row>
     <row r="333" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A333" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -12855,7 +12855,7 @@
     </row>
     <row r="334" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A334" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -12884,11 +12884,11 @@
     </row>
     <row r="335" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A335" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B335" s="4"/>
       <c r="C335" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -12915,7 +12915,7 @@
     </row>
     <row r="336" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A336" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -12944,7 +12944,7 @@
     </row>
     <row r="337" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A337" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -12973,11 +12973,11 @@
     </row>
     <row r="338" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A338" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B338" s="4"/>
       <c r="C338" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -13004,7 +13004,7 @@
     </row>
     <row r="339" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A339" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -13033,11 +13033,11 @@
     </row>
     <row r="340" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A340" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B340" s="4"/>
       <c r="C340" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -13064,7 +13064,7 @@
     </row>
     <row r="341" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A341" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -13093,10 +13093,10 @@
     </row>
     <row r="342" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A342" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B342" s="4" t="s">
         <v>536</v>
-      </c>
-      <c r="B342" s="4" t="s">
-        <v>537</v>
       </c>
       <c r="C342" s="4"/>
       <c r="D342" s="2"/>
@@ -13124,7 +13124,7 @@
     </row>
     <row r="343" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A343" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -13153,7 +13153,7 @@
     </row>
     <row r="344" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A344" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -13182,7 +13182,7 @@
     </row>
     <row r="345" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A345" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -13211,11 +13211,11 @@
     </row>
     <row r="346" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A346" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B346" s="4"/>
       <c r="C346" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -13242,11 +13242,11 @@
     </row>
     <row r="347" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A347" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B347" s="4"/>
       <c r="C347" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -13273,10 +13273,10 @@
     </row>
     <row r="348" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A348" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B348" s="4" t="s">
         <v>545</v>
-      </c>
-      <c r="B348" s="4" t="s">
-        <v>546</v>
       </c>
       <c r="C348" s="4"/>
       <c r="D348" s="2"/>
@@ -13304,11 +13304,11 @@
     </row>
     <row r="349" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A349" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B349" s="4"/>
       <c r="C349" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -13335,7 +13335,7 @@
     </row>
     <row r="350" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A350" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -13364,11 +13364,11 @@
     </row>
     <row r="351" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A351" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B351" s="4"/>
       <c r="C351" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -13395,7 +13395,7 @@
     </row>
     <row r="352" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A352" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -13424,11 +13424,11 @@
     </row>
     <row r="353" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A353" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B353" s="4"/>
       <c r="C353" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -13455,10 +13455,10 @@
     </row>
     <row r="354" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A354" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B354" s="4" t="s">
         <v>555</v>
-      </c>
-      <c r="B354" s="4" t="s">
-        <v>556</v>
       </c>
       <c r="C354" s="4"/>
       <c r="D354" s="2"/>
@@ -13486,11 +13486,11 @@
     </row>
     <row r="355" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A355" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B355" s="4"/>
       <c r="C355" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -13517,11 +13517,11 @@
     </row>
     <row r="356" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A356" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B356" s="4"/>
       <c r="C356" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -13548,7 +13548,7 @@
     </row>
     <row r="357" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A357" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -13577,10 +13577,10 @@
     </row>
     <row r="358" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A358" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B358" s="4" t="s">
         <v>560</v>
-      </c>
-      <c r="B358" s="4" t="s">
-        <v>561</v>
       </c>
       <c r="C358" s="4"/>
       <c r="D358" s="2"/>
@@ -13608,7 +13608,7 @@
     </row>
     <row r="359" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A359" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -13637,7 +13637,7 @@
     </row>
     <row r="360" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A360" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -13666,7 +13666,7 @@
     </row>
     <row r="361" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A361" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -13695,10 +13695,10 @@
     </row>
     <row r="362" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A362" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B362" s="4" t="s">
         <v>565</v>
-      </c>
-      <c r="B362" s="4" t="s">
-        <v>566</v>
       </c>
       <c r="C362" s="4"/>
       <c r="D362" s="2"/>
@@ -13726,10 +13726,10 @@
     </row>
     <row r="363" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A363" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B363" s="4" t="s">
         <v>567</v>
-      </c>
-      <c r="B363" s="4" t="s">
-        <v>568</v>
       </c>
       <c r="C363" s="4"/>
       <c r="D363" s="2"/>
@@ -13757,10 +13757,10 @@
     </row>
     <row r="364" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A364" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="B364" s="4" t="s">
         <v>569</v>
-      </c>
-      <c r="B364" s="4" t="s">
-        <v>570</v>
       </c>
       <c r="C364" s="4"/>
       <c r="D364" s="2"/>
@@ -13788,11 +13788,11 @@
     </row>
     <row r="365" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A365" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B365" s="4"/>
       <c r="C365" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -13819,7 +13819,7 @@
     </row>
     <row r="366" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A366" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -13848,7 +13848,7 @@
     </row>
     <row r="367" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A367" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -13877,7 +13877,7 @@
     </row>
     <row r="368" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A368" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -13906,7 +13906,7 @@
     </row>
     <row r="369" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A369" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -13935,11 +13935,11 @@
     </row>
     <row r="370" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A370" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B370" s="4"/>
       <c r="C370" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -13966,7 +13966,7 @@
     </row>
     <row r="371" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A371" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -13995,10 +13995,10 @@
     </row>
     <row r="372" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A372" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B372" s="4" t="s">
         <v>580</v>
-      </c>
-      <c r="B372" s="4" t="s">
-        <v>581</v>
       </c>
       <c r="C372" s="4"/>
       <c r="D372" s="2"/>
@@ -14026,7 +14026,7 @@
     </row>
     <row r="373" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A373" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -14055,7 +14055,7 @@
     </row>
     <row r="374" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A374" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -14084,7 +14084,7 @@
     </row>
     <row r="375" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A375" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -14113,10 +14113,10 @@
     </row>
     <row r="376" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A376" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="B376" s="4" t="s">
         <v>585</v>
-      </c>
-      <c r="B376" s="4" t="s">
-        <v>586</v>
       </c>
       <c r="C376" s="4"/>
       <c r="D376" s="2"/>
@@ -14144,10 +14144,10 @@
     </row>
     <row r="377" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A377" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B377" s="4" t="s">
         <v>587</v>
-      </c>
-      <c r="B377" s="4" t="s">
-        <v>588</v>
       </c>
       <c r="C377" s="4"/>
       <c r="D377" s="2"/>
@@ -14175,10 +14175,10 @@
     </row>
     <row r="378" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A378" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="B378" s="4" t="s">
         <v>589</v>
-      </c>
-      <c r="B378" s="4" t="s">
-        <v>590</v>
       </c>
       <c r="C378" s="4"/>
       <c r="D378" s="2"/>
@@ -14206,11 +14206,11 @@
     </row>
     <row r="379" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A379" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B379" s="4"/>
       <c r="C379" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
@@ -14237,13 +14237,13 @@
     </row>
     <row r="380" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A380" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="B380" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="B380" s="4" t="s">
+      <c r="C380" s="4" t="s">
         <v>594</v>
-      </c>
-      <c r="C380" s="4" t="s">
-        <v>595</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -14270,11 +14270,11 @@
     </row>
     <row r="381" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A381" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B381" s="4"/>
       <c r="C381" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -14301,7 +14301,7 @@
     </row>
     <row r="382" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A382" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -14330,11 +14330,11 @@
     </row>
     <row r="383" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A383" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B383" s="4"/>
       <c r="C383" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -14361,11 +14361,11 @@
     </row>
     <row r="384" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A384" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B384" s="4"/>
       <c r="C384" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -14392,10 +14392,10 @@
     </row>
     <row r="385" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A385" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B385" s="4" t="s">
         <v>603</v>
-      </c>
-      <c r="B385" s="4" t="s">
-        <v>604</v>
       </c>
       <c r="C385" s="4"/>
       <c r="D385" s="2"/>
@@ -14423,11 +14423,11 @@
     </row>
     <row r="386" spans="1:25" ht="195" x14ac:dyDescent="0.15">
       <c r="A386" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B386" s="4"/>
       <c r="C386" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -14454,11 +14454,11 @@
     </row>
     <row r="387" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A387" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B387" s="4"/>
       <c r="C387" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -14485,7 +14485,7 @@
     </row>
     <row r="388" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A388" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -14514,7 +14514,7 @@
     </row>
     <row r="389" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A389" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -14543,7 +14543,7 @@
     </row>
     <row r="390" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A390" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -14572,10 +14572,10 @@
     </row>
     <row r="391" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A391" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B391" s="4" t="s">
         <v>612</v>
-      </c>
-      <c r="B391" s="4" t="s">
-        <v>613</v>
       </c>
       <c r="C391" s="4"/>
       <c r="D391" s="2"/>
@@ -14603,11 +14603,11 @@
     </row>
     <row r="392" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A392" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B392" s="4"/>
       <c r="C392" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
@@ -14634,11 +14634,11 @@
     </row>
     <row r="393" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A393" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B393" s="4"/>
       <c r="C393" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -14665,10 +14665,10 @@
     </row>
     <row r="394" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A394" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B394" s="4" t="s">
         <v>618</v>
-      </c>
-      <c r="B394" s="4" t="s">
-        <v>619</v>
       </c>
       <c r="C394" s="4"/>
       <c r="D394" s="2"/>
@@ -14696,11 +14696,11 @@
     </row>
     <row r="395" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A395" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B395" s="4"/>
       <c r="C395" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -14727,11 +14727,11 @@
     </row>
     <row r="396" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A396" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B396" s="4"/>
       <c r="C396" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -14758,11 +14758,11 @@
     </row>
     <row r="397" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A397" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B397" s="4"/>
       <c r="C397" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -14789,10 +14789,10 @@
     </row>
     <row r="398" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A398" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="B398" s="4" t="s">
         <v>626</v>
-      </c>
-      <c r="B398" s="4" t="s">
-        <v>627</v>
       </c>
       <c r="C398" s="4"/>
       <c r="D398" s="2"/>
@@ -14820,7 +14820,7 @@
     </row>
     <row r="399" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A399" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -14849,11 +14849,11 @@
     </row>
     <row r="400" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A400" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B400" s="4"/>
       <c r="C400" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -14880,10 +14880,10 @@
     </row>
     <row r="401" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A401" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="B401" s="4" t="s">
         <v>631</v>
-      </c>
-      <c r="B401" s="4" t="s">
-        <v>632</v>
       </c>
       <c r="C401" s="4"/>
       <c r="D401" s="2"/>
@@ -14911,11 +14911,11 @@
     </row>
     <row r="402" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A402" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B402" s="4"/>
       <c r="C402" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
@@ -14942,7 +14942,7 @@
     </row>
     <row r="403" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A403" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -14971,7 +14971,7 @@
     </row>
     <row r="404" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A404" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -15000,11 +15000,11 @@
     </row>
     <row r="405" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A405" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B405" s="4"/>
       <c r="C405" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
@@ -15031,7 +15031,7 @@
     </row>
     <row r="406" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A406" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -15060,11 +15060,11 @@
     </row>
     <row r="407" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A407" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B407" s="4"/>
       <c r="C407" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
@@ -15091,7 +15091,7 @@
     </row>
     <row r="408" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A408" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -15120,7 +15120,7 @@
     </row>
     <row r="409" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A409" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -15149,7 +15149,7 @@
     </row>
     <row r="410" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A410" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -15178,7 +15178,7 @@
     </row>
     <row r="411" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A411" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -15207,10 +15207,10 @@
     </row>
     <row r="412" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A412" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="B412" s="4" t="s">
         <v>646</v>
-      </c>
-      <c r="B412" s="4" t="s">
-        <v>647</v>
       </c>
       <c r="C412" s="4"/>
       <c r="D412" s="2"/>
@@ -15238,7 +15238,7 @@
     </row>
     <row r="413" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A413" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -15267,7 +15267,7 @@
     </row>
     <row r="414" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A414" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -15296,7 +15296,7 @@
     </row>
     <row r="415" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A415" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -15325,7 +15325,7 @@
     </row>
     <row r="416" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A416" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -15354,7 +15354,7 @@
     </row>
     <row r="417" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A417" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -15383,7 +15383,7 @@
     </row>
     <row r="418" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A418" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B418" s="4"/>
       <c r="C418" s="2"/>
@@ -15412,7 +15412,7 @@
     </row>
     <row r="419" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A419" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B419" s="4"/>
       <c r="C419" s="2"/>
@@ -15441,7 +15441,7 @@
     </row>
     <row r="420" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A420" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B420" s="4"/>
       <c r="C420" s="2"/>
@@ -15470,10 +15470,10 @@
     </row>
     <row r="421" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A421" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="B421" s="4" t="s">
         <v>656</v>
-      </c>
-      <c r="B421" s="4" t="s">
-        <v>657</v>
       </c>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>

--- a/mappings/wikipathways_reactome.xlsx
+++ b/mappings/wikipathways_reactome.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25580" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1717,9 +1717,6 @@
     <t>Photodynamic therapy-induced unfolded protein response</t>
   </si>
   <si>
-    <t>Physiological and Pathological Hypertrophy of the Heart</t>
-  </si>
-  <si>
     <t>Polyol Pathway</t>
   </si>
   <si>
@@ -2197,9 +2194,6 @@
   </si>
   <si>
     <t>Tumor suppressor activity of SMARCB1</t>
-  </si>
-  <si>
-    <t>Type 1 Papillary Renal Cell Carcinoma</t>
   </si>
   <si>
     <t>Type II diabetes mellitus</t>
@@ -2316,9 +2310,6 @@
 mRNA Splicing - Minor Pathway isPartOf mRNA Processing*
 Processing of Capped Intron-Containing Pre-mRNA isPartOf mRNA Processing*
 Processing of Intronless Pre-mRNAs isPartOf mRNA Processing*</t>
-  </si>
-  <si>
-    <t>miR-148a/miR-31/FIH1/HIF1��-Notch signaling in glioblastoma</t>
   </si>
   <si>
     <t>miR-222 in Exercise-Induced Cardiac Growth</t>
@@ -2417,12 +2408,21 @@
   <si>
     <t>MAPK  and NFkB Signalling Pathways Inhibited by Yersinia YopJ</t>
   </si>
+  <si>
+    <t>Physiological and Pathological Hypertrophy  of the Heart</t>
+  </si>
+  <si>
+    <t>MET in type 1 papillary renal cell carcinoma</t>
+  </si>
+  <si>
+    <t>miR-148a/miR-31/FIH1/HIF1α-Notch signaling in glioblastoma</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2445,6 +2445,11 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2480,7 +2485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2500,6 +2505,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2782,8 +2788,8 @@
   </sheetPr>
   <dimension ref="A1:Y999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="60" workbookViewId="0">
-      <selection activeCell="A216" sqref="A216"/>
+    <sheetView tabSelected="1" topLeftCell="A397" zoomScale="60" workbookViewId="0">
+      <selection activeCell="A408" sqref="A408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2803,7 +2809,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -3010,7 +3016,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -4311,13 +4317,13 @@
     </row>
     <row r="51" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -6452,7 +6458,7 @@
     </row>
     <row r="122" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -7038,7 +7044,7 @@
         <v>223</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="2"/>
@@ -7585,7 +7591,7 @@
     </row>
     <row r="159" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -8211,7 +8217,7 @@
         <v>281</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="2"/>
@@ -9277,7 +9283,7 @@
     </row>
     <row r="215" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="4" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -11749,7 +11755,7 @@
     </row>
     <row r="297" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A297" s="4" t="s">
-        <v>470</v>
+        <v>666</v>
       </c>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -11778,11 +11784,11 @@
     </row>
     <row r="298" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A298" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B298" s="4"/>
       <c r="C298" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -11809,7 +11815,7 @@
     </row>
     <row r="299" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A299" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -11838,7 +11844,7 @@
     </row>
     <row r="300" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A300" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -11867,7 +11873,7 @@
     </row>
     <row r="301" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A301" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -11896,7 +11902,7 @@
     </row>
     <row r="302" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A302" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -11925,7 +11931,7 @@
     </row>
     <row r="303" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A303" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -11954,10 +11960,10 @@
     </row>
     <row r="304" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A304" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B304" s="4" t="s">
         <v>478</v>
-      </c>
-      <c r="B304" s="4" t="s">
-        <v>479</v>
       </c>
       <c r="C304" s="4"/>
       <c r="D304" s="2"/>
@@ -11985,7 +11991,7 @@
     </row>
     <row r="305" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A305" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -12014,11 +12020,11 @@
     </row>
     <row r="306" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A306" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B306" s="4"/>
       <c r="C306" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -12045,11 +12051,11 @@
     </row>
     <row r="307" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A307" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B307" s="4"/>
       <c r="C307" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -12076,11 +12082,11 @@
     </row>
     <row r="308" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A308" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B308" s="4"/>
       <c r="C308" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -12107,7 +12113,7 @@
     </row>
     <row r="309" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A309" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -12136,11 +12142,11 @@
     </row>
     <row r="310" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A310" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B310" s="4"/>
       <c r="C310" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -12167,7 +12173,7 @@
     </row>
     <row r="311" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A311" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -12196,11 +12202,11 @@
     </row>
     <row r="312" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A312" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B312" s="4"/>
       <c r="C312" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -12227,7 +12233,7 @@
     </row>
     <row r="313" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A313" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -12256,7 +12262,7 @@
     </row>
     <row r="314" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A314" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -12285,11 +12291,11 @@
     </row>
     <row r="315" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A315" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B315" s="4"/>
       <c r="C315" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -12316,7 +12322,7 @@
     </row>
     <row r="316" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A316" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -12345,11 +12351,11 @@
     </row>
     <row r="317" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A317" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B317" s="4"/>
       <c r="C317" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -12376,11 +12382,11 @@
     </row>
     <row r="318" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A318" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B318" s="4"/>
       <c r="C318" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -12407,7 +12413,7 @@
     </row>
     <row r="319" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A319" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -12436,11 +12442,11 @@
     </row>
     <row r="320" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A320" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B320" s="4"/>
       <c r="C320" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -12467,7 +12473,7 @@
     </row>
     <row r="321" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A321" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -12496,7 +12502,7 @@
     </row>
     <row r="322" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A322" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -12525,11 +12531,11 @@
     </row>
     <row r="323" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A323" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B323" s="4"/>
       <c r="C323" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -12556,7 +12562,7 @@
     </row>
     <row r="324" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A324" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -12585,7 +12591,7 @@
     </row>
     <row r="325" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A325" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -12614,11 +12620,11 @@
     </row>
     <row r="326" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A326" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B326" s="4"/>
       <c r="C326" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -12645,11 +12651,11 @@
     </row>
     <row r="327" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A327" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B327" s="4"/>
       <c r="C327" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -12676,7 +12682,7 @@
     </row>
     <row r="328" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A328" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -12705,11 +12711,11 @@
     </row>
     <row r="329" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A329" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B329" s="4"/>
       <c r="C329" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -12736,7 +12742,7 @@
     </row>
     <row r="330" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A330" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B330" s="4"/>
       <c r="D330" s="2"/>
@@ -12764,11 +12770,11 @@
     </row>
     <row r="331" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A331" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B331" s="4"/>
       <c r="C331" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -12795,11 +12801,11 @@
     </row>
     <row r="332" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A332" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B332" s="4"/>
       <c r="C332" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -12826,7 +12832,7 @@
     </row>
     <row r="333" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A333" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -12855,7 +12861,7 @@
     </row>
     <row r="334" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A334" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -12884,11 +12890,11 @@
     </row>
     <row r="335" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A335" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B335" s="4"/>
       <c r="C335" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -12915,7 +12921,7 @@
     </row>
     <row r="336" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A336" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -12944,7 +12950,7 @@
     </row>
     <row r="337" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A337" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -12973,11 +12979,11 @@
     </row>
     <row r="338" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A338" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B338" s="4"/>
       <c r="C338" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -13004,7 +13010,7 @@
     </row>
     <row r="339" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A339" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -13033,11 +13039,11 @@
     </row>
     <row r="340" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A340" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B340" s="4"/>
       <c r="C340" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -13064,7 +13070,7 @@
     </row>
     <row r="341" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A341" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -13093,10 +13099,10 @@
     </row>
     <row r="342" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A342" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="B342" s="4" t="s">
         <v>535</v>
-      </c>
-      <c r="B342" s="4" t="s">
-        <v>536</v>
       </c>
       <c r="C342" s="4"/>
       <c r="D342" s="2"/>
@@ -13124,7 +13130,7 @@
     </row>
     <row r="343" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A343" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -13153,7 +13159,7 @@
     </row>
     <row r="344" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A344" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -13182,7 +13188,7 @@
     </row>
     <row r="345" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A345" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -13211,11 +13217,11 @@
     </row>
     <row r="346" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A346" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B346" s="4"/>
       <c r="C346" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -13242,11 +13248,11 @@
     </row>
     <row r="347" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A347" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B347" s="4"/>
       <c r="C347" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -13273,10 +13279,10 @@
     </row>
     <row r="348" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A348" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B348" s="4" t="s">
         <v>544</v>
-      </c>
-      <c r="B348" s="4" t="s">
-        <v>545</v>
       </c>
       <c r="C348" s="4"/>
       <c r="D348" s="2"/>
@@ -13304,11 +13310,11 @@
     </row>
     <row r="349" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A349" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B349" s="4"/>
       <c r="C349" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -13335,7 +13341,7 @@
     </row>
     <row r="350" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A350" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -13364,11 +13370,11 @@
     </row>
     <row r="351" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A351" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B351" s="4"/>
       <c r="C351" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -13395,7 +13401,7 @@
     </row>
     <row r="352" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A352" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -13424,11 +13430,11 @@
     </row>
     <row r="353" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A353" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B353" s="4"/>
       <c r="C353" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -13455,10 +13461,10 @@
     </row>
     <row r="354" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A354" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B354" s="4" t="s">
         <v>554</v>
-      </c>
-      <c r="B354" s="4" t="s">
-        <v>555</v>
       </c>
       <c r="C354" s="4"/>
       <c r="D354" s="2"/>
@@ -13486,11 +13492,11 @@
     </row>
     <row r="355" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A355" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B355" s="4"/>
       <c r="C355" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -13517,11 +13523,11 @@
     </row>
     <row r="356" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A356" s="4" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B356" s="4"/>
       <c r="C356" s="4" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -13548,7 +13554,7 @@
     </row>
     <row r="357" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A357" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -13577,10 +13583,10 @@
     </row>
     <row r="358" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A358" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B358" s="4" t="s">
         <v>559</v>
-      </c>
-      <c r="B358" s="4" t="s">
-        <v>560</v>
       </c>
       <c r="C358" s="4"/>
       <c r="D358" s="2"/>
@@ -13608,7 +13614,7 @@
     </row>
     <row r="359" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A359" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -13637,7 +13643,7 @@
     </row>
     <row r="360" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A360" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -13666,7 +13672,7 @@
     </row>
     <row r="361" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A361" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -13695,10 +13701,10 @@
     </row>
     <row r="362" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A362" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B362" s="4" t="s">
         <v>564</v>
-      </c>
-      <c r="B362" s="4" t="s">
-        <v>565</v>
       </c>
       <c r="C362" s="4"/>
       <c r="D362" s="2"/>
@@ -13726,10 +13732,10 @@
     </row>
     <row r="363" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A363" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B363" s="4" t="s">
         <v>566</v>
-      </c>
-      <c r="B363" s="4" t="s">
-        <v>567</v>
       </c>
       <c r="C363" s="4"/>
       <c r="D363" s="2"/>
@@ -13757,10 +13763,10 @@
     </row>
     <row r="364" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A364" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B364" s="4" t="s">
         <v>568</v>
-      </c>
-      <c r="B364" s="4" t="s">
-        <v>569</v>
       </c>
       <c r="C364" s="4"/>
       <c r="D364" s="2"/>
@@ -13788,11 +13794,11 @@
     </row>
     <row r="365" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A365" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B365" s="4"/>
       <c r="C365" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -13819,7 +13825,7 @@
     </row>
     <row r="366" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A366" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -13848,7 +13854,7 @@
     </row>
     <row r="367" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A367" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -13877,7 +13883,7 @@
     </row>
     <row r="368" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A368" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -13906,7 +13912,7 @@
     </row>
     <row r="369" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A369" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -13935,11 +13941,11 @@
     </row>
     <row r="370" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A370" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B370" s="4"/>
       <c r="C370" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -13966,7 +13972,7 @@
     </row>
     <row r="371" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A371" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -13995,10 +14001,10 @@
     </row>
     <row r="372" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A372" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="B372" s="4" t="s">
         <v>579</v>
-      </c>
-      <c r="B372" s="4" t="s">
-        <v>580</v>
       </c>
       <c r="C372" s="4"/>
       <c r="D372" s="2"/>
@@ -14026,7 +14032,7 @@
     </row>
     <row r="373" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A373" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -14055,7 +14061,7 @@
     </row>
     <row r="374" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A374" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -14084,7 +14090,7 @@
     </row>
     <row r="375" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A375" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -14113,10 +14119,10 @@
     </row>
     <row r="376" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A376" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="B376" s="4" t="s">
         <v>584</v>
-      </c>
-      <c r="B376" s="4" t="s">
-        <v>585</v>
       </c>
       <c r="C376" s="4"/>
       <c r="D376" s="2"/>
@@ -14144,10 +14150,10 @@
     </row>
     <row r="377" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A377" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B377" s="4" t="s">
         <v>586</v>
-      </c>
-      <c r="B377" s="4" t="s">
-        <v>587</v>
       </c>
       <c r="C377" s="4"/>
       <c r="D377" s="2"/>
@@ -14175,10 +14181,10 @@
     </row>
     <row r="378" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A378" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="B378" s="4" t="s">
         <v>588</v>
-      </c>
-      <c r="B378" s="4" t="s">
-        <v>589</v>
       </c>
       <c r="C378" s="4"/>
       <c r="D378" s="2"/>
@@ -14206,11 +14212,11 @@
     </row>
     <row r="379" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A379" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B379" s="4"/>
       <c r="C379" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
@@ -14237,13 +14243,13 @@
     </row>
     <row r="380" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A380" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B380" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="B380" s="4" t="s">
+      <c r="C380" s="4" t="s">
         <v>593</v>
-      </c>
-      <c r="C380" s="4" t="s">
-        <v>594</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -14270,11 +14276,11 @@
     </row>
     <row r="381" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A381" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B381" s="4"/>
       <c r="C381" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -14301,7 +14307,7 @@
     </row>
     <row r="382" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A382" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -14330,11 +14336,11 @@
     </row>
     <row r="383" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A383" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B383" s="4"/>
       <c r="C383" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -14361,11 +14367,11 @@
     </row>
     <row r="384" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A384" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B384" s="4"/>
       <c r="C384" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -14392,10 +14398,10 @@
     </row>
     <row r="385" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A385" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="B385" s="4" t="s">
         <v>602</v>
-      </c>
-      <c r="B385" s="4" t="s">
-        <v>603</v>
       </c>
       <c r="C385" s="4"/>
       <c r="D385" s="2"/>
@@ -14423,11 +14429,11 @@
     </row>
     <row r="386" spans="1:25" ht="195" x14ac:dyDescent="0.15">
       <c r="A386" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B386" s="4"/>
       <c r="C386" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -14454,11 +14460,11 @@
     </row>
     <row r="387" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A387" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B387" s="4"/>
       <c r="C387" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -14485,7 +14491,7 @@
     </row>
     <row r="388" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A388" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -14512,9 +14518,9 @@
       <c r="X388" s="2"/>
       <c r="Y388" s="2"/>
     </row>
-    <row r="389" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A389" s="4" t="s">
-        <v>609</v>
+    <row r="389" spans="1:25" ht="16" x14ac:dyDescent="0.25">
+      <c r="A389" s="7" t="s">
+        <v>667</v>
       </c>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -14543,7 +14549,7 @@
     </row>
     <row r="390" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A390" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -14572,10 +14578,10 @@
     </row>
     <row r="391" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A391" s="4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C391" s="4"/>
       <c r="D391" s="2"/>
@@ -14603,11 +14609,11 @@
     </row>
     <row r="392" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A392" s="4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B392" s="4"/>
       <c r="C392" s="4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
@@ -14634,11 +14640,11 @@
     </row>
     <row r="393" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A393" s="4" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B393" s="4"/>
       <c r="C393" s="4" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -14665,10 +14671,10 @@
     </row>
     <row r="394" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A394" s="4" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C394" s="4"/>
       <c r="D394" s="2"/>
@@ -14696,11 +14702,11 @@
     </row>
     <row r="395" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A395" s="4" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B395" s="4"/>
       <c r="C395" s="4" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -14727,11 +14733,11 @@
     </row>
     <row r="396" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A396" s="4" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B396" s="4"/>
       <c r="C396" s="4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -14758,11 +14764,11 @@
     </row>
     <row r="397" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A397" s="4" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B397" s="4"/>
       <c r="C397" s="4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -14789,10 +14795,10 @@
     </row>
     <row r="398" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A398" s="4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C398" s="4"/>
       <c r="D398" s="2"/>
@@ -14820,7 +14826,7 @@
     </row>
     <row r="399" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A399" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -14849,11 +14855,11 @@
     </row>
     <row r="400" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A400" s="4" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B400" s="4"/>
       <c r="C400" s="4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -14880,10 +14886,10 @@
     </row>
     <row r="401" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A401" s="4" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C401" s="4"/>
       <c r="D401" s="2"/>
@@ -14911,11 +14917,11 @@
     </row>
     <row r="402" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A402" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B402" s="4"/>
       <c r="C402" s="4" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
@@ -14942,7 +14948,7 @@
     </row>
     <row r="403" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A403" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -14971,7 +14977,7 @@
     </row>
     <row r="404" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A404" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -15000,11 +15006,11 @@
     </row>
     <row r="405" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A405" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B405" s="4"/>
       <c r="C405" s="4" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
@@ -15031,7 +15037,7 @@
     </row>
     <row r="406" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A406" s="4" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -15060,11 +15066,11 @@
     </row>
     <row r="407" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A407" s="4" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B407" s="4"/>
       <c r="C407" s="4" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
@@ -15091,7 +15097,7 @@
     </row>
     <row r="408" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A408" s="4" t="s">
-        <v>641</v>
+        <v>668</v>
       </c>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -15120,7 +15126,7 @@
     </row>
     <row r="409" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A409" s="4" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -15149,7 +15155,7 @@
     </row>
     <row r="410" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A410" s="4" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -15178,7 +15184,7 @@
     </row>
     <row r="411" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A411" s="4" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -15207,10 +15213,10 @@
     </row>
     <row r="412" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A412" s="4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C412" s="4"/>
       <c r="D412" s="2"/>
@@ -15238,7 +15244,7 @@
     </row>
     <row r="413" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A413" s="4" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -15267,7 +15273,7 @@
     </row>
     <row r="414" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A414" s="4" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -15296,7 +15302,7 @@
     </row>
     <row r="415" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A415" s="4" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -15325,7 +15331,7 @@
     </row>
     <row r="416" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A416" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -15354,7 +15360,7 @@
     </row>
     <row r="417" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A417" s="4" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -15383,7 +15389,7 @@
     </row>
     <row r="418" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A418" s="4" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B418" s="4"/>
       <c r="C418" s="2"/>
@@ -15412,7 +15418,7 @@
     </row>
     <row r="419" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A419" s="4" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B419" s="4"/>
       <c r="C419" s="2"/>
@@ -15441,7 +15447,7 @@
     </row>
     <row r="420" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A420" s="4" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B420" s="4"/>
       <c r="C420" s="2"/>
@@ -15470,10 +15476,10 @@
     </row>
     <row r="421" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A421" s="4" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>

--- a/mappings/wikipathways_reactome.xlsx
+++ b/mappings/wikipathways_reactome.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1018,9 +1018,6 @@
     <t>Homologous recombination</t>
   </si>
   <si>
-    <t>Homologous recombination equivalentTo Homology Directed Repair</t>
-  </si>
-  <si>
     <t>Hormonal control of Pubertal Growth Spurt</t>
   </si>
   <si>
@@ -2416,6 +2413,9 @@
   </si>
   <si>
     <t>miR-148a/miR-31/FIH1/HIF1α-Notch signaling in glioblastoma</t>
+  </si>
+  <si>
+    <t>Homology Directed Repair isPartOf Homologous recombination*</t>
   </si>
 </sst>
 </file>
@@ -2788,8 +2788,8 @@
   </sheetPr>
   <dimension ref="A1:Y999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A397" zoomScale="60" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="60" workbookViewId="0">
+      <selection activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2809,7 +2809,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -4317,13 +4317,13 @@
     </row>
     <row r="51" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>654</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>655</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -6458,7 +6458,7 @@
     </row>
     <row r="122" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -7044,7 +7044,7 @@
         <v>223</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="2"/>
@@ -7591,7 +7591,7 @@
     </row>
     <row r="159" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -7951,10 +7951,9 @@
       <c r="A171" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B171" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C171" s="4"/>
+      <c r="C171" s="4" t="s">
+        <v>668</v>
+      </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
@@ -7980,7 +7979,7 @@
     </row>
     <row r="172" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -8009,7 +8008,7 @@
     </row>
     <row r="173" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -8038,7 +8037,7 @@
     </row>
     <row r="174" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -8067,7 +8066,7 @@
     </row>
     <row r="175" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -8096,7 +8095,7 @@
     </row>
     <row r="176" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -8125,7 +8124,7 @@
     </row>
     <row r="177" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -8154,7 +8153,7 @@
     </row>
     <row r="178" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -8183,10 +8182,10 @@
     </row>
     <row r="179" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B179" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>280</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="2"/>
@@ -8214,10 +8213,10 @@
     </row>
     <row r="180" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="2"/>
@@ -8245,11 +8244,11 @@
     </row>
     <row r="181" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A181" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B181" s="4"/>
       <c r="C181" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -8276,11 +8275,11 @@
     </row>
     <row r="182" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A182" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B182" s="4"/>
       <c r="C182" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -8307,11 +8306,11 @@
     </row>
     <row r="183" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A183" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B183" s="4"/>
       <c r="C183" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -8338,10 +8337,10 @@
     </row>
     <row r="184" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B184" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="2"/>
@@ -8369,10 +8368,10 @@
     </row>
     <row r="185" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B185" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>291</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="2"/>
@@ -8400,10 +8399,10 @@
     </row>
     <row r="186" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B186" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>293</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="2"/>
@@ -8431,11 +8430,11 @@
     </row>
     <row r="187" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B187" s="4"/>
       <c r="C187" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -8462,10 +8461,10 @@
     </row>
     <row r="188" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B188" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>297</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="2"/>
@@ -8493,7 +8492,7 @@
     </row>
     <row r="189" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -8522,11 +8521,11 @@
     </row>
     <row r="190" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A190" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B190" s="4"/>
       <c r="C190" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -8553,11 +8552,11 @@
     </row>
     <row r="191" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B191" s="4"/>
       <c r="C191" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -8584,7 +8583,7 @@
     </row>
     <row r="192" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -8613,7 +8612,7 @@
     </row>
     <row r="193" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -8642,11 +8641,11 @@
     </row>
     <row r="194" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A194" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B194" s="4"/>
       <c r="C194" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -8673,11 +8672,11 @@
     </row>
     <row r="195" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A195" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B195" s="4"/>
       <c r="C195" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -8704,7 +8703,7 @@
     </row>
     <row r="196" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -8733,11 +8732,11 @@
     </row>
     <row r="197" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A197" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B197" s="4"/>
       <c r="C197" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -8764,11 +8763,11 @@
     </row>
     <row r="198" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A198" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B198" s="4"/>
       <c r="C198" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -8795,7 +8794,7 @@
     </row>
     <row r="199" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -8824,11 +8823,11 @@
     </row>
     <row r="200" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A200" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B200" s="4"/>
       <c r="C200" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -8855,11 +8854,11 @@
     </row>
     <row r="201" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A201" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B201" s="4"/>
       <c r="C201" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -8886,11 +8885,11 @@
     </row>
     <row r="202" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A202" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B202" s="4"/>
       <c r="C202" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
@@ -8917,7 +8916,7 @@
     </row>
     <row r="203" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -8946,11 +8945,11 @@
     </row>
     <row r="204" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B204" s="4"/>
       <c r="C204" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -8977,11 +8976,11 @@
     </row>
     <row r="205" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A205" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B205" s="4"/>
       <c r="C205" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -9008,11 +9007,11 @@
     </row>
     <row r="206" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B206" s="4"/>
       <c r="C206" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -9039,11 +9038,11 @@
     </row>
     <row r="207" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B207" s="4"/>
       <c r="C207" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -9070,11 +9069,11 @@
     </row>
     <row r="208" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B208" s="4"/>
       <c r="C208" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -9101,10 +9100,10 @@
     </row>
     <row r="209" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B209" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>333</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="2"/>
@@ -9132,11 +9131,11 @@
     </row>
     <row r="210" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A210" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B210" s="4"/>
       <c r="C210" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -9163,10 +9162,10 @@
     </row>
     <row r="211" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B211" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="2"/>
@@ -9194,11 +9193,11 @@
     </row>
     <row r="212" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A212" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B212" s="4"/>
       <c r="C212" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -9225,7 +9224,7 @@
     </row>
     <row r="213" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -9254,7 +9253,7 @@
     </row>
     <row r="214" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -9283,7 +9282,7 @@
     </row>
     <row r="215" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -9312,10 +9311,10 @@
     </row>
     <row r="216" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B216" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>343</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="2"/>
@@ -9343,10 +9342,10 @@
     </row>
     <row r="217" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B217" s="4" t="s">
         <v>344</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>345</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="2"/>
@@ -9374,7 +9373,7 @@
     </row>
     <row r="218" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -9403,7 +9402,7 @@
     </row>
     <row r="219" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -9432,11 +9431,11 @@
     </row>
     <row r="220" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A220" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B220" s="4"/>
       <c r="C220" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -9463,11 +9462,11 @@
     </row>
     <row r="221" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A221" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B221" s="4"/>
       <c r="C221" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -9494,7 +9493,7 @@
     </row>
     <row r="222" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -9523,7 +9522,7 @@
     </row>
     <row r="223" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -9552,11 +9551,11 @@
     </row>
     <row r="224" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A224" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B224" s="4"/>
       <c r="C224" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -9583,11 +9582,11 @@
     </row>
     <row r="225" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A225" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B225" s="4"/>
       <c r="C225" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -9614,7 +9613,7 @@
     </row>
     <row r="226" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -9643,7 +9642,7 @@
     </row>
     <row r="227" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -9672,13 +9671,13 @@
     </row>
     <row r="228" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A228" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B228" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="B228" s="4" t="s">
+      <c r="C228" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>362</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -9705,10 +9704,10 @@
     </row>
     <row r="229" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B229" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="B229" s="4" t="s">
-        <v>364</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="2"/>
@@ -9736,7 +9735,7 @@
     </row>
     <row r="230" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -9765,11 +9764,11 @@
     </row>
     <row r="231" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A231" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B231" s="4"/>
       <c r="C231" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -9796,10 +9795,10 @@
     </row>
     <row r="232" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B232" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>369</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="2"/>
@@ -9827,11 +9826,11 @@
     </row>
     <row r="233" spans="1:25" ht="221" x14ac:dyDescent="0.15">
       <c r="A233" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B233" s="4"/>
       <c r="C233" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -9858,11 +9857,11 @@
     </row>
     <row r="234" spans="1:25" ht="273" x14ac:dyDescent="0.15">
       <c r="A234" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B234" s="4"/>
       <c r="C234" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -9889,11 +9888,11 @@
     </row>
     <row r="235" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A235" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B235" s="4"/>
       <c r="C235" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -9920,11 +9919,11 @@
     </row>
     <row r="236" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A236" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B236" s="4"/>
       <c r="C236" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -9951,7 +9950,7 @@
     </row>
     <row r="237" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -9980,11 +9979,11 @@
     </row>
     <row r="238" spans="1:25" ht="169" x14ac:dyDescent="0.15">
       <c r="A238" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B238" s="4"/>
       <c r="C238" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -10011,7 +10010,7 @@
     </row>
     <row r="239" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -10040,11 +10039,11 @@
     </row>
     <row r="240" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A240" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B240" s="4"/>
       <c r="C240" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -10071,11 +10070,11 @@
     </row>
     <row r="241" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A241" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B241" s="4"/>
       <c r="C241" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -10102,11 +10101,11 @@
     </row>
     <row r="242" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A242" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B242" s="4"/>
       <c r="C242" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -10133,7 +10132,7 @@
     </row>
     <row r="243" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -10162,7 +10161,7 @@
     </row>
     <row r="244" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -10191,7 +10190,7 @@
     </row>
     <row r="245" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -10220,11 +10219,11 @@
     </row>
     <row r="246" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A246" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B246" s="4"/>
       <c r="C246" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -10251,7 +10250,7 @@
     </row>
     <row r="247" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -10280,11 +10279,11 @@
     </row>
     <row r="248" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B248" s="4"/>
       <c r="C248" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -10311,7 +10310,7 @@
     </row>
     <row r="249" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -10340,7 +10339,7 @@
     </row>
     <row r="250" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -10369,11 +10368,11 @@
     </row>
     <row r="251" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A251" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B251" s="4"/>
       <c r="C251" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -10400,7 +10399,7 @@
     </row>
     <row r="252" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -10429,11 +10428,11 @@
     </row>
     <row r="253" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A253" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B253" s="4"/>
       <c r="C253" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -10460,11 +10459,11 @@
     </row>
     <row r="254" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B254" s="4"/>
       <c r="C254" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -10491,10 +10490,10 @@
     </row>
     <row r="255" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A255" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B255" s="4" t="s">
         <v>405</v>
-      </c>
-      <c r="B255" s="4" t="s">
-        <v>406</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="2"/>
@@ -10522,10 +10521,10 @@
     </row>
     <row r="256" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B256" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="B256" s="4" t="s">
-        <v>408</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="2"/>
@@ -10553,11 +10552,11 @@
     </row>
     <row r="257" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A257" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B257" s="4"/>
       <c r="C257" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -10584,11 +10583,11 @@
     </row>
     <row r="258" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A258" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B258" s="4"/>
       <c r="C258" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -10615,7 +10614,7 @@
     </row>
     <row r="259" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -10644,10 +10643,10 @@
     </row>
     <row r="260" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B260" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="B260" s="4" t="s">
-        <v>415</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="2"/>
@@ -10675,7 +10674,7 @@
     </row>
     <row r="261" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -10704,7 +10703,7 @@
     </row>
     <row r="262" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -10733,11 +10732,11 @@
     </row>
     <row r="263" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B263" s="4"/>
       <c r="C263" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -10764,11 +10763,11 @@
     </row>
     <row r="264" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B264" s="4"/>
       <c r="C264" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -10795,11 +10794,11 @@
     </row>
     <row r="265" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B265" s="4"/>
       <c r="C265" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -10826,7 +10825,7 @@
     </row>
     <row r="266" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A266" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -10855,7 +10854,7 @@
     </row>
     <row r="267" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -10884,7 +10883,7 @@
     </row>
     <row r="268" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A268" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -10913,7 +10912,7 @@
     </row>
     <row r="269" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -10942,7 +10941,7 @@
     </row>
     <row r="270" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A270" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -10971,11 +10970,11 @@
     </row>
     <row r="271" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A271" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B271" s="4"/>
       <c r="C271" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -11002,11 +11001,11 @@
     </row>
     <row r="272" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A272" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B272" s="4"/>
       <c r="C272" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -11033,11 +11032,11 @@
     </row>
     <row r="273" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A273" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B273" s="4"/>
       <c r="C273" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -11064,10 +11063,10 @@
     </row>
     <row r="274" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A274" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B274" s="4" t="s">
         <v>435</v>
-      </c>
-      <c r="B274" s="4" t="s">
-        <v>436</v>
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="2"/>
@@ -11095,7 +11094,7 @@
     </row>
     <row r="275" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A275" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -11124,11 +11123,11 @@
     </row>
     <row r="276" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A276" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B276" s="4"/>
       <c r="C276" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -11155,7 +11154,7 @@
     </row>
     <row r="277" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A277" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -11184,11 +11183,11 @@
     </row>
     <row r="278" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A278" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B278" s="4"/>
       <c r="C278" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -11215,10 +11214,10 @@
     </row>
     <row r="279" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A279" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B279" s="4" t="s">
         <v>443</v>
-      </c>
-      <c r="B279" s="4" t="s">
-        <v>444</v>
       </c>
       <c r="C279" s="4"/>
       <c r="D279" s="2"/>
@@ -11246,7 +11245,7 @@
     </row>
     <row r="280" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A280" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -11275,11 +11274,11 @@
     </row>
     <row r="281" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A281" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B281" s="4"/>
       <c r="C281" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
@@ -11306,11 +11305,11 @@
     </row>
     <row r="282" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A282" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B282" s="4"/>
       <c r="C282" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -11337,7 +11336,7 @@
     </row>
     <row r="283" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A283" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -11366,7 +11365,7 @@
     </row>
     <row r="284" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A284" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -11395,11 +11394,11 @@
     </row>
     <row r="285" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A285" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B285" s="4"/>
       <c r="C285" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -11426,11 +11425,11 @@
     </row>
     <row r="286" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A286" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B286" s="4"/>
       <c r="C286" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -11457,7 +11456,7 @@
     </row>
     <row r="287" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A287" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -11486,10 +11485,10 @@
     </row>
     <row r="288" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A288" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B288" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="B288" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="C288" s="4"/>
       <c r="D288" s="2"/>
@@ -11517,11 +11516,11 @@
     </row>
     <row r="289" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A289" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B289" s="4"/>
       <c r="C289" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -11548,11 +11547,11 @@
     </row>
     <row r="290" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A290" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B290" s="4"/>
       <c r="C290" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -11579,11 +11578,11 @@
     </row>
     <row r="291" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A291" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B291" s="4"/>
       <c r="C291" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -11610,7 +11609,7 @@
     </row>
     <row r="292" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A292" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -11639,7 +11638,7 @@
     </row>
     <row r="293" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A293" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -11668,7 +11667,7 @@
     </row>
     <row r="294" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A294" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -11697,7 +11696,7 @@
     </row>
     <row r="295" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A295" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -11726,7 +11725,7 @@
     </row>
     <row r="296" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A296" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -11755,7 +11754,7 @@
     </row>
     <row r="297" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A297" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -11784,11 +11783,11 @@
     </row>
     <row r="298" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A298" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B298" s="4"/>
       <c r="C298" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -11815,7 +11814,7 @@
     </row>
     <row r="299" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A299" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -11844,7 +11843,7 @@
     </row>
     <row r="300" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A300" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -11873,7 +11872,7 @@
     </row>
     <row r="301" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A301" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -11902,7 +11901,7 @@
     </row>
     <row r="302" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A302" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -11931,7 +11930,7 @@
     </row>
     <row r="303" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A303" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -11960,10 +11959,10 @@
     </row>
     <row r="304" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A304" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B304" s="4" t="s">
         <v>477</v>
-      </c>
-      <c r="B304" s="4" t="s">
-        <v>478</v>
       </c>
       <c r="C304" s="4"/>
       <c r="D304" s="2"/>
@@ -11991,7 +11990,7 @@
     </row>
     <row r="305" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A305" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -12020,11 +12019,11 @@
     </row>
     <row r="306" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A306" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B306" s="4"/>
       <c r="C306" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -12051,11 +12050,11 @@
     </row>
     <row r="307" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A307" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B307" s="4"/>
       <c r="C307" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -12082,11 +12081,11 @@
     </row>
     <row r="308" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A308" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B308" s="4"/>
       <c r="C308" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -12113,7 +12112,7 @@
     </row>
     <row r="309" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A309" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -12142,11 +12141,11 @@
     </row>
     <row r="310" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A310" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B310" s="4"/>
       <c r="C310" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -12173,7 +12172,7 @@
     </row>
     <row r="311" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A311" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -12202,11 +12201,11 @@
     </row>
     <row r="312" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A312" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B312" s="4"/>
       <c r="C312" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -12233,7 +12232,7 @@
     </row>
     <row r="313" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A313" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -12262,7 +12261,7 @@
     </row>
     <row r="314" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A314" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -12291,11 +12290,11 @@
     </row>
     <row r="315" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A315" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B315" s="4"/>
       <c r="C315" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -12322,7 +12321,7 @@
     </row>
     <row r="316" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A316" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -12351,11 +12350,11 @@
     </row>
     <row r="317" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A317" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B317" s="4"/>
       <c r="C317" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -12382,11 +12381,11 @@
     </row>
     <row r="318" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A318" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B318" s="4"/>
       <c r="C318" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -12413,7 +12412,7 @@
     </row>
     <row r="319" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A319" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -12442,11 +12441,11 @@
     </row>
     <row r="320" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A320" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B320" s="4"/>
       <c r="C320" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -12473,7 +12472,7 @@
     </row>
     <row r="321" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A321" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -12502,7 +12501,7 @@
     </row>
     <row r="322" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A322" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -12531,11 +12530,11 @@
     </row>
     <row r="323" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A323" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B323" s="4"/>
       <c r="C323" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -12562,7 +12561,7 @@
     </row>
     <row r="324" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A324" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -12591,7 +12590,7 @@
     </row>
     <row r="325" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A325" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -12620,11 +12619,11 @@
     </row>
     <row r="326" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A326" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B326" s="4"/>
       <c r="C326" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -12651,11 +12650,11 @@
     </row>
     <row r="327" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A327" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B327" s="4"/>
       <c r="C327" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -12682,7 +12681,7 @@
     </row>
     <row r="328" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A328" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -12711,11 +12710,11 @@
     </row>
     <row r="329" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A329" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B329" s="4"/>
       <c r="C329" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -12742,7 +12741,7 @@
     </row>
     <row r="330" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A330" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B330" s="4"/>
       <c r="D330" s="2"/>
@@ -12770,11 +12769,11 @@
     </row>
     <row r="331" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A331" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B331" s="4"/>
       <c r="C331" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -12801,11 +12800,11 @@
     </row>
     <row r="332" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A332" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B332" s="4"/>
       <c r="C332" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -12832,7 +12831,7 @@
     </row>
     <row r="333" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A333" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -12861,7 +12860,7 @@
     </row>
     <row r="334" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A334" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -12890,11 +12889,11 @@
     </row>
     <row r="335" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A335" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B335" s="4"/>
       <c r="C335" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -12921,7 +12920,7 @@
     </row>
     <row r="336" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A336" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -12950,7 +12949,7 @@
     </row>
     <row r="337" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A337" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -12979,11 +12978,11 @@
     </row>
     <row r="338" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A338" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B338" s="4"/>
       <c r="C338" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -13010,7 +13009,7 @@
     </row>
     <row r="339" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A339" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -13039,11 +13038,11 @@
     </row>
     <row r="340" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A340" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B340" s="4"/>
       <c r="C340" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -13070,7 +13069,7 @@
     </row>
     <row r="341" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A341" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -13099,10 +13098,10 @@
     </row>
     <row r="342" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A342" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B342" s="4" t="s">
         <v>534</v>
-      </c>
-      <c r="B342" s="4" t="s">
-        <v>535</v>
       </c>
       <c r="C342" s="4"/>
       <c r="D342" s="2"/>
@@ -13130,7 +13129,7 @@
     </row>
     <row r="343" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A343" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -13159,7 +13158,7 @@
     </row>
     <row r="344" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A344" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -13188,7 +13187,7 @@
     </row>
     <row r="345" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A345" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -13217,11 +13216,11 @@
     </row>
     <row r="346" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A346" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B346" s="4"/>
       <c r="C346" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -13248,11 +13247,11 @@
     </row>
     <row r="347" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A347" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B347" s="4"/>
       <c r="C347" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -13279,10 +13278,10 @@
     </row>
     <row r="348" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A348" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="B348" s="4" t="s">
         <v>543</v>
-      </c>
-      <c r="B348" s="4" t="s">
-        <v>544</v>
       </c>
       <c r="C348" s="4"/>
       <c r="D348" s="2"/>
@@ -13310,11 +13309,11 @@
     </row>
     <row r="349" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A349" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B349" s="4"/>
       <c r="C349" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -13341,7 +13340,7 @@
     </row>
     <row r="350" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A350" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -13370,11 +13369,11 @@
     </row>
     <row r="351" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A351" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B351" s="4"/>
       <c r="C351" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -13401,7 +13400,7 @@
     </row>
     <row r="352" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A352" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -13430,11 +13429,11 @@
     </row>
     <row r="353" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A353" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B353" s="4"/>
       <c r="C353" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -13461,10 +13460,10 @@
     </row>
     <row r="354" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A354" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B354" s="4" t="s">
         <v>553</v>
-      </c>
-      <c r="B354" s="4" t="s">
-        <v>554</v>
       </c>
       <c r="C354" s="4"/>
       <c r="D354" s="2"/>
@@ -13492,11 +13491,11 @@
     </row>
     <row r="355" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A355" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B355" s="4"/>
       <c r="C355" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -13523,11 +13522,11 @@
     </row>
     <row r="356" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A356" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B356" s="4"/>
       <c r="C356" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -13554,7 +13553,7 @@
     </row>
     <row r="357" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A357" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -13583,10 +13582,10 @@
     </row>
     <row r="358" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A358" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B358" s="4" t="s">
         <v>558</v>
-      </c>
-      <c r="B358" s="4" t="s">
-        <v>559</v>
       </c>
       <c r="C358" s="4"/>
       <c r="D358" s="2"/>
@@ -13614,7 +13613,7 @@
     </row>
     <row r="359" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A359" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -13643,7 +13642,7 @@
     </row>
     <row r="360" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A360" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -13672,7 +13671,7 @@
     </row>
     <row r="361" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A361" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -13701,10 +13700,10 @@
     </row>
     <row r="362" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A362" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B362" s="4" t="s">
         <v>563</v>
-      </c>
-      <c r="B362" s="4" t="s">
-        <v>564</v>
       </c>
       <c r="C362" s="4"/>
       <c r="D362" s="2"/>
@@ -13732,10 +13731,10 @@
     </row>
     <row r="363" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A363" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B363" s="4" t="s">
         <v>565</v>
-      </c>
-      <c r="B363" s="4" t="s">
-        <v>566</v>
       </c>
       <c r="C363" s="4"/>
       <c r="D363" s="2"/>
@@ -13763,10 +13762,10 @@
     </row>
     <row r="364" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A364" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B364" s="4" t="s">
         <v>567</v>
-      </c>
-      <c r="B364" s="4" t="s">
-        <v>568</v>
       </c>
       <c r="C364" s="4"/>
       <c r="D364" s="2"/>
@@ -13794,11 +13793,11 @@
     </row>
     <row r="365" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A365" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B365" s="4"/>
       <c r="C365" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -13825,7 +13824,7 @@
     </row>
     <row r="366" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A366" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -13854,7 +13853,7 @@
     </row>
     <row r="367" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A367" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -13883,7 +13882,7 @@
     </row>
     <row r="368" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A368" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -13912,7 +13911,7 @@
     </row>
     <row r="369" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A369" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -13941,11 +13940,11 @@
     </row>
     <row r="370" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A370" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B370" s="4"/>
       <c r="C370" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -13972,7 +13971,7 @@
     </row>
     <row r="371" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A371" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -14001,10 +14000,10 @@
     </row>
     <row r="372" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A372" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="B372" s="4" t="s">
         <v>578</v>
-      </c>
-      <c r="B372" s="4" t="s">
-        <v>579</v>
       </c>
       <c r="C372" s="4"/>
       <c r="D372" s="2"/>
@@ -14032,7 +14031,7 @@
     </row>
     <row r="373" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A373" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -14061,7 +14060,7 @@
     </row>
     <row r="374" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A374" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -14090,7 +14089,7 @@
     </row>
     <row r="375" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A375" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -14119,10 +14118,10 @@
     </row>
     <row r="376" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A376" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="B376" s="4" t="s">
         <v>583</v>
-      </c>
-      <c r="B376" s="4" t="s">
-        <v>584</v>
       </c>
       <c r="C376" s="4"/>
       <c r="D376" s="2"/>
@@ -14150,10 +14149,10 @@
     </row>
     <row r="377" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A377" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="B377" s="4" t="s">
         <v>585</v>
-      </c>
-      <c r="B377" s="4" t="s">
-        <v>586</v>
       </c>
       <c r="C377" s="4"/>
       <c r="D377" s="2"/>
@@ -14181,10 +14180,10 @@
     </row>
     <row r="378" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A378" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B378" s="4" t="s">
         <v>587</v>
-      </c>
-      <c r="B378" s="4" t="s">
-        <v>588</v>
       </c>
       <c r="C378" s="4"/>
       <c r="D378" s="2"/>
@@ -14212,11 +14211,11 @@
     </row>
     <row r="379" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A379" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B379" s="4"/>
       <c r="C379" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
@@ -14243,13 +14242,13 @@
     </row>
     <row r="380" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A380" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B380" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="B380" s="4" t="s">
+      <c r="C380" s="4" t="s">
         <v>592</v>
-      </c>
-      <c r="C380" s="4" t="s">
-        <v>593</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -14276,11 +14275,11 @@
     </row>
     <row r="381" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A381" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B381" s="4"/>
       <c r="C381" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -14307,7 +14306,7 @@
     </row>
     <row r="382" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A382" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -14336,11 +14335,11 @@
     </row>
     <row r="383" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A383" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B383" s="4"/>
       <c r="C383" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -14367,11 +14366,11 @@
     </row>
     <row r="384" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A384" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B384" s="4"/>
       <c r="C384" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -14398,10 +14397,10 @@
     </row>
     <row r="385" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A385" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="B385" s="4" t="s">
         <v>601</v>
-      </c>
-      <c r="B385" s="4" t="s">
-        <v>602</v>
       </c>
       <c r="C385" s="4"/>
       <c r="D385" s="2"/>
@@ -14429,11 +14428,11 @@
     </row>
     <row r="386" spans="1:25" ht="195" x14ac:dyDescent="0.15">
       <c r="A386" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B386" s="4"/>
       <c r="C386" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -14460,11 +14459,11 @@
     </row>
     <row r="387" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A387" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B387" s="4"/>
       <c r="C387" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -14491,7 +14490,7 @@
     </row>
     <row r="388" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A388" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -14520,7 +14519,7 @@
     </row>
     <row r="389" spans="1:25" ht="16" x14ac:dyDescent="0.25">
       <c r="A389" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -14549,7 +14548,7 @@
     </row>
     <row r="390" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A390" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -14578,10 +14577,10 @@
     </row>
     <row r="391" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A391" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="B391" s="4" t="s">
         <v>609</v>
-      </c>
-      <c r="B391" s="4" t="s">
-        <v>610</v>
       </c>
       <c r="C391" s="4"/>
       <c r="D391" s="2"/>
@@ -14609,11 +14608,11 @@
     </row>
     <row r="392" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A392" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B392" s="4"/>
       <c r="C392" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
@@ -14640,11 +14639,11 @@
     </row>
     <row r="393" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A393" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B393" s="4"/>
       <c r="C393" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -14671,10 +14670,10 @@
     </row>
     <row r="394" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A394" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="B394" s="4" t="s">
         <v>615</v>
-      </c>
-      <c r="B394" s="4" t="s">
-        <v>616</v>
       </c>
       <c r="C394" s="4"/>
       <c r="D394" s="2"/>
@@ -14702,11 +14701,11 @@
     </row>
     <row r="395" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A395" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B395" s="4"/>
       <c r="C395" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -14733,11 +14732,11 @@
     </row>
     <row r="396" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A396" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B396" s="4"/>
       <c r="C396" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -14764,11 +14763,11 @@
     </row>
     <row r="397" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A397" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B397" s="4"/>
       <c r="C397" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -14795,10 +14794,10 @@
     </row>
     <row r="398" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A398" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="B398" s="4" t="s">
         <v>623</v>
-      </c>
-      <c r="B398" s="4" t="s">
-        <v>624</v>
       </c>
       <c r="C398" s="4"/>
       <c r="D398" s="2"/>
@@ -14826,7 +14825,7 @@
     </row>
     <row r="399" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A399" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -14855,11 +14854,11 @@
     </row>
     <row r="400" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A400" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B400" s="4"/>
       <c r="C400" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -14886,10 +14885,10 @@
     </row>
     <row r="401" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A401" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="B401" s="4" t="s">
         <v>628</v>
-      </c>
-      <c r="B401" s="4" t="s">
-        <v>629</v>
       </c>
       <c r="C401" s="4"/>
       <c r="D401" s="2"/>
@@ -14917,11 +14916,11 @@
     </row>
     <row r="402" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A402" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B402" s="4"/>
       <c r="C402" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
@@ -14948,7 +14947,7 @@
     </row>
     <row r="403" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A403" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -14977,7 +14976,7 @@
     </row>
     <row r="404" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A404" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -15006,11 +15005,11 @@
     </row>
     <row r="405" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A405" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B405" s="4"/>
       <c r="C405" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
@@ -15037,7 +15036,7 @@
     </row>
     <row r="406" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A406" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -15066,11 +15065,11 @@
     </row>
     <row r="407" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A407" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B407" s="4"/>
       <c r="C407" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
@@ -15097,7 +15096,7 @@
     </row>
     <row r="408" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A408" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -15126,7 +15125,7 @@
     </row>
     <row r="409" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A409" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -15155,7 +15154,7 @@
     </row>
     <row r="410" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A410" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -15184,7 +15183,7 @@
     </row>
     <row r="411" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A411" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -15213,10 +15212,10 @@
     </row>
     <row r="412" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A412" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="B412" s="4" t="s">
         <v>642</v>
-      </c>
-      <c r="B412" s="4" t="s">
-        <v>643</v>
       </c>
       <c r="C412" s="4"/>
       <c r="D412" s="2"/>
@@ -15244,7 +15243,7 @@
     </row>
     <row r="413" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A413" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -15273,7 +15272,7 @@
     </row>
     <row r="414" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A414" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -15302,7 +15301,7 @@
     </row>
     <row r="415" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A415" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -15331,7 +15330,7 @@
     </row>
     <row r="416" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A416" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -15360,7 +15359,7 @@
     </row>
     <row r="417" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A417" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -15389,7 +15388,7 @@
     </row>
     <row r="418" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A418" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B418" s="4"/>
       <c r="C418" s="2"/>
@@ -15418,7 +15417,7 @@
     </row>
     <row r="419" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A419" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B419" s="4"/>
       <c r="C419" s="2"/>
@@ -15447,7 +15446,7 @@
     </row>
     <row r="420" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A420" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B420" s="4"/>
       <c r="C420" s="2"/>
@@ -15476,10 +15475,10 @@
     </row>
     <row r="421" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A421" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="B421" s="4" t="s">
         <v>652</v>
-      </c>
-      <c r="B421" s="4" t="s">
-        <v>653</v>
       </c>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>

--- a/mappings/wikipathways_reactome.xlsx
+++ b/mappings/wikipathways_reactome.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danieldomingo/PycharmProjects/curation/mappings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmarinllao/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="4540" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -2788,8 +2791,8 @@
   </sheetPr>
   <dimension ref="A1:Y999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="60" workbookViewId="0">
-      <selection activeCell="C171" sqref="C171"/>
+    <sheetView tabSelected="1" topLeftCell="A353" zoomScale="82" workbookViewId="0">
+      <selection activeCell="A354" sqref="A354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -31112,5 +31115,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/mappings/wikipathways_reactome.xlsx
+++ b/mappings/wikipathways_reactome.xlsx
@@ -1841,7 +1841,7 @@
     <t xml:space="preserve">RAC1/PAK1/p38/MMP2 Pathway</t>
   </si>
   <si>
-    <t xml:space="preserve">p38MAPK events isPartOf Rac1/Pak1/p38/MMP-2 pathway*</t>
+    <t xml:space="preserve">p38MAPK events isPartOf RAC1/PAK1/p38/MMP2 Pathway*</t>
   </si>
   <si>
     <t xml:space="preserve">RalA downstream regulated genes</t>
@@ -2569,16 +2569,16 @@
   <dimension ref="A1:Y421"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A307" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A313" activeCellId="0" sqref="A313"/>
+      <selection pane="topLeft" activeCell="B312" activeCellId="0" sqref="B312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="70.734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="55.8877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="49.8112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="61.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="69.9234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="55.2091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="49.2704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="61.015306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11981,7 +11981,7 @@
       <c r="X311" s="3"/>
       <c r="Y311" s="3"/>
     </row>
-    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="4" t="s">
         <v>502</v>
       </c>

--- a/mappings/wikipathways_reactome.xlsx
+++ b/mappings/wikipathways_reactome.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmarinllao/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="11620" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -22,132 +32,132 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="670">
   <si>
-    <t xml:space="preserve">WikiPathways References</t>
-  </si>
-  <si>
-    <t xml:space="preserve">equivalentTo Mappings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isPartOf Mappings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-hydroxytamoxifen, Dexamethasone, and Retinoic Acids Regulation of p27 Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACE Inhibitor Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGE/RAGE pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMP-activated Protein Kinase (AMPK) Signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMPK inhibits chREBP transcriptional activation activity isPartOf AMP-activated Protein Kinase (AMPK) Signaling*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATM Signaling Network in Development and Disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATM Signaling Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATR Signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activation of ATR in response to replication stress isPartOf ATR Signaling*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acetylcholine Synthesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acetylcholine Synthesis* isPartOf Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adipogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aflatoxin B1 metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aflatoxin B1 metabolism* isPartOf Metabolism
+    <t>WikiPathways References</t>
+  </si>
+  <si>
+    <t>equivalentTo Mappings</t>
+  </si>
+  <si>
+    <t>isPartOf Mappings</t>
+  </si>
+  <si>
+    <t>4-hydroxytamoxifen, Dexamethasone, and Retinoic Acids Regulation of p27 Expression</t>
+  </si>
+  <si>
+    <t>ACE Inhibitor Pathway</t>
+  </si>
+  <si>
+    <t>AGE/RAGE pathway</t>
+  </si>
+  <si>
+    <t>AMP-activated Protein Kinase (AMPK) Signaling</t>
+  </si>
+  <si>
+    <t>AMPK inhibits chREBP transcriptional activation activity isPartOf AMP-activated Protein Kinase (AMPK) Signaling*</t>
+  </si>
+  <si>
+    <t>ATM Signaling Network in Development and Disease</t>
+  </si>
+  <si>
+    <t>ATM Signaling Pathway</t>
+  </si>
+  <si>
+    <t>ATR Signaling</t>
+  </si>
+  <si>
+    <t>Activation of ATR in response to replication stress isPartOf ATR Signaling*</t>
+  </si>
+  <si>
+    <t>Acetylcholine Synthesis</t>
+  </si>
+  <si>
+    <t>Acetylcholine Synthesis* isPartOf Metabolism</t>
+  </si>
+  <si>
+    <t>Adipogenesis</t>
+  </si>
+  <si>
+    <t>Aflatoxin B1 metabolism</t>
+  </si>
+  <si>
+    <t>Aflatoxin B1 metabolism* isPartOf Metabolism
 Aflatoxin activation and detoxification isPartOf Aflatoxin B1 metabolism*</t>
   </si>
   <si>
-    <t xml:space="preserve">Alanine and aspartate metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alanine and aspartate metabolism* isPartOf Metabolism of amino acids and derivatives
+    <t>Alanine and aspartate metabolism</t>
+  </si>
+  <si>
+    <t>Alanine and aspartate metabolism* isPartOf Metabolism of amino acids and derivatives
 Alanine and aspartate metabolism* isPartOf Amino acid synthesis and interconversion (transamination)
 Alanine and aspartate metabolism* isPartOf Metabolism</t>
   </si>
   <si>
-    <t xml:space="preserve">Allograft Rejection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allograft Rejection* isPartOf Adaptive Immune System
+    <t>Allograft Rejection</t>
+  </si>
+  <si>
+    <t>Allograft Rejection* isPartOf Adaptive Immune System
 Allograft Rejection* isPartOf Immune System</t>
   </si>
   <si>
-    <t xml:space="preserve">Alpha 6 Beta 4 signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS-mediated signalling isPartOf Alpha 6 Beta 4 signaling pathway*
+    <t>Alpha 6 Beta 4 signaling pathway</t>
+  </si>
+  <si>
+    <t>SOS-mediated signalling isPartOf Alpha 6 Beta 4 signaling pathway*
 Alpha 6 Beta 4 signaling pathway* isPartOf Signal Transduction</t>
   </si>
   <si>
-    <t xml:space="preserve">Alzheimers Disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amino Acid metabolism</t>
+    <t>Alzheimers Disease</t>
+  </si>
+  <si>
+    <t>Amino Acid metabolism</t>
   </si>
   <si>
     <t xml:space="preserve">Amino Acid metabolism equivalentTo Metabolism of amino acids and derivatives </t>
   </si>
   <si>
-    <t xml:space="preserve">Amino Acid metabolism* isPartOf Metabolism of amino acids and derivatives
+    <t>Amino Acid metabolism* isPartOf Metabolism of amino acids and derivatives
 Amino Acid metabolism* isPartOf Metabolism</t>
   </si>
   <si>
-    <t xml:space="preserve">Amino acid conjugation of benzoic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amino acid conjugation of benzoic acid* isPartOf Conjugation of carboxylic acids
+    <t>Amino acid conjugation of benzoic acid</t>
+  </si>
+  <si>
+    <t>Amino acid conjugation of benzoic acid* isPartOf Conjugation of carboxylic acids
 Amino acid conjugation of benzoic acid* isPartOf Metabolism
 Amino acid conjugation of benzoic acid* isPartOf Amino Acid conjugation</t>
   </si>
   <si>
-    <t xml:space="preserve">Amplification and Expansion of Oncogenic Pathways as Metastatic Traits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binding of TCF/LEF:CTNNB1 to target gene promoters isPartOf Amplification and Expansion of Oncogenic Pathways as Metastatic Traits*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amyotrophic lateral sclerosis (ALS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Androgen receptor signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angiogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angiopoietin Like Protein 8 Regulatory Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ApoE and miR-146 in inflammation and atherosclerosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apoptosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apoptosis equivalentTo Apoptosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apoptosis Modulation and Signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dimerization of procaspase-8 isPartOf Apoptosis Modulation and Signaling*
+    <t>Amplification and Expansion of Oncogenic Pathways as Metastatic Traits</t>
+  </si>
+  <si>
+    <t>Binding of TCF/LEF:CTNNB1 to target gene promoters isPartOf Amplification and Expansion of Oncogenic Pathways as Metastatic Traits*</t>
+  </si>
+  <si>
+    <t>Amyotrophic lateral sclerosis (ALS)</t>
+  </si>
+  <si>
+    <t>Androgen receptor signaling pathway</t>
+  </si>
+  <si>
+    <t>Angiogenesis</t>
+  </si>
+  <si>
+    <t>Angiopoietin Like Protein 8 Regulatory Pathway</t>
+  </si>
+  <si>
+    <t>ApoE and miR-146 in inflammation and atherosclerosis</t>
+  </si>
+  <si>
+    <t>Apoptosis</t>
+  </si>
+  <si>
+    <t>Apoptosis equivalentTo Apoptosis</t>
+  </si>
+  <si>
+    <t>Apoptosis Modulation and Signaling</t>
+  </si>
+  <si>
+    <t>Dimerization of procaspase-8 isPartOf Apoptosis Modulation and Signaling*
 Cytochrome c-mediated apoptotic response isPartOf Apoptosis Modulation and Signaling*
 Release of apoptotic factors from the mitochondria isPartOf Apoptosis Modulation and Signaling*
 FasL/ CD95L signaling isPartOf Apoptosis Modulation and Signaling*
@@ -163,89 +173,89 @@
 Activation of caspases through apoptosome-mediated cleavage isPartOf Apoptosis Modulation and Signaling*</t>
   </si>
   <si>
-    <t xml:space="preserve">Apoptosis Modulation by HSP70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apoptosis Modulation by HSP70* isPartOf Apoptotic factor-mediated response
+    <t>Apoptosis Modulation by HSP70</t>
+  </si>
+  <si>
+    <t>Apoptosis Modulation by HSP70* isPartOf Apoptotic factor-mediated response
 Apoptosis Modulation by HSP70* isPartOf Apoptosis
 Apoptosis Modulation by HSP70* isPartOf Programmed Cell Death</t>
   </si>
   <si>
-    <t xml:space="preserve">Apoptosis-related network due to altered Notch3 in ovarian cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arachidonate Epoxygenase / Epoxide Hydrolase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arachidonate Epoxygenase / Epoxide Hydrolase* isPartOf Metabolism
+    <t>Apoptosis-related network due to altered Notch3 in ovarian cancer</t>
+  </si>
+  <si>
+    <t>Arachidonate Epoxygenase / Epoxide Hydrolase</t>
+  </si>
+  <si>
+    <t>Arachidonate Epoxygenase / Epoxide Hydrolase* isPartOf Metabolism
 Arachidonate Epoxygenase / Epoxide Hydrolase* isPartOf Metabolism of lipids
 Arachidonate Epoxygenase / Epoxide Hydrolase* isPartOf Biological oxidations
 Arachidonate Epoxygenase / Epoxide Hydrolase* isPartOf Fatty acid metabolism
 Arachidonate Epoxygenase / Epoxide Hydrolase* isPartOf Arachidonic acid metabolism</t>
   </si>
   <si>
-    <t xml:space="preserve">Arrhythmogenic Right Ventricular Cardiomyopathy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aryl Hydrocarbon Receptor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aryl Hydrocarbon Receptor equivalentTo Aryl hydrocarbon receptor signalling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aryl Hydrocarbon Receptor Pathway</t>
+    <t>Arrhythmogenic Right Ventricular Cardiomyopathy</t>
+  </si>
+  <si>
+    <t>Aryl Hydrocarbon Receptor</t>
+  </si>
+  <si>
+    <t>Aryl Hydrocarbon Receptor equivalentTo Aryl hydrocarbon receptor signalling</t>
+  </si>
+  <si>
+    <t>Aryl Hydrocarbon Receptor Pathway</t>
   </si>
   <si>
     <t xml:space="preserve">Aryl Hydrocarbon Receptor Pathway equivalentTo Aryl hydrocarbon receptor signalling </t>
   </si>
   <si>
-    <t xml:space="preserve">Arylamine metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arylamine metabolism* isPartOf Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Association Between Physico-Chemical Features and Toxicity Associated Pathways</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B Cell Receptor Signaling Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B Cell Receptor Signaling Pathway equivalentTo Signaling by the B Cell Receptor (BCR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B Cell Receptor Signaling Pathway* isPartOf Adaptive Immune System
+    <t>Arylamine metabolism</t>
+  </si>
+  <si>
+    <t>Arylamine metabolism* isPartOf Metabolism</t>
+  </si>
+  <si>
+    <t>Association Between Physico-Chemical Features and Toxicity Associated Pathways</t>
+  </si>
+  <si>
+    <t>B Cell Receptor Signaling Pathway</t>
+  </si>
+  <si>
+    <t>B Cell Receptor Signaling Pathway equivalentTo Signaling by the B Cell Receptor (BCR)</t>
+  </si>
+  <si>
+    <t>B Cell Receptor Signaling Pathway* isPartOf Adaptive Immune System
 B Cell Receptor Signaling Pathway* isPartOf Immune System</t>
   </si>
   <si>
-    <t xml:space="preserve">BDNF-TrkB Signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BDNF-TrkB Signaling* isPartOf Signal Transduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMP Signaling Pathway in Eyelid Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMP2-WNT4-FOXO1 Pathway in Human Primary Endometrial Stromal Cell Differentiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benzene metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benzene metabolism* isPartOf Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benzo(a)pyrene metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benzo(a)pyrene metabolism* isPartOf Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biogenic Amine Synthesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism of serotonin isPartOf Biogenic Amine Synthesis*
+    <t>BDNF-TrkB Signaling</t>
+  </si>
+  <si>
+    <t>BDNF-TrkB Signaling* isPartOf Signal Transduction</t>
+  </si>
+  <si>
+    <t>BMP Signaling Pathway in Eyelid Development</t>
+  </si>
+  <si>
+    <t>BMP2-WNT4-FOXO1 Pathway in Human Primary Endometrial Stromal Cell Differentiation</t>
+  </si>
+  <si>
+    <t>Benzene metabolism</t>
+  </si>
+  <si>
+    <t>Benzene metabolism* isPartOf Metabolism</t>
+  </si>
+  <si>
+    <t>Benzo(a)pyrene metabolism</t>
+  </si>
+  <si>
+    <t>Benzo(a)pyrene metabolism* isPartOf Metabolism</t>
+  </si>
+  <si>
+    <t>Biogenic Amine Synthesis</t>
+  </si>
+  <si>
+    <t>Metabolism of serotonin isPartOf Biogenic Amine Synthesis*
 GABA synthesis isPartOf Biogenic Amine Synthesis*
 Serotonin and melatonin biosynthesis isPartOf Biogenic Amine Synthesis*
 GABA synthesis, release, reuptake and degradation isPartOf Biogenic Amine Synthesis*
@@ -253,73 +263,73 @@
 Biogenic Amine Synthesis* isPartOf Metabolism</t>
   </si>
   <si>
-    <t xml:space="preserve">Biosynthesis and regeneration of tetrahydrobiopterin (BH4) and catabolism of phenylalanine, including diseases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biosynthesis and regeneration of tetrahydrobiopterin (BH4) and catabolism of phenylalanine, including diseases* isPartOf Metabolism of cofactors
+    <t>Biosynthesis and regeneration of tetrahydrobiopterin (BH4) and catabolism of phenylalanine, including diseases</t>
+  </si>
+  <si>
+    <t>Biosynthesis and regeneration of tetrahydrobiopterin (BH4) and catabolism of phenylalanine, including diseases* isPartOf Metabolism of cofactors
 Biosynthesis and regeneration of tetrahydrobiopterin (BH4) and catabolism of phenylalanine, including diseases* isPartOf Tetrahydrobiopterin (BH4) synthesis, recycling, salvage and regulation
 Biosynthesis and regeneration of tetrahydrobiopterin (BH4) and catabolism of phenylalanine, including diseases* isPartOf Metabolism of vitamins and cofactors
 Biosynthesis and regeneration of tetrahydrobiopterin (BH4) and catabolism of phenylalanine, including diseases* isPartOf Metabolism</t>
   </si>
   <si>
-    <t xml:space="preserve">Bladder Cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blood Clotting Cascade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extrinsic Pathway of Fibrin Clot Formation isPartOf Blood Clotting Cascade*
+    <t>Bladder Cancer</t>
+  </si>
+  <si>
+    <t>Blood Clotting Cascade</t>
+  </si>
+  <si>
+    <t>Extrinsic Pathway of Fibrin Clot Formation isPartOf Blood Clotting Cascade*
 Dissolution of Fibrin Clot isPartOf Blood Clotting Cascade*
 Blood Clotting Cascade* isPartOf Hemostasis
 Formation of Fibrin Clot (Clotting Cascade) isPartOf Blood Clotting Cascade*</t>
   </si>
   <si>
-    <t xml:space="preserve">Bone Morphogenic Protein (BMP) Signalling and Regulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bone Morphogenic Protein (BMP) Signalling and Regulation equivalentTo Signaling by BMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brain-Derived Neurotrophic Factor (BDNF) signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butyrate-induced histone acetylation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butyrate-induced histone acetylation* isPartOf Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caffeine and Theobromine metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caffeine and Theobromine metabolism* isPartOf Metabolism
+    <t>Bone Morphogenic Protein (BMP) Signalling and Regulation</t>
+  </si>
+  <si>
+    <t>Bone Morphogenic Protein (BMP) Signalling and Regulation equivalentTo Signaling by BMP</t>
+  </si>
+  <si>
+    <t>Brain-Derived Neurotrophic Factor (BDNF) signaling pathway</t>
+  </si>
+  <si>
+    <t>Butyrate-induced histone acetylation</t>
+  </si>
+  <si>
+    <t>Butyrate-induced histone acetylation* isPartOf Metabolism</t>
+  </si>
+  <si>
+    <t>Caffeine and Theobromine metabolism</t>
+  </si>
+  <si>
+    <t>Caffeine and Theobromine metabolism* isPartOf Metabolism
 Aromatic amines can be N-hydroxylated or N-dealkylated by CYP1A2 isPartOf Caffeine and Theobromine metabolism*
 Caffeine and Theobromine metabolism* isPartOf Xenobiotics</t>
   </si>
   <si>
-    <t xml:space="preserve">Calcium Regulation in the Cardiac Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muscarinic acetylcholine receptors isPartOf Calcium Regulation in the Cardiac Cell*
+    <t>Calcium Regulation in the Cardiac Cell</t>
+  </si>
+  <si>
+    <t>Muscarinic acetylcholine receptors isPartOf Calcium Regulation in the Cardiac Cell*
 Transport of connexins along the secretory pathway isPartOf Calcium Regulation in the Cardiac Cell*</t>
   </si>
   <si>
-    <t xml:space="preserve">Caloric restriction and aging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cannabinoid receptor signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cannabinoid receptor signaling* isPartOf Signal Transduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canonical  and Non-canonical Notch signaling</t>
+    <t>Caloric restriction and aging</t>
+  </si>
+  <si>
+    <t>Cannabinoid receptor signaling</t>
+  </si>
+  <si>
+    <t>Cannabinoid receptor signaling* isPartOf Signal Transduction</t>
+  </si>
+  <si>
+    <t>Canonical  and Non-canonical Notch signaling</t>
   </si>
   <si>
     <t xml:space="preserve">Canonical  and Non-canonical Notch signaling equivalentTo Signaling by NOTCH </t>
   </si>
   <si>
-    <t xml:space="preserve">Signaling by NOTCH3 isPartOf Canonical  and Non-canonical Notch signaling*
+    <t>Signaling by NOTCH3 isPartOf Canonical  and Non-canonical Notch signaling*
 NOTCH2 Activation and Transmission of Signal to the Nucleus isPartOf Canonical  and Non-canonical Notch signaling*
 Signaling by NOTCH4 isPartOf Canonical  and Non-canonical Notch signaling*
 Notch-HLH transcription pathway isPartOf Canonical  and Non-canonical Notch signaling*
@@ -337,106 +347,106 @@
 NOTCH3 Activation and Transmission of Signal to the Nucleus isPartOf Canonical  and Non-canonical Notch signaling*</t>
   </si>
   <si>
-    <t xml:space="preserve">Canonical and Non-Canonical TGF-B signaling</t>
+    <t>Canonical and Non-Canonical TGF-B signaling</t>
   </si>
   <si>
     <t xml:space="preserve">Canonical and Non-Canonical TGF-B signaling equivalentTo Signaling by TGF-beta Receptor Complex </t>
   </si>
   <si>
-    <t xml:space="preserve">Signaling by TGF-beta Receptor Complex in Cancer isPartOf Canonical and Non-Canonical TGF-B signaling*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cardiac Hypertrophic Response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cardiac Progenitor Differentiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catalytic cycle of mammalian Flavin-containing MonoOxygenases (FMOs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell Cycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell Cycle equivalentTo Cell Cycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell Differentiation - Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell Differentiation - Index expanded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell-type Dependent Selectivity of CCK2R Signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemokine signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemokine receptors bind chemokines isPartOf Chemokine signaling pathway*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cholesterol Biosynthesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cholesterol Biosynthesis equivalentTo Cholesterol biosynthesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cholesterol Biosynthesis* isPartOf Metabolism of lipids
+    <t>Signaling by TGF-beta Receptor Complex in Cancer isPartOf Canonical and Non-Canonical TGF-B signaling*</t>
+  </si>
+  <si>
+    <t>Cardiac Hypertrophic Response</t>
+  </si>
+  <si>
+    <t>Cardiac Progenitor Differentiation</t>
+  </si>
+  <si>
+    <t>Catalytic cycle of mammalian Flavin-containing MonoOxygenases (FMOs)</t>
+  </si>
+  <si>
+    <t>Cell Cycle</t>
+  </si>
+  <si>
+    <t>Cell Cycle equivalentTo Cell Cycle</t>
+  </si>
+  <si>
+    <t>Cell Differentiation - Index</t>
+  </si>
+  <si>
+    <t>Cell Differentiation - Index expanded</t>
+  </si>
+  <si>
+    <t>Cell-type Dependent Selectivity of CCK2R Signaling</t>
+  </si>
+  <si>
+    <t>Chemokine signaling pathway</t>
+  </si>
+  <si>
+    <t>Chemokine receptors bind chemokines isPartOf Chemokine signaling pathway*</t>
+  </si>
+  <si>
+    <t>Cholesterol Biosynthesis</t>
+  </si>
+  <si>
+    <t>Cholesterol Biosynthesis equivalentTo Cholesterol biosynthesis</t>
+  </si>
+  <si>
+    <t>Cholesterol Biosynthesis* isPartOf Metabolism of lipids
 Cholesterol Biosynthesis* isPartOf Metabolism
 Cholesterol biosynthesis via desmosterol isPartOf Cholesterol Biosynthesis*
 Cholesterol Biosynthesis* isPartOf Metabolism of steroids
 Cholesterol biosynthesis via lathosterol isPartOf Cholesterol Biosynthesis*</t>
   </si>
   <si>
-    <t xml:space="preserve">Chromosomal and microsatellite instability in colorectal cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMAD2/3 MH2 Domain Mutants in Cancer isPartOf Chromosomal and microsatellite instability in colorectal cancer*
+    <t>Chromosomal and microsatellite instability in colorectal cancer</t>
+  </si>
+  <si>
+    <t>SMAD2/3 MH2 Domain Mutants in Cancer isPartOf Chromosomal and microsatellite instability in colorectal cancer*
 SMAD4 MH2 Domain Mutants in Cancer isPartOf Chromosomal and microsatellite instability in colorectal cancer*
 Loss of Function of SMAD4 in Cancer isPartOf Chromosomal and microsatellite instability in colorectal cancer*</t>
   </si>
   <si>
-    <t xml:space="preserve">Circadian rythm related genes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cocaine metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cocaine metabolism* isPartOf Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codeine and Morphine Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codeine and Morphine Metabolism* isPartOf Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colchicine Metabolic Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colchicine Metabolic Pathway* isPartOf Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common Pathways Underlying Drug Addiction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complement Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complement Activation equivalentTo Complement cascade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulation of Complement cascade isPartOf Complement Activation*
+    <t>Circadian rythm related genes</t>
+  </si>
+  <si>
+    <t>Cocaine metabolism</t>
+  </si>
+  <si>
+    <t>Cocaine metabolism* isPartOf Metabolism</t>
+  </si>
+  <si>
+    <t>Codeine and Morphine Metabolism</t>
+  </si>
+  <si>
+    <t>Codeine and Morphine Metabolism* isPartOf Metabolism</t>
+  </si>
+  <si>
+    <t>Colchicine Metabolic Pathway</t>
+  </si>
+  <si>
+    <t>Colchicine Metabolic Pathway* isPartOf Metabolism</t>
+  </si>
+  <si>
+    <t>Common Pathways Underlying Drug Addiction</t>
+  </si>
+  <si>
+    <t>Complement Activation</t>
+  </si>
+  <si>
+    <t>Complement Activation equivalentTo Complement cascade</t>
+  </si>
+  <si>
+    <t>Regulation of Complement cascade isPartOf Complement Activation*
 Activation of C3 and C5 isPartOf Complement Activation*
 Terminal pathway of complement isPartOf Complement Activation*
 Initial triggering of complement isPartOf Complement Activation*</t>
   </si>
   <si>
-    <t xml:space="preserve">Complement and Coagulation Cascades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lectin pathway of complement activation isPartOf Complement and Coagulation Cascades*
+    <t>Complement and Coagulation Cascades</t>
+  </si>
+  <si>
+    <t>Lectin pathway of complement activation isPartOf Complement and Coagulation Cascades*
 Platelet activation, signaling and aggregation isPartOf Complement and Coagulation Cascades*
 Regulation of Complement cascade isPartOf Complement and Coagulation Cascades*
 Activation of C3 and C5 isPartOf Complement and Coagulation Cascades*
@@ -452,138 +462,138 @@
 Complement cascade isPartOf Complement and Coagulation Cascades*</t>
   </si>
   <si>
-    <t xml:space="preserve">Composition of Lipid Particles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Composition of Lipid Particles* isPartOf Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constitutive Androstane Receptor Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copper homeostasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copper homeostasis* isPartOf Cell redox homeostasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cori Cycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cori Cycle* isPartOf Metabolism
+    <t>Composition of Lipid Particles</t>
+  </si>
+  <si>
+    <t>Composition of Lipid Particles* isPartOf Metabolism</t>
+  </si>
+  <si>
+    <t>Constitutive Androstane Receptor Pathway</t>
+  </si>
+  <si>
+    <t>Copper homeostasis</t>
+  </si>
+  <si>
+    <t>Copper homeostasis* isPartOf Cell redox homeostasis</t>
+  </si>
+  <si>
+    <t>Cori Cycle</t>
+  </si>
+  <si>
+    <t>Cori Cycle* isPartOf Metabolism
 Cori Cycle* isPartOf Glucose metabolism
 Cori Cycle* isPartOf Metabolism of carbohydrates</t>
   </si>
   <si>
-    <t xml:space="preserve">Corticotropin-releasing hormone signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corticotropin-releasing hormone signaling pathway* isPartOf Glucocorticoid biosynthesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cytokines and Inflammatory Response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cytokines and Inflammatory Response equivalentTo Cytokine Signaling in Immune system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interleukin-1 processing isPartOf Cytokines and Inflammatory Response*
+    <t>Corticotropin-releasing hormone signaling pathway</t>
+  </si>
+  <si>
+    <t>Corticotropin-releasing hormone signaling pathway* isPartOf Glucocorticoid biosynthesis</t>
+  </si>
+  <si>
+    <t>Cytokines and Inflammatory Response</t>
+  </si>
+  <si>
+    <t>Cytokines and Inflammatory Response equivalentTo Cytokine Signaling in Immune system</t>
+  </si>
+  <si>
+    <t>Interleukin-1 processing isPartOf Cytokines and Inflammatory Response*
 Interleukin-4 and 13 signaling isPartOf Cytokines and Inflammatory Response*
 Signaling by Interleukins isPartOf Cytokines and Inflammatory Response*
 Cytokines and Inflammatory Response* isPartOf Immune System</t>
   </si>
   <si>
-    <t xml:space="preserve">Cytoplasmic Ribosomal Proteins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cytosine methylation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cytosine methylation* isPartOf DNA methylation
+    <t>Cytoplasmic Ribosomal Proteins</t>
+  </si>
+  <si>
+    <t>Cytosine methylation</t>
+  </si>
+  <si>
+    <t>Cytosine methylation* isPartOf DNA methylation
 Cytosine methylation* isPartOf Methylation</t>
   </si>
   <si>
-    <t xml:space="preserve">DDX1 as a regulatory component of the Drosha microprocessor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA Damage Response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p53-Dependent G1 DNA Damage Response isPartOf DNA Damage Response*
+    <t>DDX1 as a regulatory component of the Drosha microprocessor</t>
+  </si>
+  <si>
+    <t>DNA Damage Response</t>
+  </si>
+  <si>
+    <t>p53-Dependent G1 DNA Damage Response isPartOf DNA Damage Response*
 DNA Damage Bypass isPartOf DNA Damage Response*
 p53-Independent DNA Damage Response isPartOf DNA Damage Response*
 G1/S DNA Damage Checkpoints isPartOf DNA Damage Response*
 DNA Damage Reversal isPartOf DNA Damage Response*</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA Damage Response (only ATM dependent)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS-mediated signalling isPartOf DNA Damage Response (only ATM dependent)*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA IR-Double Strand Breaks (DSBs) and cellular response via ATM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA IR-Double Strand Breaks (DSBs) and cellular response via ATM* isPartOf DNA Repair
+    <t>DNA Damage Response (only ATM dependent)</t>
+  </si>
+  <si>
+    <t>SOS-mediated signalling isPartOf DNA Damage Response (only ATM dependent)*</t>
+  </si>
+  <si>
+    <t>DNA IR-Double Strand Breaks (DSBs) and cellular response via ATM</t>
+  </si>
+  <si>
+    <t>DNA IR-Double Strand Breaks (DSBs) and cellular response via ATM* isPartOf DNA Repair
 DNA IR-Double Strand Breaks (DSBs) and cellular response via ATM* isPartOf DNA Double Strand Break Response</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA IR-damage and cellular response via ATR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA IR-damage and cellular response via ATR* isPartOf Sensing of DNA Double Strand Breaks
+    <t>DNA IR-damage and cellular response via ATR</t>
+  </si>
+  <si>
+    <t>DNA IR-damage and cellular response via ATR* isPartOf Sensing of DNA Double Strand Breaks
 DNA IR-damage and cellular response via ATR* isPartOf DNA Repair</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA Replication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA Replication equivalentTo DNA Replication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Degradation pathway of sphingolipids, including diseases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Degradation pathway of sphingolipids, including diseases* isPartOf Sphingolipid metabolism
+    <t>DNA Replication</t>
+  </si>
+  <si>
+    <t>DNA Replication equivalentTo DNA Replication</t>
+  </si>
+  <si>
+    <t>Degradation pathway of sphingolipids, including diseases</t>
+  </si>
+  <si>
+    <t>Degradation pathway of sphingolipids, including diseases* isPartOf Sphingolipid metabolism
 Degradation pathway of sphingolipids, including diseases* isPartOf Metabolism
 Degradation pathway of sphingolipids, including diseases* isPartOf Metabolism of lipids
 Degradation pathway of sphingolipids, including diseases* isPartOf Glycosphingolipid metabolism</t>
   </si>
   <si>
-    <t xml:space="preserve">Deregulation of Rab and Rab Effector Genes in Bladder Cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Development and heterogeneity of the ILC family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Development of pulmonary dendritic cells and macrophage subsets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Development of pulmonary dendritic cells and macrophage subsets* isPartOf Immune System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diclofenac Metabolic Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diclofenac Metabolic Pathway* isPartOf Metabolism
+    <t>Deregulation of Rab and Rab Effector Genes in Bladder Cancer</t>
+  </si>
+  <si>
+    <t>Development and heterogeneity of the ILC family</t>
+  </si>
+  <si>
+    <t>Development of pulmonary dendritic cells and macrophage subsets</t>
+  </si>
+  <si>
+    <t>Development of pulmonary dendritic cells and macrophage subsets* isPartOf Immune System</t>
+  </si>
+  <si>
+    <t>Diclofenac Metabolic Pathway</t>
+  </si>
+  <si>
+    <t>Diclofenac Metabolic Pathway* isPartOf Metabolism
 Diclofenac Metabolic Pathway* isPartOf Cytochrome P450 - arranged by substrate type</t>
   </si>
   <si>
-    <t xml:space="preserve">Differentiation Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Differentiation of white and brown adipocyte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transcriptional regulation of white adipocyte differentiation isPartOf Differentiation of white and brown adipocyte*
+    <t>Differentiation Pathway</t>
+  </si>
+  <si>
+    <t>Differentiation of white and brown adipocyte</t>
+  </si>
+  <si>
+    <t>Transcriptional regulation of white adipocyte differentiation isPartOf Differentiation of white and brown adipocyte*
 Differentiation of white and brown adipocyte* isPartOf Developmental Biology</t>
   </si>
   <si>
-    <t xml:space="preserve">Dopamine metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amine Oxidase reactions isPartOf Dopamine metabolism*
+    <t>Dopamine metabolism</t>
+  </si>
+  <si>
+    <t>Amine Oxidase reactions isPartOf Dopamine metabolism*
 Dopamine receptors isPartOf Dopamine metabolism*
 Enzymatic degradation of Dopamine by monoamine oxidase isPartOf Dopamine metabolism*
 Dopamine metabolism* isPartOf Metabolism
@@ -592,28 +602,28 @@
 Dopamine clearance from the synaptic cleft isPartOf Dopamine metabolism*</t>
   </si>
   <si>
-    <t xml:space="preserve">Dopaminergic Neurogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drug Induction of Bile Acid Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dual hijack model of Vif in HIV infection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dual hijack model of Vif in HIV infection* isPartOf HIV Infection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EBV LMP1 signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDA Signalling in Hair Follicle Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGF/EGFR Signaling Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHC1 events in EGFR signaling isPartOf EGF/EGFR Signaling Pathway*
+    <t>Dopaminergic Neurogenesis</t>
+  </si>
+  <si>
+    <t>Drug Induction of Bile Acid Pathway</t>
+  </si>
+  <si>
+    <t>Dual hijack model of Vif in HIV infection</t>
+  </si>
+  <si>
+    <t>Dual hijack model of Vif in HIV infection* isPartOf HIV Infection</t>
+  </si>
+  <si>
+    <t>EBV LMP1 signaling</t>
+  </si>
+  <si>
+    <t>EDA Signalling in Hair Follicle Development</t>
+  </si>
+  <si>
+    <t>EGF/EGFR Signaling Pathway</t>
+  </si>
+  <si>
+    <t>SHC1 events in EGFR signaling isPartOf EGF/EGFR Signaling Pathway*
 EGFR downregulation isPartOf EGF/EGFR Signaling Pathway*
 PLCG1 events in ERBB2 signaling isPartOf EGF/EGFR Signaling Pathway*
 EGF/EGFR Signaling Pathway* isPartOf EGFR interacts with phospholipase C-gamma
@@ -624,71 +634,71 @@
 EGFR Transactivation by Gastrin isPartOf EGF/EGFR Signaling Pathway*</t>
   </si>
   <si>
-    <t xml:space="preserve">EPO Receptor Signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERK Pathway in Huntington's Disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESC Pluripotency Pathways</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV release from cardiac cells and their functional effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ectoderm Differentiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effects of Nitric Oxide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nitric oxide stimulates guanylate cyclase isPartOf Effects of Nitric Oxide*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eicosanoid Synthesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eicosanoid Synthesis* isPartOf Arachidonic acid metabolism
+    <t>EPO Receptor Signaling</t>
+  </si>
+  <si>
+    <t>ERK Pathway in Huntington's Disease</t>
+  </si>
+  <si>
+    <t>ESC Pluripotency Pathways</t>
+  </si>
+  <si>
+    <t>EV release from cardiac cells and their functional effects</t>
+  </si>
+  <si>
+    <t>Ectoderm Differentiation</t>
+  </si>
+  <si>
+    <t>Effects of Nitric Oxide</t>
+  </si>
+  <si>
+    <t>Nitric oxide stimulates guanylate cyclase isPartOf Effects of Nitric Oxide*</t>
+  </si>
+  <si>
+    <t>Eicosanoid Synthesis</t>
+  </si>
+  <si>
+    <t>Eicosanoid Synthesis* isPartOf Arachidonic acid metabolism
 Eicosanoid Synthesis* isPartOf Eicosanoids
 Eicosanoid Synthesis* isPartOf Metabolism of lipids
 Eicosanoid Synthesis* isPartOf Metabolism
 Eicosanoids isPartOf Eicosanoid Synthesis*</t>
   </si>
   <si>
-    <t xml:space="preserve">Electron Transport Chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electron Transport Chain equivalentTo Respiratory electron transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endochondral Ossification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUNX2 regulates chondrocyte maturation isPartOf Endochondral Ossification*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endoderm Differentiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endometrial cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endothelin Pathways</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CREB phosphorylation through the activation of CaMKK isPartOf Energy Metabolism*
+    <t>Electron Transport Chain</t>
+  </si>
+  <si>
+    <t>Electron Transport Chain equivalentTo Respiratory electron transport</t>
+  </si>
+  <si>
+    <t>Endochondral Ossification</t>
+  </si>
+  <si>
+    <t>RUNX2 regulates chondrocyte maturation isPartOf Endochondral Ossification*</t>
+  </si>
+  <si>
+    <t>Endoderm Differentiation</t>
+  </si>
+  <si>
+    <t>Endometrial cancer</t>
+  </si>
+  <si>
+    <t>Endothelin Pathways</t>
+  </si>
+  <si>
+    <t>Energy Metabolism</t>
+  </si>
+  <si>
+    <t>CREB phosphorylation through the activation of CaMKK isPartOf Energy Metabolism*
 CaMK IV-mediated phosphorylation of CREB isPartOf Energy Metabolism*
 Energy Metabolism* isPartOf Metabolism
 Mitochondrial biogenesis isPartOf Energy Metabolism*</t>
   </si>
   <si>
-    <t xml:space="preserve">ErbB Signaling Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGFR interacts with phospholipase C-gamma isPartOf ErbB Signaling Pathway*
+    <t>ErbB Signaling Pathway</t>
+  </si>
+  <si>
+    <t>EGFR interacts with phospholipase C-gamma isPartOf ErbB Signaling Pathway*
 Signaling by ERBB2 isPartOf ErbB Signaling Pathway*
 SHC1 events in ERBB4 signaling isPartOf ErbB Signaling Pathway*
 PI3K events in ERBB2 signaling isPartOf ErbB Signaling Pathway*
@@ -709,46 +719,46 @@
 GRB2 events in ERBB2 signaling isPartOf ErbB Signaling Pathway*</t>
   </si>
   <si>
-    <t xml:space="preserve">Estrogen Receptor Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estrogen metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estrogen metabolism* isPartOf Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estrogen signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethanol effects on histone modifications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eukaryotic Transcription Initiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evolocumab Mechanism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exercise-induced Circadian Regulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extracellular vesicle-mediated signaling in recipient cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FTO Obesity Variant Mechanism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Factors and pathways affecting insulin-like growth factor (IGF1)-Akt signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farnesoid X Receptor  Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fas Ligand (FasL) pathway and Stress induction of Heat Shock Proteins (HSP) regulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fas Ligand (FasL) pathway and Stress induction of Heat Shock Proteins (HSP) regulation* isPartOf Ligand-dependent caspase activation
+    <t>Estrogen Receptor Pathway</t>
+  </si>
+  <si>
+    <t>Estrogen metabolism</t>
+  </si>
+  <si>
+    <t>Estrogen metabolism* isPartOf Metabolism</t>
+  </si>
+  <si>
+    <t>Estrogen signaling pathway</t>
+  </si>
+  <si>
+    <t>Ethanol effects on histone modifications</t>
+  </si>
+  <si>
+    <t>Eukaryotic Transcription Initiation</t>
+  </si>
+  <si>
+    <t>Evolocumab Mechanism</t>
+  </si>
+  <si>
+    <t>Exercise-induced Circadian Regulation</t>
+  </si>
+  <si>
+    <t>Extracellular vesicle-mediated signaling in recipient cells</t>
+  </si>
+  <si>
+    <t>FTO Obesity Variant Mechanism</t>
+  </si>
+  <si>
+    <t>Factors and pathways affecting insulin-like growth factor (IGF1)-Akt signaling</t>
+  </si>
+  <si>
+    <t>Farnesoid X Receptor  Pathway</t>
+  </si>
+  <si>
+    <t>Fas Ligand (FasL) pathway and Stress induction of Heat Shock Proteins (HSP) regulation</t>
+  </si>
+  <si>
+    <t>Fas Ligand (FasL) pathway and Stress induction of Heat Shock Proteins (HSP) regulation* isPartOf Ligand-dependent caspase activation
 Fas Ligand (FasL) pathway and Stress induction of Heat Shock Proteins (HSP) regulation* isPartOf Apoptosis
 Fas Ligand (FasL) pathway and Stress induction of Heat Shock Proteins (HSP) regulation* isPartOf Programmed Cell Death
 Fas Ligand (FasL) pathway and Stress induction of Heat Shock Proteins (HSP) regulation* isPartOf Stimulation of the cell death response by PAK-2p34
@@ -756,13 +766,13 @@
 Fas Ligand (FasL) pathway and Stress induction of Heat Shock Proteins (HSP) regulation* isPartOf Formation of apoptosome</t>
   </si>
   <si>
-    <t xml:space="preserve">Fatty Acid Beta Oxidation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fatty Acid Beta Oxidation equivalentTo Mitochondrial Fatty Acid Beta-Oxidation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta oxidation of hexanoyl-CoA to butanoyl-CoA isPartOf Fatty Acid Beta Oxidation*
+    <t>Fatty Acid Beta Oxidation</t>
+  </si>
+  <si>
+    <t>Fatty Acid Beta Oxidation equivalentTo Mitochondrial Fatty Acid Beta-Oxidation</t>
+  </si>
+  <si>
+    <t>Beta oxidation of hexanoyl-CoA to butanoyl-CoA isPartOf Fatty Acid Beta Oxidation*
 Beta oxidation of butanoyl-CoA to acetyl-CoA isPartOf Fatty Acid Beta Oxidation*
 mitochondrial fatty acid beta-oxidation of saturated fatty acids isPartOf Fatty Acid Beta Oxidation*
 Beta oxidation of lauroyl-CoA to decanoyl-CoA-CoA isPartOf Fatty Acid Beta Oxidation*
@@ -777,79 +787,79 @@
 Fatty Acid Beta Oxidation* isPartOf Metabolism of lipids</t>
   </si>
   <si>
-    <t xml:space="preserve">Fatty Acid Biosynthesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fatty Acid Biosynthesis* isPartOf Metabolism of lipids
+    <t>Fatty Acid Biosynthesis</t>
+  </si>
+  <si>
+    <t>Fatty Acid Biosynthesis* isPartOf Metabolism of lipids
 Fatty Acid Biosynthesis* isPartOf Fatty acid metabolism
 Fatty acyl-CoA biosynthesis isPartOf Fatty Acid Biosynthesis*
 Fatty Acid Biosynthesis* isPartOf Metabolism</t>
   </si>
   <si>
-    <t xml:space="preserve">Fatty Acid Omega Oxidation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fatty Acid Omega Oxidation* isPartOf Mitochondrial Fatty Acid Beta-Oxidation
+    <t>Fatty Acid Omega Oxidation</t>
+  </si>
+  <si>
+    <t>Fatty Acid Omega Oxidation* isPartOf Mitochondrial Fatty Acid Beta-Oxidation
 Fatty Acid Omega Oxidation* isPartOf Metabolism of lipids
 Fatty Acid Omega Oxidation* isPartOf Biological oxidations
 Fatty Acid Omega Oxidation* isPartOf Fatty acid metabolism
 Fatty Acid Omega Oxidation* isPartOf Metabolism</t>
   </si>
   <si>
-    <t xml:space="preserve">Felbamate Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felbamate Metabolism* isPartOf Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibrin Complement Receptor 3 Signaling Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibrin Complement Receptor 3 Signaling Pathway* isPartOf Innate Immune System
+    <t>Felbamate Metabolism</t>
+  </si>
+  <si>
+    <t>Felbamate Metabolism* isPartOf Metabolism</t>
+  </si>
+  <si>
+    <t>Fibrin Complement Receptor 3 Signaling Pathway</t>
+  </si>
+  <si>
+    <t>Fibrin Complement Receptor 3 Signaling Pathway* isPartOf Innate Immune System
 Fibrin Complement Receptor 3 Signaling Pathway* isPartOf Immune System</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluoropyrimidine Activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluoropyrimidine Activity* isPartOf Pyrimidine catabolism
+    <t>Fluoropyrimidine Activity</t>
+  </si>
+  <si>
+    <t>Fluoropyrimidine Activity* isPartOf Pyrimidine catabolism
 Fluoropyrimidine Activity* isPartOf Metabolism
 Fluoropyrimidine Activity* isPartOf Metabolism of nucleotides</t>
   </si>
   <si>
-    <t xml:space="preserve">Focal Adhesion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrin signaling isPartOf Focal Adhesion*
+    <t>Focal Adhesion</t>
+  </si>
+  <si>
+    <t>Integrin signaling isPartOf Focal Adhesion*
 Laminin interactions isPartOf Focal Adhesion*</t>
   </si>
   <si>
-    <t xml:space="preserve">Focal Adhesion-PI3K-Akt-mTOR-signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Folate Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Folate Metabolism* isPartOf Metabolism of water-soluble vitamins and cofactors
+    <t>Focal Adhesion-PI3K-Akt-mTOR-signaling pathway</t>
+  </si>
+  <si>
+    <t>Folate Metabolism</t>
+  </si>
+  <si>
+    <t>Folate Metabolism* isPartOf Metabolism of water-soluble vitamins and cofactors
 Folate Metabolism* isPartOf Metabolism of folate and pterines
 Folate Metabolism* isPartOf Metabolism of vitamins and cofactors
 Folate Metabolism* isPartOf Metabolism
 Cysteine formation from homocysteine isPartOf Folate Metabolism*</t>
   </si>
   <si>
-    <t xml:space="preserve">Folate-Alcohol and Cancer Pathway Hypotheses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Follicle Stimulating Hormone (FSH) signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G Protein Signaling Pathways</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G1 to S cell cycle control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G1 to S cell cycle control* isPartOf Mitotic G1-G1/S phases
+    <t>Folate-Alcohol and Cancer Pathway Hypotheses</t>
+  </si>
+  <si>
+    <t>Follicle Stimulating Hormone (FSH) signaling pathway</t>
+  </si>
+  <si>
+    <t>G Protein Signaling Pathways</t>
+  </si>
+  <si>
+    <t>G1 to S cell cycle control</t>
+  </si>
+  <si>
+    <t>G1 to S cell cycle control* isPartOf Mitotic G1-G1/S phases
 G1 to S cell cycle control* isPartOf Cell Cycle
 Assembly of the ORC complex at the origin of replication isPartOf G1 to S cell cycle control*
 Phosphorylation of proteins involved in G1/S transition by active Cyclin E:Cdk2 complexes isPartOf G1 to S cell cycle control*
@@ -857,90 +867,90 @@
 G1 to S cell cycle control* isPartOf G1/S Transition</t>
   </si>
   <si>
-    <t xml:space="preserve">G13 Signaling Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G13 Signaling Pathway* isPartOf Signal Transduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABA receptor Signaling</t>
+    <t>G13 Signaling Pathway</t>
+  </si>
+  <si>
+    <t>G13 Signaling Pathway* isPartOf Signal Transduction</t>
+  </si>
+  <si>
+    <t>GABA receptor Signaling</t>
   </si>
   <si>
     <t xml:space="preserve">GABA receptor Signaling equivalentTo GABA receptor activation </t>
   </si>
   <si>
-    <t xml:space="preserve">Reuptake of GABA isPartOf GABA receptor Signaling*
+    <t>Reuptake of GABA isPartOf GABA receptor Signaling*
 GABA A receptor activation isPartOf GABA receptor Signaling*</t>
   </si>
   <si>
-    <t xml:space="preserve">GPCRs, Class A Rhodopsin-like</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPCRs, Class A Rhodopsin-like equivalentTo Class A/1 (Rhodopsin-like receptors)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPCRs, Class B Secretin-like</t>
+    <t>GPCRs, Class A Rhodopsin-like</t>
+  </si>
+  <si>
+    <t>GPCRs, Class A Rhodopsin-like equivalentTo Class A/1 (Rhodopsin-like receptors)</t>
+  </si>
+  <si>
+    <t>GPCRs, Class B Secretin-like</t>
   </si>
   <si>
     <t xml:space="preserve">GPCRs, Class B Secretin-like equivalentTo Class B/2 (Secretin family receptors) </t>
   </si>
   <si>
-    <t xml:space="preserve">GPCRs, Class C Metabotropic glutamate, pheromone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPCRs, Class C Metabotropic glutamate, pheromone equivalentTo Class C/3 (Metabotropic glutamate/pheromone receptors)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPCRs, Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPCRs, Other* isPartOf GPCR downstream signalling
+    <t>GPCRs, Class C Metabotropic glutamate, pheromone</t>
+  </si>
+  <si>
+    <t>GPCRs, Class C Metabotropic glutamate, pheromone equivalentTo Class C/3 (Metabotropic glutamate/pheromone receptors)</t>
+  </si>
+  <si>
+    <t>GPCRs, Other</t>
+  </si>
+  <si>
+    <t>GPCRs, Other* isPartOf GPCR downstream signalling
 GPCRs, Other* isPartOf Signaling by GPCR
 GPCRs, Other* isPartOf GPCR ligand binding</t>
   </si>
   <si>
-    <t xml:space="preserve">GPR40 Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPR40 Pathway equivalentTo Fatty Acids bound to GPR40 (FFAR1) regulate insulin secretion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ganglio Sphingolipid Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ganglio Sphingolipid Metabolism* isPartOf Sphingolipid metabolism
+    <t>GPR40 Pathway</t>
+  </si>
+  <si>
+    <t>GPR40 Pathway equivalentTo Fatty Acids bound to GPR40 (FFAR1) regulate insulin secretion</t>
+  </si>
+  <si>
+    <t>Ganglio Sphingolipid Metabolism</t>
+  </si>
+  <si>
+    <t>Ganglio Sphingolipid Metabolism* isPartOf Sphingolipid metabolism
 Ganglio Sphingolipid Metabolism* isPartOf Metabolism</t>
   </si>
   <si>
-    <t xml:space="preserve">Gastric Cancer Network 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gastric Cancer Network 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gastric acid production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gene regulatory network modelling somitogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glial Cell Differentiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glial Cell Differentiation* isPartOf Developmental Biology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Globo Sphingolipid Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Globo Sphingolipid Metabolism* isPartOf Metabolism
+    <t>Gastric Cancer Network 1</t>
+  </si>
+  <si>
+    <t>Gastric Cancer Network 2</t>
+  </si>
+  <si>
+    <t>Gastric acid production</t>
+  </si>
+  <si>
+    <t>Gene regulatory network modelling somitogenesis</t>
+  </si>
+  <si>
+    <t>Glial Cell Differentiation</t>
+  </si>
+  <si>
+    <t>Glial Cell Differentiation* isPartOf Developmental Biology</t>
+  </si>
+  <si>
+    <t>Globo Sphingolipid Metabolism</t>
+  </si>
+  <si>
+    <t>Globo Sphingolipid Metabolism* isPartOf Metabolism
 Globo Sphingolipid Metabolism* isPartOf Sphingolipid metabolism</t>
   </si>
   <si>
-    <t xml:space="preserve">Glucocorticoid and Mineralcorticoid Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism of steroids isPartOf Glucocorticoid and Mineralcorticoid Metabolism*
+    <t>Glucocorticoid and Mineralcorticoid Metabolism</t>
+  </si>
+  <si>
+    <t>Metabolism of steroids isPartOf Glucocorticoid and Mineralcorticoid Metabolism*
 Glucocorticoid and Mineralcorticoid Metabolism* isPartOf Metabolism of steroid hormones
 Mineralocorticoid biosynthesis isPartOf Glucocorticoid and Mineralcorticoid Metabolism*
 Glucocorticoid biosynthesis isPartOf Glucocorticoid and Mineralcorticoid Metabolism*
@@ -948,279 +958,279 @@
 Glucocorticoid and Mineralcorticoid Metabolism* isPartOf Metabolism</t>
   </si>
   <si>
-    <t xml:space="preserve">Glucose Homeostasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulation of insulin secretion isPartOf Glucose Homeostasis*
+    <t>Glucose Homeostasis</t>
+  </si>
+  <si>
+    <t>Regulation of insulin secretion isPartOf Glucose Homeostasis*
 Glucose Homeostasis* isPartOf Glucose metabolism
 Insulin receptor signalling cascade isPartOf Glucose Homeostasis*</t>
   </si>
   <si>
-    <t xml:space="preserve">Glucuronidation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glucuronidation equivalentTo Glucuronidation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glutathione metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glutathione metabolism* isPartOf Metabolism
+    <t>Glucuronidation</t>
+  </si>
+  <si>
+    <t>Glucuronidation equivalentTo Glucuronidation</t>
+  </si>
+  <si>
+    <t>Glutathione metabolism</t>
+  </si>
+  <si>
+    <t>Glutathione metabolism* isPartOf Metabolism
 Glutathione conjugation isPartOf Glutathione metabolism*</t>
   </si>
   <si>
-    <t xml:space="preserve">Glycerophospholipid Biosynthetic Pathway</t>
+    <t>Glycerophospholipid Biosynthetic Pathway</t>
   </si>
   <si>
     <t xml:space="preserve">Glycerophospholipid Biosynthetic Pathway equivalentTo Glycerophospholipid biosynthesis </t>
   </si>
   <si>
-    <t xml:space="preserve">Glycogen Metabolism</t>
+    <t>Glycogen Metabolism</t>
   </si>
   <si>
     <t xml:space="preserve">Glycogen Metabolism equivalentTo Glycogen metabolism </t>
   </si>
   <si>
-    <t xml:space="preserve">Glycolysis and Gluconeogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glycolysis and Gluconeogenesis* isPartOf Metabolism of carbohydrates
+    <t>Glycolysis and Gluconeogenesis</t>
+  </si>
+  <si>
+    <t>Glycolysis and Gluconeogenesis* isPartOf Metabolism of carbohydrates
 Glycolysis isPartOf Glycolysis and Gluconeogenesis*
 Glycolysis and Gluconeogenesis* isPartOf Glucose metabolism
 Glycolysis and Gluconeogenesis* isPartOf Metabolism
 Gluconeogenesis isPartOf Glycolysis and Gluconeogenesis*</t>
   </si>
   <si>
-    <t xml:space="preserve">Gut-Liver Indole Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CYP2E1 reactions isPartOf Gut-Liver Indole Metabolism*
+    <t>Gut-Liver Indole Metabolism</t>
+  </si>
+  <si>
+    <t>CYP2E1 reactions isPartOf Gut-Liver Indole Metabolism*
 Gut-Liver Indole Metabolism* isPartOf Metabolism</t>
   </si>
   <si>
-    <t xml:space="preserve">H19 action Rb-E2F1 signaling and CDK-β-catenin activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIF1A and PPARG regulation of glycolysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIF1A and PPARG regulation of glycolysis* isPartOf Glycolysis
+    <t>H19 action Rb-E2F1 signaling and CDK-β-catenin activity</t>
+  </si>
+  <si>
+    <t>HIF1A and PPARG regulation of glycolysis</t>
+  </si>
+  <si>
+    <t>HIF1A and PPARG regulation of glycolysis* isPartOf Glycolysis
 HIF1A and PPARG regulation of glycolysis* isPartOf Metabolism
 HIF1A and PPARG regulation of glycolysis* isPartOf Glucose metabolism
 HIF1A and PPARG regulation of glycolysis* isPartOf Metabolism of carbohydrates</t>
   </si>
   <si>
-    <t xml:space="preserve">Heart Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hedgehog Signaling Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hedgehog Signaling Pathway equivalentTo Signaling by Hedgehog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hematopoietic Stem Cell Differentiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hematopoietic Stem Cell Gene Regulation by GABP alpha/beta Complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heme Biosynthesis</t>
+    <t>Heart Development</t>
+  </si>
+  <si>
+    <t>Hedgehog Signaling Pathway</t>
+  </si>
+  <si>
+    <t>Hedgehog Signaling Pathway equivalentTo Signaling by Hedgehog</t>
+  </si>
+  <si>
+    <t>Hematopoietic Stem Cell Differentiation</t>
+  </si>
+  <si>
+    <t>Hematopoietic Stem Cell Gene Regulation by GABP alpha/beta Complex</t>
+  </si>
+  <si>
+    <t>Heme Biosynthesis</t>
   </si>
   <si>
     <t xml:space="preserve">Heme Biosynthesis equivalentTo Heme biosynthesis </t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis C and Hepatocellular Carcinoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hereditary leiomyomatosis and renal cell carcinoma pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heroin metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heroin metabolism* isPartOf Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hfe effect on hepcidin production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Histone Modifications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chromatin modifying enzymes isPartOf Histone Modifications*
+    <t>Hepatitis C and Hepatocellular Carcinoma</t>
+  </si>
+  <si>
+    <t>Hereditary leiomyomatosis and renal cell carcinoma pathway</t>
+  </si>
+  <si>
+    <t>Heroin metabolism</t>
+  </si>
+  <si>
+    <t>Heroin metabolism* isPartOf Metabolism</t>
+  </si>
+  <si>
+    <t>Hfe effect on hepcidin production</t>
+  </si>
+  <si>
+    <t>Histone Modifications</t>
+  </si>
+  <si>
+    <t>Chromatin modifying enzymes isPartOf Histone Modifications*
 PKMTs methylate histone lysines isPartOf Histone Modifications*</t>
   </si>
   <si>
-    <t xml:space="preserve">Homologous recombination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homology Directed Repair isPartOf Homologous recombination*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hormonal control of Pubertal Growth Spurt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human Thyroid Stimulating Hormone (TSH) signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypertrophy Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypothesized Pathways in Pathogenesis of Cardiovascular Disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypothetical Craniofacial Development Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypoxia-mediated EMT and Stemness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL-1 signaling pathway</t>
+    <t>Homologous recombination</t>
+  </si>
+  <si>
+    <t>Homology Directed Repair isPartOf Homologous recombination*</t>
+  </si>
+  <si>
+    <t>Hormonal control of Pubertal Growth Spurt</t>
+  </si>
+  <si>
+    <t>Human Thyroid Stimulating Hormone (TSH) signaling pathway</t>
+  </si>
+  <si>
+    <t>Hypertrophy Model</t>
+  </si>
+  <si>
+    <t>Hypothesized Pathways in Pathogenesis of Cardiovascular Disease</t>
+  </si>
+  <si>
+    <t>Hypothetical Craniofacial Development Pathway</t>
+  </si>
+  <si>
+    <t>Hypoxia-mediated EMT and Stemness</t>
+  </si>
+  <si>
+    <t>ID signaling pathway</t>
+  </si>
+  <si>
+    <t>IL-1 signaling pathway</t>
   </si>
   <si>
     <t xml:space="preserve">IL-1 signaling pathway equivalentTo Interleukin-1 family signaling </t>
   </si>
   <si>
-    <t xml:space="preserve">IL-2 Signaling Pathway</t>
+    <t>IL-2 Signaling Pathway</t>
   </si>
   <si>
     <t xml:space="preserve">IL-2 Signaling Pathway equivalentTo Interleukin-2 signaling </t>
   </si>
   <si>
-    <t xml:space="preserve">IL-3 Signaling Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL-3 Signaling Pathway* isPartOf Innate Immune System
+    <t>IL-3 Signaling Pathway</t>
+  </si>
+  <si>
+    <t>IL-3 Signaling Pathway* isPartOf Innate Immune System
 IL-3 Signaling Pathway* isPartOf Cytokine Signaling in Immune system
 IL-3 Signaling Pathway* isPartOf Immune System
 IL-3 Signaling Pathway* isPartOf Interleukin-3, 5 and GM-CSF signaling
 IL-3 Signaling Pathway* isPartOf Signaling by Interleukins</t>
   </si>
   <si>
-    <t xml:space="preserve">IL-4 Signaling Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL-4 Signaling Pathway* isPartOf Cytokine Signaling in Immune system
+    <t>IL-4 Signaling Pathway</t>
+  </si>
+  <si>
+    <t>IL-4 Signaling Pathway* isPartOf Cytokine Signaling in Immune system
 IL-4 Signaling Pathway* isPartOf Innate Immune System
 IL-4 Signaling Pathway* isPartOf Signaling by Interleukins
 IL-4 Signaling Pathway* isPartOf Immune System</t>
   </si>
   <si>
-    <t xml:space="preserve">IL-5 Signaling Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL-5 Signaling Pathway* isPartOf Signaling by Interleukins
+    <t>IL-5 Signaling Pathway</t>
+  </si>
+  <si>
+    <t>IL-5 Signaling Pathway* isPartOf Signaling by Interleukins
 IL-5 Signaling Pathway* isPartOf Innate Immune System
 IL-5 Signaling Pathway* isPartOf Cytokine Signaling in Immune system
 IL-5 Signaling Pathway* isPartOf Immune System</t>
   </si>
   <si>
-    <t xml:space="preserve">IL-6 signaling pathway</t>
+    <t>IL-6 signaling pathway</t>
   </si>
   <si>
     <t xml:space="preserve">IL-6 signaling pathway equivalentTo Interleukin-6 signaling </t>
   </si>
   <si>
-    <t xml:space="preserve">IL-7 Signaling Pathway</t>
+    <t>IL-7 Signaling Pathway</t>
   </si>
   <si>
     <t xml:space="preserve">IL-7 Signaling Pathway equivalentTo Interleukin-7 signaling </t>
   </si>
   <si>
-    <t xml:space="preserve">IL-9 Signaling Pathway</t>
+    <t>IL-9 Signaling Pathway</t>
   </si>
   <si>
     <t xml:space="preserve">IL-9 Signaling Pathway equivalentTo Interleukin-9 signaling </t>
   </si>
   <si>
-    <t xml:space="preserve">IL1 and megakaryocytes in obesity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL1 and megakaryocytes in obesity* isPartOf Immune System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL17 signaling pathway</t>
+    <t>IL1 and megakaryocytes in obesity</t>
+  </si>
+  <si>
+    <t>IL1 and megakaryocytes in obesity* isPartOf Immune System</t>
+  </si>
+  <si>
+    <t>IL17 signaling pathway</t>
   </si>
   <si>
     <t xml:space="preserve">IL17 signaling pathway equivalentTo Interleukin-17 signaling </t>
   </si>
   <si>
-    <t xml:space="preserve">Imatinib and Chronic Myeloid Leukemia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflammatory Response Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflammatory Response Pathway* isPartOf Immune System
+    <t>Imatinib and Chronic Myeloid Leukemia</t>
+  </si>
+  <si>
+    <t>Inflammatory Response Pathway</t>
+  </si>
+  <si>
+    <t>Inflammatory Response Pathway* isPartOf Immune System
 Inflammatory Response Pathway* isPartOf Cytokine Signaling in Immune system</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza A virus infection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Influenza A virus infection* isPartOf Influenza Infection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initiation of transcription and translation elongation at the HIV-1 LTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insulin Signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insulin signalling in human adipocytes (diabetic condition)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insulin signalling in human adipocytes (diabetic condition)* isPartOf Signal Transduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insulin signalling in human adipocytes (normal condition)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insulin signalling in human adipocytes (normal condition)* isPartOf Signal Transduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrated Breast Cancer Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrated Cancer Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defective Mismatch Repair Associated With MSH6 isPartOf Integrated Cancer Pathway*
+    <t>Influenza A virus infection</t>
+  </si>
+  <si>
+    <t>Influenza A virus infection* isPartOf Influenza Infection</t>
+  </si>
+  <si>
+    <t>Initiation of transcription and translation elongation at the HIV-1 LTR</t>
+  </si>
+  <si>
+    <t>Insulin Signaling</t>
+  </si>
+  <si>
+    <t>Insulin signalling in human adipocytes (diabetic condition)</t>
+  </si>
+  <si>
+    <t>Insulin signalling in human adipocytes (diabetic condition)* isPartOf Signal Transduction</t>
+  </si>
+  <si>
+    <t>Insulin signalling in human adipocytes (normal condition)</t>
+  </si>
+  <si>
+    <t>Insulin signalling in human adipocytes (normal condition)* isPartOf Signal Transduction</t>
+  </si>
+  <si>
+    <t>Integrated Breast Cancer Pathway</t>
+  </si>
+  <si>
+    <t>Integrated Cancer Pathway</t>
+  </si>
+  <si>
+    <t>Defective Mismatch Repair Associated With MSH6 isPartOf Integrated Cancer Pathway*
 Defective Mismatch Repair Associated With MSH2 isPartOf Integrated Cancer Pathway*
 PTEN Loss of Function in Cancer isPartOf Integrated Cancer Pathway*
 SMAD4 MH2 Domain Mutants in Cancer isPartOf Integrated Cancer Pathway*
 Loss of Function of SMAD4 in Cancer isPartOf Integrated Cancer Pathway*</t>
   </si>
   <si>
-    <t xml:space="preserve">Integrin-mediated Cell Adhesion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrin signaling isPartOf Integrin-mediated Cell Adhesion*
+    <t>Integrin-mediated Cell Adhesion</t>
+  </si>
+  <si>
+    <t>Integrin signaling isPartOf Integrin-mediated Cell Adhesion*
 Integrin alphaIIb beta3 signaling isPartOf Integrin-mediated Cell Adhesion*</t>
   </si>
   <si>
-    <t xml:space="preserve">Interactome of polycomb repressive complex 2 (PRC2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interferon type I signaling pathways</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interferon type I signaling pathways* isPartOf Immune System
+    <t>Interactome of polycomb repressive complex 2 (PRC2)</t>
+  </si>
+  <si>
+    <t>Interferon type I signaling pathways</t>
+  </si>
+  <si>
+    <t>Interferon type I signaling pathways* isPartOf Immune System
 Interferon type I signaling pathways* isPartOf Cytokine Signaling in Immune system
 Interferon type I signaling pathways* isPartOf Innate Immune System
 Interferon type I signaling pathways* isPartOf Adaptive Immune System
 Interferon type I signaling pathways* isPartOf Interferon Signaling</t>
   </si>
   <si>
-    <t xml:space="preserve">Interleukin-1 Induced Activation of NF-kappa-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interleukin-1 Induced Activation of NF-kappa-B* isPartOf Cytokine Signaling in Immune system
+    <t>Interleukin-1 Induced Activation of NF-kappa-B</t>
+  </si>
+  <si>
+    <t>Interleukin-1 Induced Activation of NF-kappa-B* isPartOf Cytokine Signaling in Immune system
 Interleukin-1 Induced Activation of NF-kappa-B* isPartOf Immune System
 Interleukin-1 Induced Activation of NF-kappa-B* isPartOf Signaling by Interleukins
 Interleukin-1 Induced Activation of NF-kappa-B* isPartOf Interleukin-1 signaling
@@ -1228,186 +1238,186 @@
 Interleukin-1 Induced Activation of NF-kappa-B* isPartOf Interleukin-1 family signaling</t>
   </si>
   <si>
-    <t xml:space="preserve">Interleukin-11 Signaling Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interleukin-11 Signaling Pathway* isPartOf Immune System
+    <t>Interleukin-11 Signaling Pathway</t>
+  </si>
+  <si>
+    <t>Interleukin-11 Signaling Pathway* isPartOf Immune System
 Interleukin-11 Signaling Pathway* isPartOf Innate Immune System
 Interleukin-11 Signaling Pathway* isPartOf Cytokine Signaling in Immune system
 Interleukin-11 Signaling Pathway* isPartOf Signaling by Interleukins</t>
   </si>
   <si>
-    <t xml:space="preserve">Irinotecan Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron metabolism in placenta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron metabolism in placenta* isPartOf Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kennedy pathway from Sphingolipids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kennedy pathway from Sphingolipids* isPartOf Synthesis of PC
+    <t>Irinotecan Pathway</t>
+  </si>
+  <si>
+    <t>Iron metabolism in placenta</t>
+  </si>
+  <si>
+    <t>Iron metabolism in placenta* isPartOf Metabolism</t>
+  </si>
+  <si>
+    <t>Kennedy pathway from Sphingolipids</t>
+  </si>
+  <si>
+    <t>Kennedy pathway from Sphingolipids* isPartOf Synthesis of PC
 Kennedy pathway from Sphingolipids* isPartOf Metabolism of lipids
 Kennedy pathway from Sphingolipids* isPartOf Metabolism
 Kennedy pathway from Sphingolipids* isPartOf Sphingolipid metabolism</t>
   </si>
   <si>
-    <t xml:space="preserve">Kit receptor signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulation of KIT signaling isPartOf Kit receptor signaling pathway*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leptin Insulin Overlap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leptin Insulin Overlap* isPartOf Signaling by Leptin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leptin and adiponectin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leptin and adiponectin* isPartOf Signaling by Leptin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leptin signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leptin signaling pathway equivalentTo Signaling by Leptin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lidocaine metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lidocaine metabolism* isPartOf Metabolism
+    <t>Kit receptor signaling pathway</t>
+  </si>
+  <si>
+    <t>Regulation of KIT signaling isPartOf Kit receptor signaling pathway*</t>
+  </si>
+  <si>
+    <t>Leptin Insulin Overlap</t>
+  </si>
+  <si>
+    <t>Leptin Insulin Overlap* isPartOf Signaling by Leptin</t>
+  </si>
+  <si>
+    <t>Leptin and adiponectin</t>
+  </si>
+  <si>
+    <t>Leptin and adiponectin* isPartOf Signaling by Leptin</t>
+  </si>
+  <si>
+    <t>Leptin signaling pathway</t>
+  </si>
+  <si>
+    <t>Leptin signaling pathway equivalentTo Signaling by Leptin</t>
+  </si>
+  <si>
+    <t>Lidocaine metabolism</t>
+  </si>
+  <si>
+    <t>Lidocaine metabolism* isPartOf Metabolism
 Cytochrome P450 - arranged by substrate type isPartOf Lidocaine metabolism*</t>
   </si>
   <si>
-    <t xml:space="preserve">Lipid Metabolism Pathway</t>
+    <t>Lipid Metabolism Pathway</t>
   </si>
   <si>
     <t xml:space="preserve">Lipid Metabolism Pathway equivalentTo Metabolism of lipids </t>
   </si>
   <si>
-    <t xml:space="preserve">Liver X Receptor Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulation of cholesterol biosynthesis by SREBP (SREBF) isPartOf Liver X Receptor Pathway*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LncRNA-mediated mechanisms of therapeutic resistance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lung fibrosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAPK  and NFkB Signalling Pathways Inhibited by Yersinia YopJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAPK Cascade</t>
+    <t>Liver X Receptor Pathway</t>
+  </si>
+  <si>
+    <t>Regulation of cholesterol biosynthesis by SREBP (SREBF) isPartOf Liver X Receptor Pathway*</t>
+  </si>
+  <si>
+    <t>LncRNA-mediated mechanisms of therapeutic resistance</t>
+  </si>
+  <si>
+    <t>Lung fibrosis</t>
+  </si>
+  <si>
+    <t>MAPK  and NFkB Signalling Pathways Inhibited by Yersinia YopJ</t>
+  </si>
+  <si>
+    <t>MAPK Cascade</t>
   </si>
   <si>
     <t xml:space="preserve">MAPK Cascade equivalentTo MAPK family signaling cascades </t>
   </si>
   <si>
-    <t xml:space="preserve">MAPK Signaling Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAPK Signaling Pathway equivalentTo MAPK family signaling cascades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MECP2 and Associated Rett Syndrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFAP5-mediated ovarian cancer cell motility and invasiveness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophage markers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophage markers* isPartOf Immune System
+    <t>MAPK Signaling Pathway</t>
+  </si>
+  <si>
+    <t>MAPK Signaling Pathway equivalentTo MAPK family signaling cascades</t>
+  </si>
+  <si>
+    <t>MECP2 and Associated Rett Syndrome</t>
+  </si>
+  <si>
+    <t>MFAP5-mediated ovarian cancer cell motility and invasiveness</t>
+  </si>
+  <si>
+    <t>Macrophage markers</t>
+  </si>
+  <si>
+    <t>Macrophage markers* isPartOf Immune System
 Macrophage markers* isPartOf Innate Immune System
 Macrophage markers* isPartOf Adaptive Immune System</t>
   </si>
   <si>
-    <t xml:space="preserve">Matrix Metalloproteinases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metalloprotease DUBs isPartOf Matrix Metalloproteinases*
+    <t>Matrix Metalloproteinases</t>
+  </si>
+  <si>
+    <t>Metalloprotease DUBs isPartOf Matrix Metalloproteinases*
 Activation of Matrix Metalloproteinases isPartOf Matrix Metalloproteinases*
 Matrix Metalloproteinases* isPartOf Extracellular matrix organization
 Degradation of the extracellular matrix isPartOf Matrix Metalloproteinases*
 Matrix Metalloproteinases* isPartOf Extracellular matrix organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Melatonin metabolism and effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesodermal Commitment Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism of Spingolipids in ER and Golgi apparatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism of Spingolipids in ER and Golgi apparatus* isPartOf Metabolism
+    <t>Melatonin metabolism and effects</t>
+  </si>
+  <si>
+    <t>Mesodermal Commitment Pathway</t>
+  </si>
+  <si>
+    <t>Metabolism of Spingolipids in ER and Golgi apparatus</t>
+  </si>
+  <si>
+    <t>Metabolism of Spingolipids in ER and Golgi apparatus* isPartOf Metabolism
 Metabolism of Spingolipids in ER and Golgi apparatus* isPartOf Metabolism of proteins
 Metabolism of Spingolipids in ER and Golgi apparatus* isPartOf Metabolism of lipids
 Metabolism of Spingolipids in ER and Golgi apparatus* isPartOf Sphingolipid metabolism
 Sphingolipid metabolism isPartOf Metabolism of Spingolipids in ER and Golgi apparatus*</t>
   </si>
   <si>
-    <t xml:space="preserve">Metabolism of Tetrahydrocannabinol (THC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism of Tetrahydrocannabinol (THC)* isPartOf Xenobiotics
+    <t>Metabolism of Tetrahydrocannabinol (THC)</t>
+  </si>
+  <si>
+    <t>Metabolism of Tetrahydrocannabinol (THC)* isPartOf Xenobiotics
 Metabolism of Tetrahydrocannabinol (THC)* isPartOf Metabolism
 Metabolism of Tetrahydrocannabinol (THC)* isPartOf Cytochrome P450 - arranged by substrate type</t>
   </si>
   <si>
-    <t xml:space="preserve">Metapathway biotransformation Phase I and II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metastatic brain tumor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methionine De Novo and Salvage Pathway</t>
+    <t>Metapathway biotransformation Phase I and II</t>
+  </si>
+  <si>
+    <t>Metastatic brain tumor</t>
+  </si>
+  <si>
+    <t>Methionine De Novo and Salvage Pathway</t>
   </si>
   <si>
     <t xml:space="preserve">Methionine De Novo and Salvage Pathway equivalentTo Methionine salvage pathway </t>
   </si>
   <si>
-    <t xml:space="preserve">Methionine salvage pathway isPartOf Methionine De Novo and Salvage Pathway*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methylation Pathways</t>
+    <t>Methionine salvage pathway isPartOf Methionine De Novo and Salvage Pathway*</t>
+  </si>
+  <si>
+    <t>Methylation Pathways</t>
   </si>
   <si>
     <t xml:space="preserve">Methylation Pathways equivalentTo Methylation </t>
   </si>
   <si>
-    <t xml:space="preserve">MicroRNAs in cardiomyocyte hypertrophy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microglia Pathogen Phagocytosis Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microglia Pathogen Phagocytosis Pathway* isPartOf Immune System
+    <t>MicroRNAs in cardiomyocyte hypertrophy</t>
+  </si>
+  <si>
+    <t>Microglia Pathogen Phagocytosis Pathway</t>
+  </si>
+  <si>
+    <t>Microglia Pathogen Phagocytosis Pathway* isPartOf Immune System
 Microglia Pathogen Phagocytosis Pathway* isPartOf Innate Immune System</t>
   </si>
   <si>
-    <t xml:space="preserve">Mismatch repair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mismatch repair equivalentTo Mismatch Repair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitochondrial Gene Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitochondrial transcription initiation isPartOf Mitochondrial Gene Expression*
+    <t>Mismatch repair</t>
+  </si>
+  <si>
+    <t>Mismatch repair equivalentTo Mismatch Repair</t>
+  </si>
+  <si>
+    <t>Mitochondrial Gene Expression</t>
+  </si>
+  <si>
+    <t>Mitochondrial transcription initiation isPartOf Mitochondrial Gene Expression*
 Transcription from mitochondrial promoters isPartOf Mitochondrial Gene Expression*
 Mitochondrial Gene Expression* isPartOf Mitochondrial transcription termination
 Mitochondrial biogenesis isPartOf Mitochondrial Gene Expression*
@@ -1418,10 +1428,10 @@
 Mitochondrial Gene Expression* isPartOf Mitochondrial transcription initiation</t>
   </si>
   <si>
-    <t xml:space="preserve">Mitochondrial LC-Fatty Acid Beta-Oxidation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta oxidation of hexanoyl-CoA to butanoyl-CoA isPartOf Mitochondrial LC-Fatty Acid Beta-Oxidation*
+    <t>Mitochondrial LC-Fatty Acid Beta-Oxidation</t>
+  </si>
+  <si>
+    <t>Beta oxidation of hexanoyl-CoA to butanoyl-CoA isPartOf Mitochondrial LC-Fatty Acid Beta-Oxidation*
 Mitochondrial LC-Fatty Acid Beta-Oxidation* isPartOf Metabolism
 mitochondrial fatty acid beta-oxidation of unsaturated fatty acids isPartOf Mitochondrial LC-Fatty Acid Beta-Oxidation*
 Mitochondrial LC-Fatty Acid Beta-Oxidation* isPartOf Fatty acid metabolism
@@ -1434,31 +1444,31 @@
 Mitochondrial LC-Fatty Acid Beta-Oxidation* isPartOf Metabolism of lipids</t>
   </si>
   <si>
-    <t xml:space="preserve">Monoamine GPCRs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serotonin receptors isPartOf Monoamine GPCRs*
+    <t>Monoamine GPCRs</t>
+  </si>
+  <si>
+    <t>Serotonin receptors isPartOf Monoamine GPCRs*
 GPCR ligand binding isPartOf Monoamine GPCRs*
 Monoamine GPCRs* isPartOf Class A/1 (Rhodopsin-like receptors)
 Dopamine receptors isPartOf Monoamine GPCRs*
 G alpha (i) signalling events isPartOf Monoamine GPCRs</t>
   </si>
   <si>
-    <t xml:space="preserve">Monoamine Transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monoamine Transport* isPartOf Neurotransmitter clearance
+    <t>Monoamine Transport</t>
+  </si>
+  <si>
+    <t>Monoamine Transport* isPartOf Neurotransmitter clearance
 Monoamine Transport* isPartOf Serotonin clearance from the synaptic cleft
 Monoamine Transport* isPartOf Catecholamine biosynthesis</t>
   </si>
   <si>
-    <t xml:space="preserve">Myometrial Relaxation and Contraction Pathways</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAD Biosynthesis II (from tryptophan)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAD Biosynthesis II (from tryptophan)* isPartOf Metabolism of amino acids and derivatives
+    <t>Myometrial Relaxation and Contraction Pathways</t>
+  </si>
+  <si>
+    <t>NAD Biosynthesis II (from tryptophan)</t>
+  </si>
+  <si>
+    <t>NAD Biosynthesis II (from tryptophan)* isPartOf Metabolism of amino acids and derivatives
 NAD Biosynthesis II (from tryptophan)* isPartOf Histidine, lysine, phenylalanine, tyrosine, proline and tryptophan catabolism
 NAD Biosynthesis II (from tryptophan)* isPartOf Tryptophan catabolism
 NAD Biosynthesis II (from tryptophan)* isPartOf Nicotinate metabolism
@@ -1467,339 +1477,339 @@
 NAD Biosynthesis II (from tryptophan)* isPartOf Metabolism of water-soluble vitamins and cofactors</t>
   </si>
   <si>
-    <t xml:space="preserve">NAD metabolism, sirtuins and aging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAD+ biosynthetic pathways</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAD+ biosynthetic pathways* isPartOf Metabolism of vitamins and cofactors
+    <t>NAD metabolism, sirtuins and aging</t>
+  </si>
+  <si>
+    <t>NAD+ biosynthetic pathways</t>
+  </si>
+  <si>
+    <t>NAD+ biosynthetic pathways* isPartOf Metabolism of vitamins and cofactors
 NAD+ biosynthetic pathways* isPartOf Metabolism of water-soluble vitamins and cofactors
 NAD+ biosynthetic pathways* isPartOf Metabolism
 NAD+ biosynthetic pathways* isPartOf Nicotinate metabolism</t>
   </si>
   <si>
-    <t xml:space="preserve">NAD+ metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAD+ metabolism* isPartOf Metabolism of vitamins and cofactors
+    <t>NAD+ metabolism</t>
+  </si>
+  <si>
+    <t>NAD+ metabolism* isPartOf Metabolism of vitamins and cofactors
 NAD+ metabolism* isPartOf Metabolism of water-soluble vitamins and cofactors
 NAD+ metabolism* isPartOf Metabolism
 NAD+ metabolism* isPartOf Nicotinate metabolism</t>
   </si>
   <si>
-    <t xml:space="preserve">NLR Proteins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLR Proteins* isPartOf Innate Immune System
+    <t>NLR Proteins</t>
+  </si>
+  <si>
+    <t>NLR Proteins* isPartOf Innate Immune System
 NLR Proteins* isPartOf Immune System</t>
   </si>
   <si>
-    <t xml:space="preserve">NO/cGMP/PKG mediated Neuroprotection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOTCH1 regulation of human endothelial cell calcification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRF2 pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nanomaterial induced apoptosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nanomaterial induced apoptosis* isPartOf Apoptosis
+    <t>NO/cGMP/PKG mediated Neuroprotection</t>
+  </si>
+  <si>
+    <t>NOTCH1 regulation of human endothelial cell calcification</t>
+  </si>
+  <si>
+    <t>NRF2 pathway</t>
+  </si>
+  <si>
+    <t>Nanomaterial induced apoptosis</t>
+  </si>
+  <si>
+    <t>Nanomaterial induced apoptosis* isPartOf Apoptosis
 Nanomaterial induced apoptosis* isPartOf Ligand-dependent caspase activation</t>
   </si>
   <si>
-    <t xml:space="preserve">Nanoparticle triggered autophagic cell death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nanoparticle triggered regulated necrosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nanoparticle triggered regulated necrosis* isPartOf Apoptosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nanoparticle-mediated activation of receptor signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neural Crest Differentiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neurotransmitter Disorders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defective SLC6A3 causes Parkinsonism-dystonia infantile (PKDYS) isPartOf Neurotransmitter Disorders*
+    <t>Nanoparticle triggered autophagic cell death</t>
+  </si>
+  <si>
+    <t>Nanoparticle triggered regulated necrosis</t>
+  </si>
+  <si>
+    <t>Nanoparticle triggered regulated necrosis* isPartOf Apoptosis</t>
+  </si>
+  <si>
+    <t>Nanoparticle-mediated activation of receptor signaling</t>
+  </si>
+  <si>
+    <t>Neural Crest Differentiation</t>
+  </si>
+  <si>
+    <t>Neurotransmitter Disorders</t>
+  </si>
+  <si>
+    <t>Defective SLC6A3 causes Parkinsonism-dystonia infantile (PKDYS) isPartOf Neurotransmitter Disorders*
 Defective MAOA causes Brunner syndrome (BRUNS) isPartOf Neurotransmitter Disorders*</t>
   </si>
   <si>
-    <t xml:space="preserve">Nicotine Activity on Chromaffin Cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicotine Activity on Dopaminergic Neurons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicotine Activity on Dopaminergic Neurons* isPartOf Neuronal System
+    <t>Nicotine Activity on Chromaffin Cells</t>
+  </si>
+  <si>
+    <t>Nicotine Activity on Dopaminergic Neurons</t>
+  </si>
+  <si>
+    <t>Nicotine Activity on Dopaminergic Neurons* isPartOf Neuronal System
 Nicotine Activity on Dopaminergic Neurons* isPartOf Dopamine receptors</t>
   </si>
   <si>
-    <t xml:space="preserve">Nicotine Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicotine Metabolism* isPartOf Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-homologous end joining</t>
+    <t>Nicotine Metabolism</t>
+  </si>
+  <si>
+    <t>Nicotine Metabolism* isPartOf Metabolism</t>
+  </si>
+  <si>
+    <t>Non-homologous end joining</t>
   </si>
   <si>
     <t xml:space="preserve">Non-homologous end joining equivalentTo Nonhomologous End-Joining (NHEJ) </t>
   </si>
   <si>
-    <t xml:space="preserve">Notch Signaling Pathway</t>
+    <t>Notch Signaling Pathway</t>
   </si>
   <si>
     <t xml:space="preserve">Notch Signaling Pathway equivalentTo Signaling by NOTCH </t>
   </si>
   <si>
-    <t xml:space="preserve">Nuclear Receptors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuclear Receptors* isPartOf Signaling by Nuclear Receptors
+    <t>Nuclear Receptors</t>
+  </si>
+  <si>
+    <t>Nuclear Receptors* isPartOf Signaling by Nuclear Receptors
 Nuclear Receptors* isPartOf Nuclear Receptor transcription pathway
 Nuclear Receptor transcription pathway isPartOf Nuclear Receptors*</t>
   </si>
   <si>
-    <t xml:space="preserve">Nuclear Receptors in Lipid Metabolism and Toxicity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuclear Receptors in Lipid Metabolism and Toxicity* isPartOf Metabolism
+    <t>Nuclear Receptors in Lipid Metabolism and Toxicity</t>
+  </si>
+  <si>
+    <t>Nuclear Receptors in Lipid Metabolism and Toxicity* isPartOf Metabolism
 Nuclear Receptors in Lipid Metabolism and Toxicity* isPartOf Metabolism of lipids</t>
   </si>
   <si>
-    <t xml:space="preserve">Nucleotide GPCRs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nucleotide Metabolism</t>
+    <t>Nucleotide GPCRs</t>
+  </si>
+  <si>
+    <t>Nucleotide Metabolism</t>
   </si>
   <si>
     <t xml:space="preserve">Nucleotide Metabolism equivalentTo Metabolism of nucleotides </t>
   </si>
   <si>
-    <t xml:space="preserve">Nucleotide-binding Oligomerization Domain (NOD) pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oncostatin M Signaling Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One Carbon Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One Carbon Metabolism* isPartOf Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One carbon donor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One carbon donor* isPartOf Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One carbon metabolism and related pathways</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One carbon metabolism and related pathways* isPartOf Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osteoblast Signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osteoclast Signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osteopontin Signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ovarian Infertility Genes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overview of nanoparticle effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxidation by Cytochrome P450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CYP2E1 reactions isPartOf Oxidation by Cytochrome P450*
+    <t>Nucleotide-binding Oligomerization Domain (NOD) pathway</t>
+  </si>
+  <si>
+    <t>Oncostatin M Signaling Pathway</t>
+  </si>
+  <si>
+    <t>One Carbon Metabolism</t>
+  </si>
+  <si>
+    <t>One Carbon Metabolism* isPartOf Metabolism</t>
+  </si>
+  <si>
+    <t>One carbon donor</t>
+  </si>
+  <si>
+    <t>One carbon donor* isPartOf Metabolism</t>
+  </si>
+  <si>
+    <t>One carbon metabolism and related pathways</t>
+  </si>
+  <si>
+    <t>One carbon metabolism and related pathways* isPartOf Metabolism</t>
+  </si>
+  <si>
+    <t>Osteoblast Signaling</t>
+  </si>
+  <si>
+    <t>Osteoclast Signaling</t>
+  </si>
+  <si>
+    <t>Osteopontin Signaling</t>
+  </si>
+  <si>
+    <t>Ovarian Infertility Genes</t>
+  </si>
+  <si>
+    <t>Overview of nanoparticle effects</t>
+  </si>
+  <si>
+    <t>Oxidation by Cytochrome P450</t>
+  </si>
+  <si>
+    <t>CYP2E1 reactions isPartOf Oxidation by Cytochrome P450*
 Cytochrome P450 - arranged by substrate type isPartOf Oxidation by Cytochrome P450*</t>
   </si>
   <si>
-    <t xml:space="preserve">Oxidative Damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apoptotic factor-mediated response isPartOf Oxidative Damage*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxidative Stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxidative Stress* isPartOf Cellular responses to stress
+    <t>Oxidative Damage</t>
+  </si>
+  <si>
+    <t>Apoptotic factor-mediated response isPartOf Oxidative Damage*</t>
+  </si>
+  <si>
+    <t>Oxidative Stress</t>
+  </si>
+  <si>
+    <t>Oxidative Stress* isPartOf Cellular responses to stress
 Oxidative Stress* isPartOf Cellular responses to external stimuli
 Oxidative Stress Induced Senescence isPartOf Oxidative Stress*</t>
   </si>
   <si>
-    <t xml:space="preserve">Oxidative phosphorylation</t>
+    <t>Oxidative phosphorylation</t>
   </si>
   <si>
     <t xml:space="preserve">Oxidative phosphorylation equivalentTo Formation of ATP by chemiosmotic coupling </t>
   </si>
   <si>
-    <t xml:space="preserve">Oxytocin signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDGF Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDGF Pathway* isPartOf Immune System
+    <t>Oxytocin signaling</t>
+  </si>
+  <si>
+    <t>PDGF Pathway</t>
+  </si>
+  <si>
+    <t>PDGF Pathway* isPartOf Immune System
 PDGF Pathway* isPartOf Platelet activation, signaling and aggregation</t>
   </si>
   <si>
-    <t xml:space="preserve">PDGFR-beta pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI3K-AKT-mTOR signaling pathway and therapeutic opportunities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIP3 activates AKT signaling isPartOf PI3K-AKT-mTOR signaling pathway and therapeutic opportunities*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI3K-Akt Signaling Pathway</t>
+    <t>PDGFR-beta pathway</t>
+  </si>
+  <si>
+    <t>PI3K-AKT-mTOR signaling pathway and therapeutic opportunities</t>
+  </si>
+  <si>
+    <t>PIP3 activates AKT signaling isPartOf PI3K-AKT-mTOR signaling pathway and therapeutic opportunities*</t>
+  </si>
+  <si>
+    <t>PI3K-Akt Signaling Pathway</t>
   </si>
   <si>
     <t xml:space="preserve">PI3K-Akt Signaling Pathway equivalentTo PI3K/AKT activation </t>
   </si>
   <si>
-    <t xml:space="preserve">PI3K/AKT/mTOR - VitD3 Signalling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPAR Alpha Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPAR Alpha Pathway* isPartOf Metabolism of lipids
+    <t>PI3K/AKT/mTOR - VitD3 Signalling</t>
+  </si>
+  <si>
+    <t>PPAR Alpha Pathway</t>
+  </si>
+  <si>
+    <t>PPAR Alpha Pathway* isPartOf Metabolism of lipids
 PPAR Alpha Pathway* isPartOf PPARA activates gene expression
 PPAR Alpha Pathway* isPartOf Metabolism</t>
   </si>
   <si>
-    <t xml:space="preserve">PPAR signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPAR signaling pathway* isPartOf Metabolism
+    <t>PPAR signaling pathway</t>
+  </si>
+  <si>
+    <t>PPAR signaling pathway* isPartOf Metabolism
 PPAR signaling pathway* isPartOf Fatty acid metabolism</t>
   </si>
   <si>
-    <t xml:space="preserve">PTF1A related regulatory pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parkin-Ubiquitin Proteasomal System pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parkinsons Disease Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defective SLC6A3 causes Parkinsonism-dystonia infantile (PKDYS) isPartOf Parkinsons Disease Pathway*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pathogenic Escherichia coli infection</t>
+    <t>PTF1A related regulatory pathway</t>
+  </si>
+  <si>
+    <t>Parkin-Ubiquitin Proteasomal System pathway</t>
+  </si>
+  <si>
+    <t>Parkinsons Disease Pathway</t>
+  </si>
+  <si>
+    <t>Defective SLC6A3 causes Parkinsonism-dystonia infantile (PKDYS) isPartOf Parkinsons Disease Pathway*</t>
+  </si>
+  <si>
+    <t>Pathogenic Escherichia coli infection</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Pathways Affected in Adenoid Cystic Carcinoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pentose Phosphate Pathway</t>
+    <t>Pathways Affected in Adenoid Cystic Carcinoma</t>
+  </si>
+  <si>
+    <t>Pentose Phosphate Pathway</t>
   </si>
   <si>
     <t xml:space="preserve">Pentose Phosphate Pathway equivalentTo Pentose phosphate pathway (hexose monophosphate shunt) </t>
   </si>
   <si>
-    <t xml:space="preserve">Peptide GPCRs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peptide GPCRs* isPartOf Signaling by GPCR
+    <t>Peptide GPCRs</t>
+  </si>
+  <si>
+    <t>Peptide GPCRs* isPartOf Signaling by GPCR
 Peptide GPCRs* isPartOf GPCR downstream signalling
 Peptide GPCRs* isPartOf GPCR ligand binding</t>
   </si>
   <si>
-    <t xml:space="preserve">Peroxisomal beta-oxidation of tetracosanoyl-CoA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peroxisomal beta-oxidation of tetracosanoyl-CoA* isPartOf Fatty acid metabolism
+    <t>Peroxisomal beta-oxidation of tetracosanoyl-CoA</t>
+  </si>
+  <si>
+    <t>Peroxisomal beta-oxidation of tetracosanoyl-CoA* isPartOf Fatty acid metabolism
 Peroxisomal beta-oxidation of tetracosanoyl-CoA* isPartOf Beta-oxidation of very long chain fatty acids
 Peroxisomal beta-oxidation of tetracosanoyl-CoA* isPartOf Peroxisomal lipid metabolism
 Peroxisomal beta-oxidation of tetracosanoyl-CoA* isPartOf Metabolism
 Peroxisomal beta-oxidation of tetracosanoyl-CoA* isPartOf Metabolism of lipids</t>
   </si>
   <si>
-    <t xml:space="preserve">Phase I biotransformations, non P450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phase I biotransformations, non P450* isPartOf Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photodynamic therapy-induced AP-1 survival signaling.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photodynamic therapy-induced HIF-1 survival signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photodynamic therapy-induced NF-kB survival signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photodynamic therapy-induced NFE2L2 (NRF2) survival signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photodynamic therapy-induced unfolded protein response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physiological and Pathological Hypertrophy  of the Heart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polyol Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polyol Pathway* isPartOf Fructose metabolism
+    <t>Phase I biotransformations, non P450</t>
+  </si>
+  <si>
+    <t>Phase I biotransformations, non P450* isPartOf Metabolism</t>
+  </si>
+  <si>
+    <t>Photodynamic therapy-induced AP-1 survival signaling.</t>
+  </si>
+  <si>
+    <t>Photodynamic therapy-induced HIF-1 survival signaling</t>
+  </si>
+  <si>
+    <t>Photodynamic therapy-induced NF-kB survival signaling</t>
+  </si>
+  <si>
+    <t>Photodynamic therapy-induced NFE2L2 (NRF2) survival signaling</t>
+  </si>
+  <si>
+    <t>Photodynamic therapy-induced unfolded protein response</t>
+  </si>
+  <si>
+    <t>Physiological and Pathological Hypertrophy  of the Heart</t>
+  </si>
+  <si>
+    <t>Polyol Pathway</t>
+  </si>
+  <si>
+    <t>Polyol Pathway* isPartOf Fructose metabolism
 Polyol Pathway* isPartOf Metabolism
 Polyol Pathway* isPartOf Metabolism of carbohydrates</t>
   </si>
   <si>
-    <t xml:space="preserve">Prader-Willi and Angelman Syndrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pregnane X Receptor pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preimplantation Embryo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary Focal Segmental Glomerulosclerosis FSGS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prion disease pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prolactin Signaling Pathway</t>
+    <t>Prader-Willi and Angelman Syndrome</t>
+  </si>
+  <si>
+    <t>Pregnane X Receptor pathway</t>
+  </si>
+  <si>
+    <t>Preimplantation Embryo</t>
+  </si>
+  <si>
+    <t>Primary Focal Segmental Glomerulosclerosis FSGS</t>
+  </si>
+  <si>
+    <t>Prion disease pathway</t>
+  </si>
+  <si>
+    <t>Prolactin Signaling Pathway</t>
   </si>
   <si>
     <t xml:space="preserve">Prolactin Signaling Pathway equivalentTo Prolactin receptor signaling </t>
   </si>
   <si>
-    <t xml:space="preserve">Proprotein convertase subtilisin/kexin type 9 (PCSK9) mediated LDL receptor degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prostaglandin Synthesis and Regulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COX reactions isPartOf Prostaglandin Synthesis and Regulation*
+    <t>Proprotein convertase subtilisin/kexin type 9 (PCSK9) mediated LDL receptor degradation</t>
+  </si>
+  <si>
+    <t>Prostaglandin Synthesis and Regulation</t>
+  </si>
+  <si>
+    <t>COX reactions isPartOf Prostaglandin Synthesis and Regulation*
 Prostaglandin Synthesis and Regulation* isPartOf Metabolism of lipids
 Prostaglandin Synthesis and Regulation* isPartOf Synthesis of Prostaglandins (PG) and Thromboxanes (TX)
 Eicosanoid ligand-binding receptors isPartOf Prostaglandin Synthesis and Regulation*
@@ -1808,7 +1818,7 @@
 Prostaglandin Synthesis and Regulation* isPartOf Metabolism</t>
   </si>
   <si>
-    <t xml:space="preserve">Proteasome Degradation</t>
+    <t>Proteasome Degradation</t>
   </si>
   <si>
     <t xml:space="preserve">Proteasome Degradation* isPartOf Regulation of activated PAK-2p34 by proteasome mediated degradation
@@ -1816,96 +1826,96 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Pyrimidine metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pyrimidine biosynthesis isPartOf Pyrimidine metabolism*
+    <t>Pyrimidine metabolism</t>
+  </si>
+  <si>
+    <t>Pyrimidine biosynthesis isPartOf Pyrimidine metabolism*
 Pyrimidine catabolism isPartOf Pyrimidine metabolism*
 Pyrimidine metabolism* isPartOf Metabolism
 Pyrimidine salvage isPartOf Pyrimidine metabolism*</t>
   </si>
   <si>
-    <t xml:space="preserve">RANKL/RANK (Receptor activator of NFKB (ligand)) Signaling Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIG-I-like Receptor Signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIG-I-like Receptor Signaling* isPartOf Immune System
+    <t>RANKL/RANK (Receptor activator of NFKB (ligand)) Signaling Pathway</t>
+  </si>
+  <si>
+    <t>RIG-I-like Receptor Signaling</t>
+  </si>
+  <si>
+    <t>RIG-I-like Receptor Signaling* isPartOf Immune System
 RIG-I-like Receptor Signaling* isPartOf Innate Immune System</t>
   </si>
   <si>
-    <t xml:space="preserve">RNA interference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAC1/PAK1/p38/MMP2 Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p38MAPK events isPartOf RAC1/PAK1/p38/MMP2 Pathway*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RalA downstream regulated genes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulation of Actin Cytoskeleton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulation of Apoptosis by Parathyroid Hormone-related Protein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulation of Apoptosis by Parathyroid Hormone-related Protein* isPartOf Apoptosis
+    <t>RNA interference</t>
+  </si>
+  <si>
+    <t>RAC1/PAK1/p38/MMP2 Pathway</t>
+  </si>
+  <si>
+    <t>p38MAPK events isPartOf RAC1/PAK1/p38/MMP2 Pathway*</t>
+  </si>
+  <si>
+    <t>RalA downstream regulated genes</t>
+  </si>
+  <si>
+    <t>Regulation of Actin Cytoskeleton</t>
+  </si>
+  <si>
+    <t>Regulation of Apoptosis by Parathyroid Hormone-related Protein</t>
+  </si>
+  <si>
+    <t>Regulation of Apoptosis by Parathyroid Hormone-related Protein* isPartOf Apoptosis
 Regulation of Apoptosis by Parathyroid Hormone-related Protein* isPartOf Programmed Cell Death</t>
   </si>
   <si>
-    <t xml:space="preserve">Regulation of Microtubule Cytoskeleton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulation of Wnt/B-catenin Signaling by Small Molecule Compounds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulation of Wnt/B-catenin Signaling by Small Molecule Compounds* isPartOf Signaling by WNT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulation of toll-like receptor signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transfer of LPS from LBP carrier to CD14 isPartOf Regulation of toll-like receptor signaling pathway*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retinoblastoma (RB) in Cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robo4 and VEGF Signaling Pathways Crosstalk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEGF binds to VEGFR leading to receptor dimerization isPartOf Robo4 and VEGF Signaling Pathways Crosstalk*
+    <t>Regulation of Microtubule Cytoskeleton</t>
+  </si>
+  <si>
+    <t>Regulation of Wnt/B-catenin Signaling by Small Molecule Compounds</t>
+  </si>
+  <si>
+    <t>Regulation of Wnt/B-catenin Signaling by Small Molecule Compounds* isPartOf Signaling by WNT</t>
+  </si>
+  <si>
+    <t>Regulation of toll-like receptor signaling pathway</t>
+  </si>
+  <si>
+    <t>Transfer of LPS from LBP carrier to CD14 isPartOf Regulation of toll-like receptor signaling pathway*</t>
+  </si>
+  <si>
+    <t>Retinoblastoma (RB) in Cancer</t>
+  </si>
+  <si>
+    <t>Robo4 and VEGF Signaling Pathways Crosstalk</t>
+  </si>
+  <si>
+    <t>VEGF binds to VEGFR leading to receptor dimerization isPartOf Robo4 and VEGF Signaling Pathways Crosstalk*
 Signaling by VEGF isPartOf Robo4 and VEGF Signaling Pathways Crosstalk*
 VEGFA-VEGFR2 Pathway isPartOf Robo4 and VEGF Signaling Pathways Crosstalk*
 VEGF ligand-receptor interactions isPartOf Robo4 and VEGF Signaling Pathways Crosstalk*</t>
   </si>
   <si>
-    <t xml:space="preserve">Role of Osx and miRNAs in tooth development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCFA and skeletal muscle substrate metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SREBF and miR33 in cholesterol and lipid homeostasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulation of cholesterol biosynthesis by SREBP (SREBF) isPartOf SREBF and miR33 in cholesterol and lipid homeostasis*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRF and miRs in Smooth Muscle Differentiation and Proliferation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secretion of Hydrochloric Acid in Parietal Cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selenium Metabolism and Selenoproteins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism of ingested SeMet, Sec, MeSec into H2Se isPartOf Selenium Metabolism and Selenoproteins*
+    <t>Role of Osx and miRNAs in tooth development</t>
+  </si>
+  <si>
+    <t>SCFA and skeletal muscle substrate metabolism</t>
+  </si>
+  <si>
+    <t>SREBF and miR33 in cholesterol and lipid homeostasis</t>
+  </si>
+  <si>
+    <t>Regulation of cholesterol biosynthesis by SREBP (SREBF) isPartOf SREBF and miR33 in cholesterol and lipid homeostasis*</t>
+  </si>
+  <si>
+    <t>SRF and miRs in Smooth Muscle Differentiation and Proliferation</t>
+  </si>
+  <si>
+    <t>Secretion of Hydrochloric Acid in Parietal Cells</t>
+  </si>
+  <si>
+    <t>Selenium Metabolism and Selenoproteins</t>
+  </si>
+  <si>
+    <t>Metabolism of ingested SeMet, Sec, MeSec into H2Se isPartOf Selenium Metabolism and Selenoproteins*
 Selenium Metabolism and Selenoproteins* isPartOf Metabolism
 Selenoamino acid metabolism isPartOf Selenium Metabolism and Selenoproteins*
 Metabolism of proteins isPartOf Selenium Metabolism and Selenoproteins*
@@ -1913,99 +1923,99 @@
 Metabolism of ingested H2SeO4 and H2SeO3 into H2Se isPartOf Selenium Metabolism and Selenoproteins*</t>
   </si>
   <si>
-    <t xml:space="preserve">Selenium Micronutrient Network</t>
+    <t>Selenium Micronutrient Network</t>
   </si>
   <si>
     <t xml:space="preserve">Metabolism of ingested H2SeO4 and H2SeO3 into H2Se isPartOf Selenium Micronutrient Network*
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Senescence and Autophagy in Cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serotonin Receptor 2 and ELK-SRF/GATA4 signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serotonin Receptor 2 and STAT3 Signaling* isPartOf GPCR downstream signalling
+    <t>Senescence and Autophagy in Cancer</t>
+  </si>
+  <si>
+    <t>Serotonin Receptor 2 and ELK-SRF/GATA4 signaling</t>
+  </si>
+  <si>
+    <t>Serotonin Receptor 2 and STAT3 Signaling* isPartOf GPCR downstream signalling
 Serotonin Receptor 2 and STAT3 Signaling* isPartOf G alpha (q) signalling events
 Serotonin Receptor 2 and STAT3 Signaling* isPartOf Serotonin receptors
 Serotonin Receptor 2 and STAT3 Signaling* isPartOf Signaling by GPCR</t>
   </si>
   <si>
-    <t xml:space="preserve">Serotonin Receptor 2 and STAT3 Signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serotonin Receptor 4/6/7 and NR3C Signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serotonin Receptor 4/6/7 and NR3C Signaling* isPartOf Serotonin receptors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serotonin Transporter Activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serotonin Transporter Activity* isPartOf Serotonin clearance from the synaptic cleft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serotonin and anxiety</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serotonin and anxiety-related events</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signal Transduction of S1P Receptor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signal Transduction of S1P Receptor* isPartOf Signal Transduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signaling Pathways in Glioblastoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signaling of Hepatocyte Growth Factor Receptor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simplified Depiction of MYD88 Distinct Input-Output Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MyD88 dependent cascade initiated on endosome isPartOf Simplified Depiction of MYD88 Distinct Input-Output Pathway*
+    <t>Serotonin Receptor 2 and STAT3 Signaling</t>
+  </si>
+  <si>
+    <t>Serotonin Receptor 4/6/7 and NR3C Signaling</t>
+  </si>
+  <si>
+    <t>Serotonin Receptor 4/6/7 and NR3C Signaling* isPartOf Serotonin receptors</t>
+  </si>
+  <si>
+    <t>Serotonin Transporter Activity</t>
+  </si>
+  <si>
+    <t>Serotonin Transporter Activity* isPartOf Serotonin clearance from the synaptic cleft</t>
+  </si>
+  <si>
+    <t>Serotonin and anxiety</t>
+  </si>
+  <si>
+    <t>Serotonin and anxiety-related events</t>
+  </si>
+  <si>
+    <t>Signal Transduction of S1P Receptor</t>
+  </si>
+  <si>
+    <t>Signal Transduction of S1P Receptor* isPartOf Signal Transduction</t>
+  </si>
+  <si>
+    <t>Signaling Pathways in Glioblastoma</t>
+  </si>
+  <si>
+    <t>Signaling of Hepatocyte Growth Factor Receptor</t>
+  </si>
+  <si>
+    <t>Simplified Depiction of MYD88 Distinct Input-Output Pathway</t>
+  </si>
+  <si>
+    <t>MyD88 dependent cascade initiated on endosome isPartOf Simplified Depiction of MYD88 Distinct Input-Output Pathway*
 MyD88:Mal cascade initiated on plasma membrane isPartOf Simplified Depiction of MYD88 Distinct Input-Output Pathway*</t>
   </si>
   <si>
-    <t xml:space="preserve">Simplified Interaction Map Between LOXL4 and Oxidative Stress Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Small Ligand GPCRs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Small Ligand GPCRs* isPartOf Signal Transduction
+    <t>Simplified Interaction Map Between LOXL4 and Oxidative Stress Pathway</t>
+  </si>
+  <si>
+    <t>Small Ligand GPCRs</t>
+  </si>
+  <si>
+    <t>Small Ligand GPCRs* isPartOf Signal Transduction
 Small Ligand GPCRs* isPartOf Signaling by GPCR
 Small Ligand GPCRs* isPartOf GPCR downstream signalling
 Small Ligand GPCRs* isPartOf GPCR ligand binding</t>
   </si>
   <si>
-    <t xml:space="preserve">Somatroph axis (GH) and its relationship to dietary restriction and aging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sphingolipid Metabolism</t>
+    <t>Somatroph axis (GH) and its relationship to dietary restriction and aging</t>
+  </si>
+  <si>
+    <t>Sphingolipid Metabolism</t>
   </si>
   <si>
     <t xml:space="preserve">Sphingolipid Metabolism equivalentTo Sphingolipid metabolism </t>
   </si>
   <si>
-    <t xml:space="preserve">Spinal Cord Injury</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Splicing factor NOVA regulated synaptic proteins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statin Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steroid Biosynthesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steroid Biosynthesis* isPartOf Metabolism of steroids
+    <t>Spinal Cord Injury</t>
+  </si>
+  <si>
+    <t>Splicing factor NOVA regulated synaptic proteins</t>
+  </si>
+  <si>
+    <t>Statin Pathway</t>
+  </si>
+  <si>
+    <t>Steroid Biosynthesis</t>
+  </si>
+  <si>
+    <t>Steroid Biosynthesis* isPartOf Metabolism of steroids
 Steroid Biosynthesis* isPartOf Metabolism of steroid hormones
 Androgen biosynthesis isPartOf Steroid Biosynthesis*
 Estrogen biosynthesis isPartOf Steroid Biosynthesis*
@@ -2015,44 +2025,44 @@
 Steroid Biosynthesis* isPartOf Metabolism</t>
   </si>
   <si>
-    <t xml:space="preserve">Sterol Regulatory Element-Binding Proteins (SREBP) signalling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulation of cholesterol biosynthesis by SREBP (SREBF) isPartOf Sterol Regulatory Element-Binding Proteins (SREBP) signalling*
+    <t>Sterol Regulatory Element-Binding Proteins (SREBP) signalling</t>
+  </si>
+  <si>
+    <t>Regulation of cholesterol biosynthesis by SREBP (SREBF) isPartOf Sterol Regulatory Element-Binding Proteins (SREBP) signalling*
 Activation of gene expression by SREBF (SREBP) isPartOf Sterol Regulatory Element-Binding Proteins (SREBP) signalling*</t>
   </si>
   <si>
-    <t xml:space="preserve">Striated Muscle Contraction</t>
+    <t>Striated Muscle Contraction</t>
   </si>
   <si>
     <t xml:space="preserve">Striated Muscle Contraction equivalentTo Striated Muscle Contraction </t>
   </si>
   <si>
-    <t xml:space="preserve">Structural Pathway of Interleukin 1 (IL-1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structural Pathway of Interleukin 1 (IL-1)* isPartOf Immune System
+    <t>Structural Pathway of Interleukin 1 (IL-1)</t>
+  </si>
+  <si>
+    <t>Structural Pathway of Interleukin 1 (IL-1)* isPartOf Immune System
 Structural Pathway of Interleukin 1 (IL-1)* isPartOf Cytokine Signaling in Immune system
 Structural Pathway of Interleukin 1 (IL-1)* isPartOf Innate Immune System
 Structural Pathway of Interleukin 1 (IL-1)* isPartOf Signaling by Interleukins</t>
   </si>
   <si>
-    <t xml:space="preserve">Sudden Infant Death Syndrome (SIDS) Susceptibility Pathways</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sulfation Biotransformation Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sulfation Biotransformation Reaction* isPartOf Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sulindac Metabolic Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Synaptic Vesicle Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acetylcholine Neurotransmitter Release Cycle isPartOf Synaptic Vesicle Pathway*
+    <t>Sudden Infant Death Syndrome (SIDS) Susceptibility Pathways</t>
+  </si>
+  <si>
+    <t>Sulfation Biotransformation Reaction</t>
+  </si>
+  <si>
+    <t>Sulfation Biotransformation Reaction* isPartOf Metabolism</t>
+  </si>
+  <si>
+    <t>Sulindac Metabolic Pathway</t>
+  </si>
+  <si>
+    <t>Synaptic Vesicle Pathway</t>
+  </si>
+  <si>
+    <t>Acetylcholine Neurotransmitter Release Cycle isPartOf Synaptic Vesicle Pathway*
 GABA synthesis, release, reuptake and degradation isPartOf Synaptic Vesicle Pathway*
 Norepinephrine Neurotransmitter Release Cycle isPartOf Synaptic Vesicle Pathway*
 Serotonin Neurotransmitter Release Cycle isPartOf Synaptic Vesicle Pathway*
@@ -2060,178 +2070,178 @@
 Dopamine Neurotransmitter Release Cycle isPartOf Synaptic Vesicle Pathway*</t>
   </si>
   <si>
-    <t xml:space="preserve">Synthesis and Degradation of Ketone Bodies</t>
+    <t>Synthesis and Degradation of Ketone Bodies</t>
   </si>
   <si>
     <t xml:space="preserve">Synthesis and Degradation of Ketone Bodies equivalentTo Ketone body metabolism </t>
   </si>
   <si>
-    <t xml:space="preserve">T-Cell Receptor and Co-stimulatory Signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T-Cell Receptor and Co-stimulatory Signaling* isPartOf Adaptive Immune System
+    <t>T-Cell Receptor and Co-stimulatory Signaling</t>
+  </si>
+  <si>
+    <t>T-Cell Receptor and Co-stimulatory Signaling* isPartOf Adaptive Immune System
 T-Cell Receptor and Co-stimulatory Signaling* isPartOf Immune System</t>
   </si>
   <si>
-    <t xml:space="preserve">T-Cell antigen Receptor (TCR)  Signaling Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T-Cell antigen Receptor (TCR)  Signaling Pathway* isPartOf Immune System
+    <t>T-Cell antigen Receptor (TCR)  Signaling Pathway</t>
+  </si>
+  <si>
+    <t>T-Cell antigen Receptor (TCR)  Signaling Pathway* isPartOf Immune System
 T-Cell antigen Receptor (TCR)  Signaling Pathway* isPartOf Adaptive Immune System</t>
   </si>
   <si>
-    <t xml:space="preserve">T-Cell antigen Receptor (TCR) pathway during Staphylococcus aureus infection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCA Cycle</t>
+    <t>T-Cell antigen Receptor (TCR) pathway during Staphylococcus aureus infection</t>
+  </si>
+  <si>
+    <t>TCA Cycle</t>
   </si>
   <si>
     <t xml:space="preserve">TCA Cycle equivalentTo Citric acid cycle (TCA cycle) </t>
   </si>
   <si>
-    <t xml:space="preserve">TCA Cycle Nutrient Utilization and Invasiveness of Ovarian Cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCA Cycle and Deficiency of Pyruvate Dehydrogenase complex (PDHc)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TFs Regulate miRNAs related to cardiac hypertrophy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGF-B Signaling in Thyroid Cells for Epithelial-Mesenchymal Transition</t>
+    <t>TCA Cycle Nutrient Utilization and Invasiveness of Ovarian Cancer</t>
+  </si>
+  <si>
+    <t>TCA Cycle and Deficiency of Pyruvate Dehydrogenase complex (PDHc)</t>
+  </si>
+  <si>
+    <t>TFs Regulate miRNAs related to cardiac hypertrophy</t>
+  </si>
+  <si>
+    <t>TGF-B Signaling in Thyroid Cells for Epithelial-Mesenchymal Transition</t>
   </si>
   <si>
     <t xml:space="preserve">TGF-B Signaling in Thyroid Cells for Epithelial-Mesenchymal Transition equivalentTo TGF-beta receptor signaling in EMT (epithelial to mesenchymal transition) </t>
   </si>
   <si>
-    <t xml:space="preserve">TGF-beta Receptor Signaling</t>
+    <t>TGF-beta Receptor Signaling</t>
   </si>
   <si>
     <t xml:space="preserve">TGF-beta Receptor Signaling equivalentTo Signaling by TGF-beta family members </t>
   </si>
   <si>
-    <t xml:space="preserve">TGF-beta Signaling Pathway</t>
+    <t>TGF-beta Signaling Pathway</t>
   </si>
   <si>
     <t xml:space="preserve">TGF-beta Signaling Pathway equivalentTo Signaling by TGF-beta family members </t>
   </si>
   <si>
-    <t xml:space="preserve">TLR4 Signaling and Tolerance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toll Like Receptor 4 (TLR4) Cascade isPartOf TLR4 Signaling and Tolerance*
+    <t>TLR4 Signaling and Tolerance</t>
+  </si>
+  <si>
+    <t>Toll Like Receptor 4 (TLR4) Cascade isPartOf TLR4 Signaling and Tolerance*
 TLR4 Signaling and Tolerance* isPartOf Innate Immune System
 TLR4 Signaling and Tolerance* isPartOf Toll-Like Receptors Cascades</t>
   </si>
   <si>
-    <t xml:space="preserve">TNF alpha Signaling Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TNF related weak inducer of apoptosis (TWEAK) Signaling Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP53 Network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TYROBP Causal Network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tamoxifen metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tamoxifen metabolism* isPartOf Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TarBasePathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target Of Rapamycin (TOR) Signaling</t>
+    <t>TNF alpha Signaling Pathway</t>
+  </si>
+  <si>
+    <t>TNF related weak inducer of apoptosis (TWEAK) Signaling Pathway</t>
+  </si>
+  <si>
+    <t>TP53 Network</t>
+  </si>
+  <si>
+    <t>TYROBP Causal Network</t>
+  </si>
+  <si>
+    <t>Tamoxifen metabolism</t>
+  </si>
+  <si>
+    <t>Tamoxifen metabolism* isPartOf Metabolism</t>
+  </si>
+  <si>
+    <t>TarBasePathway</t>
+  </si>
+  <si>
+    <t>Target Of Rapamycin (TOR) Signaling</t>
   </si>
   <si>
     <t xml:space="preserve">Target Of Rapamycin (TOR) Signaling equivalentTo mTOR signalling </t>
   </si>
   <si>
-    <t xml:space="preserve">Tgif disruption of Shh signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The human immune response to tuberculosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thymic Stromal LymphoPoietin (TSLP) Signaling Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thyroxine (Thyroid Hormone) Production</t>
+    <t>Tgif disruption of Shh signaling</t>
+  </si>
+  <si>
+    <t>The human immune response to tuberculosis</t>
+  </si>
+  <si>
+    <t>Thymic Stromal LymphoPoietin (TSLP) Signaling Pathway</t>
+  </si>
+  <si>
+    <t>Thyroxine (Thyroid Hormone) Production</t>
   </si>
   <si>
     <t xml:space="preserve">Thyroxine (Thyroid Hormone) Production equivalentTo Thyroxine biosynthesis </t>
   </si>
   <si>
-    <t xml:space="preserve">Toll-like Receptor Signaling</t>
+    <t>Toll-like Receptor Signaling</t>
   </si>
   <si>
     <t xml:space="preserve">Toll-like Receptor Signaling equivalentTo Toll-Like Receptors Cascades </t>
   </si>
   <si>
-    <t xml:space="preserve">Toll-like Receptor Signaling Pathway</t>
+    <t>Toll-like Receptor Signaling Pathway</t>
   </si>
   <si>
     <t xml:space="preserve">Toll-like Receptor Signaling Pathway equivalentTo Toll-Like Receptors Cascades </t>
   </si>
   <si>
-    <t xml:space="preserve">Trans-sulfuration and one carbon metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trans-sulfuration and one carbon metabolism* isPartOf Integration of energy metabolism
+    <t>Trans-sulfuration and one carbon metabolism</t>
+  </si>
+  <si>
+    <t>Trans-sulfuration and one carbon metabolism* isPartOf Integration of energy metabolism
 Trans-sulfuration and one carbon metabolism* isPartOf Metabolism of amino acids and derivatives
 Cysteine formation from homocysteine isPartOf Trans-sulfuration and one carbon metabolism*
 Trans-sulfuration and one carbon metabolism* isPartOf Metabolism</t>
   </si>
   <si>
-    <t xml:space="preserve">Trans-sulfuration pathway</t>
+    <t>Trans-sulfuration pathway</t>
   </si>
   <si>
     <t xml:space="preserve">Trans-sulfuration pathway equivalentTo Cysteine formation from homocysteine </t>
   </si>
   <si>
-    <t xml:space="preserve">Trans-sulfuration pathway* isPartOf Sulfur amino acid metabolism
+    <t>Trans-sulfuration pathway* isPartOf Sulfur amino acid metabolism
 Trans-sulfuration pathway* isPartOf Metabolism
 Trans-sulfuration pathway* isPartOf Metabolism of amino acids and derivatives</t>
   </si>
   <si>
-    <t xml:space="preserve">Transcription factor regulation in adipogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transcriptional regulation of white adipocyte differentiation isPartOf Transcription factor regulation in adipogenesis*
+    <t>Transcription factor regulation in adipogenesis</t>
+  </si>
+  <si>
+    <t>Transcriptional regulation of white adipocyte differentiation isPartOf Transcription factor regulation in adipogenesis*
 Transcription factor regulation in adipogenesis* isPartOf Transcriptional regulation of white adipocyte differentiation</t>
   </si>
   <si>
-    <t xml:space="preserve">Transcriptional activation by NRF2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transcriptional cascade regulating adipogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transcriptional regulation of white adipocyte differentiation isPartOf Transcriptional cascade regulating adipogenesis*
+    <t>Transcriptional activation by NRF2</t>
+  </si>
+  <si>
+    <t>Transcriptional cascade regulating adipogenesis</t>
+  </si>
+  <si>
+    <t>Transcriptional regulation of white adipocyte differentiation isPartOf Transcriptional cascade regulating adipogenesis*
 Transcriptional cascade regulating adipogenesis* isPartOf Transcriptional regulation of white adipocyte differentiation</t>
   </si>
   <si>
-    <t xml:space="preserve">Translation Factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translation Factors* isPartOf Eukaryotic Translation Initiation
+    <t>Translation Factors</t>
+  </si>
+  <si>
+    <t>Translation Factors* isPartOf Eukaryotic Translation Initiation
 Translation Factors* isPartOf Translation</t>
   </si>
   <si>
-    <t xml:space="preserve">Triacylglyceride Synthesis</t>
+    <t>Triacylglyceride Synthesis</t>
   </si>
   <si>
     <t xml:space="preserve">Triacylglyceride Synthesis equivalentTo Triglyceride biosynthesis </t>
   </si>
   <si>
-    <t xml:space="preserve">Tryptophan catabolism leading to NAD+ production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tryptophan catabolism leading to NAD+ production* isPartOf Metabolism
+    <t>Tryptophan catabolism leading to NAD+ production</t>
+  </si>
+  <si>
+    <t>Tryptophan catabolism leading to NAD+ production* isPartOf Metabolism
 Tryptophan catabolism leading to NAD+ production* isPartOf Nicotinate metabolism
 Tryptophan catabolism leading to NAD+ production* isPartOf Metabolism of amino acids and derivatives
 Tryptophan catabolism leading to NAD+ production* isPartOf Tryptophan catabolism
@@ -2240,124 +2250,124 @@
 Tryptophan catabolism leading to NAD+ production* isPartOf Histidine, lysine, phenylalanine, tyrosine, proline and tryptophan catabolism</t>
   </si>
   <si>
-    <t xml:space="preserve">Tryptophan metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tryptophan catabolism isPartOf Tryptophan metabolism*
+    <t>Tryptophan metabolism</t>
+  </si>
+  <si>
+    <t>Tryptophan catabolism isPartOf Tryptophan metabolism*
 Tryptophan metabolism* isPartOf Metabolism</t>
   </si>
   <si>
-    <t xml:space="preserve">Tumor suppressor activity of SMARCB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MET in type 1 papillary renal cell carcinoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type II diabetes mellitus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type II interferon signaling (IFNG)</t>
+    <t>Tumor suppressor activity of SMARCB1</t>
+  </si>
+  <si>
+    <t>MET in type 1 papillary renal cell carcinoma</t>
+  </si>
+  <si>
+    <t>Type II diabetes mellitus</t>
+  </si>
+  <si>
+    <t>Type II interferon signaling (IFNG)</t>
   </si>
   <si>
     <t xml:space="preserve"> Type II interferon signaling (IFNG) equivalentTo Interferon gamma signaling</t>
   </si>
   <si>
-    <t xml:space="preserve">Type III interferon signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type III interferon signaling* isPartOf Signaling by Interleukins
+    <t>Type III interferon signaling</t>
+  </si>
+  <si>
+    <t>Type III interferon signaling* isPartOf Signaling by Interleukins
 Type III interferon signaling* isPartOf Other interleukin signaling
 Type III interferon signaling* isPartOf Cytokine Signaling in Immune system
 Type III interferon signaling* isPartOf Immune System
 Type III interferon signaling* isPartOf Interferon Signaling</t>
   </si>
   <si>
-    <t xml:space="preserve">Urea cycle and metabolism of amino groups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urea cycle and metabolism of amino groups* isPartOf Metabolism
+    <t>Urea cycle and metabolism of amino groups</t>
+  </si>
+  <si>
+    <t>Urea cycle and metabolism of amino groups* isPartOf Metabolism
 Urea cycle isPartOf Urea cycle and metabolism of amino groups*
 Urea cycle and metabolism of amino groups* isPartOf Metabolism of amino acids and derivatives</t>
   </si>
   <si>
-    <t xml:space="preserve">VEGFA-VEGFR2 Signaling Pathway</t>
+    <t>VEGFA-VEGFR2 Signaling Pathway</t>
   </si>
   <si>
     <t xml:space="preserve">VEGFA-VEGFR2 Signaling Pathway equivalentTo VEGFA-VEGFR2 Pathway </t>
   </si>
   <si>
-    <t xml:space="preserve">Valproic acid pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valproic acid pathway* isPartOf Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitamin A and Carotenoid Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RA biosynthesis pathway isPartOf Vitamin A and Carotenoid Metabolism*
+    <t>Valproic acid pathway</t>
+  </si>
+  <si>
+    <t>Valproic acid pathway* isPartOf Metabolism</t>
+  </si>
+  <si>
+    <t>Vitamin A and Carotenoid Metabolism</t>
+  </si>
+  <si>
+    <t>RA biosynthesis pathway isPartOf Vitamin A and Carotenoid Metabolism*
 Vitamin A and Carotenoid Metabolism* isPartOf Metabolism
 Vitamin A and Carotenoid Metabolism* isPartOf Metabolism of vitamins and cofactors</t>
   </si>
   <si>
-    <t xml:space="preserve">Vitamin B12 Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitamin B12 Metabolism* isPartOf Cobalamin (Cbl, vitamin B12) transport and metabolism
+    <t>Vitamin B12 Metabolism</t>
+  </si>
+  <si>
+    <t>Vitamin B12 Metabolism* isPartOf Cobalamin (Cbl, vitamin B12) transport and metabolism
 Vitamin B12 Metabolism* isPartOf Metabolism
 Defects in cobalamin (B12) metabolism isPartOf Vitamin B12 Metabolism*
 Vitamin B12 Metabolism* isPartOf Metabolism of vitamins and cofactors</t>
   </si>
   <si>
-    <t xml:space="preserve">Vitamin D Metabolism</t>
+    <t>Vitamin D Metabolism</t>
   </si>
   <si>
     <t xml:space="preserve">Vitamin D Metabolism equivalentTo Vitamin D (calciferol) metabolism </t>
   </si>
   <si>
-    <t xml:space="preserve">Vitamin D Receptor Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White fat cell differentiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transcriptional regulation of white adipocyte differentiation isPartOf White fat cell differentiation*
+    <t>Vitamin D Receptor Pathway</t>
+  </si>
+  <si>
+    <t>White fat cell differentiation</t>
+  </si>
+  <si>
+    <t>Transcriptional regulation of white adipocyte differentiation isPartOf White fat cell differentiation*
 White fat cell differentiation* isPartOf Developmental Biology</t>
   </si>
   <si>
-    <t xml:space="preserve">Wnt Signaling Pathway</t>
+    <t>Wnt Signaling Pathway</t>
   </si>
   <si>
     <t xml:space="preserve">Wnt Signaling Pathway equivalentTo Signaling by WNT </t>
   </si>
   <si>
-    <t xml:space="preserve">Wnt Signaling Pathway and Pluripotency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signaling by WNT isPartOf Wnt Signaling Pathway and Pluripotency*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wnt Signaling in Kidney Disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wnt/beta-catenin Signaling Pathway in Leukemia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zinc homeostasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zinc efflux and compartmentalization by the SLC30 family isPartOf Zinc homeostasis*
+    <t>Wnt Signaling Pathway and Pluripotency</t>
+  </si>
+  <si>
+    <t>Signaling by WNT isPartOf Wnt Signaling Pathway and Pluripotency*</t>
+  </si>
+  <si>
+    <t>Wnt Signaling in Kidney Disease</t>
+  </si>
+  <si>
+    <t>Wnt/beta-catenin Signaling Pathway in Leukemia</t>
+  </si>
+  <si>
+    <t>Zinc homeostasis</t>
+  </si>
+  <si>
+    <t>Zinc efflux and compartmentalization by the SLC30 family isPartOf Zinc homeostasis*
 Zinc influx into cells by the SLC39 gene family isPartOf Zinc homeostasis*
 Zinc transporters isPartOf Zinc homeostasis*</t>
   </si>
   <si>
-    <t xml:space="preserve">eIF5A regulation in response to inhibition of the nuclear export system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mRNA Processing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mRNA Processing* isPartOf mRNA Splicing
+    <t>eIF5A regulation in response to inhibition of the nuclear export system</t>
+  </si>
+  <si>
+    <t>mRNA Processing</t>
+  </si>
+  <si>
+    <t>mRNA Processing* isPartOf mRNA Splicing
 Metabolism of non-coding RNA isPartOf mRNA Processing*
 mRNA Splicing isPartOf mRNA Processing*
 Processing of Capped Intronless Pre-mRNA isPartOf mRNA Processing*
@@ -2369,49 +2379,49 @@
 Processing of Intronless Pre-mRNAs isPartOf mRNA Processing*</t>
   </si>
   <si>
-    <t xml:space="preserve">miR-148a/miR-31/FIH1/HIF1α-Notch signaling in glioblastoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miR-222 in Exercise-Induced Cardiac Growth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miR-509-3p alteration of YAP1/ECM axis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miR-517 relationship with ARCN1 and USP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miRNA Biogenesis</t>
+    <t>miR-148a/miR-31/FIH1/HIF1α-Notch signaling in glioblastoma</t>
+  </si>
+  <si>
+    <t>miR-222 in Exercise-Induced Cardiac Growth</t>
+  </si>
+  <si>
+    <t>miR-509-3p alteration of YAP1/ECM axis</t>
+  </si>
+  <si>
+    <t>miR-517 relationship with ARCN1 and USP1</t>
+  </si>
+  <si>
+    <t>miRNA Biogenesis</t>
   </si>
   <si>
     <t xml:space="preserve">miRNA Biogenesis equivalentTo MicroRNA (miRNA) biogenesis </t>
   </si>
   <si>
-    <t xml:space="preserve">miRNA Regulation of DNA Damage Response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miRNA regulation of p53 pathway in prostate cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miRNA regulation of prostate cancer signaling pathways</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miRNA targets in ECM and membrane receptors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miRNAs involved in DNA damage response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miRs in Muscle Cell Differentiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mir-124 predicted interactions with cell cycle and differentiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mir34a and TGIF2 in osteoclastogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p38 MAPK Signaling Pathway</t>
+    <t>miRNA Regulation of DNA Damage Response</t>
+  </si>
+  <si>
+    <t>miRNA regulation of p53 pathway in prostate cancer</t>
+  </si>
+  <si>
+    <t>miRNA regulation of prostate cancer signaling pathways</t>
+  </si>
+  <si>
+    <t>miRNA targets in ECM and membrane receptors</t>
+  </si>
+  <si>
+    <t>miRNAs involved in DNA damage response</t>
+  </si>
+  <si>
+    <t>miRs in Muscle Cell Differentiation</t>
+  </si>
+  <si>
+    <t>mir-124 predicted interactions with cell cycle and differentiation</t>
+  </si>
+  <si>
+    <t>mir34a and TGIF2 in osteoclastogenesis</t>
+  </si>
+  <si>
+    <t>p38 MAPK Signaling Pathway</t>
   </si>
   <si>
     <t xml:space="preserve">p38 MAPK Signaling Pathway equivalentTo p38MAPK events </t>
@@ -2420,51 +2430,29 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -2483,7 +2471,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2491,97 +2479,319 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y421"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A307" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B312" activeCellId="0" sqref="B312"/>
+    <sheetView tabSelected="1" topLeftCell="A307" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="82" workbookViewId="0">
+      <selection activeCell="B312" sqref="B312"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="69.9234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="55.2091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="49.2704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="61.015306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="13.3622448979592"/>
+    <col min="1" max="25" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2614,7 +2824,7 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -2643,7 +2853,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -2672,7 +2882,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -2701,7 +2911,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -2732,7 +2942,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -2761,7 +2971,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -2790,7 +3000,7 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -2821,7 +3031,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -2852,7 +3062,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -2881,7 +3091,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -2912,7 +3122,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -2943,7 +3153,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
@@ -2974,7 +3184,7 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
@@ -3005,7 +3215,7 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
@@ -3034,7 +3244,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
@@ -3067,7 +3277,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
@@ -3098,7 +3308,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -3129,7 +3339,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -3158,7 +3368,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
@@ -3187,7 +3397,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -3216,7 +3426,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -3245,7 +3455,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
@@ -3274,7 +3484,7 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
@@ -3305,7 +3515,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>38</v>
       </c>
@@ -3336,7 +3546,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>40</v>
       </c>
@@ -3367,7 +3577,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>42</v>
       </c>
@@ -3396,7 +3606,7 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>43</v>
       </c>
@@ -3427,7 +3637,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -3456,7 +3666,7 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>46</v>
       </c>
@@ -3487,7 +3697,7 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>48</v>
       </c>
@@ -3518,7 +3728,7 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>50</v>
       </c>
@@ -3549,7 +3759,7 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>52</v>
       </c>
@@ -3578,7 +3788,7 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>53</v>
       </c>
@@ -3611,7 +3821,7 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>56</v>
       </c>
@@ -3642,7 +3852,7 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>58</v>
       </c>
@@ -3671,7 +3881,7 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>59</v>
       </c>
@@ -3700,7 +3910,7 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>60</v>
       </c>
@@ -3731,7 +3941,7 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>62</v>
       </c>
@@ -3762,7 +3972,7 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>64</v>
       </c>
@@ -3793,7 +4003,7 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>66</v>
       </c>
@@ -3824,7 +4034,7 @@
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>68</v>
       </c>
@@ -3853,7 +4063,7 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>69</v>
       </c>
@@ -3884,7 +4094,7 @@
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>71</v>
       </c>
@@ -3915,7 +4125,7 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
     </row>
-    <row r="45" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>73</v>
       </c>
@@ -3944,7 +4154,7 @@
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
     </row>
-    <row r="46" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>74</v>
       </c>
@@ -3975,7 +4185,7 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
     </row>
-    <row r="47" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>76</v>
       </c>
@@ -4006,7 +4216,7 @@
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
     </row>
-    <row r="48" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:25" ht="299" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>78</v>
       </c>
@@ -4037,7 +4247,7 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
     </row>
-    <row r="49" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>80</v>
       </c>
@@ -4066,7 +4276,7 @@
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
     </row>
-    <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>81</v>
       </c>
@@ -4097,7 +4307,7 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
     </row>
-    <row r="51" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>83</v>
       </c>
@@ -4130,7 +4340,7 @@
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
     </row>
-    <row r="52" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>86</v>
       </c>
@@ -4163,7 +4373,7 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
     </row>
-    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>89</v>
       </c>
@@ -4192,7 +4402,7 @@
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
     </row>
-    <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>90</v>
       </c>
@@ -4221,7 +4431,7 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
     </row>
-    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>91</v>
       </c>
@@ -4250,7 +4460,7 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
     </row>
-    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
         <v>92</v>
       </c>
@@ -4281,7 +4491,7 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
     </row>
-    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>94</v>
       </c>
@@ -4310,7 +4520,7 @@
       <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
     </row>
-    <row r="58" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
         <v>95</v>
       </c>
@@ -4339,7 +4549,7 @@
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
     </row>
-    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
         <v>96</v>
       </c>
@@ -4368,7 +4578,7 @@
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
     </row>
-    <row r="60" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
         <v>97</v>
       </c>
@@ -4399,7 +4609,7 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
     </row>
-    <row r="61" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
         <v>99</v>
       </c>
@@ -4432,7 +4642,7 @@
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
     </row>
-    <row r="62" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
         <v>102</v>
       </c>
@@ -4463,7 +4673,7 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
     </row>
-    <row r="63" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
         <v>104</v>
       </c>
@@ -4492,7 +4702,7 @@
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
     </row>
-    <row r="64" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
         <v>105</v>
       </c>
@@ -4523,7 +4733,7 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
     </row>
-    <row r="65" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
         <v>107</v>
       </c>
@@ -4554,7 +4764,7 @@
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
     </row>
-    <row r="66" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
         <v>109</v>
       </c>
@@ -4585,7 +4795,7 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
     </row>
-    <row r="67" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
         <v>111</v>
       </c>
@@ -4614,7 +4824,7 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
     </row>
-    <row r="68" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
         <v>112</v>
       </c>
@@ -4647,7 +4857,7 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
     </row>
-    <row r="69" customFormat="false" ht="338" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
         <v>115</v>
       </c>
@@ -4678,7 +4888,7 @@
       <c r="X69" s="3"/>
       <c r="Y69" s="3"/>
     </row>
-    <row r="70" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
         <v>117</v>
       </c>
@@ -4709,7 +4919,7 @@
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
     </row>
-    <row r="71" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
         <v>119</v>
       </c>
@@ -4738,7 +4948,7 @@
       <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
     </row>
-    <row r="72" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
         <v>120</v>
       </c>
@@ -4769,7 +4979,7 @@
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
     </row>
-    <row r="73" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:25" ht="234" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
         <v>122</v>
       </c>
@@ -4800,7 +5010,7 @@
       <c r="X73" s="3"/>
       <c r="Y73" s="3"/>
     </row>
-    <row r="74" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
         <v>124</v>
       </c>
@@ -4831,7 +5041,7 @@
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
     </row>
-    <row r="75" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
         <v>126</v>
       </c>
@@ -4864,7 +5074,7 @@
       <c r="X75" s="3"/>
       <c r="Y75" s="3"/>
     </row>
-    <row r="76" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
         <v>129</v>
       </c>
@@ -4893,7 +5103,7 @@
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
     </row>
-    <row r="77" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:25" ht="169" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
         <v>130</v>
       </c>
@@ -4924,7 +5134,7 @@
       <c r="X77" s="3"/>
       <c r="Y77" s="3"/>
     </row>
-    <row r="78" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
         <v>132</v>
       </c>
@@ -4953,7 +5163,7 @@
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
     </row>
-    <row r="79" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
         <v>133</v>
       </c>
@@ -4984,7 +5194,7 @@
       <c r="X79" s="3"/>
       <c r="Y79" s="3"/>
     </row>
-    <row r="80" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
         <v>135</v>
       </c>
@@ -5015,7 +5225,7 @@
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
     </row>
-    <row r="81" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:25" ht="351" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
         <v>137</v>
       </c>
@@ -5046,7 +5256,7 @@
       <c r="X81" s="3"/>
       <c r="Y81" s="3"/>
     </row>
-    <row r="82" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:25" ht="273" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
         <v>139</v>
       </c>
@@ -5077,7 +5287,7 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
     </row>
-    <row r="83" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
         <v>141</v>
       </c>
@@ -5108,7 +5318,7 @@
       <c r="X83" s="3"/>
       <c r="Y83" s="3"/>
     </row>
-    <row r="84" customFormat="false" ht="104" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
         <v>143</v>
       </c>
@@ -5139,7 +5349,7 @@
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
     </row>
-    <row r="85" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
         <v>145</v>
       </c>
@@ -5168,7 +5378,7 @@
       <c r="X85" s="3"/>
       <c r="Y85" s="3"/>
     </row>
-    <row r="86" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
         <v>146</v>
       </c>
@@ -5197,7 +5407,7 @@
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
     </row>
-    <row r="87" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
         <v>147</v>
       </c>
@@ -5228,7 +5438,7 @@
       <c r="X87" s="3"/>
       <c r="Y87" s="3"/>
     </row>
-    <row r="88" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:25" ht="208" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
         <v>149</v>
       </c>
@@ -5259,7 +5469,7 @@
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
     </row>
-    <row r="89" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
         <v>151</v>
       </c>
@@ -5288,7 +5498,7 @@
       <c r="X89" s="3"/>
       <c r="Y89" s="3"/>
     </row>
-    <row r="90" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:25" ht="286" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
         <v>152</v>
       </c>
@@ -5319,7 +5529,7 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
     </row>
-    <row r="91" customFormat="false" ht="143" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
         <v>154</v>
       </c>
@@ -5350,7 +5560,7 @@
       <c r="X91" s="3"/>
       <c r="Y91" s="3"/>
     </row>
-    <row r="92" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
         <v>156</v>
       </c>
@@ -5379,7 +5589,7 @@
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
     </row>
-    <row r="93" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
         <v>157</v>
       </c>
@@ -5408,7 +5618,7 @@
       <c r="X93" s="3"/>
       <c r="Y93" s="3"/>
     </row>
-    <row r="94" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
         <v>158</v>
       </c>
@@ -5439,7 +5649,7 @@
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
     </row>
-    <row r="95" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
         <v>160</v>
       </c>
@@ -5468,7 +5678,7 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
     </row>
-    <row r="96" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
         <v>161</v>
       </c>
@@ -5497,7 +5707,7 @@
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
     </row>
-    <row r="97" customFormat="false" ht="221" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
         <v>162</v>
       </c>
@@ -5528,7 +5738,7 @@
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
     </row>
-    <row r="98" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
         <v>164</v>
       </c>
@@ -5557,7 +5767,7 @@
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
     </row>
-    <row r="99" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
         <v>165</v>
       </c>
@@ -5586,7 +5796,7 @@
       <c r="X99" s="3"/>
       <c r="Y99" s="3"/>
     </row>
-    <row r="100" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
         <v>166</v>
       </c>
@@ -5615,7 +5825,7 @@
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
     </row>
-    <row r="101" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
         <v>167</v>
       </c>
@@ -5644,7 +5854,7 @@
       <c r="X101" s="3"/>
       <c r="Y101" s="3"/>
     </row>
-    <row r="102" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
         <v>168</v>
       </c>
@@ -5673,7 +5883,7 @@
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
     </row>
-    <row r="103" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
         <v>169</v>
       </c>
@@ -5704,7 +5914,7 @@
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
     </row>
-    <row r="104" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
         <v>171</v>
       </c>
@@ -5735,7 +5945,7 @@
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
     </row>
-    <row r="105" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
         <v>173</v>
       </c>
@@ -5766,7 +5976,7 @@
       <c r="X105" s="3"/>
       <c r="Y105" s="3"/>
     </row>
-    <row r="106" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
         <v>175</v>
       </c>
@@ -5797,7 +6007,7 @@
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
     </row>
-    <row r="107" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
         <v>177</v>
       </c>
@@ -5826,7 +6036,7 @@
       <c r="X107" s="3"/>
       <c r="Y107" s="3"/>
     </row>
-    <row r="108" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
         <v>178</v>
       </c>
@@ -5855,7 +6065,7 @@
       <c r="X108" s="3"/>
       <c r="Y108" s="3"/>
     </row>
-    <row r="109" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
         <v>179</v>
       </c>
@@ -5884,7 +6094,7 @@
       <c r="X109" s="3"/>
       <c r="Y109" s="3"/>
     </row>
-    <row r="110" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
         <v>180</v>
       </c>
@@ -5915,7 +6125,7 @@
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
     </row>
-    <row r="111" customFormat="false" ht="325" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
         <v>182</v>
       </c>
@@ -5946,7 +6156,7 @@
       <c r="X111" s="3"/>
       <c r="Y111" s="3"/>
     </row>
-    <row r="112" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
         <v>184</v>
       </c>
@@ -5975,7 +6185,7 @@
       <c r="X112" s="3"/>
       <c r="Y112" s="3"/>
     </row>
-    <row r="113" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
         <v>185</v>
       </c>
@@ -6006,7 +6216,7 @@
       <c r="X113" s="3"/>
       <c r="Y113" s="3"/>
     </row>
-    <row r="114" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
         <v>187</v>
       </c>
@@ -6035,7 +6245,7 @@
       <c r="X114" s="3"/>
       <c r="Y114" s="3"/>
     </row>
-    <row r="115" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
         <v>188</v>
       </c>
@@ -6064,7 +6274,7 @@
       <c r="X115" s="3"/>
       <c r="Y115" s="3"/>
     </row>
-    <row r="116" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
         <v>189</v>
       </c>
@@ -6093,7 +6303,7 @@
       <c r="X116" s="3"/>
       <c r="Y116" s="3"/>
     </row>
-    <row r="117" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
         <v>190</v>
       </c>
@@ -6122,7 +6332,7 @@
       <c r="X117" s="3"/>
       <c r="Y117" s="3"/>
     </row>
-    <row r="118" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
         <v>191</v>
       </c>
@@ -6151,7 +6361,7 @@
       <c r="X118" s="3"/>
       <c r="Y118" s="3"/>
     </row>
-    <row r="119" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
         <v>192</v>
       </c>
@@ -6180,7 +6390,7 @@
       <c r="X119" s="3"/>
       <c r="Y119" s="3"/>
     </row>
-    <row r="120" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
         <v>193</v>
       </c>
@@ -6209,7 +6419,7 @@
       <c r="X120" s="3"/>
       <c r="Y120" s="3"/>
     </row>
-    <row r="121" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
         <v>194</v>
       </c>
@@ -6238,7 +6448,7 @@
       <c r="X121" s="3"/>
       <c r="Y121" s="3"/>
     </row>
-    <row r="122" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
         <v>195</v>
       </c>
@@ -6267,7 +6477,7 @@
       <c r="X122" s="3"/>
       <c r="Y122" s="3"/>
     </row>
-    <row r="123" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
         <v>196</v>
       </c>
@@ -6298,7 +6508,7 @@
       <c r="X123" s="3"/>
       <c r="Y123" s="3"/>
     </row>
-    <row r="124" customFormat="false" ht="299" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
         <v>198</v>
       </c>
@@ -6331,7 +6541,7 @@
       <c r="X124" s="3"/>
       <c r="Y124" s="3"/>
     </row>
-    <row r="125" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:25" ht="351" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
         <v>201</v>
       </c>
@@ -6362,7 +6572,7 @@
       <c r="X125" s="3"/>
       <c r="Y125" s="3"/>
     </row>
-    <row r="126" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
         <v>203</v>
       </c>
@@ -6393,7 +6603,7 @@
       <c r="X126" s="3"/>
       <c r="Y126" s="3"/>
     </row>
-    <row r="127" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
         <v>205</v>
       </c>
@@ -6424,7 +6634,7 @@
       <c r="X127" s="3"/>
       <c r="Y127" s="3"/>
     </row>
-    <row r="128" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:25" ht="273" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
         <v>207</v>
       </c>
@@ -6455,7 +6665,7 @@
       <c r="X128" s="3"/>
       <c r="Y128" s="3"/>
     </row>
-    <row r="129" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:25" ht="273" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
         <v>209</v>
       </c>
@@ -6486,7 +6696,7 @@
       <c r="X129" s="3"/>
       <c r="Y129" s="3"/>
     </row>
-    <row r="130" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
         <v>211</v>
       </c>
@@ -6517,7 +6727,7 @@
       <c r="X130" s="3"/>
       <c r="Y130" s="3"/>
     </row>
-    <row r="131" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
         <v>213</v>
       </c>
@@ -6546,7 +6756,7 @@
       <c r="X131" s="3"/>
       <c r="Y131" s="3"/>
     </row>
-    <row r="132" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
         <v>214</v>
       </c>
@@ -6577,7 +6787,7 @@
       <c r="X132" s="3"/>
       <c r="Y132" s="3"/>
     </row>
-    <row r="133" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
         <v>216</v>
       </c>
@@ -6606,7 +6816,7 @@
       <c r="X133" s="3"/>
       <c r="Y133" s="3"/>
     </row>
-    <row r="134" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
         <v>217</v>
       </c>
@@ -6635,7 +6845,7 @@
       <c r="X134" s="3"/>
       <c r="Y134" s="3"/>
     </row>
-    <row r="135" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
         <v>218</v>
       </c>
@@ -6664,7 +6874,7 @@
       <c r="X135" s="3"/>
       <c r="Y135" s="3"/>
     </row>
-    <row r="136" customFormat="false" ht="104" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
         <v>219</v>
       </c>
@@ -6695,7 +6905,7 @@
       <c r="X136" s="3"/>
       <c r="Y136" s="3"/>
     </row>
-    <row r="137" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
         <v>221</v>
       </c>
@@ -6726,7 +6936,7 @@
       <c r="X137" s="3"/>
       <c r="Y137" s="3"/>
     </row>
-    <row r="138" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:25" ht="169" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
         <v>223</v>
       </c>
@@ -6759,7 +6969,7 @@
       <c r="X138" s="3"/>
       <c r="Y138" s="3"/>
     </row>
-    <row r="139" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
         <v>226</v>
       </c>
@@ -6790,7 +7000,7 @@
       <c r="X139" s="3"/>
       <c r="Y139" s="3"/>
     </row>
-    <row r="140" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
         <v>228</v>
       </c>
@@ -6821,7 +7031,7 @@
       <c r="X140" s="3"/>
       <c r="Y140" s="3"/>
     </row>
-    <row r="141" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:25" ht="208" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
         <v>230</v>
       </c>
@@ -6852,7 +7062,7 @@
       <c r="X141" s="3"/>
       <c r="Y141" s="3"/>
     </row>
-    <row r="142" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:25" ht="234" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
         <v>232</v>
       </c>
@@ -6883,7 +7093,7 @@
       <c r="X142" s="3"/>
       <c r="Y142" s="3"/>
     </row>
-    <row r="143" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
         <v>234</v>
       </c>
@@ -6914,7 +7124,7 @@
       <c r="X143" s="3"/>
       <c r="Y143" s="3"/>
     </row>
-    <row r="144" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:25" ht="234" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
         <v>236</v>
       </c>
@@ -6945,7 +7155,7 @@
       <c r="X144" s="3"/>
       <c r="Y144" s="3"/>
     </row>
-    <row r="145" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
         <v>238</v>
       </c>
@@ -6974,7 +7184,7 @@
       <c r="X145" s="3"/>
       <c r="Y145" s="3"/>
     </row>
-    <row r="146" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
         <v>239</v>
       </c>
@@ -7003,7 +7213,7 @@
       <c r="X146" s="3"/>
       <c r="Y146" s="3"/>
     </row>
-    <row r="147" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
         <v>240</v>
       </c>
@@ -7032,7 +7242,7 @@
       <c r="X147" s="3"/>
       <c r="Y147" s="3"/>
     </row>
-    <row r="148" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
         <v>241</v>
       </c>
@@ -7061,7 +7271,7 @@
       <c r="X148" s="3"/>
       <c r="Y148" s="3"/>
     </row>
-    <row r="149" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
         <v>242</v>
       </c>
@@ -7092,7 +7302,7 @@
       <c r="X149" s="3"/>
       <c r="Y149" s="3"/>
     </row>
-    <row r="150" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:25" ht="234" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
         <v>244</v>
       </c>
@@ -7123,7 +7333,7 @@
       <c r="X150" s="3"/>
       <c r="Y150" s="3"/>
     </row>
-    <row r="151" customFormat="false" ht="156" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
         <v>246</v>
       </c>
@@ -7154,7 +7364,7 @@
       <c r="X151" s="3"/>
       <c r="Y151" s="3"/>
     </row>
-    <row r="152" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:25" ht="299" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
         <v>248</v>
       </c>
@@ -7185,7 +7395,7 @@
       <c r="X152" s="3"/>
       <c r="Y152" s="3"/>
     </row>
-    <row r="153" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
         <v>250</v>
       </c>
@@ -7216,7 +7426,7 @@
       <c r="X153" s="3"/>
       <c r="Y153" s="3"/>
     </row>
-    <row r="154" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:25" ht="195" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
         <v>252</v>
       </c>
@@ -7247,7 +7457,7 @@
       <c r="X154" s="3"/>
       <c r="Y154" s="3"/>
     </row>
-    <row r="155" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
         <v>254</v>
       </c>
@@ -7278,7 +7488,7 @@
       <c r="X155" s="3"/>
       <c r="Y155" s="3"/>
     </row>
-    <row r="156" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
         <v>256</v>
       </c>
@@ -7309,7 +7519,7 @@
       <c r="X156" s="3"/>
       <c r="Y156" s="3"/>
     </row>
-    <row r="157" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
         <v>258</v>
       </c>
@@ -7340,7 +7550,7 @@
       <c r="X157" s="3"/>
       <c r="Y157" s="3"/>
     </row>
-    <row r="158" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:25" ht="182" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
         <v>260</v>
       </c>
@@ -7371,7 +7581,7 @@
       <c r="X158" s="3"/>
       <c r="Y158" s="3"/>
     </row>
-    <row r="159" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
         <v>262</v>
       </c>
@@ -7400,7 +7610,7 @@
       <c r="X159" s="3"/>
       <c r="Y159" s="3"/>
     </row>
-    <row r="160" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
         <v>263</v>
       </c>
@@ -7431,7 +7641,7 @@
       <c r="X160" s="3"/>
       <c r="Y160" s="3"/>
     </row>
-    <row r="161" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
         <v>265</v>
       </c>
@@ -7460,7 +7670,7 @@
       <c r="X161" s="3"/>
       <c r="Y161" s="3"/>
     </row>
-    <row r="162" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
         <v>266</v>
       </c>
@@ -7491,7 +7701,7 @@
       <c r="X162" s="3"/>
       <c r="Y162" s="3"/>
     </row>
-    <row r="163" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
         <v>268</v>
       </c>
@@ -7520,7 +7730,7 @@
       <c r="X163" s="3"/>
       <c r="Y163" s="3"/>
     </row>
-    <row r="164" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
         <v>269</v>
       </c>
@@ -7549,7 +7759,7 @@
       <c r="X164" s="3"/>
       <c r="Y164" s="3"/>
     </row>
-    <row r="165" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
         <v>270</v>
       </c>
@@ -7580,7 +7790,7 @@
       <c r="X165" s="3"/>
       <c r="Y165" s="3"/>
     </row>
-    <row r="166" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A166" s="4" t="s">
         <v>272</v>
       </c>
@@ -7609,7 +7819,7 @@
       <c r="X166" s="3"/>
       <c r="Y166" s="3"/>
     </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
         <v>273</v>
       </c>
@@ -7638,7 +7848,7 @@
       <c r="X167" s="3"/>
       <c r="Y167" s="3"/>
     </row>
-    <row r="168" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A168" s="4" t="s">
         <v>274</v>
       </c>
@@ -7669,7 +7879,7 @@
       <c r="X168" s="3"/>
       <c r="Y168" s="3"/>
     </row>
-    <row r="169" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A169" s="4" t="s">
         <v>276</v>
       </c>
@@ -7698,7 +7908,7 @@
       <c r="X169" s="3"/>
       <c r="Y169" s="3"/>
     </row>
-    <row r="170" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:25" ht="195" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
         <v>277</v>
       </c>
@@ -7729,7 +7939,7 @@
       <c r="X170" s="3"/>
       <c r="Y170" s="3"/>
     </row>
-    <row r="171" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A171" s="4" t="s">
         <v>279</v>
       </c>
@@ -7759,7 +7969,7 @@
       <c r="X171" s="3"/>
       <c r="Y171" s="3"/>
     </row>
-    <row r="172" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A172" s="4" t="s">
         <v>281</v>
       </c>
@@ -7788,7 +7998,7 @@
       <c r="X172" s="3"/>
       <c r="Y172" s="3"/>
     </row>
-    <row r="173" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A173" s="4" t="s">
         <v>282</v>
       </c>
@@ -7817,7 +8027,7 @@
       <c r="X173" s="3"/>
       <c r="Y173" s="3"/>
     </row>
-    <row r="174" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A174" s="4" t="s">
         <v>283</v>
       </c>
@@ -7846,7 +8056,7 @@
       <c r="X174" s="3"/>
       <c r="Y174" s="3"/>
     </row>
-    <row r="175" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A175" s="4" t="s">
         <v>284</v>
       </c>
@@ -7875,7 +8085,7 @@
       <c r="X175" s="3"/>
       <c r="Y175" s="3"/>
     </row>
-    <row r="176" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A176" s="4" t="s">
         <v>285</v>
       </c>
@@ -7904,7 +8114,7 @@
       <c r="X176" s="3"/>
       <c r="Y176" s="3"/>
     </row>
-    <row r="177" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A177" s="4" t="s">
         <v>286</v>
       </c>
@@ -7933,7 +8143,7 @@
       <c r="X177" s="3"/>
       <c r="Y177" s="3"/>
     </row>
-    <row r="178" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A178" s="4" t="s">
         <v>287</v>
       </c>
@@ -7962,7 +8172,7 @@
       <c r="X178" s="3"/>
       <c r="Y178" s="3"/>
     </row>
-    <row r="179" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A179" s="4" t="s">
         <v>288</v>
       </c>
@@ -7993,7 +8203,7 @@
       <c r="X179" s="3"/>
       <c r="Y179" s="3"/>
     </row>
-    <row r="180" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A180" s="4" t="s">
         <v>290</v>
       </c>
@@ -8024,7 +8234,7 @@
       <c r="X180" s="3"/>
       <c r="Y180" s="3"/>
     </row>
-    <row r="181" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A181" s="4" t="s">
         <v>292</v>
       </c>
@@ -8055,7 +8265,7 @@
       <c r="X181" s="3"/>
       <c r="Y181" s="3"/>
     </row>
-    <row r="182" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:25" ht="377" x14ac:dyDescent="0.15">
       <c r="A182" s="4" t="s">
         <v>294</v>
       </c>
@@ -8086,7 +8296,7 @@
       <c r="X182" s="3"/>
       <c r="Y182" s="3"/>
     </row>
-    <row r="183" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:25" ht="377" x14ac:dyDescent="0.15">
       <c r="A183" s="4" t="s">
         <v>296</v>
       </c>
@@ -8117,7 +8327,7 @@
       <c r="X183" s="3"/>
       <c r="Y183" s="3"/>
     </row>
-    <row r="184" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A184" s="4" t="s">
         <v>298</v>
       </c>
@@ -8148,7 +8358,7 @@
       <c r="X184" s="3"/>
       <c r="Y184" s="3"/>
     </row>
-    <row r="185" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A185" s="4" t="s">
         <v>300</v>
       </c>
@@ -8179,7 +8389,7 @@
       <c r="X185" s="3"/>
       <c r="Y185" s="3"/>
     </row>
-    <row r="186" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A186" s="4" t="s">
         <v>302</v>
       </c>
@@ -8210,7 +8420,7 @@
       <c r="X186" s="3"/>
       <c r="Y186" s="3"/>
     </row>
-    <row r="187" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A187" s="4" t="s">
         <v>304</v>
       </c>
@@ -8241,7 +8451,7 @@
       <c r="X187" s="3"/>
       <c r="Y187" s="3"/>
     </row>
-    <row r="188" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A188" s="4" t="s">
         <v>306</v>
       </c>
@@ -8272,7 +8482,7 @@
       <c r="X188" s="3"/>
       <c r="Y188" s="3"/>
     </row>
-    <row r="189" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A189" s="4" t="s">
         <v>308</v>
       </c>
@@ -8301,7 +8511,7 @@
       <c r="X189" s="3"/>
       <c r="Y189" s="3"/>
     </row>
-    <row r="190" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:25" ht="208" x14ac:dyDescent="0.15">
       <c r="A190" s="4" t="s">
         <v>309</v>
       </c>
@@ -8332,7 +8542,7 @@
       <c r="X190" s="3"/>
       <c r="Y190" s="3"/>
     </row>
-    <row r="191" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A191" s="4" t="s">
         <v>311</v>
       </c>
@@ -8363,7 +8573,7 @@
       <c r="X191" s="3"/>
       <c r="Y191" s="3"/>
     </row>
-    <row r="192" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A192" s="4" t="s">
         <v>313</v>
       </c>
@@ -8392,7 +8602,7 @@
       <c r="X192" s="3"/>
       <c r="Y192" s="3"/>
     </row>
-    <row r="193" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A193" s="4" t="s">
         <v>314</v>
       </c>
@@ -8421,7 +8631,7 @@
       <c r="X193" s="3"/>
       <c r="Y193" s="3"/>
     </row>
-    <row r="194" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A194" s="4" t="s">
         <v>315</v>
       </c>
@@ -8452,7 +8662,7 @@
       <c r="X194" s="3"/>
       <c r="Y194" s="3"/>
     </row>
-    <row r="195" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A195" s="4" t="s">
         <v>317</v>
       </c>
@@ -8483,7 +8693,7 @@
       <c r="X195" s="3"/>
       <c r="Y195" s="3"/>
     </row>
-    <row r="196" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A196" s="4" t="s">
         <v>319</v>
       </c>
@@ -8512,7 +8722,7 @@
       <c r="X196" s="3"/>
       <c r="Y196" s="3"/>
     </row>
-    <row r="197" customFormat="false" ht="130" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A197" s="4" t="s">
         <v>320</v>
       </c>
@@ -8543,7 +8753,7 @@
       <c r="X197" s="3"/>
       <c r="Y197" s="3"/>
     </row>
-    <row r="198" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:25" ht="208" x14ac:dyDescent="0.15">
       <c r="A198" s="4" t="s">
         <v>322</v>
       </c>
@@ -8574,7 +8784,7 @@
       <c r="X198" s="3"/>
       <c r="Y198" s="3"/>
     </row>
-    <row r="199" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A199" s="4" t="s">
         <v>324</v>
       </c>
@@ -8603,7 +8813,7 @@
       <c r="X199" s="3"/>
       <c r="Y199" s="3"/>
     </row>
-    <row r="200" customFormat="false" ht="104" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A200" s="4" t="s">
         <v>325</v>
       </c>
@@ -8634,7 +8844,7 @@
       <c r="X200" s="3"/>
       <c r="Y200" s="3"/>
     </row>
-    <row r="201" customFormat="false" ht="156" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A201" s="4" t="s">
         <v>327</v>
       </c>
@@ -8665,7 +8875,7 @@
       <c r="X201" s="3"/>
       <c r="Y201" s="3"/>
     </row>
-    <row r="202" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A202" s="4" t="s">
         <v>329</v>
       </c>
@@ -8696,7 +8906,7 @@
       <c r="X202" s="3"/>
       <c r="Y202" s="3"/>
     </row>
-    <row r="203" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A203" s="4" t="s">
         <v>331</v>
       </c>
@@ -8725,7 +8935,7 @@
       <c r="X203" s="3"/>
       <c r="Y203" s="3"/>
     </row>
-    <row r="204" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A204" s="4" t="s">
         <v>332</v>
       </c>
@@ -8756,7 +8966,7 @@
       <c r="X204" s="3"/>
       <c r="Y204" s="3"/>
     </row>
-    <row r="205" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A205" s="4" t="s">
         <v>334</v>
       </c>
@@ -8787,7 +8997,7 @@
       <c r="X205" s="3"/>
       <c r="Y205" s="3"/>
     </row>
-    <row r="206" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A206" s="4" t="s">
         <v>336</v>
       </c>
@@ -8818,7 +9028,7 @@
       <c r="X206" s="3"/>
       <c r="Y206" s="3"/>
     </row>
-    <row r="207" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A207" s="4" t="s">
         <v>338</v>
       </c>
@@ -8849,7 +9059,7 @@
       <c r="X207" s="3"/>
       <c r="Y207" s="3"/>
     </row>
-    <row r="208" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A208" s="4" t="s">
         <v>340</v>
       </c>
@@ -8880,7 +9090,7 @@
       <c r="X208" s="3"/>
       <c r="Y208" s="3"/>
     </row>
-    <row r="209" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A209" s="4" t="s">
         <v>342</v>
       </c>
@@ -8911,7 +9121,7 @@
       <c r="X209" s="3"/>
       <c r="Y209" s="3"/>
     </row>
-    <row r="210" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:25" ht="208" x14ac:dyDescent="0.15">
       <c r="A210" s="4" t="s">
         <v>344</v>
       </c>
@@ -8942,7 +9152,7 @@
       <c r="X210" s="3"/>
       <c r="Y210" s="3"/>
     </row>
-    <row r="211" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A211" s="4" t="s">
         <v>346</v>
       </c>
@@ -8973,7 +9183,7 @@
       <c r="X211" s="3"/>
       <c r="Y211" s="3"/>
     </row>
-    <row r="212" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A212" s="4" t="s">
         <v>348</v>
       </c>
@@ -9004,7 +9214,7 @@
       <c r="X212" s="3"/>
       <c r="Y212" s="3"/>
     </row>
-    <row r="213" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A213" s="4" t="s">
         <v>350</v>
       </c>
@@ -9033,7 +9243,7 @@
       <c r="X213" s="3"/>
       <c r="Y213" s="3"/>
     </row>
-    <row r="214" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A214" s="4" t="s">
         <v>351</v>
       </c>
@@ -9062,7 +9272,7 @@
       <c r="X214" s="3"/>
       <c r="Y214" s="3"/>
     </row>
-    <row r="215" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A215" s="4" t="s">
         <v>352</v>
       </c>
@@ -9091,7 +9301,7 @@
       <c r="X215" s="3"/>
       <c r="Y215" s="3"/>
     </row>
-    <row r="216" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A216" s="4" t="s">
         <v>353</v>
       </c>
@@ -9122,7 +9332,7 @@
       <c r="X216" s="3"/>
       <c r="Y216" s="3"/>
     </row>
-    <row r="217" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A217" s="4" t="s">
         <v>355</v>
       </c>
@@ -9153,7 +9363,7 @@
       <c r="X217" s="3"/>
       <c r="Y217" s="3"/>
     </row>
-    <row r="218" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A218" s="4" t="s">
         <v>357</v>
       </c>
@@ -9182,7 +9392,7 @@
       <c r="X218" s="3"/>
       <c r="Y218" s="3"/>
     </row>
-    <row r="219" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A219" s="4" t="s">
         <v>358</v>
       </c>
@@ -9211,7 +9421,7 @@
       <c r="X219" s="3"/>
       <c r="Y219" s="3"/>
     </row>
-    <row r="220" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:25" ht="260" x14ac:dyDescent="0.15">
       <c r="A220" s="4" t="s">
         <v>359</v>
       </c>
@@ -9242,7 +9452,7 @@
       <c r="X220" s="3"/>
       <c r="Y220" s="3"/>
     </row>
-    <row r="221" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A221" s="4" t="s">
         <v>361</v>
       </c>
@@ -9273,7 +9483,7 @@
       <c r="X221" s="3"/>
       <c r="Y221" s="3"/>
     </row>
-    <row r="222" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A222" s="4" t="s">
         <v>363</v>
       </c>
@@ -9302,7 +9512,7 @@
       <c r="X222" s="3"/>
       <c r="Y222" s="3"/>
     </row>
-    <row r="223" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A223" s="4" t="s">
         <v>364</v>
       </c>
@@ -9331,7 +9541,7 @@
       <c r="X223" s="3"/>
       <c r="Y223" s="3"/>
     </row>
-    <row r="224" customFormat="false" ht="130" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A224" s="4" t="s">
         <v>365</v>
       </c>
@@ -9362,7 +9572,7 @@
       <c r="X224" s="3"/>
       <c r="Y224" s="3"/>
     </row>
-    <row r="225" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:25" ht="364" x14ac:dyDescent="0.15">
       <c r="A225" s="4" t="s">
         <v>367</v>
       </c>
@@ -9393,7 +9603,7 @@
       <c r="X225" s="3"/>
       <c r="Y225" s="3"/>
     </row>
-    <row r="226" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A226" s="4" t="s">
         <v>369</v>
       </c>
@@ -9422,7 +9632,7 @@
       <c r="X226" s="3"/>
       <c r="Y226" s="3"/>
     </row>
-    <row r="227" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A227" s="4" t="s">
         <v>370</v>
       </c>
@@ -9451,7 +9661,7 @@
       <c r="X227" s="3"/>
       <c r="Y227" s="3"/>
     </row>
-    <row r="228" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A228" s="4" t="s">
         <v>371</v>
       </c>
@@ -9484,7 +9694,7 @@
       <c r="X228" s="3"/>
       <c r="Y228" s="3"/>
     </row>
-    <row r="229" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A229" s="4" t="s">
         <v>374</v>
       </c>
@@ -9515,7 +9725,7 @@
       <c r="X229" s="3"/>
       <c r="Y229" s="3"/>
     </row>
-    <row r="230" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A230" s="4" t="s">
         <v>376</v>
       </c>
@@ -9544,7 +9754,7 @@
       <c r="X230" s="3"/>
       <c r="Y230" s="3"/>
     </row>
-    <row r="231" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:25" ht="221" x14ac:dyDescent="0.15">
       <c r="A231" s="4" t="s">
         <v>377</v>
       </c>
@@ -9575,7 +9785,7 @@
       <c r="X231" s="3"/>
       <c r="Y231" s="3"/>
     </row>
-    <row r="232" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A232" s="4" t="s">
         <v>379</v>
       </c>
@@ -9606,7 +9816,7 @@
       <c r="X232" s="3"/>
       <c r="Y232" s="3"/>
     </row>
-    <row r="233" customFormat="false" ht="221" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A233" s="4" t="s">
         <v>381</v>
       </c>
@@ -9637,7 +9847,7 @@
       <c r="X233" s="3"/>
       <c r="Y233" s="3"/>
     </row>
-    <row r="234" customFormat="false" ht="273" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A234" s="4" t="s">
         <v>383</v>
       </c>
@@ -9668,7 +9878,7 @@
       <c r="X234" s="3"/>
       <c r="Y234" s="3"/>
     </row>
-    <row r="235" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:25" ht="377" x14ac:dyDescent="0.15">
       <c r="A235" s="4" t="s">
         <v>385</v>
       </c>
@@ -9699,7 +9909,7 @@
       <c r="X235" s="3"/>
       <c r="Y235" s="3"/>
     </row>
-    <row r="236" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:25" ht="312" x14ac:dyDescent="0.15">
       <c r="A236" s="4" t="s">
         <v>387</v>
       </c>
@@ -9730,7 +9940,7 @@
       <c r="X236" s="3"/>
       <c r="Y236" s="3"/>
     </row>
-    <row r="237" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A237" s="4" t="s">
         <v>389</v>
       </c>
@@ -9759,7 +9969,7 @@
       <c r="X237" s="3"/>
       <c r="Y237" s="3"/>
     </row>
-    <row r="238" customFormat="false" ht="169" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A238" s="4" t="s">
         <v>390</v>
       </c>
@@ -9790,7 +10000,7 @@
       <c r="X238" s="3"/>
       <c r="Y238" s="3"/>
     </row>
-    <row r="239" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A239" s="4" t="s">
         <v>392</v>
       </c>
@@ -9819,7 +10029,7 @@
       <c r="X239" s="3"/>
       <c r="Y239" s="3"/>
     </row>
-    <row r="240" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A240" s="4" t="s">
         <v>393</v>
       </c>
@@ -9850,7 +10060,7 @@
       <c r="X240" s="3"/>
       <c r="Y240" s="3"/>
     </row>
-    <row r="241" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A241" s="4" t="s">
         <v>395</v>
       </c>
@@ -9881,7 +10091,7 @@
       <c r="X241" s="3"/>
       <c r="Y241" s="3"/>
     </row>
-    <row r="242" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A242" s="4" t="s">
         <v>397</v>
       </c>
@@ -9912,7 +10122,7 @@
       <c r="X242" s="3"/>
       <c r="Y242" s="3"/>
     </row>
-    <row r="243" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A243" s="4" t="s">
         <v>399</v>
       </c>
@@ -9941,7 +10151,7 @@
       <c r="X243" s="3"/>
       <c r="Y243" s="3"/>
     </row>
-    <row r="244" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A244" s="4" t="s">
         <v>400</v>
       </c>
@@ -9970,7 +10180,7 @@
       <c r="X244" s="3"/>
       <c r="Y244" s="3"/>
     </row>
-    <row r="245" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A245" s="4" t="s">
         <v>401</v>
       </c>
@@ -9999,7 +10209,7 @@
       <c r="X245" s="3"/>
       <c r="Y245" s="3"/>
     </row>
-    <row r="246" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" spans="1:25" ht="195" x14ac:dyDescent="0.15">
       <c r="A246" s="4" t="s">
         <v>402</v>
       </c>
@@ -10030,7 +10240,7 @@
       <c r="X246" s="3"/>
       <c r="Y246" s="3"/>
     </row>
-    <row r="247" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A247" s="4" t="s">
         <v>404</v>
       </c>
@@ -10059,7 +10269,7 @@
       <c r="X247" s="3"/>
       <c r="Y247" s="3"/>
     </row>
-    <row r="248" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A248" s="4" t="s">
         <v>405</v>
       </c>
@@ -10090,7 +10300,7 @@
       <c r="X248" s="3"/>
       <c r="Y248" s="3"/>
     </row>
-    <row r="249" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A249" s="4" t="s">
         <v>407</v>
       </c>
@@ -10119,7 +10329,7 @@
       <c r="X249" s="3"/>
       <c r="Y249" s="3"/>
     </row>
-    <row r="250" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A250" s="4" t="s">
         <v>408</v>
       </c>
@@ -10148,7 +10358,7 @@
       <c r="X250" s="3"/>
       <c r="Y250" s="3"/>
     </row>
-    <row r="251" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" spans="1:25" ht="286" x14ac:dyDescent="0.15">
       <c r="A251" s="4" t="s">
         <v>409</v>
       </c>
@@ -10179,7 +10389,7 @@
       <c r="X251" s="3"/>
       <c r="Y251" s="3"/>
     </row>
-    <row r="252" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A252" s="4" t="s">
         <v>411</v>
       </c>
@@ -10208,7 +10418,7 @@
       <c r="X252" s="3"/>
       <c r="Y252" s="3"/>
     </row>
-    <row r="253" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" spans="1:25" ht="208" x14ac:dyDescent="0.15">
       <c r="A253" s="4" t="s">
         <v>412</v>
       </c>
@@ -10239,7 +10449,7 @@
       <c r="X253" s="3"/>
       <c r="Y253" s="3"/>
     </row>
-    <row r="254" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A254" s="4" t="s">
         <v>414</v>
       </c>
@@ -10270,7 +10480,7 @@
       <c r="X254" s="3"/>
       <c r="Y254" s="3"/>
     </row>
-    <row r="255" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A255" s="4" t="s">
         <v>416</v>
       </c>
@@ -10301,7 +10511,7 @@
       <c r="X255" s="3"/>
       <c r="Y255" s="3"/>
     </row>
-    <row r="256" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A256" s="4" t="s">
         <v>418</v>
       </c>
@@ -10332,7 +10542,7 @@
       <c r="X256" s="3"/>
       <c r="Y256" s="3"/>
     </row>
-    <row r="257" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" spans="1:25" ht="312" x14ac:dyDescent="0.15">
       <c r="A257" s="4" t="s">
         <v>420</v>
       </c>
@@ -10363,7 +10573,7 @@
       <c r="X257" s="3"/>
       <c r="Y257" s="3"/>
     </row>
-    <row r="258" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" spans="1:25" ht="234" x14ac:dyDescent="0.15">
       <c r="A258" s="4" t="s">
         <v>422</v>
       </c>
@@ -10394,7 +10604,7 @@
       <c r="X258" s="3"/>
       <c r="Y258" s="3"/>
     </row>
-    <row r="259" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A259" s="4" t="s">
         <v>424</v>
       </c>
@@ -10423,7 +10633,7 @@
       <c r="X259" s="3"/>
       <c r="Y259" s="3"/>
     </row>
-    <row r="260" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A260" s="4" t="s">
         <v>425</v>
       </c>
@@ -10454,7 +10664,7 @@
       <c r="X260" s="3"/>
       <c r="Y260" s="3"/>
     </row>
-    <row r="261" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A261" s="4" t="s">
         <v>427</v>
       </c>
@@ -10483,7 +10693,7 @@
       <c r="X261" s="3"/>
       <c r="Y261" s="3"/>
     </row>
-    <row r="262" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A262" s="4" t="s">
         <v>428</v>
       </c>
@@ -10512,7 +10722,7 @@
       <c r="X262" s="3"/>
       <c r="Y262" s="3"/>
     </row>
-    <row r="263" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A263" s="4" t="s">
         <v>429</v>
       </c>
@@ -10543,7 +10753,7 @@
       <c r="X263" s="3"/>
       <c r="Y263" s="3"/>
     </row>
-    <row r="264" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A264" s="4" t="s">
         <v>431</v>
       </c>
@@ -10574,7 +10784,7 @@
       <c r="X264" s="3"/>
       <c r="Y264" s="3"/>
     </row>
-    <row r="265" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A265" s="4" t="s">
         <v>433</v>
       </c>
@@ -10605,7 +10815,7 @@
       <c r="X265" s="3"/>
       <c r="Y265" s="3"/>
     </row>
-    <row r="266" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A266" s="4" t="s">
         <v>435</v>
       </c>
@@ -10634,7 +10844,7 @@
       <c r="X266" s="3"/>
       <c r="Y266" s="3"/>
     </row>
-    <row r="267" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A267" s="4" t="s">
         <v>436</v>
       </c>
@@ -10663,7 +10873,7 @@
       <c r="X267" s="3"/>
       <c r="Y267" s="3"/>
     </row>
-    <row r="268" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A268" s="4" t="s">
         <v>437</v>
       </c>
@@ -10692,7 +10902,7 @@
       <c r="X268" s="3"/>
       <c r="Y268" s="3"/>
     </row>
-    <row r="269" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A269" s="4" t="s">
         <v>438</v>
       </c>
@@ -10721,7 +10931,7 @@
       <c r="X269" s="3"/>
       <c r="Y269" s="3"/>
     </row>
-    <row r="270" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A270" s="4" t="s">
         <v>439</v>
       </c>
@@ -10750,7 +10960,7 @@
       <c r="X270" s="3"/>
       <c r="Y270" s="3"/>
     </row>
-    <row r="271" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" spans="1:25" ht="234" x14ac:dyDescent="0.15">
       <c r="A271" s="4" t="s">
         <v>440</v>
       </c>
@@ -10781,7 +10991,7 @@
       <c r="X271" s="3"/>
       <c r="Y271" s="3"/>
     </row>
-    <row r="272" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A272" s="4" t="s">
         <v>442</v>
       </c>
@@ -10812,7 +11022,7 @@
       <c r="X272" s="3"/>
       <c r="Y272" s="3"/>
     </row>
-    <row r="273" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" spans="1:25" ht="273" x14ac:dyDescent="0.15">
       <c r="A273" s="4" t="s">
         <v>444</v>
       </c>
@@ -10843,7 +11053,7 @@
       <c r="X273" s="3"/>
       <c r="Y273" s="3"/>
     </row>
-    <row r="274" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A274" s="4" t="s">
         <v>446</v>
       </c>
@@ -10874,7 +11084,7 @@
       <c r="X274" s="3"/>
       <c r="Y274" s="3"/>
     </row>
-    <row r="275" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A275" s="4" t="s">
         <v>448</v>
       </c>
@@ -10903,7 +11113,7 @@
       <c r="X275" s="3"/>
       <c r="Y275" s="3"/>
     </row>
-    <row r="276" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" spans="1:25" ht="182" x14ac:dyDescent="0.15">
       <c r="A276" s="4" t="s">
         <v>449</v>
       </c>
@@ -10934,7 +11144,7 @@
       <c r="X276" s="3"/>
       <c r="Y276" s="3"/>
     </row>
-    <row r="277" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A277" s="4" t="s">
         <v>451</v>
       </c>
@@ -10963,7 +11173,7 @@
       <c r="X277" s="3"/>
       <c r="Y277" s="3"/>
     </row>
-    <row r="278" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" spans="1:25" ht="182" x14ac:dyDescent="0.15">
       <c r="A278" s="4" t="s">
         <v>452</v>
       </c>
@@ -10994,7 +11204,7 @@
       <c r="X278" s="3"/>
       <c r="Y278" s="3"/>
     </row>
-    <row r="279" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A279" s="4" t="s">
         <v>454</v>
       </c>
@@ -11025,7 +11235,7 @@
       <c r="X279" s="3"/>
       <c r="Y279" s="3"/>
     </row>
-    <row r="280" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A280" s="4" t="s">
         <v>456</v>
       </c>
@@ -11054,7 +11264,7 @@
       <c r="X280" s="3"/>
       <c r="Y280" s="3"/>
     </row>
-    <row r="281" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" spans="1:25" ht="273" x14ac:dyDescent="0.15">
       <c r="A281" s="4" t="s">
         <v>457</v>
       </c>
@@ -11085,7 +11295,7 @@
       <c r="X281" s="3"/>
       <c r="Y281" s="3"/>
     </row>
-    <row r="282" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" spans="1:25" ht="169" x14ac:dyDescent="0.15">
       <c r="A282" s="4" t="s">
         <v>459</v>
       </c>
@@ -11116,7 +11326,7 @@
       <c r="X282" s="3"/>
       <c r="Y282" s="3"/>
     </row>
-    <row r="283" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A283" s="4" t="s">
         <v>461</v>
       </c>
@@ -11145,7 +11355,7 @@
       <c r="X283" s="3"/>
       <c r="Y283" s="3"/>
     </row>
-    <row r="284" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A284" s="4" t="s">
         <v>462</v>
       </c>
@@ -11174,7 +11384,7 @@
       <c r="X284" s="3"/>
       <c r="Y284" s="3"/>
     </row>
-    <row r="285" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A285" s="4" t="s">
         <v>463</v>
       </c>
@@ -11205,7 +11415,7 @@
       <c r="X285" s="3"/>
       <c r="Y285" s="3"/>
     </row>
-    <row r="286" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A286" s="4" t="s">
         <v>465</v>
       </c>
@@ -11236,7 +11446,7 @@
       <c r="X286" s="3"/>
       <c r="Y286" s="3"/>
     </row>
-    <row r="287" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A287" s="4" t="s">
         <v>467</v>
       </c>
@@ -11265,7 +11475,7 @@
       <c r="X287" s="3"/>
       <c r="Y287" s="3"/>
     </row>
-    <row r="288" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A288" s="4" t="s">
         <v>468</v>
       </c>
@@ -11296,7 +11506,7 @@
       <c r="X288" s="3"/>
       <c r="Y288" s="3"/>
     </row>
-    <row r="289" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" spans="1:25" ht="234" x14ac:dyDescent="0.15">
       <c r="A289" s="4" t="s">
         <v>470</v>
       </c>
@@ -11327,7 +11537,7 @@
       <c r="X289" s="3"/>
       <c r="Y289" s="3"/>
     </row>
-    <row r="290" customFormat="false" ht="130" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A290" s="4" t="s">
         <v>472</v>
       </c>
@@ -11358,7 +11568,7 @@
       <c r="X290" s="3"/>
       <c r="Y290" s="3"/>
     </row>
-    <row r="291" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A291" s="4" t="s">
         <v>474</v>
       </c>
@@ -11389,7 +11599,7 @@
       <c r="X291" s="3"/>
       <c r="Y291" s="3"/>
     </row>
-    <row r="292" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A292" s="4" t="s">
         <v>476</v>
       </c>
@@ -11418,7 +11628,7 @@
       <c r="X292" s="3"/>
       <c r="Y292" s="3"/>
     </row>
-    <row r="293" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A293" s="4" t="s">
         <v>477</v>
       </c>
@@ -11447,7 +11657,7 @@
       <c r="X293" s="3"/>
       <c r="Y293" s="3"/>
     </row>
-    <row r="294" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A294" s="4" t="s">
         <v>478</v>
       </c>
@@ -11476,7 +11686,7 @@
       <c r="X294" s="3"/>
       <c r="Y294" s="3"/>
     </row>
-    <row r="295" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A295" s="4" t="s">
         <v>479</v>
       </c>
@@ -11505,7 +11715,7 @@
       <c r="X295" s="3"/>
       <c r="Y295" s="3"/>
     </row>
-    <row r="296" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A296" s="4" t="s">
         <v>480</v>
       </c>
@@ -11534,7 +11744,7 @@
       <c r="X296" s="3"/>
       <c r="Y296" s="3"/>
     </row>
-    <row r="297" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A297" s="4" t="s">
         <v>481</v>
       </c>
@@ -11563,7 +11773,7 @@
       <c r="X297" s="3"/>
       <c r="Y297" s="3"/>
     </row>
-    <row r="298" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" spans="1:25" ht="234" x14ac:dyDescent="0.15">
       <c r="A298" s="4" t="s">
         <v>482</v>
       </c>
@@ -11594,7 +11804,7 @@
       <c r="X298" s="3"/>
       <c r="Y298" s="3"/>
     </row>
-    <row r="299" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A299" s="4" t="s">
         <v>484</v>
       </c>
@@ -11623,7 +11833,7 @@
       <c r="X299" s="3"/>
       <c r="Y299" s="3"/>
     </row>
-    <row r="300" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A300" s="4" t="s">
         <v>485</v>
       </c>
@@ -11652,7 +11862,7 @@
       <c r="X300" s="3"/>
       <c r="Y300" s="3"/>
     </row>
-    <row r="301" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A301" s="4" t="s">
         <v>486</v>
       </c>
@@ -11681,7 +11891,7 @@
       <c r="X301" s="3"/>
       <c r="Y301" s="3"/>
     </row>
-    <row r="302" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A302" s="4" t="s">
         <v>487</v>
       </c>
@@ -11710,7 +11920,7 @@
       <c r="X302" s="3"/>
       <c r="Y302" s="3"/>
     </row>
-    <row r="303" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A303" s="4" t="s">
         <v>488</v>
       </c>
@@ -11739,7 +11949,7 @@
       <c r="X303" s="3"/>
       <c r="Y303" s="3"/>
     </row>
-    <row r="304" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A304" s="4" t="s">
         <v>489</v>
       </c>
@@ -11770,7 +11980,7 @@
       <c r="X304" s="3"/>
       <c r="Y304" s="3"/>
     </row>
-    <row r="305" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A305" s="4" t="s">
         <v>491</v>
       </c>
@@ -11799,7 +12009,7 @@
       <c r="X305" s="3"/>
       <c r="Y305" s="3"/>
     </row>
-    <row r="306" customFormat="false" ht="156" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A306" s="4" t="s">
         <v>492</v>
       </c>
@@ -11830,7 +12040,7 @@
       <c r="X306" s="3"/>
       <c r="Y306" s="3"/>
     </row>
-    <row r="307" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" spans="1:25" ht="390" x14ac:dyDescent="0.15">
       <c r="A307" s="4" t="s">
         <v>494</v>
       </c>
@@ -11861,7 +12071,7 @@
       <c r="X307" s="3"/>
       <c r="Y307" s="3"/>
     </row>
-    <row r="308" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" spans="1:25" ht="338" x14ac:dyDescent="0.15">
       <c r="A308" s="4" t="s">
         <v>496</v>
       </c>
@@ -11892,7 +12102,7 @@
       <c r="X308" s="3"/>
       <c r="Y308" s="3"/>
     </row>
-    <row r="309" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A309" s="4" t="s">
         <v>498</v>
       </c>
@@ -11921,7 +12131,7 @@
       <c r="X309" s="3"/>
       <c r="Y309" s="3"/>
     </row>
-    <row r="310" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" spans="1:25" ht="169" x14ac:dyDescent="0.15">
       <c r="A310" s="4" t="s">
         <v>499</v>
       </c>
@@ -11952,7 +12162,7 @@
       <c r="X310" s="3"/>
       <c r="Y310" s="3"/>
     </row>
-    <row r="311" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A311" s="4" t="s">
         <v>501</v>
       </c>
@@ -11981,7 +12191,7 @@
       <c r="X311" s="3"/>
       <c r="Y311" s="3"/>
     </row>
-    <row r="312" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A312" s="4" t="s">
         <v>502</v>
       </c>
@@ -12012,7 +12222,7 @@
       <c r="X312" s="3"/>
       <c r="Y312" s="3"/>
     </row>
-    <row r="313" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A313" s="4" t="s">
         <v>504</v>
       </c>
@@ -12041,7 +12251,7 @@
       <c r="X313" s="3"/>
       <c r="Y313" s="3"/>
     </row>
-    <row r="314" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A314" s="4" t="s">
         <v>505</v>
       </c>
@@ -12070,7 +12280,7 @@
       <c r="X314" s="3"/>
       <c r="Y314" s="3"/>
     </row>
-    <row r="315" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" spans="1:25" ht="312" x14ac:dyDescent="0.15">
       <c r="A315" s="4" t="s">
         <v>506</v>
       </c>
@@ -12101,7 +12311,7 @@
       <c r="X315" s="3"/>
       <c r="Y315" s="3"/>
     </row>
-    <row r="316" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A316" s="4" t="s">
         <v>508</v>
       </c>
@@ -12130,7 +12340,7 @@
       <c r="X316" s="3"/>
       <c r="Y316" s="3"/>
     </row>
-    <row r="317" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A317" s="4" t="s">
         <v>509</v>
       </c>
@@ -12161,7 +12371,7 @@
       <c r="X317" s="3"/>
       <c r="Y317" s="3"/>
     </row>
-    <row r="318" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A318" s="4" t="s">
         <v>511</v>
       </c>
@@ -12192,7 +12402,7 @@
       <c r="X318" s="3"/>
       <c r="Y318" s="3"/>
     </row>
-    <row r="319" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A319" s="4" t="s">
         <v>513</v>
       </c>
@@ -12221,7 +12431,7 @@
       <c r="X319" s="3"/>
       <c r="Y319" s="3"/>
     </row>
-    <row r="320" customFormat="false" ht="104" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A320" s="4" t="s">
         <v>514</v>
       </c>
@@ -12252,7 +12462,7 @@
       <c r="X320" s="3"/>
       <c r="Y320" s="3"/>
     </row>
-    <row r="321" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A321" s="4" t="s">
         <v>516</v>
       </c>
@@ -12281,7 +12491,7 @@
       <c r="X321" s="3"/>
       <c r="Y321" s="3"/>
     </row>
-    <row r="322" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A322" s="4" t="s">
         <v>517</v>
       </c>
@@ -12310,7 +12520,7 @@
       <c r="X322" s="3"/>
       <c r="Y322" s="3"/>
     </row>
-    <row r="323" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" spans="1:25" ht="208" x14ac:dyDescent="0.15">
       <c r="A323" s="4" t="s">
         <v>518</v>
       </c>
@@ -12341,7 +12551,7 @@
       <c r="X323" s="3"/>
       <c r="Y323" s="3"/>
     </row>
-    <row r="324" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A324" s="4" t="s">
         <v>520</v>
       </c>
@@ -12370,7 +12580,7 @@
       <c r="X324" s="3"/>
       <c r="Y324" s="3"/>
     </row>
-    <row r="325" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A325" s="4" t="s">
         <v>521</v>
       </c>
@@ -12399,7 +12609,7 @@
       <c r="X325" s="3"/>
       <c r="Y325" s="3"/>
     </row>
-    <row r="326" customFormat="false" ht="143" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A326" s="4" t="s">
         <v>522</v>
       </c>
@@ -12430,7 +12640,7 @@
       <c r="X326" s="3"/>
       <c r="Y326" s="3"/>
     </row>
-    <row r="327" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" spans="1:25" ht="169" x14ac:dyDescent="0.15">
       <c r="A327" s="4" t="s">
         <v>524</v>
       </c>
@@ -12461,7 +12671,7 @@
       <c r="X327" s="3"/>
       <c r="Y327" s="3"/>
     </row>
-    <row r="328" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A328" s="4" t="s">
         <v>526</v>
       </c>
@@ -12490,7 +12700,7 @@
       <c r="X328" s="3"/>
       <c r="Y328" s="3"/>
     </row>
-    <row r="329" customFormat="false" ht="104" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A329" s="4" t="s">
         <v>527</v>
       </c>
@@ -12521,7 +12731,7 @@
       <c r="X329" s="3"/>
       <c r="Y329" s="3"/>
     </row>
-    <row r="330" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A330" s="4" t="s">
         <v>529</v>
       </c>
@@ -12549,7 +12759,7 @@
       <c r="X330" s="3"/>
       <c r="Y330" s="3"/>
     </row>
-    <row r="331" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A331" s="4" t="s">
         <v>530</v>
       </c>
@@ -12580,7 +12790,7 @@
       <c r="X331" s="3"/>
       <c r="Y331" s="3"/>
     </row>
-    <row r="332" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A332" s="4" t="s">
         <v>532</v>
       </c>
@@ -12611,7 +12821,7 @@
       <c r="X332" s="3"/>
       <c r="Y332" s="3"/>
     </row>
-    <row r="333" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A333" s="4" t="s">
         <v>534</v>
       </c>
@@ -12640,7 +12850,7 @@
       <c r="X333" s="3"/>
       <c r="Y333" s="3"/>
     </row>
-    <row r="334" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A334" s="4" t="s">
         <v>535</v>
       </c>
@@ -12669,7 +12879,7 @@
       <c r="X334" s="3"/>
       <c r="Y334" s="3"/>
     </row>
-    <row r="335" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A335" s="4" t="s">
         <v>536</v>
       </c>
@@ -12700,7 +12910,7 @@
       <c r="X335" s="3"/>
       <c r="Y335" s="3"/>
     </row>
-    <row r="336" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A336" s="4" t="s">
         <v>538</v>
       </c>
@@ -12729,7 +12939,7 @@
       <c r="X336" s="3"/>
       <c r="Y336" s="3"/>
     </row>
-    <row r="337" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A337" s="4" t="s">
         <v>539</v>
       </c>
@@ -12758,7 +12968,7 @@
       <c r="X337" s="3"/>
       <c r="Y337" s="3"/>
     </row>
-    <row r="338" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" spans="1:25" ht="364" x14ac:dyDescent="0.15">
       <c r="A338" s="4" t="s">
         <v>540</v>
       </c>
@@ -12789,7 +12999,7 @@
       <c r="X338" s="3"/>
       <c r="Y338" s="3"/>
     </row>
-    <row r="339" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A339" s="4" t="s">
         <v>542</v>
       </c>
@@ -12818,7 +13028,7 @@
       <c r="X339" s="3"/>
       <c r="Y339" s="3"/>
     </row>
-    <row r="340" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" spans="1:25" ht="364" x14ac:dyDescent="0.15">
       <c r="A340" s="4" t="s">
         <v>543</v>
       </c>
@@ -12849,7 +13059,7 @@
       <c r="X340" s="3"/>
       <c r="Y340" s="3"/>
     </row>
-    <row r="341" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A341" s="4" t="s">
         <v>545</v>
       </c>
@@ -12878,7 +13088,7 @@
       <c r="X341" s="3"/>
       <c r="Y341" s="3"/>
     </row>
-    <row r="342" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A342" s="4" t="s">
         <v>546</v>
       </c>
@@ -12909,7 +13119,7 @@
       <c r="X342" s="3"/>
       <c r="Y342" s="3"/>
     </row>
-    <row r="343" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A343" s="4" t="s">
         <v>548</v>
       </c>
@@ -12938,7 +13148,7 @@
       <c r="X343" s="3"/>
       <c r="Y343" s="3"/>
     </row>
-    <row r="344" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A344" s="4" t="s">
         <v>549</v>
       </c>
@@ -12967,7 +13177,7 @@
       <c r="X344" s="3"/>
       <c r="Y344" s="3"/>
     </row>
-    <row r="345" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A345" s="4" t="s">
         <v>550</v>
       </c>
@@ -12996,7 +13206,7 @@
       <c r="X345" s="3"/>
       <c r="Y345" s="3"/>
     </row>
-    <row r="346" customFormat="false" ht="104" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A346" s="4" t="s">
         <v>551</v>
       </c>
@@ -13027,7 +13237,7 @@
       <c r="X346" s="3"/>
       <c r="Y346" s="3"/>
     </row>
-    <row r="347" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" spans="1:25" ht="390" x14ac:dyDescent="0.15">
       <c r="A347" s="4" t="s">
         <v>553</v>
       </c>
@@ -13058,7 +13268,7 @@
       <c r="X347" s="3"/>
       <c r="Y347" s="3"/>
     </row>
-    <row r="348" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A348" s="4" t="s">
         <v>555</v>
       </c>
@@ -13089,7 +13299,7 @@
       <c r="X348" s="3"/>
       <c r="Y348" s="3"/>
     </row>
-    <row r="349" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A349" s="4" t="s">
         <v>557</v>
       </c>
@@ -13120,7 +13330,7 @@
       <c r="X349" s="3"/>
       <c r="Y349" s="3"/>
     </row>
-    <row r="350" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A350" s="4" t="s">
         <v>559</v>
       </c>
@@ -13149,7 +13359,7 @@
       <c r="X350" s="3"/>
       <c r="Y350" s="3"/>
     </row>
-    <row r="351" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A351" s="4" t="s">
         <v>560</v>
       </c>
@@ -13180,7 +13390,7 @@
       <c r="X351" s="3"/>
       <c r="Y351" s="3"/>
     </row>
-    <row r="352" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A352" s="4" t="s">
         <v>562</v>
       </c>
@@ -13209,7 +13419,7 @@
       <c r="X352" s="3"/>
       <c r="Y352" s="3"/>
     </row>
-    <row r="353" customFormat="false" ht="143" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A353" s="4" t="s">
         <v>563</v>
       </c>
@@ -13240,7 +13450,7 @@
       <c r="X353" s="3"/>
       <c r="Y353" s="3"/>
     </row>
-    <row r="354" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A354" s="4" t="s">
         <v>565</v>
       </c>
@@ -13271,7 +13481,7 @@
       <c r="X354" s="3"/>
       <c r="Y354" s="3"/>
     </row>
-    <row r="355" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" spans="1:25" ht="247" x14ac:dyDescent="0.15">
       <c r="A355" s="4" t="s">
         <v>567</v>
       </c>
@@ -13302,7 +13512,7 @@
       <c r="X355" s="3"/>
       <c r="Y355" s="3"/>
     </row>
-    <row r="356" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" spans="1:25" ht="247" x14ac:dyDescent="0.15">
       <c r="A356" s="4" t="s">
         <v>569</v>
       </c>
@@ -13333,7 +13543,7 @@
       <c r="X356" s="3"/>
       <c r="Y356" s="3"/>
     </row>
-    <row r="357" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A357" s="4" t="s">
         <v>571</v>
       </c>
@@ -13362,7 +13572,7 @@
       <c r="X357" s="3"/>
       <c r="Y357" s="3"/>
     </row>
-    <row r="358" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A358" s="4" t="s">
         <v>572</v>
       </c>
@@ -13393,7 +13603,7 @@
       <c r="X358" s="3"/>
       <c r="Y358" s="3"/>
     </row>
-    <row r="359" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A359" s="4" t="s">
         <v>574</v>
       </c>
@@ -13422,7 +13632,7 @@
       <c r="X359" s="3"/>
       <c r="Y359" s="3"/>
     </row>
-    <row r="360" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A360" s="4" t="s">
         <v>575</v>
       </c>
@@ -13451,7 +13661,7 @@
       <c r="X360" s="3"/>
       <c r="Y360" s="3"/>
     </row>
-    <row r="361" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A361" s="4" t="s">
         <v>576</v>
       </c>
@@ -13480,7 +13690,7 @@
       <c r="X361" s="3"/>
       <c r="Y361" s="3"/>
     </row>
-    <row r="362" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" spans="1:25" ht="247" x14ac:dyDescent="0.15">
       <c r="A362" s="4" t="s">
         <v>577</v>
       </c>
@@ -13511,7 +13721,7 @@
       <c r="X362" s="3"/>
       <c r="Y362" s="3"/>
     </row>
-    <row r="363" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A363" s="4" t="s">
         <v>579</v>
       </c>
@@ -13542,7 +13752,7 @@
       <c r="X363" s="3"/>
       <c r="Y363" s="3"/>
     </row>
-    <row r="364" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A364" s="4" t="s">
         <v>581</v>
       </c>
@@ -13573,7 +13783,7 @@
       <c r="X364" s="3"/>
       <c r="Y364" s="3"/>
     </row>
-    <row r="365" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" spans="1:25" ht="338" x14ac:dyDescent="0.15">
       <c r="A365" s="4" t="s">
         <v>583</v>
       </c>
@@ -13604,7 +13814,7 @@
       <c r="X365" s="3"/>
       <c r="Y365" s="3"/>
     </row>
-    <row r="366" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A366" s="4" t="s">
         <v>585</v>
       </c>
@@ -13633,7 +13843,7 @@
       <c r="X366" s="3"/>
       <c r="Y366" s="3"/>
     </row>
-    <row r="367" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A367" s="4" t="s">
         <v>586</v>
       </c>
@@ -13662,7 +13872,7 @@
       <c r="X367" s="3"/>
       <c r="Y367" s="3"/>
     </row>
-    <row r="368" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A368" s="4" t="s">
         <v>587</v>
       </c>
@@ -13691,7 +13901,7 @@
       <c r="X368" s="3"/>
       <c r="Y368" s="3"/>
     </row>
-    <row r="369" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A369" s="4" t="s">
         <v>588</v>
       </c>
@@ -13720,7 +13930,7 @@
       <c r="X369" s="3"/>
       <c r="Y369" s="3"/>
     </row>
-    <row r="370" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A370" s="4" t="s">
         <v>589</v>
       </c>
@@ -13751,7 +13961,7 @@
       <c r="X370" s="3"/>
       <c r="Y370" s="3"/>
     </row>
-    <row r="371" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A371" s="4" t="s">
         <v>591</v>
       </c>
@@ -13780,7 +13990,7 @@
       <c r="X371" s="3"/>
       <c r="Y371" s="3"/>
     </row>
-    <row r="372" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A372" s="4" t="s">
         <v>592</v>
       </c>
@@ -13811,7 +14021,7 @@
       <c r="X372" s="3"/>
       <c r="Y372" s="3"/>
     </row>
-    <row r="373" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A373" s="4" t="s">
         <v>594</v>
       </c>
@@ -13840,7 +14050,7 @@
       <c r="X373" s="3"/>
       <c r="Y373" s="3"/>
     </row>
-    <row r="374" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A374" s="4" t="s">
         <v>595</v>
       </c>
@@ -13869,7 +14079,7 @@
       <c r="X374" s="3"/>
       <c r="Y374" s="3"/>
     </row>
-    <row r="375" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A375" s="4" t="s">
         <v>596</v>
       </c>
@@ -13898,7 +14108,7 @@
       <c r="X375" s="3"/>
       <c r="Y375" s="3"/>
     </row>
-    <row r="376" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A376" s="4" t="s">
         <v>597</v>
       </c>
@@ -13929,7 +14139,7 @@
       <c r="X376" s="3"/>
       <c r="Y376" s="3"/>
     </row>
-    <row r="377" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A377" s="4" t="s">
         <v>599</v>
       </c>
@@ -13960,7 +14170,7 @@
       <c r="X377" s="3"/>
       <c r="Y377" s="3"/>
     </row>
-    <row r="378" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A378" s="4" t="s">
         <v>601</v>
       </c>
@@ -13991,7 +14201,7 @@
       <c r="X378" s="3"/>
       <c r="Y378" s="3"/>
     </row>
-    <row r="379" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A379" s="4" t="s">
         <v>603</v>
       </c>
@@ -14022,7 +14232,7 @@
       <c r="X379" s="3"/>
       <c r="Y379" s="3"/>
     </row>
-    <row r="380" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" spans="1:25" ht="325" x14ac:dyDescent="0.15">
       <c r="A380" s="4" t="s">
         <v>605</v>
       </c>
@@ -14055,7 +14265,7 @@
       <c r="X380" s="3"/>
       <c r="Y380" s="3"/>
     </row>
-    <row r="381" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" spans="1:25" ht="364" x14ac:dyDescent="0.15">
       <c r="A381" s="4" t="s">
         <v>608</v>
       </c>
@@ -14086,7 +14296,7 @@
       <c r="X381" s="3"/>
       <c r="Y381" s="3"/>
     </row>
-    <row r="382" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A382" s="4" t="s">
         <v>610</v>
       </c>
@@ -14115,7 +14325,7 @@
       <c r="X382" s="3"/>
       <c r="Y382" s="3"/>
     </row>
-    <row r="383" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" spans="1:25" ht="364" x14ac:dyDescent="0.15">
       <c r="A383" s="4" t="s">
         <v>611</v>
       </c>
@@ -14146,7 +14356,7 @@
       <c r="X383" s="3"/>
       <c r="Y383" s="3"/>
     </row>
-    <row r="384" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A384" s="4" t="s">
         <v>613</v>
       </c>
@@ -14177,7 +14387,7 @@
       <c r="X384" s="3"/>
       <c r="Y384" s="3"/>
     </row>
-    <row r="385" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A385" s="4" t="s">
         <v>615</v>
       </c>
@@ -14208,7 +14418,7 @@
       <c r="X385" s="3"/>
       <c r="Y385" s="3"/>
     </row>
-    <row r="386" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A386" s="4" t="s">
         <v>617</v>
       </c>
@@ -14239,7 +14449,7 @@
       <c r="X386" s="3"/>
       <c r="Y386" s="3"/>
     </row>
-    <row r="387" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" spans="1:25" ht="208" x14ac:dyDescent="0.15">
       <c r="A387" s="4" t="s">
         <v>619</v>
       </c>
@@ -14270,7 +14480,7 @@
       <c r="X387" s="3"/>
       <c r="Y387" s="3"/>
     </row>
-    <row r="388" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A388" s="4" t="s">
         <v>621</v>
       </c>
@@ -14299,7 +14509,7 @@
       <c r="X388" s="3"/>
       <c r="Y388" s="3"/>
     </row>
-    <row r="389" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" spans="1:25" ht="16" x14ac:dyDescent="0.25">
       <c r="A389" s="7" t="s">
         <v>622</v>
       </c>
@@ -14328,7 +14538,7 @@
       <c r="X389" s="3"/>
       <c r="Y389" s="3"/>
     </row>
-    <row r="390" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A390" s="4" t="s">
         <v>623</v>
       </c>
@@ -14357,7 +14567,7 @@
       <c r="X390" s="3"/>
       <c r="Y390" s="3"/>
     </row>
-    <row r="391" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A391" s="4" t="s">
         <v>624</v>
       </c>
@@ -14388,7 +14598,7 @@
       <c r="X391" s="3"/>
       <c r="Y391" s="3"/>
     </row>
-    <row r="392" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A392" s="4" t="s">
         <v>626</v>
       </c>
@@ -14419,7 +14629,7 @@
       <c r="X392" s="3"/>
       <c r="Y392" s="3"/>
     </row>
-    <row r="393" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" spans="1:25" ht="403" x14ac:dyDescent="0.15">
       <c r="A393" s="4" t="s">
         <v>628</v>
       </c>
@@ -14450,7 +14660,7 @@
       <c r="X393" s="3"/>
       <c r="Y393" s="3"/>
     </row>
-    <row r="394" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A394" s="4" t="s">
         <v>630</v>
       </c>
@@ -14481,7 +14691,7 @@
       <c r="X394" s="3"/>
       <c r="Y394" s="3"/>
     </row>
-    <row r="395" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A395" s="4" t="s">
         <v>632</v>
       </c>
@@ -14512,7 +14722,7 @@
       <c r="X395" s="3"/>
       <c r="Y395" s="3"/>
     </row>
-    <row r="396" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A396" s="4" t="s">
         <v>634</v>
       </c>
@@ -14543,7 +14753,7 @@
       <c r="X396" s="3"/>
       <c r="Y396" s="3"/>
     </row>
-    <row r="397" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A397" s="4" t="s">
         <v>636</v>
       </c>
@@ -14574,7 +14784,7 @@
       <c r="X397" s="3"/>
       <c r="Y397" s="3"/>
     </row>
-    <row r="398" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A398" s="4" t="s">
         <v>638</v>
       </c>
@@ -14605,7 +14815,7 @@
       <c r="X398" s="3"/>
       <c r="Y398" s="3"/>
     </row>
-    <row r="399" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A399" s="4" t="s">
         <v>640</v>
       </c>
@@ -14634,7 +14844,7 @@
       <c r="X399" s="3"/>
       <c r="Y399" s="3"/>
     </row>
-    <row r="400" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" spans="1:25" ht="260" x14ac:dyDescent="0.15">
       <c r="A400" s="4" t="s">
         <v>641</v>
       </c>
@@ -14665,7 +14875,7 @@
       <c r="X400" s="3"/>
       <c r="Y400" s="3"/>
     </row>
-    <row r="401" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A401" s="4" t="s">
         <v>643</v>
       </c>
@@ -14696,7 +14906,7 @@
       <c r="X401" s="3"/>
       <c r="Y401" s="3"/>
     </row>
-    <row r="402" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A402" s="4" t="s">
         <v>645</v>
       </c>
@@ -14727,7 +14937,7 @@
       <c r="X402" s="3"/>
       <c r="Y402" s="3"/>
     </row>
-    <row r="403" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A403" s="4" t="s">
         <v>647</v>
       </c>
@@ -14756,7 +14966,7 @@
       <c r="X403" s="3"/>
       <c r="Y403" s="3"/>
     </row>
-    <row r="404" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A404" s="4" t="s">
         <v>648</v>
       </c>
@@ -14785,7 +14995,7 @@
       <c r="X404" s="3"/>
       <c r="Y404" s="3"/>
     </row>
-    <row r="405" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" spans="1:25" ht="364" x14ac:dyDescent="0.15">
       <c r="A405" s="4" t="s">
         <v>649</v>
       </c>
@@ -14816,7 +15026,7 @@
       <c r="X405" s="3"/>
       <c r="Y405" s="3"/>
     </row>
-    <row r="406" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A406" s="4" t="s">
         <v>651</v>
       </c>
@@ -14845,7 +15055,7 @@
       <c r="X406" s="3"/>
       <c r="Y406" s="3"/>
     </row>
-    <row r="407" customFormat="false" ht="156" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A407" s="4" t="s">
         <v>652</v>
       </c>
@@ -14876,7 +15086,7 @@
       <c r="X407" s="3"/>
       <c r="Y407" s="3"/>
     </row>
-    <row r="408" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A408" s="4" t="s">
         <v>654</v>
       </c>
@@ -14905,7 +15115,7 @@
       <c r="X408" s="3"/>
       <c r="Y408" s="3"/>
     </row>
-    <row r="409" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A409" s="4" t="s">
         <v>655</v>
       </c>
@@ -14934,7 +15144,7 @@
       <c r="X409" s="3"/>
       <c r="Y409" s="3"/>
     </row>
-    <row r="410" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A410" s="4" t="s">
         <v>656</v>
       </c>
@@ -14963,7 +15173,7 @@
       <c r="X410" s="3"/>
       <c r="Y410" s="3"/>
     </row>
-    <row r="411" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A411" s="4" t="s">
         <v>657</v>
       </c>
@@ -14992,7 +15202,7 @@
       <c r="X411" s="3"/>
       <c r="Y411" s="3"/>
     </row>
-    <row r="412" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A412" s="4" t="s">
         <v>658</v>
       </c>
@@ -15023,7 +15233,7 @@
       <c r="X412" s="3"/>
       <c r="Y412" s="3"/>
     </row>
-    <row r="413" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A413" s="4" t="s">
         <v>660</v>
       </c>
@@ -15052,7 +15262,7 @@
       <c r="X413" s="3"/>
       <c r="Y413" s="3"/>
     </row>
-    <row r="414" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A414" s="4" t="s">
         <v>661</v>
       </c>
@@ -15081,7 +15291,7 @@
       <c r="X414" s="3"/>
       <c r="Y414" s="3"/>
     </row>
-    <row r="415" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A415" s="4" t="s">
         <v>662</v>
       </c>
@@ -15110,7 +15320,7 @@
       <c r="X415" s="3"/>
       <c r="Y415" s="3"/>
     </row>
-    <row r="416" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A416" s="4" t="s">
         <v>663</v>
       </c>
@@ -15139,7 +15349,7 @@
       <c r="X416" s="3"/>
       <c r="Y416" s="3"/>
     </row>
-    <row r="417" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A417" s="4" t="s">
         <v>664</v>
       </c>
@@ -15168,7 +15378,7 @@
       <c r="X417" s="3"/>
       <c r="Y417" s="3"/>
     </row>
-    <row r="418" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A418" s="4" t="s">
         <v>665</v>
       </c>
@@ -15197,7 +15407,7 @@
       <c r="X418" s="3"/>
       <c r="Y418" s="3"/>
     </row>
-    <row r="419" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A419" s="4" t="s">
         <v>666</v>
       </c>
@@ -15226,7 +15436,7 @@
       <c r="X419" s="3"/>
       <c r="Y419" s="3"/>
     </row>
-    <row r="420" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A420" s="4" t="s">
         <v>667</v>
       </c>
@@ -15255,7 +15465,7 @@
       <c r="X420" s="3"/>
       <c r="Y420" s="3"/>
     </row>
-    <row r="421" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A421" s="4" t="s">
         <v>668</v>
       </c>
@@ -15287,12 +15497,7 @@
       <c r="Y421" s="3"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/mappings/wikipathways_reactome.xlsx
+++ b/mappings/wikipathways_reactome.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11620" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500"/>
+    <workbookView xWindow="11520" yWindow="460" windowWidth="17080" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -658,13 +658,6 @@
     <t>Eicosanoid Synthesis</t>
   </si>
   <si>
-    <t>Eicosanoid Synthesis* isPartOf Arachidonic acid metabolism
-Eicosanoid Synthesis* isPartOf Eicosanoids
-Eicosanoid Synthesis* isPartOf Metabolism of lipids
-Eicosanoid Synthesis* isPartOf Metabolism
-Eicosanoids isPartOf Eicosanoid Synthesis*</t>
-  </si>
-  <si>
     <t>Electron Transport Chain</t>
   </si>
   <si>
@@ -950,14 +943,6 @@
     <t>Glucocorticoid and Mineralcorticoid Metabolism</t>
   </si>
   <si>
-    <t>Metabolism of steroids isPartOf Glucocorticoid and Mineralcorticoid Metabolism*
-Glucocorticoid and Mineralcorticoid Metabolism* isPartOf Metabolism of steroid hormones
-Mineralocorticoid biosynthesis isPartOf Glucocorticoid and Mineralcorticoid Metabolism*
-Glucocorticoid biosynthesis isPartOf Glucocorticoid and Mineralcorticoid Metabolism*
-Glucocorticoid and Mineralcorticoid Metabolism* isPartOf Metabolism of steroids
-Glucocorticoid and Mineralcorticoid Metabolism* isPartOf Metabolism</t>
-  </si>
-  <si>
     <t>Glucose Homeostasis</t>
   </si>
   <si>
@@ -1360,13 +1345,6 @@
   </si>
   <si>
     <t>Metabolism of Spingolipids in ER and Golgi apparatus</t>
-  </si>
-  <si>
-    <t>Metabolism of Spingolipids in ER and Golgi apparatus* isPartOf Metabolism
-Metabolism of Spingolipids in ER and Golgi apparatus* isPartOf Metabolism of proteins
-Metabolism of Spingolipids in ER and Golgi apparatus* isPartOf Metabolism of lipids
-Metabolism of Spingolipids in ER and Golgi apparatus* isPartOf Sphingolipid metabolism
-Sphingolipid metabolism isPartOf Metabolism of Spingolipids in ER and Golgi apparatus*</t>
   </si>
   <si>
     <t>Metabolism of Tetrahydrocannabinol (THC)</t>
@@ -1809,15 +1787,6 @@
     <t>Prostaglandin Synthesis and Regulation</t>
   </si>
   <si>
-    <t>COX reactions isPartOf Prostaglandin Synthesis and Regulation*
-Prostaglandin Synthesis and Regulation* isPartOf Metabolism of lipids
-Prostaglandin Synthesis and Regulation* isPartOf Synthesis of Prostaglandins (PG) and Thromboxanes (TX)
-Eicosanoid ligand-binding receptors isPartOf Prostaglandin Synthesis and Regulation*
-Synthesis of Prostaglandins (PG) and Thromboxanes (TX) isPartOf Prostaglandin Synthesis and Regulation*
-Prostanoid ligand receptors isPartOf Prostaglandin Synthesis and Regulation*
-Prostaglandin Synthesis and Regulation* isPartOf Metabolism</t>
-  </si>
-  <si>
     <t>Proteasome Degradation</t>
   </si>
   <si>
@@ -2426,17 +2395,48 @@
   <si>
     <t xml:space="preserve">p38 MAPK Signaling Pathway equivalentTo p38MAPK events </t>
   </si>
+  <si>
+    <t>Glucocorticoid and Mineralcorticoid Metabolism* isPartOf Metabolism of steroid hormones
+Mineralocorticoid biosynthesis isPartOf Glucocorticoid and Mineralcorticoid Metabolism*
+Glucocorticoid biosynthesis isPartOf Glucocorticoid and Mineralcorticoid Metabolism*
+Glucocorticoid and Mineralcorticoid Metabolism* isPartOf Metabolism of steroids
+Glucocorticoid and Mineralcorticoid Metabolism* isPartOf Metabolism</t>
+  </si>
+  <si>
+    <t>Eicosanoid Synthesis* isPartOf Arachidonic acid metabolism
+Eicosanoid Synthesis* isPartOf Eicosanoids
+Eicosanoid Synthesis* isPartOf Metabolism of lipids
+Eicosanoid Synthesis* isPartOf Metabolism</t>
+  </si>
+  <si>
+    <t>Metabolism of Spingolipids in ER and Golgi apparatus* isPartOf Metabolism
+Metabolism of Spingolipids in ER and Golgi apparatus* isPartOf Metabolism of proteins
+Metabolism of Spingolipids in ER and Golgi apparatus* isPartOf Metabolism of lipids
+Metabolism of Spingolipids in ER and Golgi apparatus* isPartOf Sphingolipid metabolism</t>
+  </si>
+  <si>
+    <t>COX reactions isPartOf Prostaglandin Synthesis and Regulation*
+Prostaglandin Synthesis and Regulation* isPartOf Metabolism of lipids
+Eicosanoid ligand-binding receptors isPartOf Prostaglandin Synthesis and Regulation*
+Synthesis of Prostaglandins (PG) and Thromboxanes (TX) isPartOf Prostaglandin Synthesis and Regulation*
+Prostanoid ligand receptors isPartOf Prostaglandin Synthesis and Regulation*
+Prostaglandin Synthesis and Regulation* isPartOf Metabolism</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -2482,27 +2482,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2782,8 +2785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="82" workbookViewId="0">
-      <selection activeCell="B312" sqref="B312"/>
+    <sheetView tabSelected="1" topLeftCell="A306" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="82" workbookViewId="0">
+      <selection activeCell="I306" sqref="I306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5914,13 +5917,13 @@
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
     </row>
-    <row r="104" spans="1:25" ht="409" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:25" ht="338" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
         <v>171</v>
       </c>
       <c r="B104" s="4"/>
-      <c r="C104" s="4" t="s">
-        <v>172</v>
+      <c r="C104" s="8" t="s">
+        <v>667</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -5947,10 +5950,10 @@
     </row>
     <row r="105" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="3"/>
@@ -5978,11 +5981,11 @@
     </row>
     <row r="106" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -6009,7 +6012,7 @@
     </row>
     <row r="107" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -6038,7 +6041,7 @@
     </row>
     <row r="108" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -6067,7 +6070,7 @@
     </row>
     <row r="109" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -6096,11 +6099,11 @@
     </row>
     <row r="110" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B110" s="4"/>
       <c r="C110" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -6127,11 +6130,11 @@
     </row>
     <row r="111" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -6158,7 +6161,7 @@
     </row>
     <row r="112" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -6187,11 +6190,11 @@
     </row>
     <row r="113" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B113" s="4"/>
       <c r="C113" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -6218,7 +6221,7 @@
     </row>
     <row r="114" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -6247,7 +6250,7 @@
     </row>
     <row r="115" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -6276,7 +6279,7 @@
     </row>
     <row r="116" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -6305,7 +6308,7 @@
     </row>
     <row r="117" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -6334,7 +6337,7 @@
     </row>
     <row r="118" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -6363,7 +6366,7 @@
     </row>
     <row r="119" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -6392,7 +6395,7 @@
     </row>
     <row r="120" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -6421,7 +6424,7 @@
     </row>
     <row r="121" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -6450,7 +6453,7 @@
     </row>
     <row r="122" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -6479,11 +6482,11 @@
     </row>
     <row r="123" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B123" s="4"/>
       <c r="C123" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -6510,13 +6513,13 @@
     </row>
     <row r="124" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B124" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="C124" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -6543,11 +6546,11 @@
     </row>
     <row r="125" spans="1:25" ht="351" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B125" s="4"/>
       <c r="C125" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -6574,11 +6577,11 @@
     </row>
     <row r="126" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B126" s="4"/>
       <c r="C126" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -6605,11 +6608,11 @@
     </row>
     <row r="127" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B127" s="4"/>
       <c r="C127" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -6636,11 +6639,11 @@
     </row>
     <row r="128" spans="1:25" ht="273" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B128" s="4"/>
       <c r="C128" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -6667,11 +6670,11 @@
     </row>
     <row r="129" spans="1:25" ht="273" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B129" s="4"/>
       <c r="C129" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -6698,11 +6701,11 @@
     </row>
     <row r="130" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B130" s="4"/>
       <c r="C130" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -6729,7 +6732,7 @@
     </row>
     <row r="131" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -6758,11 +6761,11 @@
     </row>
     <row r="132" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B132" s="4"/>
       <c r="C132" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -6789,7 +6792,7 @@
     </row>
     <row r="133" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -6818,7 +6821,7 @@
     </row>
     <row r="134" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -6847,7 +6850,7 @@
     </row>
     <row r="135" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -6876,11 +6879,11 @@
     </row>
     <row r="136" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B136" s="4"/>
       <c r="C136" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -6907,11 +6910,11 @@
     </row>
     <row r="137" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B137" s="4"/>
       <c r="C137" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -6938,13 +6941,13 @@
     </row>
     <row r="138" spans="1:25" ht="169" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="C138" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -6971,10 +6974,10 @@
     </row>
     <row r="139" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B139" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="3"/>
@@ -7002,10 +7005,10 @@
     </row>
     <row r="140" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="3"/>
@@ -7033,10 +7036,10 @@
     </row>
     <row r="141" spans="1:25" ht="208" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="3"/>
@@ -7064,11 +7067,11 @@
     </row>
     <row r="142" spans="1:25" ht="234" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B142" s="4"/>
       <c r="C142" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -7095,10 +7098,10 @@
     </row>
     <row r="143" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="3"/>
@@ -7126,11 +7129,11 @@
     </row>
     <row r="144" spans="1:25" ht="234" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B144" s="4"/>
       <c r="C144" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -7157,7 +7160,7 @@
     </row>
     <row r="145" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -7186,7 +7189,7 @@
     </row>
     <row r="146" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -7215,7 +7218,7 @@
     </row>
     <row r="147" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -7244,7 +7247,7 @@
     </row>
     <row r="148" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -7273,11 +7276,11 @@
     </row>
     <row r="149" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B149" s="4"/>
       <c r="C149" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -7304,11 +7307,11 @@
     </row>
     <row r="150" spans="1:25" ht="234" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B150" s="4"/>
       <c r="C150" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -7335,11 +7338,11 @@
     </row>
     <row r="151" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B151" s="4"/>
-      <c r="C151" s="4" t="s">
-        <v>247</v>
+      <c r="C151" s="8" t="s">
+        <v>666</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -7366,11 +7369,11 @@
     </row>
     <row r="152" spans="1:25" ht="299" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B152" s="4"/>
       <c r="C152" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -7397,10 +7400,10 @@
     </row>
     <row r="153" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="3"/>
@@ -7428,11 +7431,11 @@
     </row>
     <row r="154" spans="1:25" ht="195" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B154" s="4"/>
       <c r="C154" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -7459,10 +7462,10 @@
     </row>
     <row r="155" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="3"/>
@@ -7490,10 +7493,10 @@
     </row>
     <row r="156" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="3"/>
@@ -7521,11 +7524,11 @@
     </row>
     <row r="157" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B157" s="4"/>
       <c r="C157" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -7552,11 +7555,11 @@
     </row>
     <row r="158" spans="1:25" ht="182" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B158" s="4"/>
       <c r="C158" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -7583,7 +7586,7 @@
     </row>
     <row r="159" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -7612,11 +7615,11 @@
     </row>
     <row r="160" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B160" s="4"/>
       <c r="C160" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -7643,7 +7646,7 @@
     </row>
     <row r="161" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -7672,10 +7675,10 @@
     </row>
     <row r="162" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="3"/>
@@ -7703,7 +7706,7 @@
     </row>
     <row r="163" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -7732,7 +7735,7 @@
     </row>
     <row r="164" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -7761,10 +7764,10 @@
     </row>
     <row r="165" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="3"/>
@@ -7792,7 +7795,7 @@
     </row>
     <row r="166" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A166" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -7821,7 +7824,7 @@
     </row>
     <row r="167" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -7850,11 +7853,11 @@
     </row>
     <row r="168" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A168" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B168" s="4"/>
       <c r="C168" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -7881,7 +7884,7 @@
     </row>
     <row r="169" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A169" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -7910,11 +7913,11 @@
     </row>
     <row r="170" spans="1:25" ht="195" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B170" s="4"/>
       <c r="C170" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -7941,10 +7944,10 @@
     </row>
     <row r="171" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A171" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -7971,7 +7974,7 @@
     </row>
     <row r="172" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A172" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -8000,7 +8003,7 @@
     </row>
     <row r="173" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A173" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -8029,7 +8032,7 @@
     </row>
     <row r="174" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A174" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -8058,7 +8061,7 @@
     </row>
     <row r="175" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A175" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -8087,7 +8090,7 @@
     </row>
     <row r="176" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A176" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -8116,7 +8119,7 @@
     </row>
     <row r="177" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A177" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -8145,7 +8148,7 @@
     </row>
     <row r="178" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A178" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -8174,10 +8177,10 @@
     </row>
     <row r="179" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A179" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="3"/>
@@ -8205,10 +8208,10 @@
     </row>
     <row r="180" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A180" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="3"/>
@@ -8236,11 +8239,11 @@
     </row>
     <row r="181" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A181" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B181" s="4"/>
       <c r="C181" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -8267,11 +8270,11 @@
     </row>
     <row r="182" spans="1:25" ht="377" x14ac:dyDescent="0.15">
       <c r="A182" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B182" s="4"/>
       <c r="C182" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -8298,11 +8301,11 @@
     </row>
     <row r="183" spans="1:25" ht="377" x14ac:dyDescent="0.15">
       <c r="A183" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B183" s="4"/>
       <c r="C183" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -8329,10 +8332,10 @@
     </row>
     <row r="184" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A184" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="3"/>
@@ -8360,10 +8363,10 @@
     </row>
     <row r="185" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A185" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="3"/>
@@ -8391,10 +8394,10 @@
     </row>
     <row r="186" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A186" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="3"/>
@@ -8422,11 +8425,11 @@
     </row>
     <row r="187" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A187" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B187" s="4"/>
       <c r="C187" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -8453,10 +8456,10 @@
     </row>
     <row r="188" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A188" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="3"/>
@@ -8484,7 +8487,7 @@
     </row>
     <row r="189" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A189" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -8513,11 +8516,11 @@
     </row>
     <row r="190" spans="1:25" ht="208" x14ac:dyDescent="0.15">
       <c r="A190" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B190" s="4"/>
       <c r="C190" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -8544,11 +8547,11 @@
     </row>
     <row r="191" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A191" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B191" s="4"/>
       <c r="C191" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -8575,7 +8578,7 @@
     </row>
     <row r="192" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A192" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -8604,7 +8607,7 @@
     </row>
     <row r="193" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A193" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -8633,11 +8636,11 @@
     </row>
     <row r="194" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A194" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B194" s="4"/>
       <c r="C194" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -8664,11 +8667,11 @@
     </row>
     <row r="195" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A195" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B195" s="4"/>
       <c r="C195" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -8695,7 +8698,7 @@
     </row>
     <row r="196" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A196" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -8724,11 +8727,11 @@
     </row>
     <row r="197" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A197" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B197" s="4"/>
       <c r="C197" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -8755,11 +8758,11 @@
     </row>
     <row r="198" spans="1:25" ht="208" x14ac:dyDescent="0.15">
       <c r="A198" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B198" s="4"/>
       <c r="C198" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -8786,7 +8789,7 @@
     </row>
     <row r="199" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A199" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -8815,11 +8818,11 @@
     </row>
     <row r="200" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A200" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B200" s="4"/>
       <c r="C200" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -8846,11 +8849,11 @@
     </row>
     <row r="201" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A201" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B201" s="4"/>
       <c r="C201" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -8877,11 +8880,11 @@
     </row>
     <row r="202" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A202" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B202" s="4"/>
       <c r="C202" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -8908,7 +8911,7 @@
     </row>
     <row r="203" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A203" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -8937,11 +8940,11 @@
     </row>
     <row r="204" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A204" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B204" s="4"/>
       <c r="C204" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -8968,11 +8971,11 @@
     </row>
     <row r="205" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A205" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B205" s="4"/>
       <c r="C205" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -8999,11 +9002,11 @@
     </row>
     <row r="206" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A206" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B206" s="4"/>
       <c r="C206" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -9030,11 +9033,11 @@
     </row>
     <row r="207" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A207" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B207" s="4"/>
       <c r="C207" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -9061,11 +9064,11 @@
     </row>
     <row r="208" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A208" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B208" s="4"/>
       <c r="C208" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -9092,10 +9095,10 @@
     </row>
     <row r="209" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A209" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="3"/>
@@ -9123,11 +9126,11 @@
     </row>
     <row r="210" spans="1:25" ht="208" x14ac:dyDescent="0.15">
       <c r="A210" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B210" s="4"/>
       <c r="C210" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -9154,10 +9157,10 @@
     </row>
     <row r="211" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A211" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="3"/>
@@ -9185,11 +9188,11 @@
     </row>
     <row r="212" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A212" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B212" s="4"/>
       <c r="C212" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -9216,7 +9219,7 @@
     </row>
     <row r="213" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A213" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -9245,7 +9248,7 @@
     </row>
     <row r="214" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A214" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="215" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A215" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -9303,10 +9306,10 @@
     </row>
     <row r="216" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A216" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="3"/>
@@ -9334,10 +9337,10 @@
     </row>
     <row r="217" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A217" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="3"/>
@@ -9365,7 +9368,7 @@
     </row>
     <row r="218" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A218" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -9394,7 +9397,7 @@
     </row>
     <row r="219" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A219" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -9423,11 +9426,11 @@
     </row>
     <row r="220" spans="1:25" ht="260" x14ac:dyDescent="0.15">
       <c r="A220" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B220" s="4"/>
       <c r="C220" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -9454,11 +9457,11 @@
     </row>
     <row r="221" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A221" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B221" s="4"/>
       <c r="C221" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -9485,7 +9488,7 @@
     </row>
     <row r="222" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A222" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -9514,7 +9517,7 @@
     </row>
     <row r="223" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A223" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -9543,11 +9546,11 @@
     </row>
     <row r="224" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A224" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B224" s="4"/>
-      <c r="C224" s="4" t="s">
-        <v>366</v>
+      <c r="C224" s="8" t="s">
+        <v>668</v>
       </c>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -9574,11 +9577,11 @@
     </row>
     <row r="225" spans="1:25" ht="364" x14ac:dyDescent="0.15">
       <c r="A225" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B225" s="4"/>
       <c r="C225" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -9605,7 +9608,7 @@
     </row>
     <row r="226" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A226" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -9634,7 +9637,7 @@
     </row>
     <row r="227" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A227" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -9663,13 +9666,13 @@
     </row>
     <row r="228" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A228" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -9696,10 +9699,10 @@
     </row>
     <row r="229" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A229" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="3"/>
@@ -9727,7 +9730,7 @@
     </row>
     <row r="230" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A230" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -9756,11 +9759,11 @@
     </row>
     <row r="231" spans="1:25" ht="221" x14ac:dyDescent="0.15">
       <c r="A231" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B231" s="4"/>
       <c r="C231" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -9787,10 +9790,10 @@
     </row>
     <row r="232" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A232" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="3"/>
@@ -9818,11 +9821,11 @@
     </row>
     <row r="233" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A233" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B233" s="4"/>
       <c r="C233" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -9849,11 +9852,11 @@
     </row>
     <row r="234" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A234" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B234" s="4"/>
       <c r="C234" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -9880,11 +9883,11 @@
     </row>
     <row r="235" spans="1:25" ht="377" x14ac:dyDescent="0.15">
       <c r="A235" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B235" s="4"/>
       <c r="C235" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -9911,11 +9914,11 @@
     </row>
     <row r="236" spans="1:25" ht="312" x14ac:dyDescent="0.15">
       <c r="A236" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B236" s="4"/>
       <c r="C236" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -9942,7 +9945,7 @@
     </row>
     <row r="237" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A237" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -9971,11 +9974,11 @@
     </row>
     <row r="238" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A238" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B238" s="4"/>
       <c r="C238" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -10002,7 +10005,7 @@
     </row>
     <row r="239" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A239" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -10031,11 +10034,11 @@
     </row>
     <row r="240" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A240" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B240" s="4"/>
       <c r="C240" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -10062,11 +10065,11 @@
     </row>
     <row r="241" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A241" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B241" s="4"/>
       <c r="C241" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -10093,11 +10096,11 @@
     </row>
     <row r="242" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A242" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B242" s="4"/>
       <c r="C242" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -10124,7 +10127,7 @@
     </row>
     <row r="243" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A243" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -10153,7 +10156,7 @@
     </row>
     <row r="244" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A244" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -10182,7 +10185,7 @@
     </row>
     <row r="245" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A245" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -10211,11 +10214,11 @@
     </row>
     <row r="246" spans="1:25" ht="195" x14ac:dyDescent="0.15">
       <c r="A246" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B246" s="4"/>
       <c r="C246" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -10242,7 +10245,7 @@
     </row>
     <row r="247" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A247" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -10271,11 +10274,11 @@
     </row>
     <row r="248" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A248" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B248" s="4"/>
       <c r="C248" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -10302,7 +10305,7 @@
     </row>
     <row r="249" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A249" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -10331,7 +10334,7 @@
     </row>
     <row r="250" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A250" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -10360,11 +10363,11 @@
     </row>
     <row r="251" spans="1:25" ht="286" x14ac:dyDescent="0.15">
       <c r="A251" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B251" s="4"/>
       <c r="C251" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -10391,7 +10394,7 @@
     </row>
     <row r="252" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A252" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -10420,11 +10423,11 @@
     </row>
     <row r="253" spans="1:25" ht="208" x14ac:dyDescent="0.15">
       <c r="A253" s="4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B253" s="4"/>
       <c r="C253" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -10451,11 +10454,11 @@
     </row>
     <row r="254" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A254" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B254" s="4"/>
       <c r="C254" s="4" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -10482,10 +10485,10 @@
     </row>
     <row r="255" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A255" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="3"/>
@@ -10513,10 +10516,10 @@
     </row>
     <row r="256" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A256" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="3"/>
@@ -10544,11 +10547,11 @@
     </row>
     <row r="257" spans="1:25" ht="312" x14ac:dyDescent="0.15">
       <c r="A257" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B257" s="4"/>
       <c r="C257" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -10575,11 +10578,11 @@
     </row>
     <row r="258" spans="1:25" ht="234" x14ac:dyDescent="0.15">
       <c r="A258" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B258" s="4"/>
       <c r="C258" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -10606,7 +10609,7 @@
     </row>
     <row r="259" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A259" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -10635,10 +10638,10 @@
     </row>
     <row r="260" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A260" s="4" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="3"/>
@@ -10666,7 +10669,7 @@
     </row>
     <row r="261" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A261" s="4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -10695,7 +10698,7 @@
     </row>
     <row r="262" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A262" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -10724,11 +10727,11 @@
     </row>
     <row r="263" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A263" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B263" s="4"/>
       <c r="C263" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -10755,11 +10758,11 @@
     </row>
     <row r="264" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A264" s="4" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B264" s="4"/>
       <c r="C264" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -10786,11 +10789,11 @@
     </row>
     <row r="265" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A265" s="4" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B265" s="4"/>
       <c r="C265" s="4" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -10817,7 +10820,7 @@
     </row>
     <row r="266" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A266" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -10846,7 +10849,7 @@
     </row>
     <row r="267" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A267" s="4" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -10875,7 +10878,7 @@
     </row>
     <row r="268" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A268" s="4" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -10904,7 +10907,7 @@
     </row>
     <row r="269" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A269" s="4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -10933,7 +10936,7 @@
     </row>
     <row r="270" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A270" s="4" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -10962,11 +10965,11 @@
     </row>
     <row r="271" spans="1:25" ht="234" x14ac:dyDescent="0.15">
       <c r="A271" s="4" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B271" s="4"/>
       <c r="C271" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -10993,11 +10996,11 @@
     </row>
     <row r="272" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A272" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B272" s="4"/>
       <c r="C272" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -11024,11 +11027,11 @@
     </row>
     <row r="273" spans="1:25" ht="273" x14ac:dyDescent="0.15">
       <c r="A273" s="4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B273" s="4"/>
       <c r="C273" s="4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -11055,10 +11058,10 @@
     </row>
     <row r="274" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A274" s="4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="3"/>
@@ -11086,7 +11089,7 @@
     </row>
     <row r="275" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A275" s="4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -11115,11 +11118,11 @@
     </row>
     <row r="276" spans="1:25" ht="182" x14ac:dyDescent="0.15">
       <c r="A276" s="4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B276" s="4"/>
       <c r="C276" s="4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -11146,7 +11149,7 @@
     </row>
     <row r="277" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A277" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -11175,11 +11178,11 @@
     </row>
     <row r="278" spans="1:25" ht="182" x14ac:dyDescent="0.15">
       <c r="A278" s="4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B278" s="4"/>
       <c r="C278" s="4" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -11206,10 +11209,10 @@
     </row>
     <row r="279" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A279" s="4" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C279" s="4"/>
       <c r="D279" s="3"/>
@@ -11237,7 +11240,7 @@
     </row>
     <row r="280" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A280" s="4" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -11266,11 +11269,11 @@
     </row>
     <row r="281" spans="1:25" ht="273" x14ac:dyDescent="0.15">
       <c r="A281" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B281" s="4"/>
       <c r="C281" s="4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -11297,11 +11300,11 @@
     </row>
     <row r="282" spans="1:25" ht="169" x14ac:dyDescent="0.15">
       <c r="A282" s="4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B282" s="4"/>
       <c r="C282" s="4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -11328,7 +11331,7 @@
     </row>
     <row r="283" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A283" s="4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -11357,7 +11360,7 @@
     </row>
     <row r="284" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A284" s="4" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -11386,11 +11389,11 @@
     </row>
     <row r="285" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A285" s="4" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B285" s="4"/>
       <c r="C285" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -11417,11 +11420,11 @@
     </row>
     <row r="286" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A286" s="4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B286" s="4"/>
       <c r="C286" s="4" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -11448,7 +11451,7 @@
     </row>
     <row r="287" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A287" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -11477,10 +11480,10 @@
     </row>
     <row r="288" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A288" s="4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C288" s="4"/>
       <c r="D288" s="3"/>
@@ -11508,11 +11511,11 @@
     </row>
     <row r="289" spans="1:25" ht="234" x14ac:dyDescent="0.15">
       <c r="A289" s="4" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B289" s="4"/>
       <c r="C289" s="4" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -11539,11 +11542,11 @@
     </row>
     <row r="290" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A290" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B290" s="4"/>
       <c r="C290" s="4" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -11570,11 +11573,11 @@
     </row>
     <row r="291" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A291" s="4" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B291" s="4"/>
       <c r="C291" s="4" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -11601,7 +11604,7 @@
     </row>
     <row r="292" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A292" s="4" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -11630,7 +11633,7 @@
     </row>
     <row r="293" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A293" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -11659,7 +11662,7 @@
     </row>
     <row r="294" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A294" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -11688,7 +11691,7 @@
     </row>
     <row r="295" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A295" s="4" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -11717,7 +11720,7 @@
     </row>
     <row r="296" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A296" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -11746,7 +11749,7 @@
     </row>
     <row r="297" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A297" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -11775,11 +11778,11 @@
     </row>
     <row r="298" spans="1:25" ht="234" x14ac:dyDescent="0.15">
       <c r="A298" s="4" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B298" s="4"/>
       <c r="C298" s="4" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -11806,7 +11809,7 @@
     </row>
     <row r="299" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A299" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -11835,7 +11838,7 @@
     </row>
     <row r="300" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A300" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -11864,7 +11867,7 @@
     </row>
     <row r="301" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A301" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -11893,7 +11896,7 @@
     </row>
     <row r="302" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A302" s="4" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -11922,7 +11925,7 @@
     </row>
     <row r="303" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A303" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -11951,10 +11954,10 @@
     </row>
     <row r="304" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A304" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C304" s="4"/>
       <c r="D304" s="3"/>
@@ -11982,7 +11985,7 @@
     </row>
     <row r="305" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A305" s="4" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -12011,11 +12014,11 @@
     </row>
     <row r="306" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A306" s="4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B306" s="4"/>
-      <c r="C306" s="4" t="s">
-        <v>493</v>
+      <c r="C306" s="8" t="s">
+        <v>669</v>
       </c>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -12042,11 +12045,11 @@
     </row>
     <row r="307" spans="1:25" ht="390" x14ac:dyDescent="0.15">
       <c r="A307" s="4" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B307" s="4"/>
       <c r="C307" s="4" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -12073,11 +12076,11 @@
     </row>
     <row r="308" spans="1:25" ht="338" x14ac:dyDescent="0.15">
       <c r="A308" s="4" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B308" s="4"/>
       <c r="C308" s="4" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -12104,7 +12107,7 @@
     </row>
     <row r="309" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A309" s="4" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -12133,11 +12136,11 @@
     </row>
     <row r="310" spans="1:25" ht="169" x14ac:dyDescent="0.15">
       <c r="A310" s="4" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B310" s="4"/>
       <c r="C310" s="4" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -12164,7 +12167,7 @@
     </row>
     <row r="311" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A311" s="4" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -12193,11 +12196,11 @@
     </row>
     <row r="312" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A312" s="4" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B312" s="4"/>
       <c r="C312" s="4" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -12224,7 +12227,7 @@
     </row>
     <row r="313" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A313" s="4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -12253,7 +12256,7 @@
     </row>
     <row r="314" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A314" s="4" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -12282,11 +12285,11 @@
     </row>
     <row r="315" spans="1:25" ht="312" x14ac:dyDescent="0.15">
       <c r="A315" s="4" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B315" s="4"/>
       <c r="C315" s="4" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -12313,7 +12316,7 @@
     </row>
     <row r="316" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A316" s="4" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -12342,11 +12345,11 @@
     </row>
     <row r="317" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A317" s="4" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B317" s="4"/>
       <c r="C317" s="4" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -12373,11 +12376,11 @@
     </row>
     <row r="318" spans="1:25" ht="156" x14ac:dyDescent="0.15">
       <c r="A318" s="4" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B318" s="4"/>
       <c r="C318" s="4" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -12404,7 +12407,7 @@
     </row>
     <row r="319" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A319" s="4" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -12433,11 +12436,11 @@
     </row>
     <row r="320" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A320" s="4" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B320" s="4"/>
       <c r="C320" s="4" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -12464,7 +12467,7 @@
     </row>
     <row r="321" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A321" s="4" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -12493,7 +12496,7 @@
     </row>
     <row r="322" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A322" s="4" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -12522,11 +12525,11 @@
     </row>
     <row r="323" spans="1:25" ht="208" x14ac:dyDescent="0.15">
       <c r="A323" s="4" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B323" s="4"/>
       <c r="C323" s="4" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
@@ -12553,7 +12556,7 @@
     </row>
     <row r="324" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A324" s="4" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -12582,7 +12585,7 @@
     </row>
     <row r="325" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A325" s="4" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -12611,11 +12614,11 @@
     </row>
     <row r="326" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A326" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B326" s="4"/>
       <c r="C326" s="4" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -12642,11 +12645,11 @@
     </row>
     <row r="327" spans="1:25" ht="169" x14ac:dyDescent="0.15">
       <c r="A327" s="4" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B327" s="4"/>
       <c r="C327" s="4" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -12673,7 +12676,7 @@
     </row>
     <row r="328" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A328" s="4" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -12702,11 +12705,11 @@
     </row>
     <row r="329" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A329" s="4" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B329" s="4"/>
       <c r="C329" s="4" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
@@ -12733,7 +12736,7 @@
     </row>
     <row r="330" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A330" s="4" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B330" s="4"/>
       <c r="D330" s="3"/>
@@ -12761,11 +12764,11 @@
     </row>
     <row r="331" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A331" s="4" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B331" s="4"/>
       <c r="C331" s="4" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
@@ -12792,11 +12795,11 @@
     </row>
     <row r="332" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A332" s="4" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B332" s="4"/>
       <c r="C332" s="4" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
@@ -12823,7 +12826,7 @@
     </row>
     <row r="333" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A333" s="4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -12852,7 +12855,7 @@
     </row>
     <row r="334" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A334" s="4" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -12881,11 +12884,11 @@
     </row>
     <row r="335" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A335" s="4" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B335" s="4"/>
       <c r="C335" s="4" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
@@ -12912,7 +12915,7 @@
     </row>
     <row r="336" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A336" s="4" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -12941,7 +12944,7 @@
     </row>
     <row r="337" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A337" s="4" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -12970,11 +12973,11 @@
     </row>
     <row r="338" spans="1:25" ht="364" x14ac:dyDescent="0.15">
       <c r="A338" s="4" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B338" s="4"/>
       <c r="C338" s="4" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
@@ -13001,7 +13004,7 @@
     </row>
     <row r="339" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A339" s="4" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -13030,11 +13033,11 @@
     </row>
     <row r="340" spans="1:25" ht="364" x14ac:dyDescent="0.15">
       <c r="A340" s="4" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B340" s="4"/>
       <c r="C340" s="4" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -13061,7 +13064,7 @@
     </row>
     <row r="341" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A341" s="4" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -13090,10 +13093,10 @@
     </row>
     <row r="342" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A342" s="4" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C342" s="4"/>
       <c r="D342" s="3"/>
@@ -13121,7 +13124,7 @@
     </row>
     <row r="343" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A343" s="4" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -13150,7 +13153,7 @@
     </row>
     <row r="344" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A344" s="4" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -13179,7 +13182,7 @@
     </row>
     <row r="345" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A345" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -13208,11 +13211,11 @@
     </row>
     <row r="346" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A346" s="4" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B346" s="4"/>
       <c r="C346" s="4" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
@@ -13239,11 +13242,11 @@
     </row>
     <row r="347" spans="1:25" ht="390" x14ac:dyDescent="0.15">
       <c r="A347" s="4" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B347" s="4"/>
       <c r="C347" s="4" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
@@ -13270,10 +13273,10 @@
     </row>
     <row r="348" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A348" s="4" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C348" s="4"/>
       <c r="D348" s="3"/>
@@ -13301,11 +13304,11 @@
     </row>
     <row r="349" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A349" s="4" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B349" s="4"/>
       <c r="C349" s="4" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
@@ -13332,7 +13335,7 @@
     </row>
     <row r="350" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A350" s="4" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -13361,11 +13364,11 @@
     </row>
     <row r="351" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A351" s="4" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B351" s="4"/>
       <c r="C351" s="4" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
@@ -13392,7 +13395,7 @@
     </row>
     <row r="352" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A352" s="4" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -13421,11 +13424,11 @@
     </row>
     <row r="353" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A353" s="4" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B353" s="4"/>
       <c r="C353" s="4" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
@@ -13452,10 +13455,10 @@
     </row>
     <row r="354" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A354" s="4" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C354" s="4"/>
       <c r="D354" s="3"/>
@@ -13483,11 +13486,11 @@
     </row>
     <row r="355" spans="1:25" ht="247" x14ac:dyDescent="0.15">
       <c r="A355" s="4" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B355" s="4"/>
       <c r="C355" s="4" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
@@ -13514,11 +13517,11 @@
     </row>
     <row r="356" spans="1:25" ht="247" x14ac:dyDescent="0.15">
       <c r="A356" s="4" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B356" s="4"/>
       <c r="C356" s="4" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
@@ -13545,7 +13548,7 @@
     </row>
     <row r="357" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A357" s="4" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -13574,10 +13577,10 @@
     </row>
     <row r="358" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A358" s="4" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C358" s="4"/>
       <c r="D358" s="3"/>
@@ -13605,7 +13608,7 @@
     </row>
     <row r="359" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A359" s="4" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -13634,7 +13637,7 @@
     </row>
     <row r="360" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A360" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -13663,7 +13666,7 @@
     </row>
     <row r="361" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A361" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -13692,10 +13695,10 @@
     </row>
     <row r="362" spans="1:25" ht="247" x14ac:dyDescent="0.15">
       <c r="A362" s="4" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C362" s="4"/>
       <c r="D362" s="3"/>
@@ -13723,10 +13726,10 @@
     </row>
     <row r="363" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A363" s="4" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C363" s="4"/>
       <c r="D363" s="3"/>
@@ -13754,10 +13757,10 @@
     </row>
     <row r="364" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A364" s="4" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C364" s="4"/>
       <c r="D364" s="3"/>
@@ -13785,11 +13788,11 @@
     </row>
     <row r="365" spans="1:25" ht="338" x14ac:dyDescent="0.15">
       <c r="A365" s="4" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B365" s="4"/>
       <c r="C365" s="4" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
@@ -13816,7 +13819,7 @@
     </row>
     <row r="366" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A366" s="4" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -13845,7 +13848,7 @@
     </row>
     <row r="367" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A367" s="4" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -13874,7 +13877,7 @@
     </row>
     <row r="368" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A368" s="4" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -13903,7 +13906,7 @@
     </row>
     <row r="369" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A369" s="4" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -13932,11 +13935,11 @@
     </row>
     <row r="370" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A370" s="4" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B370" s="4"/>
       <c r="C370" s="4" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
@@ -13963,7 +13966,7 @@
     </row>
     <row r="371" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A371" s="4" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -13992,10 +13995,10 @@
     </row>
     <row r="372" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A372" s="4" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C372" s="4"/>
       <c r="D372" s="3"/>
@@ -14023,7 +14026,7 @@
     </row>
     <row r="373" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A373" s="4" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -14052,7 +14055,7 @@
     </row>
     <row r="374" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A374" s="4" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -14081,7 +14084,7 @@
     </row>
     <row r="375" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A375" s="4" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -14110,10 +14113,10 @@
     </row>
     <row r="376" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A376" s="4" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C376" s="4"/>
       <c r="D376" s="3"/>
@@ -14141,10 +14144,10 @@
     </row>
     <row r="377" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A377" s="4" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C377" s="4"/>
       <c r="D377" s="3"/>
@@ -14172,10 +14175,10 @@
     </row>
     <row r="378" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A378" s="4" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C378" s="4"/>
       <c r="D378" s="3"/>
@@ -14203,11 +14206,11 @@
     </row>
     <row r="379" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A379" s="4" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B379" s="4"/>
       <c r="C379" s="4" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
@@ -14234,13 +14237,13 @@
     </row>
     <row r="380" spans="1:25" ht="325" x14ac:dyDescent="0.15">
       <c r="A380" s="4" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
@@ -14267,11 +14270,11 @@
     </row>
     <row r="381" spans="1:25" ht="364" x14ac:dyDescent="0.15">
       <c r="A381" s="4" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B381" s="4"/>
       <c r="C381" s="4" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
@@ -14298,7 +14301,7 @@
     </row>
     <row r="382" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A382" s="4" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -14327,11 +14330,11 @@
     </row>
     <row r="383" spans="1:25" ht="364" x14ac:dyDescent="0.15">
       <c r="A383" s="4" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B383" s="4"/>
       <c r="C383" s="4" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
@@ -14358,11 +14361,11 @@
     </row>
     <row r="384" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A384" s="4" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B384" s="4"/>
       <c r="C384" s="4" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
@@ -14389,10 +14392,10 @@
     </row>
     <row r="385" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A385" s="4" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C385" s="4"/>
       <c r="D385" s="3"/>
@@ -14420,11 +14423,11 @@
     </row>
     <row r="386" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A386" s="4" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B386" s="4"/>
       <c r="C386" s="4" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
@@ -14451,11 +14454,11 @@
     </row>
     <row r="387" spans="1:25" ht="208" x14ac:dyDescent="0.15">
       <c r="A387" s="4" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B387" s="4"/>
       <c r="C387" s="4" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
@@ -14482,7 +14485,7 @@
     </row>
     <row r="388" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A388" s="4" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -14511,7 +14514,7 @@
     </row>
     <row r="389" spans="1:25" ht="16" x14ac:dyDescent="0.25">
       <c r="A389" s="7" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -14540,7 +14543,7 @@
     </row>
     <row r="390" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A390" s="4" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -14569,10 +14572,10 @@
     </row>
     <row r="391" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A391" s="4" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C391" s="4"/>
       <c r="D391" s="3"/>
@@ -14600,11 +14603,11 @@
     </row>
     <row r="392" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A392" s="4" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B392" s="4"/>
       <c r="C392" s="4" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
@@ -14631,11 +14634,11 @@
     </row>
     <row r="393" spans="1:25" ht="403" x14ac:dyDescent="0.15">
       <c r="A393" s="4" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B393" s="4"/>
       <c r="C393" s="4" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
@@ -14662,10 +14665,10 @@
     </row>
     <row r="394" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A394" s="4" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C394" s="4"/>
       <c r="D394" s="3"/>
@@ -14693,11 +14696,11 @@
     </row>
     <row r="395" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A395" s="4" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B395" s="4"/>
       <c r="C395" s="4" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
@@ -14724,11 +14727,11 @@
     </row>
     <row r="396" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A396" s="4" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B396" s="4"/>
       <c r="C396" s="4" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
@@ -14755,11 +14758,11 @@
     </row>
     <row r="397" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A397" s="4" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B397" s="4"/>
       <c r="C397" s="4" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
@@ -14786,10 +14789,10 @@
     </row>
     <row r="398" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A398" s="4" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C398" s="4"/>
       <c r="D398" s="3"/>
@@ -14817,7 +14820,7 @@
     </row>
     <row r="399" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A399" s="4" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -14846,11 +14849,11 @@
     </row>
     <row r="400" spans="1:25" ht="260" x14ac:dyDescent="0.15">
       <c r="A400" s="4" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B400" s="4"/>
       <c r="C400" s="4" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
@@ -14877,10 +14880,10 @@
     </row>
     <row r="401" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A401" s="4" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C401" s="4"/>
       <c r="D401" s="3"/>
@@ -14908,11 +14911,11 @@
     </row>
     <row r="402" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A402" s="4" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B402" s="4"/>
       <c r="C402" s="4" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
@@ -14939,7 +14942,7 @@
     </row>
     <row r="403" spans="1:25" ht="52" x14ac:dyDescent="0.15">
       <c r="A403" s="4" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -14968,7 +14971,7 @@
     </row>
     <row r="404" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A404" s="4" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -14997,11 +15000,11 @@
     </row>
     <row r="405" spans="1:25" ht="364" x14ac:dyDescent="0.15">
       <c r="A405" s="4" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B405" s="4"/>
       <c r="C405" s="4" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
@@ -15028,7 +15031,7 @@
     </row>
     <row r="406" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A406" s="4" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -15057,11 +15060,11 @@
     </row>
     <row r="407" spans="1:25" ht="409" x14ac:dyDescent="0.15">
       <c r="A407" s="4" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B407" s="4"/>
       <c r="C407" s="4" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
@@ -15088,7 +15091,7 @@
     </row>
     <row r="408" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A408" s="4" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -15117,7 +15120,7 @@
     </row>
     <row r="409" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A409" s="4" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -15146,7 +15149,7 @@
     </row>
     <row r="410" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A410" s="4" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -15175,7 +15178,7 @@
     </row>
     <row r="411" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A411" s="4" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -15204,10 +15207,10 @@
     </row>
     <row r="412" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A412" s="4" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C412" s="4"/>
       <c r="D412" s="3"/>
@@ -15235,7 +15238,7 @@
     </row>
     <row r="413" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A413" s="4" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -15264,7 +15267,7 @@
     </row>
     <row r="414" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A414" s="4" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -15293,7 +15296,7 @@
     </row>
     <row r="415" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A415" s="4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -15322,7 +15325,7 @@
     </row>
     <row r="416" spans="1:25" ht="78" x14ac:dyDescent="0.15">
       <c r="A416" s="4" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -15351,7 +15354,7 @@
     </row>
     <row r="417" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A417" s="4" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -15380,7 +15383,7 @@
     </row>
     <row r="418" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A418" s="4" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B418" s="4"/>
       <c r="C418" s="3"/>
@@ -15409,7 +15412,7 @@
     </row>
     <row r="419" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A419" s="4" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B419" s="4"/>
       <c r="C419" s="3"/>
@@ -15438,7 +15441,7 @@
     </row>
     <row r="420" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A420" s="4" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B420" s="4"/>
       <c r="C420" s="3"/>
@@ -15467,10 +15470,10 @@
     </row>
     <row r="421" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A421" s="4" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
